--- a/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
+++ b/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karin\Desktop\Andalusier documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\andalusier\doc\Andalusier documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
   <si>
     <t>Pagina(s)</t>
   </si>
@@ -372,12 +371,18 @@
   <si>
     <t xml:space="preserve">Als er nog opmerkingen zijn hoor ik dat graag </t>
   </si>
+  <si>
+    <t>Verkeerd begrepen</t>
+  </si>
+  <si>
+    <t>Mist nog popups</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -419,8 +424,13 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +459,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE91D63"/>
         <bgColor rgb="FFE91D63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -544,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -613,6 +641,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,6 +710,11 @@
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -978,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -989,6 +1036,7 @@
     <col min="3" max="3" width="42.140625" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1073,7 +1121,7 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="12" t="s">
@@ -1147,7 +1195,7 @@
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1222,7 +1270,9 @@
       <c r="F7" s="11"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="43" t="s">
+        <v>111</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1257,7 +1307,9 @@
       <c r="F8" s="11"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1289,7 +1341,7 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1324,7 +1376,7 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1359,7 +1411,7 @@
       <c r="E11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1547,7 +1599,7 @@
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1792,7 +1844,7 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1827,7 +1879,7 @@
       <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>

--- a/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
+++ b/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1267,7 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="43" t="s">
@@ -1564,7 +1564,7 @@
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1669,7 +1669,7 @@
       <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2276,7 +2276,7 @@
       <c r="E37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2486,7 +2486,7 @@
       <c r="E43" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="24"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>

--- a/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
+++ b/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\andalusier\doc\Andalusier documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\xampp\htdocs\andalusier\doc\Andalusier documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1039,7 @@
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1076,7 +1076,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="25"/>
@@ -1463,7 +1463,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="25"/>
@@ -1492,7 +1492,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="25"/>
@@ -1521,7 +1521,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="E20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1727,7 +1727,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>37</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>40</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="2"/>
       <c r="C27" s="25"/>
@@ -1965,7 +1965,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="25"/>
@@ -1994,7 +1994,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="25"/>
@@ -2023,7 +2023,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>43</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>45</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>46</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>48</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>49</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>50</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>52</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>54</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>56</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>58</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="E42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2474,7 +2474,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>61</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="25"/>
@@ -2538,7 +2538,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="25"/>
@@ -2567,7 +2567,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="25"/>
@@ -2596,7 +2596,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>64</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>65</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>66</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>67</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>68</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>74</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>75</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>56</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>76</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="25"/>
@@ -3076,7 +3076,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="25"/>
@@ -3105,7 +3105,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="25"/>
@@ -3134,7 +3134,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>78</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>79</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>80</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>81</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>86</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>87</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>88</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>89</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>91</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
         <v>92</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>94</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>96</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>97</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>98</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>99</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>101</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>102</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="25"/>
@@ -3789,7 +3789,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="25"/>
@@ -3818,7 +3818,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="25"/>
@@ -3847,7 +3847,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>103</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
         <v>104</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
         <v>28</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
         <v>31</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="25"/>
@@ -4039,7 +4039,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>21</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
         <v>28</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>31</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4231,7 +4231,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
         <v>42</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
         <v>24</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
         <v>8</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="39" t="s">
         <v>28</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
         <v>31</v>
       </c>
@@ -4394,7 +4394,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4423,7 +4423,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
         <v>63</v>
       </c>
@@ -4454,7 +4454,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>24</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="39" t="s">
         <v>8</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
         <v>28</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="39" t="s">
         <v>31</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
@@ -4615,7 +4615,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
         <v>78</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
         <v>24</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
         <v>8</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="39" t="s">
         <v>28</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="39" t="s">
         <v>31</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -4807,7 +4807,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -4836,7 +4836,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="38" t="s">
         <v>105</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="39" t="s">
         <v>24</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="39" t="s">
         <v>8</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="39" t="s">
         <v>28</v>
       </c>
@@ -4966,7 +4966,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="39" t="s">
         <v>31</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="25"/>
       <c r="C120" s="1"/>
@@ -5028,7 +5028,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="25"/>
       <c r="C121" s="1"/>
@@ -5057,7 +5057,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="39" t="s">
         <v>108</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="39" t="s">
         <v>109</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="39" t="s">
         <v>110</v>
       </c>
@@ -5150,7 +5150,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="25"/>
       <c r="C125" s="1"/>
@@ -5179,7 +5179,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="25"/>
       <c r="C126" s="1"/>
@@ -5208,7 +5208,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="25"/>
       <c r="C127" s="1"/>
@@ -5237,7 +5237,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="25"/>
       <c r="C128" s="1"/>
@@ -5266,7 +5266,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="25"/>
       <c r="C129" s="1"/>
@@ -5295,7 +5295,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="25"/>
       <c r="C130" s="1"/>
@@ -5324,7 +5324,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="25"/>
       <c r="C131" s="1"/>
@@ -5353,7 +5353,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="25"/>
       <c r="C132" s="1"/>
@@ -5382,7 +5382,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="25"/>
       <c r="C133" s="1"/>
@@ -5411,7 +5411,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="25"/>
       <c r="C134" s="1"/>
@@ -5440,7 +5440,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="25"/>
       <c r="C135" s="1"/>
@@ -5469,7 +5469,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="25"/>
       <c r="C136" s="1"/>
@@ -5498,7 +5498,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="25"/>
       <c r="C137" s="1"/>
@@ -5527,7 +5527,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="25"/>
       <c r="C138" s="1"/>
@@ -5556,7 +5556,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="25"/>
       <c r="C139" s="1"/>
@@ -5585,7 +5585,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="25"/>
       <c r="C140" s="1"/>
@@ -5614,7 +5614,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="25"/>
       <c r="C141" s="1"/>
@@ -5643,7 +5643,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="25"/>
       <c r="C142" s="1"/>
@@ -5672,7 +5672,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="25"/>
       <c r="C143" s="1"/>
@@ -5701,7 +5701,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="25"/>
       <c r="C144" s="1"/>
@@ -5730,7 +5730,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="25"/>
       <c r="C145" s="1"/>
@@ -5759,7 +5759,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="25"/>
       <c r="C146" s="1"/>
@@ -5788,7 +5788,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="25"/>
       <c r="C147" s="1"/>
@@ -5817,7 +5817,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="25"/>
       <c r="C148" s="1"/>
@@ -5846,7 +5846,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="25"/>
       <c r="C149" s="1"/>
@@ -5875,7 +5875,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="25"/>
       <c r="C150" s="1"/>
@@ -5904,7 +5904,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="25"/>
       <c r="C151" s="1"/>
@@ -5933,7 +5933,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="25"/>
       <c r="C152" s="1"/>
@@ -5962,7 +5962,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="25"/>
       <c r="C153" s="1"/>
@@ -5991,7 +5991,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="25"/>
       <c r="C154" s="1"/>
@@ -6020,7 +6020,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="25"/>
       <c r="C155" s="1"/>
@@ -6049,7 +6049,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="25"/>
       <c r="C156" s="1"/>
@@ -6078,7 +6078,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="25"/>
       <c r="C157" s="1"/>
@@ -6107,7 +6107,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="25"/>
       <c r="C158" s="1"/>
@@ -6136,7 +6136,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="25"/>
       <c r="C159" s="1"/>
@@ -6165,7 +6165,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="25"/>
       <c r="C160" s="1"/>
@@ -6194,7 +6194,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="25"/>
       <c r="C161" s="1"/>
@@ -6223,7 +6223,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="25"/>
       <c r="C162" s="1"/>
@@ -6252,7 +6252,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="25"/>
       <c r="C163" s="1"/>
@@ -6281,7 +6281,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="25"/>
       <c r="C164" s="1"/>
@@ -6310,7 +6310,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="25"/>
       <c r="C165" s="1"/>
@@ -6339,7 +6339,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="25"/>
       <c r="C166" s="1"/>
@@ -6368,7 +6368,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="25"/>
       <c r="C167" s="1"/>
@@ -6397,7 +6397,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="25"/>
       <c r="C168" s="1"/>
@@ -6426,7 +6426,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="25"/>
       <c r="C169" s="1"/>
@@ -6455,7 +6455,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="25"/>
       <c r="C170" s="1"/>
@@ -6484,7 +6484,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="25"/>
       <c r="C171" s="1"/>
@@ -6513,7 +6513,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="25"/>
       <c r="C172" s="1"/>
@@ -6542,7 +6542,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="25"/>
       <c r="C173" s="1"/>
@@ -6571,7 +6571,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="25"/>
       <c r="C174" s="1"/>
@@ -6600,7 +6600,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="25"/>
       <c r="C175" s="1"/>
@@ -6629,7 +6629,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="25"/>
       <c r="C176" s="1"/>
@@ -6658,7 +6658,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="25"/>
       <c r="C177" s="1"/>
@@ -6687,7 +6687,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="25"/>
       <c r="C178" s="1"/>
@@ -6716,7 +6716,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="25"/>
       <c r="C179" s="1"/>
@@ -6745,7 +6745,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="25"/>
       <c r="C180" s="1"/>
@@ -6774,7 +6774,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="25"/>
       <c r="C181" s="1"/>
@@ -6803,7 +6803,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="25"/>
       <c r="C182" s="1"/>
@@ -6832,7 +6832,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="25"/>
       <c r="C183" s="1"/>
@@ -6861,7 +6861,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="25"/>
       <c r="C184" s="1"/>
@@ -6890,7 +6890,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="25"/>
       <c r="C185" s="1"/>
@@ -6919,7 +6919,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="25"/>
       <c r="C186" s="1"/>
@@ -6948,7 +6948,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="25"/>
       <c r="C187" s="1"/>
@@ -6977,7 +6977,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="25"/>
       <c r="C188" s="1"/>
@@ -7006,7 +7006,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="25"/>
       <c r="C189" s="1"/>
@@ -7035,7 +7035,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="25"/>
       <c r="C190" s="1"/>
@@ -7064,7 +7064,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="25"/>
       <c r="C191" s="1"/>
@@ -7093,7 +7093,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="25"/>
       <c r="C192" s="1"/>
@@ -7122,7 +7122,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="25"/>
       <c r="C193" s="1"/>
@@ -7151,7 +7151,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="25"/>
       <c r="C194" s="1"/>
@@ -7180,7 +7180,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="25"/>
       <c r="C195" s="1"/>
@@ -7209,7 +7209,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="25"/>
       <c r="C196" s="1"/>
@@ -7238,7 +7238,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="25"/>
       <c r="C197" s="1"/>
@@ -7267,7 +7267,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="25"/>
       <c r="C198" s="1"/>
@@ -7296,7 +7296,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="25"/>
       <c r="C199" s="1"/>
@@ -7325,7 +7325,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="25"/>
       <c r="C200" s="1"/>
@@ -7354,7 +7354,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="25"/>
       <c r="C201" s="1"/>
@@ -7383,7 +7383,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="25"/>
       <c r="C202" s="1"/>
@@ -7412,7 +7412,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="25"/>
       <c r="C203" s="1"/>
@@ -7441,7 +7441,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="25"/>
       <c r="C204" s="1"/>
@@ -7470,7 +7470,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="25"/>
       <c r="C205" s="1"/>
@@ -7499,7 +7499,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="25"/>
       <c r="C206" s="1"/>
@@ -7528,7 +7528,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
     </row>
-    <row r="207" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="25"/>
       <c r="C207" s="1"/>
@@ -7557,7 +7557,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
     </row>
-    <row r="208" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="25"/>
       <c r="C208" s="1"/>
@@ -7586,7 +7586,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="25"/>
       <c r="C209" s="1"/>
@@ -7615,7 +7615,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="25"/>
       <c r="C210" s="1"/>
@@ -7644,7 +7644,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="25"/>
       <c r="C211" s="1"/>
@@ -7673,7 +7673,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="25"/>
       <c r="C212" s="1"/>
@@ -7702,7 +7702,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="25"/>
       <c r="C213" s="1"/>
@@ -7731,7 +7731,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="25"/>
       <c r="C214" s="1"/>
@@ -7760,7 +7760,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="25"/>
       <c r="C215" s="1"/>
@@ -7789,7 +7789,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
     </row>
-    <row r="216" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="25"/>
       <c r="C216" s="1"/>
@@ -7818,7 +7818,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
     </row>
-    <row r="217" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="25"/>
       <c r="C217" s="1"/>
@@ -7847,7 +7847,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
     </row>
-    <row r="218" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="25"/>
       <c r="C218" s="1"/>
@@ -7876,7 +7876,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="25"/>
       <c r="C219" s="1"/>
@@ -7905,7 +7905,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="25"/>
       <c r="C220" s="1"/>
@@ -7934,7 +7934,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="25"/>
       <c r="C221" s="1"/>
@@ -7963,7 +7963,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="25"/>
       <c r="C222" s="1"/>
@@ -7992,7 +7992,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="25"/>
       <c r="C223" s="1"/>
@@ -8021,7 +8021,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
     </row>
-    <row r="224" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="25"/>
       <c r="C224" s="1"/>
@@ -8050,7 +8050,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="25"/>
       <c r="C225" s="1"/>
@@ -8079,7 +8079,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="25"/>
       <c r="C226" s="1"/>
@@ -8108,7 +8108,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="25"/>
       <c r="C227" s="1"/>
@@ -8137,7 +8137,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="25"/>
       <c r="C228" s="1"/>
@@ -8166,7 +8166,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="25"/>
       <c r="C229" s="1"/>
@@ -8195,7 +8195,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="25"/>
       <c r="C230" s="1"/>
@@ -8224,7 +8224,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="25"/>
       <c r="C231" s="1"/>
@@ -8253,7 +8253,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="25"/>
       <c r="C232" s="1"/>
@@ -8282,7 +8282,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
     </row>
-    <row r="233" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="25"/>
       <c r="C233" s="1"/>
@@ -8311,7 +8311,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="25"/>
       <c r="C234" s="1"/>
@@ -8340,7 +8340,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="25"/>
       <c r="C235" s="1"/>
@@ -8369,7 +8369,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
     </row>
-    <row r="236" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="25"/>
       <c r="C236" s="1"/>
@@ -8398,7 +8398,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="25"/>
       <c r="C237" s="1"/>
@@ -8427,7 +8427,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="25"/>
       <c r="C238" s="1"/>
@@ -8456,7 +8456,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="25"/>
       <c r="C239" s="1"/>
@@ -8485,7 +8485,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="25"/>
       <c r="C240" s="1"/>
@@ -8514,7 +8514,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="25"/>
       <c r="C241" s="1"/>
@@ -8543,7 +8543,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="25"/>
       <c r="C242" s="1"/>
@@ -8572,7 +8572,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="25"/>
       <c r="C243" s="1"/>
@@ -8601,7 +8601,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="25"/>
       <c r="C244" s="1"/>
@@ -8630,7 +8630,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="25"/>
       <c r="C245" s="1"/>
@@ -8659,7 +8659,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="25"/>
       <c r="C246" s="1"/>
@@ -8688,7 +8688,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="25"/>
       <c r="C247" s="1"/>
@@ -8717,7 +8717,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="25"/>
       <c r="C248" s="1"/>
@@ -8746,7 +8746,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="25"/>
       <c r="C249" s="1"/>
@@ -8775,7 +8775,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="25"/>
       <c r="C250" s="1"/>
@@ -8804,7 +8804,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="25"/>
       <c r="C251" s="1"/>
@@ -8833,7 +8833,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="25"/>
       <c r="C252" s="1"/>
@@ -8862,7 +8862,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="25"/>
       <c r="C253" s="1"/>
@@ -8891,7 +8891,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="25"/>
       <c r="C254" s="1"/>
@@ -8920,7 +8920,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="25"/>
       <c r="C255" s="1"/>
@@ -8949,7 +8949,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="25"/>
       <c r="C256" s="1"/>
@@ -8978,7 +8978,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="25"/>
       <c r="C257" s="1"/>
@@ -9007,7 +9007,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="25"/>
       <c r="C258" s="1"/>
@@ -9036,7 +9036,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="25"/>
       <c r="C259" s="1"/>
@@ -9065,7 +9065,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="25"/>
       <c r="C260" s="1"/>
@@ -9094,7 +9094,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="25"/>
       <c r="C261" s="1"/>
@@ -9123,7 +9123,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="25"/>
       <c r="C262" s="1"/>
@@ -9152,7 +9152,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="25"/>
       <c r="C263" s="1"/>
@@ -9181,7 +9181,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="25"/>
       <c r="C264" s="1"/>
@@ -9210,7 +9210,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="25"/>
       <c r="C265" s="1"/>
@@ -9239,7 +9239,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="25"/>
       <c r="C266" s="1"/>
@@ -9268,7 +9268,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="25"/>
       <c r="C267" s="1"/>
@@ -9297,7 +9297,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="25"/>
       <c r="C268" s="1"/>
@@ -9326,7 +9326,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="25"/>
       <c r="C269" s="1"/>
@@ -9355,7 +9355,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="25"/>
       <c r="C270" s="1"/>
@@ -9384,7 +9384,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="25"/>
       <c r="C271" s="1"/>
@@ -9413,7 +9413,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="25"/>
       <c r="C272" s="1"/>
@@ -9442,7 +9442,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="25"/>
       <c r="C273" s="1"/>
@@ -9471,7 +9471,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="25"/>
       <c r="C274" s="1"/>
@@ -9500,7 +9500,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="25"/>
       <c r="C275" s="1"/>
@@ -9529,7 +9529,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="25"/>
       <c r="C276" s="1"/>
@@ -9558,7 +9558,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="25"/>
       <c r="C277" s="1"/>
@@ -9587,7 +9587,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="25"/>
       <c r="C278" s="1"/>
@@ -9616,7 +9616,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="25"/>
       <c r="C279" s="1"/>
@@ -9645,7 +9645,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="25"/>
       <c r="C280" s="1"/>
@@ -9674,7 +9674,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="25"/>
       <c r="C281" s="1"/>
@@ -9703,7 +9703,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="25"/>
       <c r="C282" s="1"/>
@@ -9732,7 +9732,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="25"/>
       <c r="C283" s="1"/>
@@ -9761,7 +9761,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="25"/>
       <c r="C284" s="1"/>
@@ -9790,7 +9790,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="25"/>
       <c r="C285" s="1"/>
@@ -9819,7 +9819,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="25"/>
       <c r="C286" s="1"/>
@@ -9848,7 +9848,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="25"/>
       <c r="C287" s="1"/>
@@ -9877,7 +9877,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="25"/>
       <c r="C288" s="1"/>
@@ -9906,7 +9906,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="25"/>
       <c r="C289" s="1"/>
@@ -9935,7 +9935,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="25"/>
       <c r="C290" s="1"/>
@@ -9964,7 +9964,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="25"/>
       <c r="C291" s="1"/>
@@ -9993,7 +9993,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="25"/>
       <c r="C292" s="1"/>
@@ -10022,7 +10022,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="25"/>
       <c r="C293" s="1"/>
@@ -10051,7 +10051,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="25"/>
       <c r="C294" s="1"/>
@@ -10080,7 +10080,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="25"/>
       <c r="C295" s="1"/>
@@ -10109,7 +10109,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
     </row>
-    <row r="296" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="25"/>
       <c r="C296" s="1"/>
@@ -10138,7 +10138,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="25"/>
       <c r="C297" s="1"/>
@@ -10167,7 +10167,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
     </row>
-    <row r="298" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="25"/>
       <c r="C298" s="1"/>
@@ -10196,7 +10196,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="25"/>
       <c r="C299" s="1"/>
@@ -10225,7 +10225,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="25"/>
       <c r="C300" s="1"/>
@@ -10254,7 +10254,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="25"/>
       <c r="C301" s="1"/>
@@ -10283,7 +10283,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="25"/>
       <c r="C302" s="1"/>
@@ -10312,7 +10312,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="25"/>
       <c r="C303" s="1"/>
@@ -10341,7 +10341,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="25"/>
       <c r="C304" s="1"/>
@@ -10370,7 +10370,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="25"/>
       <c r="C305" s="1"/>
@@ -10399,7 +10399,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="25"/>
       <c r="C306" s="1"/>
@@ -10428,7 +10428,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="25"/>
       <c r="C307" s="1"/>
@@ -10457,7 +10457,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="25"/>
       <c r="C308" s="1"/>
@@ -10486,7 +10486,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="25"/>
       <c r="C309" s="1"/>
@@ -10515,7 +10515,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="25"/>
       <c r="C310" s="1"/>
@@ -10544,7 +10544,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="25"/>
       <c r="C311" s="1"/>
@@ -10573,7 +10573,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="25"/>
       <c r="C312" s="1"/>
@@ -10602,7 +10602,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="25"/>
       <c r="C313" s="1"/>
@@ -10631,7 +10631,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="25"/>
       <c r="C314" s="1"/>
@@ -10660,7 +10660,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="25"/>
       <c r="C315" s="1"/>
@@ -10689,7 +10689,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="25"/>
       <c r="C316" s="1"/>
@@ -10718,7 +10718,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="25"/>
       <c r="C317" s="1"/>
@@ -10747,7 +10747,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="25"/>
       <c r="C318" s="1"/>
@@ -10776,7 +10776,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="25"/>
       <c r="C319" s="1"/>
@@ -10805,7 +10805,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="25"/>
       <c r="C320" s="1"/>
@@ -10834,7 +10834,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="25"/>
       <c r="C321" s="1"/>
@@ -10863,7 +10863,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="25"/>
       <c r="C322" s="1"/>
@@ -10892,7 +10892,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="25"/>
       <c r="C323" s="1"/>
@@ -10921,7 +10921,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="25"/>
       <c r="C324" s="1"/>
@@ -10950,7 +10950,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="25"/>
       <c r="C325" s="1"/>
@@ -10979,7 +10979,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="25"/>
       <c r="C326" s="1"/>
@@ -11008,7 +11008,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="25"/>
       <c r="C327" s="1"/>
@@ -11037,7 +11037,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="25"/>
       <c r="C328" s="1"/>
@@ -11066,7 +11066,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="25"/>
       <c r="C329" s="1"/>
@@ -11095,7 +11095,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="25"/>
       <c r="C330" s="1"/>
@@ -11124,7 +11124,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="25"/>
       <c r="C331" s="1"/>
@@ -11153,7 +11153,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="25"/>
       <c r="C332" s="1"/>
@@ -11182,7 +11182,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="25"/>
       <c r="C333" s="1"/>
@@ -11211,7 +11211,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="25"/>
       <c r="C334" s="1"/>
@@ -11240,7 +11240,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="25"/>
       <c r="C335" s="1"/>
@@ -11269,7 +11269,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="25"/>
       <c r="C336" s="1"/>
@@ -11298,7 +11298,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="25"/>
       <c r="C337" s="1"/>
@@ -11327,7 +11327,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="25"/>
       <c r="C338" s="1"/>
@@ -11356,7 +11356,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="25"/>
       <c r="C339" s="1"/>
@@ -11385,7 +11385,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="25"/>
       <c r="C340" s="1"/>
@@ -11414,7 +11414,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="25"/>
       <c r="C341" s="1"/>
@@ -11443,7 +11443,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="25"/>
       <c r="C342" s="1"/>
@@ -11472,7 +11472,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="25"/>
       <c r="C343" s="1"/>
@@ -11501,7 +11501,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="25"/>
       <c r="C344" s="1"/>
@@ -11530,7 +11530,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="25"/>
       <c r="C345" s="1"/>
@@ -11559,7 +11559,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="25"/>
       <c r="C346" s="1"/>
@@ -11588,7 +11588,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="25"/>
       <c r="C347" s="1"/>
@@ -11617,7 +11617,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="25"/>
       <c r="C348" s="1"/>
@@ -11646,7 +11646,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="25"/>
       <c r="C349" s="1"/>
@@ -11675,7 +11675,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="25"/>
       <c r="C350" s="1"/>
@@ -11704,7 +11704,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="25"/>
       <c r="C351" s="1"/>
@@ -11733,7 +11733,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="25"/>
       <c r="C352" s="1"/>
@@ -11762,7 +11762,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="25"/>
       <c r="C353" s="1"/>
@@ -11791,7 +11791,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="25"/>
       <c r="C354" s="1"/>
@@ -11820,7 +11820,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="25"/>
       <c r="C355" s="1"/>
@@ -11849,7 +11849,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="25"/>
       <c r="C356" s="1"/>
@@ -11878,7 +11878,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="25"/>
       <c r="C357" s="1"/>
@@ -11907,7 +11907,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="25"/>
       <c r="C358" s="1"/>
@@ -11936,7 +11936,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="25"/>
       <c r="C359" s="1"/>
@@ -11965,7 +11965,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="25"/>
       <c r="C360" s="1"/>
@@ -11994,7 +11994,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="25"/>
       <c r="C361" s="1"/>
@@ -12023,7 +12023,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="25"/>
       <c r="C362" s="1"/>
@@ -12052,7 +12052,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="25"/>
       <c r="C363" s="1"/>
@@ -12081,7 +12081,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="25"/>
       <c r="C364" s="1"/>
@@ -12110,7 +12110,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="25"/>
       <c r="C365" s="1"/>
@@ -12139,7 +12139,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="25"/>
       <c r="C366" s="1"/>
@@ -12168,7 +12168,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="25"/>
       <c r="C367" s="1"/>
@@ -12197,7 +12197,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="25"/>
       <c r="C368" s="1"/>
@@ -12226,7 +12226,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="25"/>
       <c r="C369" s="1"/>
@@ -12255,7 +12255,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="25"/>
       <c r="C370" s="1"/>
@@ -12284,7 +12284,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="25"/>
       <c r="C371" s="1"/>
@@ -12313,7 +12313,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="25"/>
       <c r="C372" s="1"/>
@@ -12342,7 +12342,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="25"/>
       <c r="C373" s="1"/>
@@ -12371,7 +12371,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="25"/>
       <c r="C374" s="1"/>
@@ -12400,7 +12400,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="25"/>
       <c r="C375" s="1"/>
@@ -12429,7 +12429,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="25"/>
       <c r="C376" s="1"/>
@@ -12458,7 +12458,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="25"/>
       <c r="C377" s="1"/>
@@ -12487,7 +12487,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="25"/>
       <c r="C378" s="1"/>
@@ -12516,7 +12516,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="25"/>
       <c r="C379" s="1"/>
@@ -12545,7 +12545,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="25"/>
       <c r="C380" s="1"/>
@@ -12574,7 +12574,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="25"/>
       <c r="C381" s="1"/>
@@ -12603,7 +12603,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="25"/>
       <c r="C382" s="1"/>
@@ -12632,7 +12632,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="25"/>
       <c r="C383" s="1"/>
@@ -12661,7 +12661,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="25"/>
       <c r="C384" s="1"/>
@@ -12690,7 +12690,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="25"/>
       <c r="C385" s="1"/>
@@ -12719,7 +12719,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="25"/>
       <c r="C386" s="1"/>
@@ -12748,7 +12748,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="25"/>
       <c r="C387" s="1"/>
@@ -12777,7 +12777,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="25"/>
       <c r="C388" s="1"/>
@@ -12806,7 +12806,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="25"/>
       <c r="C389" s="1"/>
@@ -12835,7 +12835,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="25"/>
       <c r="C390" s="1"/>
@@ -12864,7 +12864,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="25"/>
       <c r="C391" s="1"/>
@@ -12893,7 +12893,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="25"/>
       <c r="C392" s="1"/>
@@ -12922,7 +12922,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="25"/>
       <c r="C393" s="1"/>
@@ -12951,7 +12951,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="25"/>
       <c r="C394" s="1"/>
@@ -12980,7 +12980,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="25"/>
       <c r="C395" s="1"/>
@@ -13009,7 +13009,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="25"/>
       <c r="C396" s="1"/>
@@ -13038,7 +13038,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="25"/>
       <c r="C397" s="1"/>
@@ -13067,7 +13067,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="25"/>
       <c r="C398" s="1"/>
@@ -13096,7 +13096,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="25"/>
       <c r="C399" s="1"/>
@@ -13125,7 +13125,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="25"/>
       <c r="C400" s="1"/>
@@ -13154,7 +13154,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="25"/>
       <c r="C401" s="1"/>
@@ -13183,7 +13183,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="25"/>
       <c r="C402" s="1"/>
@@ -13212,7 +13212,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="25"/>
       <c r="C403" s="1"/>
@@ -13241,7 +13241,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="25"/>
       <c r="C404" s="1"/>
@@ -13270,7 +13270,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="25"/>
       <c r="C405" s="1"/>
@@ -13299,7 +13299,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="25"/>
       <c r="C406" s="1"/>
@@ -13328,7 +13328,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="25"/>
       <c r="C407" s="1"/>
@@ -13357,7 +13357,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="25"/>
       <c r="C408" s="1"/>
@@ -13386,7 +13386,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="25"/>
       <c r="C409" s="1"/>
@@ -13415,7 +13415,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="25"/>
       <c r="C410" s="1"/>
@@ -13444,7 +13444,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="25"/>
       <c r="C411" s="1"/>
@@ -13473,7 +13473,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="25"/>
       <c r="C412" s="1"/>
@@ -13502,7 +13502,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="25"/>
       <c r="C413" s="1"/>
@@ -13531,7 +13531,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="25"/>
       <c r="C414" s="1"/>
@@ -13560,7 +13560,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="25"/>
       <c r="C415" s="1"/>
@@ -13589,7 +13589,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="25"/>
       <c r="C416" s="1"/>
@@ -13618,7 +13618,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="25"/>
       <c r="C417" s="1"/>
@@ -13647,7 +13647,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="25"/>
       <c r="C418" s="1"/>
@@ -13676,7 +13676,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="25"/>
       <c r="C419" s="1"/>
@@ -13705,7 +13705,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="25"/>
       <c r="C420" s="1"/>
@@ -13734,7 +13734,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="25"/>
       <c r="C421" s="1"/>
@@ -13763,7 +13763,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="25"/>
       <c r="C422" s="1"/>
@@ -13792,7 +13792,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="25"/>
       <c r="C423" s="1"/>
@@ -13821,7 +13821,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="25"/>
       <c r="C424" s="1"/>
@@ -13850,7 +13850,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="25"/>
       <c r="C425" s="1"/>
@@ -13879,7 +13879,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="25"/>
       <c r="C426" s="1"/>
@@ -13908,7 +13908,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="25"/>
       <c r="C427" s="1"/>
@@ -13937,7 +13937,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="25"/>
       <c r="C428" s="1"/>
@@ -13966,7 +13966,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="25"/>
       <c r="C429" s="1"/>
@@ -13995,7 +13995,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="25"/>
       <c r="C430" s="1"/>
@@ -14024,7 +14024,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="25"/>
       <c r="C431" s="1"/>
@@ -14053,7 +14053,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="25"/>
       <c r="C432" s="1"/>
@@ -14082,7 +14082,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="25"/>
       <c r="C433" s="1"/>
@@ -14111,7 +14111,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="25"/>
       <c r="C434" s="1"/>
@@ -14140,7 +14140,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="25"/>
       <c r="C435" s="1"/>
@@ -14169,7 +14169,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="25"/>
       <c r="C436" s="1"/>
@@ -14198,7 +14198,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="25"/>
       <c r="C437" s="1"/>
@@ -14227,7 +14227,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="25"/>
       <c r="C438" s="1"/>
@@ -14256,7 +14256,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
     </row>
-    <row r="439" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="25"/>
       <c r="C439" s="1"/>
@@ -14285,7 +14285,7 @@
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
     </row>
-    <row r="440" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="25"/>
       <c r="C440" s="1"/>
@@ -14314,7 +14314,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
     </row>
-    <row r="441" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="25"/>
       <c r="C441" s="1"/>
@@ -14343,7 +14343,7 @@
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
     </row>
-    <row r="442" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="25"/>
       <c r="C442" s="1"/>
@@ -14372,7 +14372,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="25"/>
       <c r="C443" s="1"/>
@@ -14401,7 +14401,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
     </row>
-    <row r="444" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="25"/>
       <c r="C444" s="1"/>
@@ -14430,7 +14430,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
     </row>
-    <row r="445" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="25"/>
       <c r="C445" s="1"/>
@@ -14459,7 +14459,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
     </row>
-    <row r="446" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="25"/>
       <c r="C446" s="1"/>
@@ -14488,7 +14488,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
     </row>
-    <row r="447" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="25"/>
       <c r="C447" s="1"/>
@@ -14517,7 +14517,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
     </row>
-    <row r="448" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="25"/>
       <c r="C448" s="1"/>
@@ -14546,7 +14546,7 @@
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
     </row>
-    <row r="449" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="25"/>
       <c r="C449" s="1"/>
@@ -14575,7 +14575,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
     </row>
-    <row r="450" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="25"/>
       <c r="C450" s="1"/>
@@ -14604,7 +14604,7 @@
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
     </row>
-    <row r="451" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="25"/>
       <c r="C451" s="1"/>
@@ -14633,7 +14633,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
     </row>
-    <row r="452" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="25"/>
       <c r="C452" s="1"/>
@@ -14662,7 +14662,7 @@
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
     </row>
-    <row r="453" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="25"/>
       <c r="C453" s="1"/>
@@ -14691,7 +14691,7 @@
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
     </row>
-    <row r="454" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="25"/>
       <c r="C454" s="1"/>
@@ -14720,7 +14720,7 @@
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
     </row>
-    <row r="455" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="25"/>
       <c r="C455" s="1"/>
@@ -14749,7 +14749,7 @@
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
     </row>
-    <row r="456" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="25"/>
       <c r="C456" s="1"/>
@@ -14778,7 +14778,7 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
     </row>
-    <row r="457" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="25"/>
       <c r="C457" s="1"/>
@@ -14807,7 +14807,7 @@
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
     </row>
-    <row r="458" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="25"/>
       <c r="C458" s="1"/>
@@ -14836,7 +14836,7 @@
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
     </row>
-    <row r="459" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="25"/>
       <c r="C459" s="1"/>
@@ -14865,7 +14865,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="25"/>
       <c r="C460" s="1"/>
@@ -14894,7 +14894,7 @@
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
     </row>
-    <row r="461" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="25"/>
       <c r="C461" s="1"/>
@@ -14923,7 +14923,7 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
     </row>
-    <row r="462" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="25"/>
       <c r="C462" s="1"/>
@@ -14952,7 +14952,7 @@
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
     </row>
-    <row r="463" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="25"/>
       <c r="C463" s="1"/>
@@ -14981,7 +14981,7 @@
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
     </row>
-    <row r="464" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="25"/>
       <c r="C464" s="1"/>
@@ -15010,7 +15010,7 @@
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
     </row>
-    <row r="465" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="25"/>
       <c r="C465" s="1"/>
@@ -15039,7 +15039,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="25"/>
       <c r="C466" s="1"/>
@@ -15068,7 +15068,7 @@
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
     </row>
-    <row r="467" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="25"/>
       <c r="C467" s="1"/>
@@ -15097,7 +15097,7 @@
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
     </row>
-    <row r="468" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="25"/>
       <c r="C468" s="1"/>
@@ -15126,7 +15126,7 @@
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
     </row>
-    <row r="469" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="25"/>
       <c r="C469" s="1"/>
@@ -15155,7 +15155,7 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
     </row>
-    <row r="470" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="25"/>
       <c r="C470" s="1"/>
@@ -15184,7 +15184,7 @@
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
     </row>
-    <row r="471" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="25"/>
       <c r="C471" s="1"/>
@@ -15213,7 +15213,7 @@
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
     </row>
-    <row r="472" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="25"/>
       <c r="C472" s="1"/>
@@ -15242,7 +15242,7 @@
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
     </row>
-    <row r="473" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="25"/>
       <c r="C473" s="1"/>
@@ -15271,7 +15271,7 @@
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
     </row>
-    <row r="474" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="25"/>
       <c r="C474" s="1"/>
@@ -15300,7 +15300,7 @@
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
     </row>
-    <row r="475" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="25"/>
       <c r="C475" s="1"/>
@@ -15329,7 +15329,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="25"/>
       <c r="C476" s="1"/>
@@ -15358,7 +15358,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="25"/>
       <c r="C477" s="1"/>
@@ -15387,7 +15387,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="25"/>
       <c r="C478" s="1"/>
@@ -15416,7 +15416,7 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="25"/>
       <c r="C479" s="1"/>
@@ -15445,7 +15445,7 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
     </row>
-    <row r="480" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="25"/>
       <c r="C480" s="1"/>
@@ -15474,7 +15474,7 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
     </row>
-    <row r="481" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="25"/>
       <c r="C481" s="1"/>
@@ -15503,7 +15503,7 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
     </row>
-    <row r="482" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="25"/>
       <c r="C482" s="1"/>
@@ -15532,7 +15532,7 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
     </row>
-    <row r="483" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="25"/>
       <c r="C483" s="1"/>
@@ -15561,7 +15561,7 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="25"/>
       <c r="C484" s="1"/>
@@ -15590,7 +15590,7 @@
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
     </row>
-    <row r="485" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="25"/>
       <c r="C485" s="1"/>
@@ -15619,7 +15619,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
     </row>
-    <row r="486" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="25"/>
       <c r="C486" s="1"/>
@@ -15648,7 +15648,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
     </row>
-    <row r="487" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="25"/>
       <c r="C487" s="1"/>
@@ -15677,7 +15677,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
     </row>
-    <row r="488" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="25"/>
       <c r="C488" s="1"/>
@@ -15706,7 +15706,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
     </row>
-    <row r="489" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="25"/>
       <c r="C489" s="1"/>
@@ -15735,7 +15735,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
     </row>
-    <row r="490" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="25"/>
       <c r="C490" s="1"/>
@@ -15764,7 +15764,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
     </row>
-    <row r="491" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="25"/>
       <c r="C491" s="1"/>
@@ -15793,7 +15793,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
     </row>
-    <row r="492" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="25"/>
       <c r="C492" s="1"/>
@@ -15822,7 +15822,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
     </row>
-    <row r="493" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="25"/>
       <c r="C493" s="1"/>
@@ -15851,7 +15851,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
     </row>
-    <row r="494" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="25"/>
       <c r="C494" s="1"/>
@@ -15880,7 +15880,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
     </row>
-    <row r="495" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="25"/>
       <c r="C495" s="1"/>
@@ -15909,7 +15909,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
     </row>
-    <row r="496" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="25"/>
       <c r="C496" s="1"/>
@@ -15938,7 +15938,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
     </row>
-    <row r="497" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="25"/>
       <c r="C497" s="1"/>
@@ -15967,7 +15967,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
     </row>
-    <row r="498" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="25"/>
       <c r="C498" s="1"/>
@@ -15996,7 +15996,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
     </row>
-    <row r="499" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="25"/>
       <c r="C499" s="1"/>
@@ -16025,7 +16025,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
     </row>
-    <row r="500" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="25"/>
       <c r="C500" s="1"/>
@@ -16054,7 +16054,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
     </row>
-    <row r="501" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="25"/>
       <c r="C501" s="1"/>
@@ -16083,7 +16083,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
     </row>
-    <row r="502" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="25"/>
       <c r="C502" s="1"/>
@@ -16112,7 +16112,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
     </row>
-    <row r="503" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="25"/>
       <c r="C503" s="1"/>
@@ -16141,7 +16141,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
     </row>
-    <row r="504" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="25"/>
       <c r="C504" s="1"/>
@@ -16170,7 +16170,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
     </row>
-    <row r="505" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="25"/>
       <c r="C505" s="1"/>
@@ -16199,7 +16199,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
     </row>
-    <row r="506" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="25"/>
       <c r="C506" s="1"/>
@@ -16228,7 +16228,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
     </row>
-    <row r="507" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="25"/>
       <c r="C507" s="1"/>
@@ -16257,7 +16257,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
     </row>
-    <row r="508" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="25"/>
       <c r="C508" s="1"/>
@@ -16286,7 +16286,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
     </row>
-    <row r="509" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="25"/>
       <c r="C509" s="1"/>
@@ -16315,7 +16315,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
     </row>
-    <row r="510" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="25"/>
       <c r="C510" s="1"/>
@@ -16344,7 +16344,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
     </row>
-    <row r="511" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="25"/>
       <c r="C511" s="1"/>
@@ -16373,7 +16373,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
     </row>
-    <row r="512" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="25"/>
       <c r="C512" s="1"/>
@@ -16402,7 +16402,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
     </row>
-    <row r="513" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="25"/>
       <c r="C513" s="1"/>
@@ -16431,7 +16431,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
     </row>
-    <row r="514" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="25"/>
       <c r="C514" s="1"/>
@@ -16460,7 +16460,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
     </row>
-    <row r="515" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="25"/>
       <c r="C515" s="1"/>
@@ -16489,7 +16489,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
     </row>
-    <row r="516" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="25"/>
       <c r="C516" s="1"/>
@@ -16518,7 +16518,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
     </row>
-    <row r="517" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="25"/>
       <c r="C517" s="1"/>
@@ -16547,7 +16547,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
     </row>
-    <row r="518" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="25"/>
       <c r="C518" s="1"/>
@@ -16576,7 +16576,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
     </row>
-    <row r="519" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="25"/>
       <c r="C519" s="1"/>
@@ -16605,7 +16605,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
     </row>
-    <row r="520" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="25"/>
       <c r="C520" s="1"/>
@@ -16634,7 +16634,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
     </row>
-    <row r="521" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="25"/>
       <c r="C521" s="1"/>
@@ -16663,7 +16663,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
     </row>
-    <row r="522" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="25"/>
       <c r="C522" s="1"/>
@@ -16692,7 +16692,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
     </row>
-    <row r="523" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="25"/>
       <c r="C523" s="1"/>
@@ -16721,7 +16721,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
     </row>
-    <row r="524" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="25"/>
       <c r="C524" s="1"/>
@@ -16750,7 +16750,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
     </row>
-    <row r="525" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="25"/>
       <c r="C525" s="1"/>
@@ -16779,7 +16779,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
     </row>
-    <row r="526" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="25"/>
       <c r="C526" s="1"/>
@@ -16808,7 +16808,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
     </row>
-    <row r="527" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="25"/>
       <c r="C527" s="1"/>
@@ -16837,7 +16837,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
     </row>
-    <row r="528" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="25"/>
       <c r="C528" s="1"/>
@@ -16866,7 +16866,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
     </row>
-    <row r="529" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="25"/>
       <c r="C529" s="1"/>
@@ -16895,7 +16895,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
     </row>
-    <row r="530" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="25"/>
       <c r="C530" s="1"/>
@@ -16924,7 +16924,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
     </row>
-    <row r="531" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="25"/>
       <c r="C531" s="1"/>
@@ -16953,7 +16953,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
     </row>
-    <row r="532" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="25"/>
       <c r="C532" s="1"/>
@@ -16982,7 +16982,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
     </row>
-    <row r="533" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="25"/>
       <c r="C533" s="1"/>
@@ -17011,7 +17011,7 @@
       <c r="Z533" s="1"/>
       <c r="AA533" s="1"/>
     </row>
-    <row r="534" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="25"/>
       <c r="C534" s="1"/>
@@ -17040,7 +17040,7 @@
       <c r="Z534" s="1"/>
       <c r="AA534" s="1"/>
     </row>
-    <row r="535" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="25"/>
       <c r="C535" s="1"/>
@@ -17069,7 +17069,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
     </row>
-    <row r="536" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="25"/>
       <c r="C536" s="1"/>
@@ -17098,7 +17098,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
     </row>
-    <row r="537" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="25"/>
       <c r="C537" s="1"/>
@@ -17127,7 +17127,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
     </row>
-    <row r="538" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="25"/>
       <c r="C538" s="1"/>
@@ -17156,7 +17156,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
     </row>
-    <row r="539" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="25"/>
       <c r="C539" s="1"/>
@@ -17185,7 +17185,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
     </row>
-    <row r="540" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="25"/>
       <c r="C540" s="1"/>
@@ -17214,7 +17214,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
     </row>
-    <row r="541" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="25"/>
       <c r="C541" s="1"/>
@@ -17243,7 +17243,7 @@
       <c r="Z541" s="1"/>
       <c r="AA541" s="1"/>
     </row>
-    <row r="542" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="25"/>
       <c r="C542" s="1"/>
@@ -17272,7 +17272,7 @@
       <c r="Z542" s="1"/>
       <c r="AA542" s="1"/>
     </row>
-    <row r="543" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="25"/>
       <c r="C543" s="1"/>
@@ -17301,7 +17301,7 @@
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
     </row>
-    <row r="544" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="25"/>
       <c r="C544" s="1"/>
@@ -17330,7 +17330,7 @@
       <c r="Z544" s="1"/>
       <c r="AA544" s="1"/>
     </row>
-    <row r="545" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="25"/>
       <c r="C545" s="1"/>
@@ -17359,7 +17359,7 @@
       <c r="Z545" s="1"/>
       <c r="AA545" s="1"/>
     </row>
-    <row r="546" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="25"/>
       <c r="C546" s="1"/>
@@ -17388,7 +17388,7 @@
       <c r="Z546" s="1"/>
       <c r="AA546" s="1"/>
     </row>
-    <row r="547" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="25"/>
       <c r="C547" s="1"/>
@@ -17417,7 +17417,7 @@
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
     </row>
-    <row r="548" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="25"/>
       <c r="C548" s="1"/>
@@ -17446,7 +17446,7 @@
       <c r="Z548" s="1"/>
       <c r="AA548" s="1"/>
     </row>
-    <row r="549" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="25"/>
       <c r="C549" s="1"/>
@@ -17475,7 +17475,7 @@
       <c r="Z549" s="1"/>
       <c r="AA549" s="1"/>
     </row>
-    <row r="550" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="25"/>
       <c r="C550" s="1"/>
@@ -17504,7 +17504,7 @@
       <c r="Z550" s="1"/>
       <c r="AA550" s="1"/>
     </row>
-    <row r="551" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="25"/>
       <c r="C551" s="1"/>
@@ -17533,7 +17533,7 @@
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
     </row>
-    <row r="552" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="25"/>
       <c r="C552" s="1"/>
@@ -17562,7 +17562,7 @@
       <c r="Z552" s="1"/>
       <c r="AA552" s="1"/>
     </row>
-    <row r="553" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="25"/>
       <c r="C553" s="1"/>
@@ -17591,7 +17591,7 @@
       <c r="Z553" s="1"/>
       <c r="AA553" s="1"/>
     </row>
-    <row r="554" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="25"/>
       <c r="C554" s="1"/>
@@ -17620,7 +17620,7 @@
       <c r="Z554" s="1"/>
       <c r="AA554" s="1"/>
     </row>
-    <row r="555" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="25"/>
       <c r="C555" s="1"/>
@@ -17649,7 +17649,7 @@
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
     </row>
-    <row r="556" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="25"/>
       <c r="C556" s="1"/>
@@ -17678,7 +17678,7 @@
       <c r="Z556" s="1"/>
       <c r="AA556" s="1"/>
     </row>
-    <row r="557" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="25"/>
       <c r="C557" s="1"/>
@@ -17707,7 +17707,7 @@
       <c r="Z557" s="1"/>
       <c r="AA557" s="1"/>
     </row>
-    <row r="558" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="25"/>
       <c r="C558" s="1"/>
@@ -17736,7 +17736,7 @@
       <c r="Z558" s="1"/>
       <c r="AA558" s="1"/>
     </row>
-    <row r="559" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="25"/>
       <c r="C559" s="1"/>
@@ -17765,7 +17765,7 @@
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
     </row>
-    <row r="560" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="25"/>
       <c r="C560" s="1"/>
@@ -17794,7 +17794,7 @@
       <c r="Z560" s="1"/>
       <c r="AA560" s="1"/>
     </row>
-    <row r="561" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="25"/>
       <c r="C561" s="1"/>
@@ -17823,7 +17823,7 @@
       <c r="Z561" s="1"/>
       <c r="AA561" s="1"/>
     </row>
-    <row r="562" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="25"/>
       <c r="C562" s="1"/>
@@ -17852,7 +17852,7 @@
       <c r="Z562" s="1"/>
       <c r="AA562" s="1"/>
     </row>
-    <row r="563" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="25"/>
       <c r="C563" s="1"/>
@@ -17881,7 +17881,7 @@
       <c r="Z563" s="1"/>
       <c r="AA563" s="1"/>
     </row>
-    <row r="564" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="25"/>
       <c r="C564" s="1"/>
@@ -17910,7 +17910,7 @@
       <c r="Z564" s="1"/>
       <c r="AA564" s="1"/>
     </row>
-    <row r="565" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="25"/>
       <c r="C565" s="1"/>
@@ -17939,7 +17939,7 @@
       <c r="Z565" s="1"/>
       <c r="AA565" s="1"/>
     </row>
-    <row r="566" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="25"/>
       <c r="C566" s="1"/>
@@ -17968,7 +17968,7 @@
       <c r="Z566" s="1"/>
       <c r="AA566" s="1"/>
     </row>
-    <row r="567" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="25"/>
       <c r="C567" s="1"/>
@@ -17997,7 +17997,7 @@
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
     </row>
-    <row r="568" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="25"/>
       <c r="C568" s="1"/>
@@ -18026,7 +18026,7 @@
       <c r="Z568" s="1"/>
       <c r="AA568" s="1"/>
     </row>
-    <row r="569" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="25"/>
       <c r="C569" s="1"/>
@@ -18055,7 +18055,7 @@
       <c r="Z569" s="1"/>
       <c r="AA569" s="1"/>
     </row>
-    <row r="570" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="25"/>
       <c r="C570" s="1"/>
@@ -18084,7 +18084,7 @@
       <c r="Z570" s="1"/>
       <c r="AA570" s="1"/>
     </row>
-    <row r="571" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="25"/>
       <c r="C571" s="1"/>
@@ -18113,7 +18113,7 @@
       <c r="Z571" s="1"/>
       <c r="AA571" s="1"/>
     </row>
-    <row r="572" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="25"/>
       <c r="C572" s="1"/>
@@ -18142,7 +18142,7 @@
       <c r="Z572" s="1"/>
       <c r="AA572" s="1"/>
     </row>
-    <row r="573" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="25"/>
       <c r="C573" s="1"/>
@@ -18171,7 +18171,7 @@
       <c r="Z573" s="1"/>
       <c r="AA573" s="1"/>
     </row>
-    <row r="574" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="25"/>
       <c r="C574" s="1"/>
@@ -18200,7 +18200,7 @@
       <c r="Z574" s="1"/>
       <c r="AA574" s="1"/>
     </row>
-    <row r="575" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="25"/>
       <c r="C575" s="1"/>
@@ -18229,7 +18229,7 @@
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
     </row>
-    <row r="576" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="25"/>
       <c r="C576" s="1"/>
@@ -18258,7 +18258,7 @@
       <c r="Z576" s="1"/>
       <c r="AA576" s="1"/>
     </row>
-    <row r="577" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="25"/>
       <c r="C577" s="1"/>
@@ -18287,7 +18287,7 @@
       <c r="Z577" s="1"/>
       <c r="AA577" s="1"/>
     </row>
-    <row r="578" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="25"/>
       <c r="C578" s="1"/>
@@ -18316,7 +18316,7 @@
       <c r="Z578" s="1"/>
       <c r="AA578" s="1"/>
     </row>
-    <row r="579" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="25"/>
       <c r="C579" s="1"/>
@@ -18345,7 +18345,7 @@
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
     </row>
-    <row r="580" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="25"/>
       <c r="C580" s="1"/>
@@ -18374,7 +18374,7 @@
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
     </row>
-    <row r="581" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="25"/>
       <c r="C581" s="1"/>
@@ -18403,7 +18403,7 @@
       <c r="Z581" s="1"/>
       <c r="AA581" s="1"/>
     </row>
-    <row r="582" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="25"/>
       <c r="C582" s="1"/>
@@ -18432,7 +18432,7 @@
       <c r="Z582" s="1"/>
       <c r="AA582" s="1"/>
     </row>
-    <row r="583" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="25"/>
       <c r="C583" s="1"/>
@@ -18461,7 +18461,7 @@
       <c r="Z583" s="1"/>
       <c r="AA583" s="1"/>
     </row>
-    <row r="584" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="25"/>
       <c r="C584" s="1"/>
@@ -18490,7 +18490,7 @@
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
     </row>
-    <row r="585" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="25"/>
       <c r="C585" s="1"/>
@@ -18519,7 +18519,7 @@
       <c r="Z585" s="1"/>
       <c r="AA585" s="1"/>
     </row>
-    <row r="586" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="25"/>
       <c r="C586" s="1"/>
@@ -18548,7 +18548,7 @@
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
     </row>
-    <row r="587" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="25"/>
       <c r="C587" s="1"/>
@@ -18577,7 +18577,7 @@
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
     </row>
-    <row r="588" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="25"/>
       <c r="C588" s="1"/>
@@ -18606,7 +18606,7 @@
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
     </row>
-    <row r="589" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="25"/>
       <c r="C589" s="1"/>
@@ -18635,7 +18635,7 @@
       <c r="Z589" s="1"/>
       <c r="AA589" s="1"/>
     </row>
-    <row r="590" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="25"/>
       <c r="C590" s="1"/>
@@ -18664,7 +18664,7 @@
       <c r="Z590" s="1"/>
       <c r="AA590" s="1"/>
     </row>
-    <row r="591" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="25"/>
       <c r="C591" s="1"/>
@@ -18693,7 +18693,7 @@
       <c r="Z591" s="1"/>
       <c r="AA591" s="1"/>
     </row>
-    <row r="592" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="25"/>
       <c r="C592" s="1"/>
@@ -18722,7 +18722,7 @@
       <c r="Z592" s="1"/>
       <c r="AA592" s="1"/>
     </row>
-    <row r="593" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="25"/>
       <c r="C593" s="1"/>
@@ -18751,7 +18751,7 @@
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
     </row>
-    <row r="594" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="25"/>
       <c r="C594" s="1"/>
@@ -18780,7 +18780,7 @@
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
     </row>
-    <row r="595" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="25"/>
       <c r="C595" s="1"/>
@@ -18809,7 +18809,7 @@
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
     </row>
-    <row r="596" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="25"/>
       <c r="C596" s="1"/>
@@ -18838,7 +18838,7 @@
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
     </row>
-    <row r="597" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="25"/>
       <c r="C597" s="1"/>
@@ -18867,7 +18867,7 @@
       <c r="Z597" s="1"/>
       <c r="AA597" s="1"/>
     </row>
-    <row r="598" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="25"/>
       <c r="C598" s="1"/>
@@ -18896,7 +18896,7 @@
       <c r="Z598" s="1"/>
       <c r="AA598" s="1"/>
     </row>
-    <row r="599" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="25"/>
       <c r="C599" s="1"/>
@@ -18925,7 +18925,7 @@
       <c r="Z599" s="1"/>
       <c r="AA599" s="1"/>
     </row>
-    <row r="600" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="25"/>
       <c r="C600" s="1"/>
@@ -18954,7 +18954,7 @@
       <c r="Z600" s="1"/>
       <c r="AA600" s="1"/>
     </row>
-    <row r="601" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="25"/>
       <c r="C601" s="1"/>
@@ -18983,7 +18983,7 @@
       <c r="Z601" s="1"/>
       <c r="AA601" s="1"/>
     </row>
-    <row r="602" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="25"/>
       <c r="C602" s="1"/>
@@ -19012,7 +19012,7 @@
       <c r="Z602" s="1"/>
       <c r="AA602" s="1"/>
     </row>
-    <row r="603" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="25"/>
       <c r="C603" s="1"/>
@@ -19041,7 +19041,7 @@
       <c r="Z603" s="1"/>
       <c r="AA603" s="1"/>
     </row>
-    <row r="604" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="25"/>
       <c r="C604" s="1"/>
@@ -19070,7 +19070,7 @@
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
     </row>
-    <row r="605" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="25"/>
       <c r="C605" s="1"/>
@@ -19099,7 +19099,7 @@
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
     </row>
-    <row r="606" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="25"/>
       <c r="C606" s="1"/>
@@ -19128,7 +19128,7 @@
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
     </row>
-    <row r="607" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="25"/>
       <c r="C607" s="1"/>
@@ -19157,7 +19157,7 @@
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
     </row>
-    <row r="608" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="25"/>
       <c r="C608" s="1"/>
@@ -19186,7 +19186,7 @@
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
     </row>
-    <row r="609" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="25"/>
       <c r="C609" s="1"/>
@@ -19215,7 +19215,7 @@
       <c r="Z609" s="1"/>
       <c r="AA609" s="1"/>
     </row>
-    <row r="610" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="25"/>
       <c r="C610" s="1"/>
@@ -19244,7 +19244,7 @@
       <c r="Z610" s="1"/>
       <c r="AA610" s="1"/>
     </row>
-    <row r="611" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="25"/>
       <c r="C611" s="1"/>
@@ -19273,7 +19273,7 @@
       <c r="Z611" s="1"/>
       <c r="AA611" s="1"/>
     </row>
-    <row r="612" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="25"/>
       <c r="C612" s="1"/>
@@ -19302,7 +19302,7 @@
       <c r="Z612" s="1"/>
       <c r="AA612" s="1"/>
     </row>
-    <row r="613" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="25"/>
       <c r="C613" s="1"/>
@@ -19331,7 +19331,7 @@
       <c r="Z613" s="1"/>
       <c r="AA613" s="1"/>
     </row>
-    <row r="614" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="25"/>
       <c r="C614" s="1"/>
@@ -19360,7 +19360,7 @@
       <c r="Z614" s="1"/>
       <c r="AA614" s="1"/>
     </row>
-    <row r="615" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="25"/>
       <c r="C615" s="1"/>
@@ -19389,7 +19389,7 @@
       <c r="Z615" s="1"/>
       <c r="AA615" s="1"/>
     </row>
-    <row r="616" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="25"/>
       <c r="C616" s="1"/>
@@ -19418,7 +19418,7 @@
       <c r="Z616" s="1"/>
       <c r="AA616" s="1"/>
     </row>
-    <row r="617" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="25"/>
       <c r="C617" s="1"/>
@@ -19447,7 +19447,7 @@
       <c r="Z617" s="1"/>
       <c r="AA617" s="1"/>
     </row>
-    <row r="618" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="25"/>
       <c r="C618" s="1"/>
@@ -19476,7 +19476,7 @@
       <c r="Z618" s="1"/>
       <c r="AA618" s="1"/>
     </row>
-    <row r="619" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="25"/>
       <c r="C619" s="1"/>
@@ -19505,7 +19505,7 @@
       <c r="Z619" s="1"/>
       <c r="AA619" s="1"/>
     </row>
-    <row r="620" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="25"/>
       <c r="C620" s="1"/>
@@ -19534,7 +19534,7 @@
       <c r="Z620" s="1"/>
       <c r="AA620" s="1"/>
     </row>
-    <row r="621" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="25"/>
       <c r="C621" s="1"/>
@@ -19563,7 +19563,7 @@
       <c r="Z621" s="1"/>
       <c r="AA621" s="1"/>
     </row>
-    <row r="622" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="25"/>
       <c r="C622" s="1"/>
@@ -19592,7 +19592,7 @@
       <c r="Z622" s="1"/>
       <c r="AA622" s="1"/>
     </row>
-    <row r="623" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="25"/>
       <c r="C623" s="1"/>
@@ -19621,7 +19621,7 @@
       <c r="Z623" s="1"/>
       <c r="AA623" s="1"/>
     </row>
-    <row r="624" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="25"/>
       <c r="C624" s="1"/>
@@ -19650,7 +19650,7 @@
       <c r="Z624" s="1"/>
       <c r="AA624" s="1"/>
     </row>
-    <row r="625" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="25"/>
       <c r="C625" s="1"/>
@@ -19679,7 +19679,7 @@
       <c r="Z625" s="1"/>
       <c r="AA625" s="1"/>
     </row>
-    <row r="626" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="25"/>
       <c r="C626" s="1"/>
@@ -19708,7 +19708,7 @@
       <c r="Z626" s="1"/>
       <c r="AA626" s="1"/>
     </row>
-    <row r="627" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="25"/>
       <c r="C627" s="1"/>
@@ -19737,7 +19737,7 @@
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
     </row>
-    <row r="628" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="25"/>
       <c r="C628" s="1"/>
@@ -19766,7 +19766,7 @@
       <c r="Z628" s="1"/>
       <c r="AA628" s="1"/>
     </row>
-    <row r="629" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="25"/>
       <c r="C629" s="1"/>
@@ -19795,7 +19795,7 @@
       <c r="Z629" s="1"/>
       <c r="AA629" s="1"/>
     </row>
-    <row r="630" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="25"/>
       <c r="C630" s="1"/>
@@ -19824,7 +19824,7 @@
       <c r="Z630" s="1"/>
       <c r="AA630" s="1"/>
     </row>
-    <row r="631" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="25"/>
       <c r="C631" s="1"/>
@@ -19853,7 +19853,7 @@
       <c r="Z631" s="1"/>
       <c r="AA631" s="1"/>
     </row>
-    <row r="632" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="25"/>
       <c r="C632" s="1"/>
@@ -19882,7 +19882,7 @@
       <c r="Z632" s="1"/>
       <c r="AA632" s="1"/>
     </row>
-    <row r="633" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="25"/>
       <c r="C633" s="1"/>
@@ -19911,7 +19911,7 @@
       <c r="Z633" s="1"/>
       <c r="AA633" s="1"/>
     </row>
-    <row r="634" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="25"/>
       <c r="C634" s="1"/>
@@ -19940,7 +19940,7 @@
       <c r="Z634" s="1"/>
       <c r="AA634" s="1"/>
     </row>
-    <row r="635" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="25"/>
       <c r="C635" s="1"/>
@@ -19969,7 +19969,7 @@
       <c r="Z635" s="1"/>
       <c r="AA635" s="1"/>
     </row>
-    <row r="636" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="25"/>
       <c r="C636" s="1"/>
@@ -19998,7 +19998,7 @@
       <c r="Z636" s="1"/>
       <c r="AA636" s="1"/>
     </row>
-    <row r="637" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="25"/>
       <c r="C637" s="1"/>
@@ -20027,7 +20027,7 @@
       <c r="Z637" s="1"/>
       <c r="AA637" s="1"/>
     </row>
-    <row r="638" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="25"/>
       <c r="C638" s="1"/>
@@ -20056,7 +20056,7 @@
       <c r="Z638" s="1"/>
       <c r="AA638" s="1"/>
     </row>
-    <row r="639" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="25"/>
       <c r="C639" s="1"/>
@@ -20085,7 +20085,7 @@
       <c r="Z639" s="1"/>
       <c r="AA639" s="1"/>
     </row>
-    <row r="640" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="25"/>
       <c r="C640" s="1"/>
@@ -20114,7 +20114,7 @@
       <c r="Z640" s="1"/>
       <c r="AA640" s="1"/>
     </row>
-    <row r="641" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="25"/>
       <c r="C641" s="1"/>
@@ -20143,7 +20143,7 @@
       <c r="Z641" s="1"/>
       <c r="AA641" s="1"/>
     </row>
-    <row r="642" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="25"/>
       <c r="C642" s="1"/>
@@ -20172,7 +20172,7 @@
       <c r="Z642" s="1"/>
       <c r="AA642" s="1"/>
     </row>
-    <row r="643" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="25"/>
       <c r="C643" s="1"/>
@@ -20201,7 +20201,7 @@
       <c r="Z643" s="1"/>
       <c r="AA643" s="1"/>
     </row>
-    <row r="644" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="25"/>
       <c r="C644" s="1"/>
@@ -20230,7 +20230,7 @@
       <c r="Z644" s="1"/>
       <c r="AA644" s="1"/>
     </row>
-    <row r="645" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="25"/>
       <c r="C645" s="1"/>
@@ -20259,7 +20259,7 @@
       <c r="Z645" s="1"/>
       <c r="AA645" s="1"/>
     </row>
-    <row r="646" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="25"/>
       <c r="C646" s="1"/>
@@ -20288,7 +20288,7 @@
       <c r="Z646" s="1"/>
       <c r="AA646" s="1"/>
     </row>
-    <row r="647" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="25"/>
       <c r="C647" s="1"/>
@@ -20317,7 +20317,7 @@
       <c r="Z647" s="1"/>
       <c r="AA647" s="1"/>
     </row>
-    <row r="648" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="25"/>
       <c r="C648" s="1"/>
@@ -20346,7 +20346,7 @@
       <c r="Z648" s="1"/>
       <c r="AA648" s="1"/>
     </row>
-    <row r="649" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="25"/>
       <c r="C649" s="1"/>
@@ -20375,7 +20375,7 @@
       <c r="Z649" s="1"/>
       <c r="AA649" s="1"/>
     </row>
-    <row r="650" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="25"/>
       <c r="C650" s="1"/>
@@ -20404,7 +20404,7 @@
       <c r="Z650" s="1"/>
       <c r="AA650" s="1"/>
     </row>
-    <row r="651" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="25"/>
       <c r="C651" s="1"/>
@@ -20433,7 +20433,7 @@
       <c r="Z651" s="1"/>
       <c r="AA651" s="1"/>
     </row>
-    <row r="652" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="25"/>
       <c r="C652" s="1"/>
@@ -20462,7 +20462,7 @@
       <c r="Z652" s="1"/>
       <c r="AA652" s="1"/>
     </row>
-    <row r="653" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="25"/>
       <c r="C653" s="1"/>
@@ -20491,7 +20491,7 @@
       <c r="Z653" s="1"/>
       <c r="AA653" s="1"/>
     </row>
-    <row r="654" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="25"/>
       <c r="C654" s="1"/>
@@ -20520,7 +20520,7 @@
       <c r="Z654" s="1"/>
       <c r="AA654" s="1"/>
     </row>
-    <row r="655" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="25"/>
       <c r="C655" s="1"/>
@@ -20549,7 +20549,7 @@
       <c r="Z655" s="1"/>
       <c r="AA655" s="1"/>
     </row>
-    <row r="656" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="25"/>
       <c r="C656" s="1"/>
@@ -20578,7 +20578,7 @@
       <c r="Z656" s="1"/>
       <c r="AA656" s="1"/>
     </row>
-    <row r="657" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="25"/>
       <c r="C657" s="1"/>
@@ -20607,7 +20607,7 @@
       <c r="Z657" s="1"/>
       <c r="AA657" s="1"/>
     </row>
-    <row r="658" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="25"/>
       <c r="C658" s="1"/>
@@ -20636,7 +20636,7 @@
       <c r="Z658" s="1"/>
       <c r="AA658" s="1"/>
     </row>
-    <row r="659" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="25"/>
       <c r="C659" s="1"/>
@@ -20665,7 +20665,7 @@
       <c r="Z659" s="1"/>
       <c r="AA659" s="1"/>
     </row>
-    <row r="660" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="25"/>
       <c r="C660" s="1"/>
@@ -20694,7 +20694,7 @@
       <c r="Z660" s="1"/>
       <c r="AA660" s="1"/>
     </row>
-    <row r="661" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="25"/>
       <c r="C661" s="1"/>
@@ -20723,7 +20723,7 @@
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
     </row>
-    <row r="662" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="25"/>
       <c r="C662" s="1"/>
@@ -20752,7 +20752,7 @@
       <c r="Z662" s="1"/>
       <c r="AA662" s="1"/>
     </row>
-    <row r="663" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="25"/>
       <c r="C663" s="1"/>
@@ -20781,7 +20781,7 @@
       <c r="Z663" s="1"/>
       <c r="AA663" s="1"/>
     </row>
-    <row r="664" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="25"/>
       <c r="C664" s="1"/>
@@ -20810,7 +20810,7 @@
       <c r="Z664" s="1"/>
       <c r="AA664" s="1"/>
     </row>
-    <row r="665" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="25"/>
       <c r="C665" s="1"/>
@@ -20839,7 +20839,7 @@
       <c r="Z665" s="1"/>
       <c r="AA665" s="1"/>
     </row>
-    <row r="666" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="25"/>
       <c r="C666" s="1"/>
@@ -20868,7 +20868,7 @@
       <c r="Z666" s="1"/>
       <c r="AA666" s="1"/>
     </row>
-    <row r="667" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="25"/>
       <c r="C667" s="1"/>
@@ -20897,7 +20897,7 @@
       <c r="Z667" s="1"/>
       <c r="AA667" s="1"/>
     </row>
-    <row r="668" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="25"/>
       <c r="C668" s="1"/>
@@ -20926,7 +20926,7 @@
       <c r="Z668" s="1"/>
       <c r="AA668" s="1"/>
     </row>
-    <row r="669" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="25"/>
       <c r="C669" s="1"/>
@@ -20955,7 +20955,7 @@
       <c r="Z669" s="1"/>
       <c r="AA669" s="1"/>
     </row>
-    <row r="670" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="25"/>
       <c r="C670" s="1"/>
@@ -20984,7 +20984,7 @@
       <c r="Z670" s="1"/>
       <c r="AA670" s="1"/>
     </row>
-    <row r="671" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="25"/>
       <c r="C671" s="1"/>
@@ -21013,7 +21013,7 @@
       <c r="Z671" s="1"/>
       <c r="AA671" s="1"/>
     </row>
-    <row r="672" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="25"/>
       <c r="C672" s="1"/>
@@ -21042,7 +21042,7 @@
       <c r="Z672" s="1"/>
       <c r="AA672" s="1"/>
     </row>
-    <row r="673" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="25"/>
       <c r="C673" s="1"/>
@@ -21071,7 +21071,7 @@
       <c r="Z673" s="1"/>
       <c r="AA673" s="1"/>
     </row>
-    <row r="674" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="25"/>
       <c r="C674" s="1"/>
@@ -21100,7 +21100,7 @@
       <c r="Z674" s="1"/>
       <c r="AA674" s="1"/>
     </row>
-    <row r="675" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="25"/>
       <c r="C675" s="1"/>
@@ -21129,7 +21129,7 @@
       <c r="Z675" s="1"/>
       <c r="AA675" s="1"/>
     </row>
-    <row r="676" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="25"/>
       <c r="C676" s="1"/>
@@ -21158,7 +21158,7 @@
       <c r="Z676" s="1"/>
       <c r="AA676" s="1"/>
     </row>
-    <row r="677" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="25"/>
       <c r="C677" s="1"/>
@@ -21187,7 +21187,7 @@
       <c r="Z677" s="1"/>
       <c r="AA677" s="1"/>
     </row>
-    <row r="678" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="25"/>
       <c r="C678" s="1"/>
@@ -21216,7 +21216,7 @@
       <c r="Z678" s="1"/>
       <c r="AA678" s="1"/>
     </row>
-    <row r="679" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="25"/>
       <c r="C679" s="1"/>
@@ -21245,7 +21245,7 @@
       <c r="Z679" s="1"/>
       <c r="AA679" s="1"/>
     </row>
-    <row r="680" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="25"/>
       <c r="C680" s="1"/>
@@ -21274,7 +21274,7 @@
       <c r="Z680" s="1"/>
       <c r="AA680" s="1"/>
     </row>
-    <row r="681" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="25"/>
       <c r="C681" s="1"/>
@@ -21303,7 +21303,7 @@
       <c r="Z681" s="1"/>
       <c r="AA681" s="1"/>
     </row>
-    <row r="682" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="25"/>
       <c r="C682" s="1"/>
@@ -21332,7 +21332,7 @@
       <c r="Z682" s="1"/>
       <c r="AA682" s="1"/>
     </row>
-    <row r="683" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="25"/>
       <c r="C683" s="1"/>
@@ -21361,7 +21361,7 @@
       <c r="Z683" s="1"/>
       <c r="AA683" s="1"/>
     </row>
-    <row r="684" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="25"/>
       <c r="C684" s="1"/>
@@ -21390,7 +21390,7 @@
       <c r="Z684" s="1"/>
       <c r="AA684" s="1"/>
     </row>
-    <row r="685" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="25"/>
       <c r="C685" s="1"/>
@@ -21419,7 +21419,7 @@
       <c r="Z685" s="1"/>
       <c r="AA685" s="1"/>
     </row>
-    <row r="686" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="25"/>
       <c r="C686" s="1"/>
@@ -21448,7 +21448,7 @@
       <c r="Z686" s="1"/>
       <c r="AA686" s="1"/>
     </row>
-    <row r="687" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="25"/>
       <c r="C687" s="1"/>
@@ -21477,7 +21477,7 @@
       <c r="Z687" s="1"/>
       <c r="AA687" s="1"/>
     </row>
-    <row r="688" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="25"/>
       <c r="C688" s="1"/>
@@ -21506,7 +21506,7 @@
       <c r="Z688" s="1"/>
       <c r="AA688" s="1"/>
     </row>
-    <row r="689" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="25"/>
       <c r="C689" s="1"/>
@@ -21535,7 +21535,7 @@
       <c r="Z689" s="1"/>
       <c r="AA689" s="1"/>
     </row>
-    <row r="690" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="25"/>
       <c r="C690" s="1"/>
@@ -21564,7 +21564,7 @@
       <c r="Z690" s="1"/>
       <c r="AA690" s="1"/>
     </row>
-    <row r="691" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="25"/>
       <c r="C691" s="1"/>
@@ -21593,7 +21593,7 @@
       <c r="Z691" s="1"/>
       <c r="AA691" s="1"/>
     </row>
-    <row r="692" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="25"/>
       <c r="C692" s="1"/>
@@ -21622,7 +21622,7 @@
       <c r="Z692" s="1"/>
       <c r="AA692" s="1"/>
     </row>
-    <row r="693" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="25"/>
       <c r="C693" s="1"/>
@@ -21651,7 +21651,7 @@
       <c r="Z693" s="1"/>
       <c r="AA693" s="1"/>
     </row>
-    <row r="694" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="25"/>
       <c r="C694" s="1"/>
@@ -21680,7 +21680,7 @@
       <c r="Z694" s="1"/>
       <c r="AA694" s="1"/>
     </row>
-    <row r="695" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="25"/>
       <c r="C695" s="1"/>
@@ -21709,7 +21709,7 @@
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
     </row>
-    <row r="696" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="25"/>
       <c r="C696" s="1"/>
@@ -21738,7 +21738,7 @@
       <c r="Z696" s="1"/>
       <c r="AA696" s="1"/>
     </row>
-    <row r="697" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="25"/>
       <c r="C697" s="1"/>
@@ -21767,7 +21767,7 @@
       <c r="Z697" s="1"/>
       <c r="AA697" s="1"/>
     </row>
-    <row r="698" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="25"/>
       <c r="C698" s="1"/>
@@ -21796,7 +21796,7 @@
       <c r="Z698" s="1"/>
       <c r="AA698" s="1"/>
     </row>
-    <row r="699" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="25"/>
       <c r="C699" s="1"/>
@@ -21825,7 +21825,7 @@
       <c r="Z699" s="1"/>
       <c r="AA699" s="1"/>
     </row>
-    <row r="700" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="25"/>
       <c r="C700" s="1"/>
@@ -21854,7 +21854,7 @@
       <c r="Z700" s="1"/>
       <c r="AA700" s="1"/>
     </row>
-    <row r="701" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="25"/>
       <c r="C701" s="1"/>
@@ -21883,7 +21883,7 @@
       <c r="Z701" s="1"/>
       <c r="AA701" s="1"/>
     </row>
-    <row r="702" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="25"/>
       <c r="C702" s="1"/>
@@ -21912,7 +21912,7 @@
       <c r="Z702" s="1"/>
       <c r="AA702" s="1"/>
     </row>
-    <row r="703" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="25"/>
       <c r="C703" s="1"/>
@@ -21941,7 +21941,7 @@
       <c r="Z703" s="1"/>
       <c r="AA703" s="1"/>
     </row>
-    <row r="704" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="25"/>
       <c r="C704" s="1"/>
@@ -21970,7 +21970,7 @@
       <c r="Z704" s="1"/>
       <c r="AA704" s="1"/>
     </row>
-    <row r="705" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="25"/>
       <c r="C705" s="1"/>
@@ -21999,7 +21999,7 @@
       <c r="Z705" s="1"/>
       <c r="AA705" s="1"/>
     </row>
-    <row r="706" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="25"/>
       <c r="C706" s="1"/>
@@ -22028,7 +22028,7 @@
       <c r="Z706" s="1"/>
       <c r="AA706" s="1"/>
     </row>
-    <row r="707" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="25"/>
       <c r="C707" s="1"/>
@@ -22057,7 +22057,7 @@
       <c r="Z707" s="1"/>
       <c r="AA707" s="1"/>
     </row>
-    <row r="708" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="25"/>
       <c r="C708" s="1"/>
@@ -22086,7 +22086,7 @@
       <c r="Z708" s="1"/>
       <c r="AA708" s="1"/>
     </row>
-    <row r="709" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="25"/>
       <c r="C709" s="1"/>
@@ -22115,7 +22115,7 @@
       <c r="Z709" s="1"/>
       <c r="AA709" s="1"/>
     </row>
-    <row r="710" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="25"/>
       <c r="C710" s="1"/>
@@ -22144,7 +22144,7 @@
       <c r="Z710" s="1"/>
       <c r="AA710" s="1"/>
     </row>
-    <row r="711" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="25"/>
       <c r="C711" s="1"/>
@@ -22173,7 +22173,7 @@
       <c r="Z711" s="1"/>
       <c r="AA711" s="1"/>
     </row>
-    <row r="712" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="25"/>
       <c r="C712" s="1"/>
@@ -22202,7 +22202,7 @@
       <c r="Z712" s="1"/>
       <c r="AA712" s="1"/>
     </row>
-    <row r="713" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="25"/>
       <c r="C713" s="1"/>
@@ -22231,7 +22231,7 @@
       <c r="Z713" s="1"/>
       <c r="AA713" s="1"/>
     </row>
-    <row r="714" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="25"/>
       <c r="C714" s="1"/>
@@ -22260,7 +22260,7 @@
       <c r="Z714" s="1"/>
       <c r="AA714" s="1"/>
     </row>
-    <row r="715" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="25"/>
       <c r="C715" s="1"/>
@@ -22289,7 +22289,7 @@
       <c r="Z715" s="1"/>
       <c r="AA715" s="1"/>
     </row>
-    <row r="716" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="25"/>
       <c r="C716" s="1"/>
@@ -22318,7 +22318,7 @@
       <c r="Z716" s="1"/>
       <c r="AA716" s="1"/>
     </row>
-    <row r="717" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="25"/>
       <c r="C717" s="1"/>
@@ -22347,7 +22347,7 @@
       <c r="Z717" s="1"/>
       <c r="AA717" s="1"/>
     </row>
-    <row r="718" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="25"/>
       <c r="C718" s="1"/>
@@ -22376,7 +22376,7 @@
       <c r="Z718" s="1"/>
       <c r="AA718" s="1"/>
     </row>
-    <row r="719" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="25"/>
       <c r="C719" s="1"/>
@@ -22405,7 +22405,7 @@
       <c r="Z719" s="1"/>
       <c r="AA719" s="1"/>
     </row>
-    <row r="720" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="25"/>
       <c r="C720" s="1"/>
@@ -22434,7 +22434,7 @@
       <c r="Z720" s="1"/>
       <c r="AA720" s="1"/>
     </row>
-    <row r="721" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="25"/>
       <c r="C721" s="1"/>
@@ -22463,7 +22463,7 @@
       <c r="Z721" s="1"/>
       <c r="AA721" s="1"/>
     </row>
-    <row r="722" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="25"/>
       <c r="C722" s="1"/>
@@ -22492,7 +22492,7 @@
       <c r="Z722" s="1"/>
       <c r="AA722" s="1"/>
     </row>
-    <row r="723" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="25"/>
       <c r="C723" s="1"/>
@@ -22521,7 +22521,7 @@
       <c r="Z723" s="1"/>
       <c r="AA723" s="1"/>
     </row>
-    <row r="724" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="25"/>
       <c r="C724" s="1"/>
@@ -22550,7 +22550,7 @@
       <c r="Z724" s="1"/>
       <c r="AA724" s="1"/>
     </row>
-    <row r="725" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="25"/>
       <c r="C725" s="1"/>
@@ -22579,7 +22579,7 @@
       <c r="Z725" s="1"/>
       <c r="AA725" s="1"/>
     </row>
-    <row r="726" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="25"/>
       <c r="C726" s="1"/>
@@ -22608,7 +22608,7 @@
       <c r="Z726" s="1"/>
       <c r="AA726" s="1"/>
     </row>
-    <row r="727" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="25"/>
       <c r="C727" s="1"/>
@@ -22637,7 +22637,7 @@
       <c r="Z727" s="1"/>
       <c r="AA727" s="1"/>
     </row>
-    <row r="728" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="25"/>
       <c r="C728" s="1"/>
@@ -22666,7 +22666,7 @@
       <c r="Z728" s="1"/>
       <c r="AA728" s="1"/>
     </row>
-    <row r="729" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="25"/>
       <c r="C729" s="1"/>
@@ -22695,7 +22695,7 @@
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
     </row>
-    <row r="730" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="25"/>
       <c r="C730" s="1"/>
@@ -22724,7 +22724,7 @@
       <c r="Z730" s="1"/>
       <c r="AA730" s="1"/>
     </row>
-    <row r="731" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="25"/>
       <c r="C731" s="1"/>
@@ -22753,7 +22753,7 @@
       <c r="Z731" s="1"/>
       <c r="AA731" s="1"/>
     </row>
-    <row r="732" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="25"/>
       <c r="C732" s="1"/>
@@ -22782,7 +22782,7 @@
       <c r="Z732" s="1"/>
       <c r="AA732" s="1"/>
     </row>
-    <row r="733" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="25"/>
       <c r="C733" s="1"/>
@@ -22811,7 +22811,7 @@
       <c r="Z733" s="1"/>
       <c r="AA733" s="1"/>
     </row>
-    <row r="734" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="25"/>
       <c r="C734" s="1"/>
@@ -22840,7 +22840,7 @@
       <c r="Z734" s="1"/>
       <c r="AA734" s="1"/>
     </row>
-    <row r="735" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="25"/>
       <c r="C735" s="1"/>
@@ -22869,7 +22869,7 @@
       <c r="Z735" s="1"/>
       <c r="AA735" s="1"/>
     </row>
-    <row r="736" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="25"/>
       <c r="C736" s="1"/>
@@ -22898,7 +22898,7 @@
       <c r="Z736" s="1"/>
       <c r="AA736" s="1"/>
     </row>
-    <row r="737" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="25"/>
       <c r="C737" s="1"/>
@@ -22927,7 +22927,7 @@
       <c r="Z737" s="1"/>
       <c r="AA737" s="1"/>
     </row>
-    <row r="738" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="25"/>
       <c r="C738" s="1"/>
@@ -22956,7 +22956,7 @@
       <c r="Z738" s="1"/>
       <c r="AA738" s="1"/>
     </row>
-    <row r="739" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="25"/>
       <c r="C739" s="1"/>
@@ -22985,7 +22985,7 @@
       <c r="Z739" s="1"/>
       <c r="AA739" s="1"/>
     </row>
-    <row r="740" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="25"/>
       <c r="C740" s="1"/>
@@ -23014,7 +23014,7 @@
       <c r="Z740" s="1"/>
       <c r="AA740" s="1"/>
     </row>
-    <row r="741" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="25"/>
       <c r="C741" s="1"/>
@@ -23043,7 +23043,7 @@
       <c r="Z741" s="1"/>
       <c r="AA741" s="1"/>
     </row>
-    <row r="742" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="25"/>
       <c r="C742" s="1"/>
@@ -23072,7 +23072,7 @@
       <c r="Z742" s="1"/>
       <c r="AA742" s="1"/>
     </row>
-    <row r="743" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="25"/>
       <c r="C743" s="1"/>
@@ -23101,7 +23101,7 @@
       <c r="Z743" s="1"/>
       <c r="AA743" s="1"/>
     </row>
-    <row r="744" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="25"/>
       <c r="C744" s="1"/>
@@ -23130,7 +23130,7 @@
       <c r="Z744" s="1"/>
       <c r="AA744" s="1"/>
     </row>
-    <row r="745" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="25"/>
       <c r="C745" s="1"/>
@@ -23159,7 +23159,7 @@
       <c r="Z745" s="1"/>
       <c r="AA745" s="1"/>
     </row>
-    <row r="746" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="25"/>
       <c r="C746" s="1"/>
@@ -23188,7 +23188,7 @@
       <c r="Z746" s="1"/>
       <c r="AA746" s="1"/>
     </row>
-    <row r="747" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="25"/>
       <c r="C747" s="1"/>
@@ -23217,7 +23217,7 @@
       <c r="Z747" s="1"/>
       <c r="AA747" s="1"/>
     </row>
-    <row r="748" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="25"/>
       <c r="C748" s="1"/>
@@ -23246,7 +23246,7 @@
       <c r="Z748" s="1"/>
       <c r="AA748" s="1"/>
     </row>
-    <row r="749" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="25"/>
       <c r="C749" s="1"/>
@@ -23275,7 +23275,7 @@
       <c r="Z749" s="1"/>
       <c r="AA749" s="1"/>
     </row>
-    <row r="750" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="25"/>
       <c r="C750" s="1"/>
@@ -23304,7 +23304,7 @@
       <c r="Z750" s="1"/>
       <c r="AA750" s="1"/>
     </row>
-    <row r="751" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="25"/>
       <c r="C751" s="1"/>
@@ -23333,7 +23333,7 @@
       <c r="Z751" s="1"/>
       <c r="AA751" s="1"/>
     </row>
-    <row r="752" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="25"/>
       <c r="C752" s="1"/>
@@ -23362,7 +23362,7 @@
       <c r="Z752" s="1"/>
       <c r="AA752" s="1"/>
     </row>
-    <row r="753" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="25"/>
       <c r="C753" s="1"/>
@@ -23391,7 +23391,7 @@
       <c r="Z753" s="1"/>
       <c r="AA753" s="1"/>
     </row>
-    <row r="754" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="25"/>
       <c r="C754" s="1"/>
@@ -23420,7 +23420,7 @@
       <c r="Z754" s="1"/>
       <c r="AA754" s="1"/>
     </row>
-    <row r="755" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="25"/>
       <c r="C755" s="1"/>
@@ -23449,7 +23449,7 @@
       <c r="Z755" s="1"/>
       <c r="AA755" s="1"/>
     </row>
-    <row r="756" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="25"/>
       <c r="C756" s="1"/>
@@ -23478,7 +23478,7 @@
       <c r="Z756" s="1"/>
       <c r="AA756" s="1"/>
     </row>
-    <row r="757" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="25"/>
       <c r="C757" s="1"/>
@@ -23507,7 +23507,7 @@
       <c r="Z757" s="1"/>
       <c r="AA757" s="1"/>
     </row>
-    <row r="758" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="25"/>
       <c r="C758" s="1"/>
@@ -23536,7 +23536,7 @@
       <c r="Z758" s="1"/>
       <c r="AA758" s="1"/>
     </row>
-    <row r="759" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="25"/>
       <c r="C759" s="1"/>
@@ -23565,7 +23565,7 @@
       <c r="Z759" s="1"/>
       <c r="AA759" s="1"/>
     </row>
-    <row r="760" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="25"/>
       <c r="C760" s="1"/>
@@ -23594,7 +23594,7 @@
       <c r="Z760" s="1"/>
       <c r="AA760" s="1"/>
     </row>
-    <row r="761" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="25"/>
       <c r="C761" s="1"/>
@@ -23623,7 +23623,7 @@
       <c r="Z761" s="1"/>
       <c r="AA761" s="1"/>
     </row>
-    <row r="762" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="25"/>
       <c r="C762" s="1"/>
@@ -23652,7 +23652,7 @@
       <c r="Z762" s="1"/>
       <c r="AA762" s="1"/>
     </row>
-    <row r="763" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="25"/>
       <c r="C763" s="1"/>
@@ -23681,7 +23681,7 @@
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
     </row>
-    <row r="764" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="25"/>
       <c r="C764" s="1"/>
@@ -23710,7 +23710,7 @@
       <c r="Z764" s="1"/>
       <c r="AA764" s="1"/>
     </row>
-    <row r="765" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="25"/>
       <c r="C765" s="1"/>
@@ -23739,7 +23739,7 @@
       <c r="Z765" s="1"/>
       <c r="AA765" s="1"/>
     </row>
-    <row r="766" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="25"/>
       <c r="C766" s="1"/>
@@ -23768,7 +23768,7 @@
       <c r="Z766" s="1"/>
       <c r="AA766" s="1"/>
     </row>
-    <row r="767" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="25"/>
       <c r="C767" s="1"/>
@@ -23797,7 +23797,7 @@
       <c r="Z767" s="1"/>
       <c r="AA767" s="1"/>
     </row>
-    <row r="768" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="25"/>
       <c r="C768" s="1"/>
@@ -23826,7 +23826,7 @@
       <c r="Z768" s="1"/>
       <c r="AA768" s="1"/>
     </row>
-    <row r="769" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="25"/>
       <c r="C769" s="1"/>
@@ -23855,7 +23855,7 @@
       <c r="Z769" s="1"/>
       <c r="AA769" s="1"/>
     </row>
-    <row r="770" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="25"/>
       <c r="C770" s="1"/>
@@ -23884,7 +23884,7 @@
       <c r="Z770" s="1"/>
       <c r="AA770" s="1"/>
     </row>
-    <row r="771" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="25"/>
       <c r="C771" s="1"/>
@@ -23913,7 +23913,7 @@
       <c r="Z771" s="1"/>
       <c r="AA771" s="1"/>
     </row>
-    <row r="772" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="25"/>
       <c r="C772" s="1"/>
@@ -23942,7 +23942,7 @@
       <c r="Z772" s="1"/>
       <c r="AA772" s="1"/>
     </row>
-    <row r="773" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="25"/>
       <c r="C773" s="1"/>
@@ -23971,7 +23971,7 @@
       <c r="Z773" s="1"/>
       <c r="AA773" s="1"/>
     </row>
-    <row r="774" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="25"/>
       <c r="C774" s="1"/>
@@ -24000,7 +24000,7 @@
       <c r="Z774" s="1"/>
       <c r="AA774" s="1"/>
     </row>
-    <row r="775" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="25"/>
       <c r="C775" s="1"/>
@@ -24029,7 +24029,7 @@
       <c r="Z775" s="1"/>
       <c r="AA775" s="1"/>
     </row>
-    <row r="776" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="25"/>
       <c r="C776" s="1"/>
@@ -24058,7 +24058,7 @@
       <c r="Z776" s="1"/>
       <c r="AA776" s="1"/>
     </row>
-    <row r="777" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="25"/>
       <c r="C777" s="1"/>
@@ -24087,7 +24087,7 @@
       <c r="Z777" s="1"/>
       <c r="AA777" s="1"/>
     </row>
-    <row r="778" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="25"/>
       <c r="C778" s="1"/>
@@ -24116,7 +24116,7 @@
       <c r="Z778" s="1"/>
       <c r="AA778" s="1"/>
     </row>
-    <row r="779" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="25"/>
       <c r="C779" s="1"/>
@@ -24145,7 +24145,7 @@
       <c r="Z779" s="1"/>
       <c r="AA779" s="1"/>
     </row>
-    <row r="780" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="25"/>
       <c r="C780" s="1"/>
@@ -24174,7 +24174,7 @@
       <c r="Z780" s="1"/>
       <c r="AA780" s="1"/>
     </row>
-    <row r="781" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="25"/>
       <c r="C781" s="1"/>
@@ -24203,7 +24203,7 @@
       <c r="Z781" s="1"/>
       <c r="AA781" s="1"/>
     </row>
-    <row r="782" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="25"/>
       <c r="C782" s="1"/>
@@ -24232,7 +24232,7 @@
       <c r="Z782" s="1"/>
       <c r="AA782" s="1"/>
     </row>
-    <row r="783" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="25"/>
       <c r="C783" s="1"/>
@@ -24261,7 +24261,7 @@
       <c r="Z783" s="1"/>
       <c r="AA783" s="1"/>
     </row>
-    <row r="784" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="25"/>
       <c r="C784" s="1"/>
@@ -24290,7 +24290,7 @@
       <c r="Z784" s="1"/>
       <c r="AA784" s="1"/>
     </row>
-    <row r="785" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="25"/>
       <c r="C785" s="1"/>
@@ -24319,7 +24319,7 @@
       <c r="Z785" s="1"/>
       <c r="AA785" s="1"/>
     </row>
-    <row r="786" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="25"/>
       <c r="C786" s="1"/>
@@ -24348,7 +24348,7 @@
       <c r="Z786" s="1"/>
       <c r="AA786" s="1"/>
     </row>
-    <row r="787" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="25"/>
       <c r="C787" s="1"/>
@@ -24377,7 +24377,7 @@
       <c r="Z787" s="1"/>
       <c r="AA787" s="1"/>
     </row>
-    <row r="788" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="25"/>
       <c r="C788" s="1"/>
@@ -24406,7 +24406,7 @@
       <c r="Z788" s="1"/>
       <c r="AA788" s="1"/>
     </row>
-    <row r="789" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="25"/>
       <c r="C789" s="1"/>
@@ -24435,7 +24435,7 @@
       <c r="Z789" s="1"/>
       <c r="AA789" s="1"/>
     </row>
-    <row r="790" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="25"/>
       <c r="C790" s="1"/>
@@ -24464,7 +24464,7 @@
       <c r="Z790" s="1"/>
       <c r="AA790" s="1"/>
     </row>
-    <row r="791" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="25"/>
       <c r="C791" s="1"/>
@@ -24493,7 +24493,7 @@
       <c r="Z791" s="1"/>
       <c r="AA791" s="1"/>
     </row>
-    <row r="792" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="25"/>
       <c r="C792" s="1"/>
@@ -24522,7 +24522,7 @@
       <c r="Z792" s="1"/>
       <c r="AA792" s="1"/>
     </row>
-    <row r="793" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="25"/>
       <c r="C793" s="1"/>
@@ -24551,7 +24551,7 @@
       <c r="Z793" s="1"/>
       <c r="AA793" s="1"/>
     </row>
-    <row r="794" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="25"/>
       <c r="C794" s="1"/>
@@ -24580,7 +24580,7 @@
       <c r="Z794" s="1"/>
       <c r="AA794" s="1"/>
     </row>
-    <row r="795" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="25"/>
       <c r="C795" s="1"/>
@@ -24609,7 +24609,7 @@
       <c r="Z795" s="1"/>
       <c r="AA795" s="1"/>
     </row>
-    <row r="796" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="25"/>
       <c r="C796" s="1"/>
@@ -24638,7 +24638,7 @@
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
     </row>
-    <row r="797" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="25"/>
       <c r="C797" s="1"/>
@@ -24667,7 +24667,7 @@
       <c r="Z797" s="1"/>
       <c r="AA797" s="1"/>
     </row>
-    <row r="798" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="25"/>
       <c r="C798" s="1"/>
@@ -24696,7 +24696,7 @@
       <c r="Z798" s="1"/>
       <c r="AA798" s="1"/>
     </row>
-    <row r="799" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="25"/>
       <c r="C799" s="1"/>
@@ -24725,7 +24725,7 @@
       <c r="Z799" s="1"/>
       <c r="AA799" s="1"/>
     </row>
-    <row r="800" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="25"/>
       <c r="C800" s="1"/>
@@ -24754,7 +24754,7 @@
       <c r="Z800" s="1"/>
       <c r="AA800" s="1"/>
     </row>
-    <row r="801" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="25"/>
       <c r="C801" s="1"/>
@@ -24783,7 +24783,7 @@
       <c r="Z801" s="1"/>
       <c r="AA801" s="1"/>
     </row>
-    <row r="802" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="25"/>
       <c r="C802" s="1"/>
@@ -24812,7 +24812,7 @@
       <c r="Z802" s="1"/>
       <c r="AA802" s="1"/>
     </row>
-    <row r="803" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="25"/>
       <c r="C803" s="1"/>
@@ -24841,7 +24841,7 @@
       <c r="Z803" s="1"/>
       <c r="AA803" s="1"/>
     </row>
-    <row r="804" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="25"/>
       <c r="C804" s="1"/>
@@ -24870,7 +24870,7 @@
       <c r="Z804" s="1"/>
       <c r="AA804" s="1"/>
     </row>
-    <row r="805" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="25"/>
       <c r="C805" s="1"/>
@@ -24899,7 +24899,7 @@
       <c r="Z805" s="1"/>
       <c r="AA805" s="1"/>
     </row>
-    <row r="806" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="25"/>
       <c r="C806" s="1"/>
@@ -24928,7 +24928,7 @@
       <c r="Z806" s="1"/>
       <c r="AA806" s="1"/>
     </row>
-    <row r="807" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="25"/>
       <c r="C807" s="1"/>
@@ -24957,7 +24957,7 @@
       <c r="Z807" s="1"/>
       <c r="AA807" s="1"/>
     </row>
-    <row r="808" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="25"/>
       <c r="C808" s="1"/>
@@ -24986,7 +24986,7 @@
       <c r="Z808" s="1"/>
       <c r="AA808" s="1"/>
     </row>
-    <row r="809" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="25"/>
       <c r="C809" s="1"/>
@@ -25015,7 +25015,7 @@
       <c r="Z809" s="1"/>
       <c r="AA809" s="1"/>
     </row>
-    <row r="810" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="25"/>
       <c r="C810" s="1"/>
@@ -25044,7 +25044,7 @@
       <c r="Z810" s="1"/>
       <c r="AA810" s="1"/>
     </row>
-    <row r="811" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="25"/>
       <c r="C811" s="1"/>
@@ -25073,7 +25073,7 @@
       <c r="Z811" s="1"/>
       <c r="AA811" s="1"/>
     </row>
-    <row r="812" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="25"/>
       <c r="C812" s="1"/>
@@ -25102,7 +25102,7 @@
       <c r="Z812" s="1"/>
       <c r="AA812" s="1"/>
     </row>
-    <row r="813" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="25"/>
       <c r="C813" s="1"/>
@@ -25131,7 +25131,7 @@
       <c r="Z813" s="1"/>
       <c r="AA813" s="1"/>
     </row>
-    <row r="814" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="25"/>
       <c r="C814" s="1"/>
@@ -25160,7 +25160,7 @@
       <c r="Z814" s="1"/>
       <c r="AA814" s="1"/>
     </row>
-    <row r="815" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="25"/>
       <c r="C815" s="1"/>
@@ -25189,7 +25189,7 @@
       <c r="Z815" s="1"/>
       <c r="AA815" s="1"/>
     </row>
-    <row r="816" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="25"/>
       <c r="C816" s="1"/>
@@ -25218,7 +25218,7 @@
       <c r="Z816" s="1"/>
       <c r="AA816" s="1"/>
     </row>
-    <row r="817" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="25"/>
       <c r="C817" s="1"/>
@@ -25247,7 +25247,7 @@
       <c r="Z817" s="1"/>
       <c r="AA817" s="1"/>
     </row>
-    <row r="818" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="25"/>
       <c r="C818" s="1"/>
@@ -25276,7 +25276,7 @@
       <c r="Z818" s="1"/>
       <c r="AA818" s="1"/>
     </row>
-    <row r="819" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="25"/>
       <c r="C819" s="1"/>
@@ -25305,7 +25305,7 @@
       <c r="Z819" s="1"/>
       <c r="AA819" s="1"/>
     </row>
-    <row r="820" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="25"/>
       <c r="C820" s="1"/>
@@ -25334,7 +25334,7 @@
       <c r="Z820" s="1"/>
       <c r="AA820" s="1"/>
     </row>
-    <row r="821" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="25"/>
       <c r="C821" s="1"/>
@@ -25363,7 +25363,7 @@
       <c r="Z821" s="1"/>
       <c r="AA821" s="1"/>
     </row>
-    <row r="822" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="25"/>
       <c r="C822" s="1"/>
@@ -25392,7 +25392,7 @@
       <c r="Z822" s="1"/>
       <c r="AA822" s="1"/>
     </row>
-    <row r="823" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="25"/>
       <c r="C823" s="1"/>
@@ -25421,7 +25421,7 @@
       <c r="Z823" s="1"/>
       <c r="AA823" s="1"/>
     </row>
-    <row r="824" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="25"/>
       <c r="C824" s="1"/>
@@ -25450,7 +25450,7 @@
       <c r="Z824" s="1"/>
       <c r="AA824" s="1"/>
     </row>
-    <row r="825" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="25"/>
       <c r="C825" s="1"/>
@@ -25479,7 +25479,7 @@
       <c r="Z825" s="1"/>
       <c r="AA825" s="1"/>
     </row>
-    <row r="826" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="25"/>
       <c r="C826" s="1"/>
@@ -25508,7 +25508,7 @@
       <c r="Z826" s="1"/>
       <c r="AA826" s="1"/>
     </row>
-    <row r="827" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="25"/>
       <c r="C827" s="1"/>
@@ -25537,7 +25537,7 @@
       <c r="Z827" s="1"/>
       <c r="AA827" s="1"/>
     </row>
-    <row r="828" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="25"/>
       <c r="C828" s="1"/>
@@ -25566,7 +25566,7 @@
       <c r="Z828" s="1"/>
       <c r="AA828" s="1"/>
     </row>
-    <row r="829" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="25"/>
       <c r="C829" s="1"/>
@@ -25595,7 +25595,7 @@
       <c r="Z829" s="1"/>
       <c r="AA829" s="1"/>
     </row>
-    <row r="830" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="25"/>
       <c r="C830" s="1"/>
@@ -25624,7 +25624,7 @@
       <c r="Z830" s="1"/>
       <c r="AA830" s="1"/>
     </row>
-    <row r="831" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="25"/>
       <c r="C831" s="1"/>
@@ -25653,7 +25653,7 @@
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
     </row>
-    <row r="832" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="25"/>
       <c r="C832" s="1"/>
@@ -25682,7 +25682,7 @@
       <c r="Z832" s="1"/>
       <c r="AA832" s="1"/>
     </row>
-    <row r="833" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="25"/>
       <c r="C833" s="1"/>
@@ -25711,7 +25711,7 @@
       <c r="Z833" s="1"/>
       <c r="AA833" s="1"/>
     </row>
-    <row r="834" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="25"/>
       <c r="C834" s="1"/>
@@ -25740,7 +25740,7 @@
       <c r="Z834" s="1"/>
       <c r="AA834" s="1"/>
     </row>
-    <row r="835" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="25"/>
       <c r="C835" s="1"/>
@@ -25769,7 +25769,7 @@
       <c r="Z835" s="1"/>
       <c r="AA835" s="1"/>
     </row>
-    <row r="836" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="25"/>
       <c r="C836" s="1"/>
@@ -25798,7 +25798,7 @@
       <c r="Z836" s="1"/>
       <c r="AA836" s="1"/>
     </row>
-    <row r="837" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="25"/>
       <c r="C837" s="1"/>
@@ -25827,7 +25827,7 @@
       <c r="Z837" s="1"/>
       <c r="AA837" s="1"/>
     </row>
-    <row r="838" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="25"/>
       <c r="C838" s="1"/>
@@ -25856,7 +25856,7 @@
       <c r="Z838" s="1"/>
       <c r="AA838" s="1"/>
     </row>
-    <row r="839" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="25"/>
       <c r="C839" s="1"/>
@@ -25885,7 +25885,7 @@
       <c r="Z839" s="1"/>
       <c r="AA839" s="1"/>
     </row>
-    <row r="840" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="25"/>
       <c r="C840" s="1"/>
@@ -25914,7 +25914,7 @@
       <c r="Z840" s="1"/>
       <c r="AA840" s="1"/>
     </row>
-    <row r="841" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="25"/>
       <c r="C841" s="1"/>
@@ -25943,7 +25943,7 @@
       <c r="Z841" s="1"/>
       <c r="AA841" s="1"/>
     </row>
-    <row r="842" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="25"/>
       <c r="C842" s="1"/>
@@ -25972,7 +25972,7 @@
       <c r="Z842" s="1"/>
       <c r="AA842" s="1"/>
     </row>
-    <row r="843" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="25"/>
       <c r="C843" s="1"/>
@@ -26001,7 +26001,7 @@
       <c r="Z843" s="1"/>
       <c r="AA843" s="1"/>
     </row>
-    <row r="844" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="25"/>
       <c r="C844" s="1"/>
@@ -26030,7 +26030,7 @@
       <c r="Z844" s="1"/>
       <c r="AA844" s="1"/>
     </row>
-    <row r="845" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="25"/>
       <c r="C845" s="1"/>
@@ -26059,7 +26059,7 @@
       <c r="Z845" s="1"/>
       <c r="AA845" s="1"/>
     </row>
-    <row r="846" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="25"/>
       <c r="C846" s="1"/>
@@ -26088,7 +26088,7 @@
       <c r="Z846" s="1"/>
       <c r="AA846" s="1"/>
     </row>
-    <row r="847" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="25"/>
       <c r="C847" s="1"/>
@@ -26117,7 +26117,7 @@
       <c r="Z847" s="1"/>
       <c r="AA847" s="1"/>
     </row>
-    <row r="848" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="25"/>
       <c r="C848" s="1"/>
@@ -26146,7 +26146,7 @@
       <c r="Z848" s="1"/>
       <c r="AA848" s="1"/>
     </row>
-    <row r="849" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="25"/>
       <c r="C849" s="1"/>
@@ -26175,7 +26175,7 @@
       <c r="Z849" s="1"/>
       <c r="AA849" s="1"/>
     </row>
-    <row r="850" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="25"/>
       <c r="C850" s="1"/>
@@ -26204,7 +26204,7 @@
       <c r="Z850" s="1"/>
       <c r="AA850" s="1"/>
     </row>
-    <row r="851" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="25"/>
       <c r="C851" s="1"/>
@@ -26233,7 +26233,7 @@
       <c r="Z851" s="1"/>
       <c r="AA851" s="1"/>
     </row>
-    <row r="852" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="25"/>
       <c r="C852" s="1"/>
@@ -26262,7 +26262,7 @@
       <c r="Z852" s="1"/>
       <c r="AA852" s="1"/>
     </row>
-    <row r="853" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="25"/>
       <c r="C853" s="1"/>
@@ -26291,7 +26291,7 @@
       <c r="Z853" s="1"/>
       <c r="AA853" s="1"/>
     </row>
-    <row r="854" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="25"/>
       <c r="C854" s="1"/>
@@ -26320,7 +26320,7 @@
       <c r="Z854" s="1"/>
       <c r="AA854" s="1"/>
     </row>
-    <row r="855" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="25"/>
       <c r="C855" s="1"/>
@@ -26349,7 +26349,7 @@
       <c r="Z855" s="1"/>
       <c r="AA855" s="1"/>
     </row>
-    <row r="856" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="25"/>
       <c r="C856" s="1"/>
@@ -26378,7 +26378,7 @@
       <c r="Z856" s="1"/>
       <c r="AA856" s="1"/>
     </row>
-    <row r="857" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="25"/>
       <c r="C857" s="1"/>
@@ -26407,7 +26407,7 @@
       <c r="Z857" s="1"/>
       <c r="AA857" s="1"/>
     </row>
-    <row r="858" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="25"/>
       <c r="C858" s="1"/>
@@ -26436,7 +26436,7 @@
       <c r="Z858" s="1"/>
       <c r="AA858" s="1"/>
     </row>
-    <row r="859" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="25"/>
       <c r="C859" s="1"/>
@@ -26465,7 +26465,7 @@
       <c r="Z859" s="1"/>
       <c r="AA859" s="1"/>
     </row>
-    <row r="860" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="25"/>
       <c r="C860" s="1"/>
@@ -26494,7 +26494,7 @@
       <c r="Z860" s="1"/>
       <c r="AA860" s="1"/>
     </row>
-    <row r="861" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="25"/>
       <c r="C861" s="1"/>
@@ -26523,7 +26523,7 @@
       <c r="Z861" s="1"/>
       <c r="AA861" s="1"/>
     </row>
-    <row r="862" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="25"/>
       <c r="C862" s="1"/>
@@ -26552,7 +26552,7 @@
       <c r="Z862" s="1"/>
       <c r="AA862" s="1"/>
     </row>
-    <row r="863" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="25"/>
       <c r="C863" s="1"/>
@@ -26581,7 +26581,7 @@
       <c r="Z863" s="1"/>
       <c r="AA863" s="1"/>
     </row>
-    <row r="864" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="25"/>
       <c r="C864" s="1"/>
@@ -26610,7 +26610,7 @@
       <c r="Z864" s="1"/>
       <c r="AA864" s="1"/>
     </row>
-    <row r="865" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="25"/>
       <c r="C865" s="1"/>
@@ -26639,7 +26639,7 @@
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
     </row>
-    <row r="866" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="25"/>
       <c r="C866" s="1"/>
@@ -26668,7 +26668,7 @@
       <c r="Z866" s="1"/>
       <c r="AA866" s="1"/>
     </row>
-    <row r="867" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="25"/>
       <c r="C867" s="1"/>
@@ -26697,7 +26697,7 @@
       <c r="Z867" s="1"/>
       <c r="AA867" s="1"/>
     </row>
-    <row r="868" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="25"/>
       <c r="C868" s="1"/>
@@ -26726,7 +26726,7 @@
       <c r="Z868" s="1"/>
       <c r="AA868" s="1"/>
     </row>
-    <row r="869" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="25"/>
       <c r="C869" s="1"/>
@@ -26755,7 +26755,7 @@
       <c r="Z869" s="1"/>
       <c r="AA869" s="1"/>
     </row>
-    <row r="870" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="25"/>
       <c r="C870" s="1"/>
@@ -26784,7 +26784,7 @@
       <c r="Z870" s="1"/>
       <c r="AA870" s="1"/>
     </row>
-    <row r="871" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="25"/>
       <c r="C871" s="1"/>
@@ -26813,7 +26813,7 @@
       <c r="Z871" s="1"/>
       <c r="AA871" s="1"/>
     </row>
-    <row r="872" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="25"/>
       <c r="C872" s="1"/>
@@ -26842,7 +26842,7 @@
       <c r="Z872" s="1"/>
       <c r="AA872" s="1"/>
     </row>
-    <row r="873" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="25"/>
       <c r="C873" s="1"/>
@@ -26871,7 +26871,7 @@
       <c r="Z873" s="1"/>
       <c r="AA873" s="1"/>
     </row>
-    <row r="874" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="25"/>
       <c r="C874" s="1"/>
@@ -26900,7 +26900,7 @@
       <c r="Z874" s="1"/>
       <c r="AA874" s="1"/>
     </row>
-    <row r="875" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="25"/>
       <c r="C875" s="1"/>
@@ -26929,7 +26929,7 @@
       <c r="Z875" s="1"/>
       <c r="AA875" s="1"/>
     </row>
-    <row r="876" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="25"/>
       <c r="C876" s="1"/>
@@ -26958,7 +26958,7 @@
       <c r="Z876" s="1"/>
       <c r="AA876" s="1"/>
     </row>
-    <row r="877" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="25"/>
       <c r="C877" s="1"/>
@@ -26987,7 +26987,7 @@
       <c r="Z877" s="1"/>
       <c r="AA877" s="1"/>
     </row>
-    <row r="878" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="25"/>
       <c r="C878" s="1"/>
@@ -27016,7 +27016,7 @@
       <c r="Z878" s="1"/>
       <c r="AA878" s="1"/>
     </row>
-    <row r="879" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="25"/>
       <c r="C879" s="1"/>
@@ -27045,7 +27045,7 @@
       <c r="Z879" s="1"/>
       <c r="AA879" s="1"/>
     </row>
-    <row r="880" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="25"/>
       <c r="C880" s="1"/>
@@ -27074,7 +27074,7 @@
       <c r="Z880" s="1"/>
       <c r="AA880" s="1"/>
     </row>
-    <row r="881" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="25"/>
       <c r="C881" s="1"/>
@@ -27103,7 +27103,7 @@
       <c r="Z881" s="1"/>
       <c r="AA881" s="1"/>
     </row>
-    <row r="882" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="25"/>
       <c r="C882" s="1"/>
@@ -27132,7 +27132,7 @@
       <c r="Z882" s="1"/>
       <c r="AA882" s="1"/>
     </row>
-    <row r="883" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="25"/>
       <c r="C883" s="1"/>
@@ -27161,7 +27161,7 @@
       <c r="Z883" s="1"/>
       <c r="AA883" s="1"/>
     </row>
-    <row r="884" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="25"/>
       <c r="C884" s="1"/>
@@ -27190,7 +27190,7 @@
       <c r="Z884" s="1"/>
       <c r="AA884" s="1"/>
     </row>
-    <row r="885" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="25"/>
       <c r="C885" s="1"/>
@@ -27219,7 +27219,7 @@
       <c r="Z885" s="1"/>
       <c r="AA885" s="1"/>
     </row>
-    <row r="886" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="25"/>
       <c r="C886" s="1"/>
@@ -27248,7 +27248,7 @@
       <c r="Z886" s="1"/>
       <c r="AA886" s="1"/>
     </row>
-    <row r="887" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="25"/>
       <c r="C887" s="1"/>
@@ -27277,7 +27277,7 @@
       <c r="Z887" s="1"/>
       <c r="AA887" s="1"/>
     </row>
-    <row r="888" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="25"/>
       <c r="C888" s="1"/>
@@ -27306,7 +27306,7 @@
       <c r="Z888" s="1"/>
       <c r="AA888" s="1"/>
     </row>
-    <row r="889" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="25"/>
       <c r="C889" s="1"/>
@@ -27335,7 +27335,7 @@
       <c r="Z889" s="1"/>
       <c r="AA889" s="1"/>
     </row>
-    <row r="890" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="25"/>
       <c r="C890" s="1"/>
@@ -27364,7 +27364,7 @@
       <c r="Z890" s="1"/>
       <c r="AA890" s="1"/>
     </row>
-    <row r="891" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="25"/>
       <c r="C891" s="1"/>
@@ -27393,7 +27393,7 @@
       <c r="Z891" s="1"/>
       <c r="AA891" s="1"/>
     </row>
-    <row r="892" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="25"/>
       <c r="C892" s="1"/>
@@ -27422,7 +27422,7 @@
       <c r="Z892" s="1"/>
       <c r="AA892" s="1"/>
     </row>
-    <row r="893" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="25"/>
       <c r="C893" s="1"/>
@@ -27451,7 +27451,7 @@
       <c r="Z893" s="1"/>
       <c r="AA893" s="1"/>
     </row>
-    <row r="894" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="25"/>
       <c r="C894" s="1"/>
@@ -27480,7 +27480,7 @@
       <c r="Z894" s="1"/>
       <c r="AA894" s="1"/>
     </row>
-    <row r="895" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="25"/>
       <c r="C895" s="1"/>
@@ -27509,7 +27509,7 @@
       <c r="Z895" s="1"/>
       <c r="AA895" s="1"/>
     </row>
-    <row r="896" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="25"/>
       <c r="C896" s="1"/>
@@ -27538,7 +27538,7 @@
       <c r="Z896" s="1"/>
       <c r="AA896" s="1"/>
     </row>
-    <row r="897" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="25"/>
       <c r="C897" s="1"/>
@@ -27567,7 +27567,7 @@
       <c r="Z897" s="1"/>
       <c r="AA897" s="1"/>
     </row>
-    <row r="898" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="25"/>
       <c r="C898" s="1"/>
@@ -27596,7 +27596,7 @@
       <c r="Z898" s="1"/>
       <c r="AA898" s="1"/>
     </row>
-    <row r="899" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="25"/>
       <c r="C899" s="1"/>
@@ -27625,7 +27625,7 @@
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
     </row>
-    <row r="900" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="25"/>
       <c r="C900" s="1"/>
@@ -27654,7 +27654,7 @@
       <c r="Z900" s="1"/>
       <c r="AA900" s="1"/>
     </row>
-    <row r="901" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="25"/>
       <c r="C901" s="1"/>
@@ -27683,7 +27683,7 @@
       <c r="Z901" s="1"/>
       <c r="AA901" s="1"/>
     </row>
-    <row r="902" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="25"/>
       <c r="C902" s="1"/>
@@ -27712,7 +27712,7 @@
       <c r="Z902" s="1"/>
       <c r="AA902" s="1"/>
     </row>
-    <row r="903" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="25"/>
       <c r="C903" s="1"/>
@@ -27741,7 +27741,7 @@
       <c r="Z903" s="1"/>
       <c r="AA903" s="1"/>
     </row>
-    <row r="904" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="25"/>
       <c r="C904" s="1"/>
@@ -27770,7 +27770,7 @@
       <c r="Z904" s="1"/>
       <c r="AA904" s="1"/>
     </row>
-    <row r="905" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="25"/>
       <c r="C905" s="1"/>
@@ -27799,7 +27799,7 @@
       <c r="Z905" s="1"/>
       <c r="AA905" s="1"/>
     </row>
-    <row r="906" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="25"/>
       <c r="C906" s="1"/>
@@ -27828,7 +27828,7 @@
       <c r="Z906" s="1"/>
       <c r="AA906" s="1"/>
     </row>
-    <row r="907" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="25"/>
       <c r="C907" s="1"/>
@@ -27857,7 +27857,7 @@
       <c r="Z907" s="1"/>
       <c r="AA907" s="1"/>
     </row>
-    <row r="908" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="25"/>
       <c r="C908" s="1"/>
@@ -27886,7 +27886,7 @@
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
     </row>
-    <row r="909" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="25"/>
       <c r="C909" s="1"/>
@@ -27915,7 +27915,7 @@
       <c r="Z909" s="1"/>
       <c r="AA909" s="1"/>
     </row>
-    <row r="910" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="25"/>
       <c r="C910" s="1"/>
@@ -27944,7 +27944,7 @@
       <c r="Z910" s="1"/>
       <c r="AA910" s="1"/>
     </row>
-    <row r="911" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="25"/>
       <c r="C911" s="1"/>
@@ -27973,7 +27973,7 @@
       <c r="Z911" s="1"/>
       <c r="AA911" s="1"/>
     </row>
-    <row r="912" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="25"/>
       <c r="C912" s="1"/>
@@ -28002,7 +28002,7 @@
       <c r="Z912" s="1"/>
       <c r="AA912" s="1"/>
     </row>
-    <row r="913" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="25"/>
       <c r="C913" s="1"/>
@@ -28031,7 +28031,7 @@
       <c r="Z913" s="1"/>
       <c r="AA913" s="1"/>
     </row>
-    <row r="914" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="25"/>
       <c r="C914" s="1"/>
@@ -28060,7 +28060,7 @@
       <c r="Z914" s="1"/>
       <c r="AA914" s="1"/>
     </row>
-    <row r="915" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="25"/>
       <c r="C915" s="1"/>
@@ -28089,7 +28089,7 @@
       <c r="Z915" s="1"/>
       <c r="AA915" s="1"/>
     </row>
-    <row r="916" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="25"/>
       <c r="C916" s="1"/>
@@ -28118,7 +28118,7 @@
       <c r="Z916" s="1"/>
       <c r="AA916" s="1"/>
     </row>
-    <row r="917" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="25"/>
       <c r="C917" s="1"/>
@@ -28147,7 +28147,7 @@
       <c r="Z917" s="1"/>
       <c r="AA917" s="1"/>
     </row>
-    <row r="918" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="25"/>
       <c r="C918" s="1"/>
@@ -28176,7 +28176,7 @@
       <c r="Z918" s="1"/>
       <c r="AA918" s="1"/>
     </row>
-    <row r="919" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="25"/>
       <c r="C919" s="1"/>
@@ -28205,7 +28205,7 @@
       <c r="Z919" s="1"/>
       <c r="AA919" s="1"/>
     </row>
-    <row r="920" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="25"/>
       <c r="C920" s="1"/>
@@ -28234,7 +28234,7 @@
       <c r="Z920" s="1"/>
       <c r="AA920" s="1"/>
     </row>
-    <row r="921" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="25"/>
       <c r="C921" s="1"/>
@@ -28263,7 +28263,7 @@
       <c r="Z921" s="1"/>
       <c r="AA921" s="1"/>
     </row>
-    <row r="922" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="25"/>
       <c r="C922" s="1"/>
@@ -28292,7 +28292,7 @@
       <c r="Z922" s="1"/>
       <c r="AA922" s="1"/>
     </row>
-    <row r="923" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="25"/>
       <c r="C923" s="1"/>
@@ -28321,7 +28321,7 @@
       <c r="Z923" s="1"/>
       <c r="AA923" s="1"/>
     </row>
-    <row r="924" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="25"/>
       <c r="C924" s="1"/>
@@ -28350,7 +28350,7 @@
       <c r="Z924" s="1"/>
       <c r="AA924" s="1"/>
     </row>
-    <row r="925" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="25"/>
       <c r="C925" s="1"/>
@@ -28379,7 +28379,7 @@
       <c r="Z925" s="1"/>
       <c r="AA925" s="1"/>
     </row>
-    <row r="926" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="25"/>
       <c r="C926" s="1"/>
@@ -28408,7 +28408,7 @@
       <c r="Z926" s="1"/>
       <c r="AA926" s="1"/>
     </row>
-    <row r="927" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="25"/>
       <c r="C927" s="1"/>
@@ -28437,7 +28437,7 @@
       <c r="Z927" s="1"/>
       <c r="AA927" s="1"/>
     </row>
-    <row r="928" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="25"/>
       <c r="C928" s="1"/>
@@ -28466,7 +28466,7 @@
       <c r="Z928" s="1"/>
       <c r="AA928" s="1"/>
     </row>
-    <row r="929" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="25"/>
       <c r="C929" s="1"/>
@@ -28495,7 +28495,7 @@
       <c r="Z929" s="1"/>
       <c r="AA929" s="1"/>
     </row>
-    <row r="930" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="25"/>
       <c r="C930" s="1"/>
@@ -28524,7 +28524,7 @@
       <c r="Z930" s="1"/>
       <c r="AA930" s="1"/>
     </row>
-    <row r="931" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="25"/>
       <c r="C931" s="1"/>
@@ -28553,7 +28553,7 @@
       <c r="Z931" s="1"/>
       <c r="AA931" s="1"/>
     </row>
-    <row r="932" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="25"/>
       <c r="C932" s="1"/>
@@ -28582,7 +28582,7 @@
       <c r="Z932" s="1"/>
       <c r="AA932" s="1"/>
     </row>
-    <row r="933" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="25"/>
       <c r="C933" s="1"/>
@@ -28611,7 +28611,7 @@
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
     </row>
-    <row r="934" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="25"/>
       <c r="C934" s="1"/>
@@ -28640,7 +28640,7 @@
       <c r="Z934" s="1"/>
       <c r="AA934" s="1"/>
     </row>
-    <row r="935" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="25"/>
       <c r="C935" s="1"/>
@@ -28669,7 +28669,7 @@
       <c r="Z935" s="1"/>
       <c r="AA935" s="1"/>
     </row>
-    <row r="936" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="25"/>
       <c r="C936" s="1"/>
@@ -28698,7 +28698,7 @@
       <c r="Z936" s="1"/>
       <c r="AA936" s="1"/>
     </row>
-    <row r="937" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="25"/>
       <c r="C937" s="1"/>
@@ -28727,7 +28727,7 @@
       <c r="Z937" s="1"/>
       <c r="AA937" s="1"/>
     </row>
-    <row r="938" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="25"/>
       <c r="C938" s="1"/>
@@ -28756,7 +28756,7 @@
       <c r="Z938" s="1"/>
       <c r="AA938" s="1"/>
     </row>
-    <row r="939" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="25"/>
       <c r="C939" s="1"/>
@@ -28785,7 +28785,7 @@
       <c r="Z939" s="1"/>
       <c r="AA939" s="1"/>
     </row>
-    <row r="940" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="25"/>
       <c r="C940" s="1"/>
@@ -28814,7 +28814,7 @@
       <c r="Z940" s="1"/>
       <c r="AA940" s="1"/>
     </row>
-    <row r="941" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="25"/>
       <c r="C941" s="1"/>
@@ -28843,7 +28843,7 @@
       <c r="Z941" s="1"/>
       <c r="AA941" s="1"/>
     </row>
-    <row r="942" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="25"/>
       <c r="C942" s="1"/>
@@ -28872,7 +28872,7 @@
       <c r="Z942" s="1"/>
       <c r="AA942" s="1"/>
     </row>
-    <row r="943" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="25"/>
       <c r="C943" s="1"/>
@@ -28901,7 +28901,7 @@
       <c r="Z943" s="1"/>
       <c r="AA943" s="1"/>
     </row>
-    <row r="944" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="25"/>
       <c r="C944" s="1"/>
@@ -28930,7 +28930,7 @@
       <c r="Z944" s="1"/>
       <c r="AA944" s="1"/>
     </row>
-    <row r="945" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="25"/>
       <c r="C945" s="1"/>
@@ -28959,7 +28959,7 @@
       <c r="Z945" s="1"/>
       <c r="AA945" s="1"/>
     </row>
-    <row r="946" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="25"/>
       <c r="C946" s="1"/>
@@ -28988,7 +28988,7 @@
       <c r="Z946" s="1"/>
       <c r="AA946" s="1"/>
     </row>
-    <row r="947" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="25"/>
       <c r="C947" s="1"/>
@@ -29017,7 +29017,7 @@
       <c r="Z947" s="1"/>
       <c r="AA947" s="1"/>
     </row>
-    <row r="948" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="25"/>
       <c r="C948" s="1"/>
@@ -29046,7 +29046,7 @@
       <c r="Z948" s="1"/>
       <c r="AA948" s="1"/>
     </row>
-    <row r="949" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="25"/>
       <c r="C949" s="1"/>
@@ -29075,7 +29075,7 @@
       <c r="Z949" s="1"/>
       <c r="AA949" s="1"/>
     </row>
-    <row r="950" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="25"/>
       <c r="C950" s="1"/>
@@ -29104,7 +29104,7 @@
       <c r="Z950" s="1"/>
       <c r="AA950" s="1"/>
     </row>
-    <row r="951" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="25"/>
       <c r="C951" s="1"/>
@@ -29133,7 +29133,7 @@
       <c r="Z951" s="1"/>
       <c r="AA951" s="1"/>
     </row>
-    <row r="952" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="25"/>
       <c r="C952" s="1"/>
@@ -29162,7 +29162,7 @@
       <c r="Z952" s="1"/>
       <c r="AA952" s="1"/>
     </row>
-    <row r="953" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="25"/>
       <c r="C953" s="1"/>
@@ -29191,7 +29191,7 @@
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
     </row>
-    <row r="954" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="25"/>
       <c r="C954" s="1"/>
@@ -29220,7 +29220,7 @@
       <c r="Z954" s="1"/>
       <c r="AA954" s="1"/>
     </row>
-    <row r="955" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="25"/>
       <c r="C955" s="1"/>
@@ -29249,7 +29249,7 @@
       <c r="Z955" s="1"/>
       <c r="AA955" s="1"/>
     </row>
-    <row r="956" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="25"/>
       <c r="C956" s="1"/>
@@ -29278,7 +29278,7 @@
       <c r="Z956" s="1"/>
       <c r="AA956" s="1"/>
     </row>
-    <row r="957" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="25"/>
       <c r="C957" s="1"/>
@@ -29307,7 +29307,7 @@
       <c r="Z957" s="1"/>
       <c r="AA957" s="1"/>
     </row>
-    <row r="958" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="25"/>
       <c r="C958" s="1"/>
@@ -29336,7 +29336,7 @@
       <c r="Z958" s="1"/>
       <c r="AA958" s="1"/>
     </row>
-    <row r="959" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="25"/>
       <c r="C959" s="1"/>
@@ -29365,7 +29365,7 @@
       <c r="Z959" s="1"/>
       <c r="AA959" s="1"/>
     </row>
-    <row r="960" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="25"/>
       <c r="C960" s="1"/>
@@ -29394,7 +29394,7 @@
       <c r="Z960" s="1"/>
       <c r="AA960" s="1"/>
     </row>
-    <row r="961" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="25"/>
       <c r="C961" s="1"/>
@@ -29423,7 +29423,7 @@
       <c r="Z961" s="1"/>
       <c r="AA961" s="1"/>
     </row>
-    <row r="962" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="25"/>
       <c r="C962" s="1"/>
@@ -29452,7 +29452,7 @@
       <c r="Z962" s="1"/>
       <c r="AA962" s="1"/>
     </row>
-    <row r="963" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="25"/>
       <c r="C963" s="1"/>
@@ -29481,7 +29481,7 @@
       <c r="Z963" s="1"/>
       <c r="AA963" s="1"/>
     </row>
-    <row r="964" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="25"/>
       <c r="C964" s="1"/>
@@ -29510,7 +29510,7 @@
       <c r="Z964" s="1"/>
       <c r="AA964" s="1"/>
     </row>
-    <row r="965" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="25"/>
       <c r="C965" s="1"/>
@@ -29539,7 +29539,7 @@
       <c r="Z965" s="1"/>
       <c r="AA965" s="1"/>
     </row>
-    <row r="966" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="25"/>
       <c r="C966" s="1"/>
@@ -29568,7 +29568,7 @@
       <c r="Z966" s="1"/>
       <c r="AA966" s="1"/>
     </row>
-    <row r="967" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="25"/>
       <c r="C967" s="1"/>
@@ -29597,7 +29597,7 @@
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
     </row>
-    <row r="968" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="25"/>
       <c r="C968" s="1"/>
@@ -29626,7 +29626,7 @@
       <c r="Z968" s="1"/>
       <c r="AA968" s="1"/>
     </row>
-    <row r="969" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="25"/>
       <c r="C969" s="1"/>
@@ -29655,7 +29655,7 @@
       <c r="Z969" s="1"/>
       <c r="AA969" s="1"/>
     </row>
-    <row r="970" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="25"/>
       <c r="C970" s="1"/>
@@ -29684,7 +29684,7 @@
       <c r="Z970" s="1"/>
       <c r="AA970" s="1"/>
     </row>
-    <row r="971" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="25"/>
       <c r="C971" s="1"/>
@@ -29713,7 +29713,7 @@
       <c r="Z971" s="1"/>
       <c r="AA971" s="1"/>
     </row>
-    <row r="972" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="25"/>
       <c r="C972" s="1"/>
@@ -29742,7 +29742,7 @@
       <c r="Z972" s="1"/>
       <c r="AA972" s="1"/>
     </row>
-    <row r="973" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="25"/>
       <c r="C973" s="1"/>
@@ -29771,7 +29771,7 @@
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
     </row>
-    <row r="974" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="25"/>
       <c r="C974" s="1"/>
@@ -29800,7 +29800,7 @@
       <c r="Z974" s="1"/>
       <c r="AA974" s="1"/>
     </row>
-    <row r="975" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="25"/>
       <c r="C975" s="1"/>
@@ -29829,7 +29829,7 @@
       <c r="Z975" s="1"/>
       <c r="AA975" s="1"/>
     </row>
-    <row r="976" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="25"/>
       <c r="C976" s="1"/>
@@ -29858,7 +29858,7 @@
       <c r="Z976" s="1"/>
       <c r="AA976" s="1"/>
     </row>
-    <row r="977" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="25"/>
       <c r="C977" s="1"/>
@@ -29887,7 +29887,7 @@
       <c r="Z977" s="1"/>
       <c r="AA977" s="1"/>
     </row>
-    <row r="978" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="25"/>
       <c r="C978" s="1"/>
@@ -29916,7 +29916,7 @@
       <c r="Z978" s="1"/>
       <c r="AA978" s="1"/>
     </row>
-    <row r="979" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="25"/>
       <c r="C979" s="1"/>
@@ -29945,7 +29945,7 @@
       <c r="Z979" s="1"/>
       <c r="AA979" s="1"/>
     </row>
-    <row r="980" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="25"/>
       <c r="C980" s="1"/>
@@ -29974,7 +29974,7 @@
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
     </row>
-    <row r="981" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="25"/>
       <c r="C981" s="1"/>
@@ -30003,7 +30003,7 @@
       <c r="Z981" s="1"/>
       <c r="AA981" s="1"/>
     </row>
-    <row r="982" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="25"/>
       <c r="C982" s="1"/>
@@ -30032,7 +30032,7 @@
       <c r="Z982" s="1"/>
       <c r="AA982" s="1"/>
     </row>
-    <row r="983" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="25"/>
       <c r="C983" s="1"/>
@@ -30061,7 +30061,7 @@
       <c r="Z983" s="1"/>
       <c r="AA983" s="1"/>
     </row>
-    <row r="984" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="25"/>
       <c r="C984" s="1"/>
@@ -30090,7 +30090,7 @@
       <c r="Z984" s="1"/>
       <c r="AA984" s="1"/>
     </row>
-    <row r="985" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="25"/>
       <c r="C985" s="1"/>
@@ -30119,7 +30119,7 @@
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
     </row>
-    <row r="986" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="25"/>
       <c r="C986" s="1"/>
@@ -30148,7 +30148,7 @@
       <c r="Z986" s="1"/>
       <c r="AA986" s="1"/>
     </row>
-    <row r="987" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="25"/>
       <c r="C987" s="1"/>
@@ -30177,7 +30177,7 @@
       <c r="Z987" s="1"/>
       <c r="AA987" s="1"/>
     </row>
-    <row r="988" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="25"/>
       <c r="C988" s="1"/>
@@ -30206,7 +30206,7 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
-    <row r="989" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="25"/>
       <c r="C989" s="1"/>
@@ -30235,7 +30235,7 @@
       <c r="Z989" s="1"/>
       <c r="AA989" s="1"/>
     </row>
-    <row r="990" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="25"/>
       <c r="C990" s="1"/>
@@ -30264,7 +30264,7 @@
       <c r="Z990" s="1"/>
       <c r="AA990" s="1"/>
     </row>
-    <row r="991" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="25"/>
       <c r="C991" s="1"/>
@@ -30293,7 +30293,7 @@
       <c r="Z991" s="1"/>
       <c r="AA991" s="1"/>
     </row>
-    <row r="992" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="25"/>
       <c r="C992" s="1"/>
@@ -30322,7 +30322,7 @@
       <c r="Z992" s="1"/>
       <c r="AA992" s="1"/>
     </row>
-    <row r="993" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="25"/>
       <c r="C993" s="1"/>
@@ -30351,7 +30351,7 @@
       <c r="Z993" s="1"/>
       <c r="AA993" s="1"/>
     </row>
-    <row r="994" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="25"/>
       <c r="C994" s="1"/>
@@ -30380,7 +30380,7 @@
       <c r="Z994" s="1"/>
       <c r="AA994" s="1"/>
     </row>
-    <row r="995" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="25"/>
       <c r="C995" s="1"/>
@@ -30409,7 +30409,7 @@
       <c r="Z995" s="1"/>
       <c r="AA995" s="1"/>
     </row>
-    <row r="996" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="25"/>
       <c r="C996" s="1"/>
@@ -30438,7 +30438,7 @@
       <c r="Z996" s="1"/>
       <c r="AA996" s="1"/>
     </row>
-    <row r="997" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="25"/>
       <c r="C997" s="1"/>
@@ -30467,7 +30467,7 @@
       <c r="Z997" s="1"/>
       <c r="AA997" s="1"/>
     </row>
-    <row r="998" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="25"/>
       <c r="C998" s="1"/>
@@ -30496,7 +30496,7 @@
       <c r="Z998" s="1"/>
       <c r="AA998" s="1"/>
     </row>
-    <row r="999" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="25"/>
       <c r="C999" s="1"/>
@@ -30525,7 +30525,7 @@
       <c r="Z999" s="1"/>
       <c r="AA999" s="1"/>
     </row>
-    <row r="1000" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="25"/>
       <c r="C1000" s="1"/>
@@ -30554,7 +30554,7 @@
       <c r="Z1000" s="1"/>
       <c r="AA1000" s="1"/>
     </row>
-    <row r="1001" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1001" s="1"/>
       <c r="B1001" s="25"/>
       <c r="C1001" s="1"/>
@@ -30583,7 +30583,7 @@
       <c r="Z1001" s="1"/>
       <c r="AA1001" s="1"/>
     </row>
-    <row r="1002" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1002" s="1"/>
       <c r="B1002" s="25"/>
       <c r="C1002" s="1"/>
@@ -30612,7 +30612,7 @@
       <c r="Z1002" s="1"/>
       <c r="AA1002" s="1"/>
     </row>
-    <row r="1003" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1003" s="1"/>
       <c r="B1003" s="25"/>
       <c r="C1003" s="1"/>
@@ -30641,7 +30641,7 @@
       <c r="Z1003" s="1"/>
       <c r="AA1003" s="1"/>
     </row>
-    <row r="1004" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1004" s="1"/>
       <c r="B1004" s="25"/>
       <c r="C1004" s="1"/>
@@ -30670,7 +30670,7 @@
       <c r="Z1004" s="1"/>
       <c r="AA1004" s="1"/>
     </row>
-    <row r="1005" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1005" s="1"/>
       <c r="B1005" s="25"/>
       <c r="C1005" s="1"/>
@@ -30699,7 +30699,7 @@
       <c r="Z1005" s="1"/>
       <c r="AA1005" s="1"/>
     </row>
-    <row r="1006" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1006" s="1"/>
       <c r="B1006" s="25"/>
       <c r="C1006" s="1"/>
@@ -30728,7 +30728,7 @@
       <c r="Z1006" s="1"/>
       <c r="AA1006" s="1"/>
     </row>
-    <row r="1007" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1007" s="1"/>
       <c r="B1007" s="25"/>
       <c r="C1007" s="1"/>
@@ -30757,7 +30757,7 @@
       <c r="Z1007" s="1"/>
       <c r="AA1007" s="1"/>
     </row>
-    <row r="1008" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1008" s="1"/>
       <c r="B1008" s="25"/>
       <c r="C1008" s="1"/>
@@ -30786,7 +30786,7 @@
       <c r="Z1008" s="1"/>
       <c r="AA1008" s="1"/>
     </row>
-    <row r="1009" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1009" s="1"/>
       <c r="B1009" s="25"/>
       <c r="C1009" s="1"/>
@@ -30815,7 +30815,7 @@
       <c r="Z1009" s="1"/>
       <c r="AA1009" s="1"/>
     </row>
-    <row r="1010" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1010" s="1"/>
       <c r="B1010" s="25"/>
       <c r="C1010" s="1"/>
@@ -30844,7 +30844,7 @@
       <c r="Z1010" s="1"/>
       <c r="AA1010" s="1"/>
     </row>
-    <row r="1011" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1011" s="1"/>
       <c r="B1011" s="25"/>
       <c r="C1011" s="1"/>
@@ -30873,7 +30873,7 @@
       <c r="Z1011" s="1"/>
       <c r="AA1011" s="1"/>
     </row>
-    <row r="1012" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1012" s="1"/>
       <c r="B1012" s="25"/>
       <c r="C1012" s="1"/>
@@ -30902,7 +30902,7 @@
       <c r="Z1012" s="1"/>
       <c r="AA1012" s="1"/>
     </row>
-    <row r="1013" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1013" s="1"/>
       <c r="B1013" s="25"/>
       <c r="C1013" s="1"/>
@@ -30931,7 +30931,7 @@
       <c r="Z1013" s="1"/>
       <c r="AA1013" s="1"/>
     </row>
-    <row r="1014" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1014" s="1"/>
       <c r="B1014" s="25"/>
       <c r="C1014" s="1"/>
@@ -30960,7 +30960,7 @@
       <c r="Z1014" s="1"/>
       <c r="AA1014" s="1"/>
     </row>
-    <row r="1015" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1015" s="1"/>
       <c r="B1015" s="25"/>
       <c r="C1015" s="1"/>
@@ -30989,7 +30989,7 @@
       <c r="Z1015" s="1"/>
       <c r="AA1015" s="1"/>
     </row>
-    <row r="1016" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1016" s="1"/>
       <c r="B1016" s="25"/>
       <c r="C1016" s="1"/>
@@ -31018,7 +31018,7 @@
       <c r="Z1016" s="1"/>
       <c r="AA1016" s="1"/>
     </row>
-    <row r="1017" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1017" s="1"/>
       <c r="B1017" s="25"/>
       <c r="C1017" s="1"/>
@@ -31047,7 +31047,7 @@
       <c r="Z1017" s="1"/>
       <c r="AA1017" s="1"/>
     </row>
-    <row r="1018" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1018" s="1"/>
       <c r="B1018" s="25"/>
       <c r="C1018" s="1"/>
@@ -31076,7 +31076,7 @@
       <c r="Z1018" s="1"/>
       <c r="AA1018" s="1"/>
     </row>
-    <row r="1019" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1019" s="1"/>
       <c r="B1019" s="25"/>
       <c r="C1019" s="1"/>
@@ -31105,7 +31105,7 @@
       <c r="Z1019" s="1"/>
       <c r="AA1019" s="1"/>
     </row>
-    <row r="1020" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1020" s="1"/>
       <c r="B1020" s="25"/>
       <c r="C1020" s="1"/>
@@ -31134,7 +31134,7 @@
       <c r="Z1020" s="1"/>
       <c r="AA1020" s="1"/>
     </row>
-    <row r="1021" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1021" s="1"/>
       <c r="B1021" s="25"/>
       <c r="C1021" s="1"/>
@@ -31163,7 +31163,7 @@
       <c r="Z1021" s="1"/>
       <c r="AA1021" s="1"/>
     </row>
-    <row r="1022" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1022" s="1"/>
       <c r="B1022" s="25"/>
       <c r="C1022" s="1"/>
@@ -31192,7 +31192,7 @@
       <c r="Z1022" s="1"/>
       <c r="AA1022" s="1"/>
     </row>
-    <row r="1023" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1023" s="1"/>
       <c r="B1023" s="25"/>
       <c r="C1023" s="1"/>
@@ -31221,7 +31221,7 @@
       <c r="Z1023" s="1"/>
       <c r="AA1023" s="1"/>
     </row>
-    <row r="1024" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1024" s="1"/>
       <c r="B1024" s="25"/>
       <c r="C1024" s="1"/>
@@ -31250,7 +31250,7 @@
       <c r="Z1024" s="1"/>
       <c r="AA1024" s="1"/>
     </row>
-    <row r="1025" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1025" s="1"/>
       <c r="B1025" s="25"/>
       <c r="C1025" s="1"/>
@@ -31279,7 +31279,7 @@
       <c r="Z1025" s="1"/>
       <c r="AA1025" s="1"/>
     </row>
-    <row r="1026" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1026" s="1"/>
       <c r="B1026" s="25"/>
       <c r="C1026" s="1"/>
@@ -31308,7 +31308,7 @@
       <c r="Z1026" s="1"/>
       <c r="AA1026" s="1"/>
     </row>
-    <row r="1027" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1027" s="1"/>
       <c r="B1027" s="25"/>
       <c r="C1027" s="1"/>
@@ -31337,7 +31337,7 @@
       <c r="Z1027" s="1"/>
       <c r="AA1027" s="1"/>
     </row>
-    <row r="1028" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1028" s="1"/>
       <c r="B1028" s="25"/>
       <c r="C1028" s="1"/>
@@ -31366,7 +31366,7 @@
       <c r="Z1028" s="1"/>
       <c r="AA1028" s="1"/>
     </row>
-    <row r="1029" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1029" s="1"/>
       <c r="B1029" s="25"/>
       <c r="C1029" s="1"/>
@@ -31395,7 +31395,7 @@
       <c r="Z1029" s="1"/>
       <c r="AA1029" s="1"/>
     </row>
-    <row r="1030" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1030" s="1"/>
       <c r="B1030" s="25"/>
       <c r="C1030" s="1"/>
@@ -31424,7 +31424,7 @@
       <c r="Z1030" s="1"/>
       <c r="AA1030" s="1"/>
     </row>
-    <row r="1031" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1031" s="1"/>
       <c r="B1031" s="25"/>
       <c r="C1031" s="1"/>

--- a/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
+++ b/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\xampp\htdocs\andalusier\doc\Andalusier documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\andalusier\doc\Andalusier documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1039,7 @@
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1076,7 +1076,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="25"/>
@@ -1463,7 +1463,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="25"/>
@@ -1492,7 +1492,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="25"/>
@@ -1521,7 +1521,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="E21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1762,7 +1762,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>35</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="E22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1797,7 +1797,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>37</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>40</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="2"/>
       <c r="C27" s="25"/>
@@ -1965,7 +1965,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="25"/>
@@ -1994,7 +1994,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="25"/>
@@ -2023,7 +2023,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>43</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>45</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>46</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>48</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>49</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>50</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="E36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2264,7 +2264,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>52</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>54</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>56</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>58</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>61</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="25"/>
@@ -2538,7 +2538,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="25"/>
@@ -2567,7 +2567,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="25"/>
@@ -2596,7 +2596,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>64</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>65</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>66</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>67</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="E51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2767,7 +2767,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>68</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>74</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>75</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>56</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>76</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="25"/>
@@ -3076,7 +3076,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="25"/>
@@ -3105,7 +3105,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="25"/>
@@ -3134,7 +3134,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>78</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>79</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>80</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>81</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>86</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>87</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>88</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>89</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>91</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
         <v>92</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>94</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
         <v>96</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
         <v>97</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>98</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>99</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>101</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>102</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="25"/>
@@ -3789,7 +3789,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="25"/>
@@ -3818,7 +3818,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="25"/>
@@ -3847,7 +3847,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>103</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="39" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>104</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
         <v>28</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="39" t="s">
         <v>31</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="25"/>
@@ -4039,7 +4039,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>21</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
         <v>28</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="39" t="s">
         <v>31</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4231,7 +4231,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="38" t="s">
         <v>42</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="39" t="s">
         <v>24</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="39" t="s">
         <v>8</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="39" t="s">
         <v>28</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="39" t="s">
         <v>31</v>
       </c>
@@ -4394,7 +4394,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4423,7 +4423,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="38" t="s">
         <v>63</v>
       </c>
@@ -4454,7 +4454,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="39" t="s">
         <v>24</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="39" t="s">
         <v>8</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="39" t="s">
         <v>28</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="39" t="s">
         <v>31</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
@@ -4615,7 +4615,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="38" t="s">
         <v>78</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="39" t="s">
         <v>24</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="39" t="s">
         <v>8</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="39" t="s">
         <v>28</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="39" t="s">
         <v>31</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -4807,7 +4807,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -4836,7 +4836,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="38" t="s">
         <v>105</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="39" t="s">
         <v>24</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="39" t="s">
         <v>8</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="39" t="s">
         <v>28</v>
       </c>
@@ -4966,7 +4966,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="39" t="s">
         <v>31</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="25"/>
       <c r="C120" s="1"/>
@@ -5028,7 +5028,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="25"/>
       <c r="C121" s="1"/>
@@ -5057,7 +5057,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="39" t="s">
         <v>108</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="39" t="s">
         <v>109</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="39" t="s">
         <v>110</v>
       </c>
@@ -5150,7 +5150,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="25"/>
       <c r="C125" s="1"/>
@@ -5179,7 +5179,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="25"/>
       <c r="C126" s="1"/>
@@ -5208,7 +5208,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="25"/>
       <c r="C127" s="1"/>
@@ -5237,7 +5237,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="25"/>
       <c r="C128" s="1"/>
@@ -5266,7 +5266,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="25"/>
       <c r="C129" s="1"/>
@@ -5295,7 +5295,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="25"/>
       <c r="C130" s="1"/>
@@ -5324,7 +5324,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="25"/>
       <c r="C131" s="1"/>
@@ -5353,7 +5353,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="25"/>
       <c r="C132" s="1"/>
@@ -5382,7 +5382,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="25"/>
       <c r="C133" s="1"/>
@@ -5411,7 +5411,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="25"/>
       <c r="C134" s="1"/>
@@ -5440,7 +5440,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="25"/>
       <c r="C135" s="1"/>
@@ -5469,7 +5469,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="25"/>
       <c r="C136" s="1"/>
@@ -5498,7 +5498,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="25"/>
       <c r="C137" s="1"/>
@@ -5527,7 +5527,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="25"/>
       <c r="C138" s="1"/>
@@ -5556,7 +5556,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="25"/>
       <c r="C139" s="1"/>
@@ -5585,7 +5585,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="25"/>
       <c r="C140" s="1"/>
@@ -5614,7 +5614,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="25"/>
       <c r="C141" s="1"/>
@@ -5643,7 +5643,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="25"/>
       <c r="C142" s="1"/>
@@ -5672,7 +5672,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="25"/>
       <c r="C143" s="1"/>
@@ -5701,7 +5701,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="25"/>
       <c r="C144" s="1"/>
@@ -5730,7 +5730,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="25"/>
       <c r="C145" s="1"/>
@@ -5759,7 +5759,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="25"/>
       <c r="C146" s="1"/>
@@ -5788,7 +5788,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="25"/>
       <c r="C147" s="1"/>
@@ -5817,7 +5817,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="25"/>
       <c r="C148" s="1"/>
@@ -5846,7 +5846,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="25"/>
       <c r="C149" s="1"/>
@@ -5875,7 +5875,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="25"/>
       <c r="C150" s="1"/>
@@ -5904,7 +5904,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="25"/>
       <c r="C151" s="1"/>
@@ -5933,7 +5933,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="25"/>
       <c r="C152" s="1"/>
@@ -5962,7 +5962,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="25"/>
       <c r="C153" s="1"/>
@@ -5991,7 +5991,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="25"/>
       <c r="C154" s="1"/>
@@ -6020,7 +6020,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="25"/>
       <c r="C155" s="1"/>
@@ -6049,7 +6049,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="25"/>
       <c r="C156" s="1"/>
@@ -6078,7 +6078,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="25"/>
       <c r="C157" s="1"/>
@@ -6107,7 +6107,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="25"/>
       <c r="C158" s="1"/>
@@ -6136,7 +6136,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="25"/>
       <c r="C159" s="1"/>
@@ -6165,7 +6165,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="25"/>
       <c r="C160" s="1"/>
@@ -6194,7 +6194,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="25"/>
       <c r="C161" s="1"/>
@@ -6223,7 +6223,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="25"/>
       <c r="C162" s="1"/>
@@ -6252,7 +6252,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="25"/>
       <c r="C163" s="1"/>
@@ -6281,7 +6281,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="25"/>
       <c r="C164" s="1"/>
@@ -6310,7 +6310,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="25"/>
       <c r="C165" s="1"/>
@@ -6339,7 +6339,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="25"/>
       <c r="C166" s="1"/>
@@ -6368,7 +6368,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="25"/>
       <c r="C167" s="1"/>
@@ -6397,7 +6397,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="25"/>
       <c r="C168" s="1"/>
@@ -6426,7 +6426,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="25"/>
       <c r="C169" s="1"/>
@@ -6455,7 +6455,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="25"/>
       <c r="C170" s="1"/>
@@ -6484,7 +6484,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="25"/>
       <c r="C171" s="1"/>
@@ -6513,7 +6513,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="25"/>
       <c r="C172" s="1"/>
@@ -6542,7 +6542,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="25"/>
       <c r="C173" s="1"/>
@@ -6571,7 +6571,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="25"/>
       <c r="C174" s="1"/>
@@ -6600,7 +6600,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="25"/>
       <c r="C175" s="1"/>
@@ -6629,7 +6629,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="25"/>
       <c r="C176" s="1"/>
@@ -6658,7 +6658,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="25"/>
       <c r="C177" s="1"/>
@@ -6687,7 +6687,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="25"/>
       <c r="C178" s="1"/>
@@ -6716,7 +6716,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="25"/>
       <c r="C179" s="1"/>
@@ -6745,7 +6745,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="25"/>
       <c r="C180" s="1"/>
@@ -6774,7 +6774,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="25"/>
       <c r="C181" s="1"/>
@@ -6803,7 +6803,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="25"/>
       <c r="C182" s="1"/>
@@ -6832,7 +6832,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="25"/>
       <c r="C183" s="1"/>
@@ -6861,7 +6861,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="25"/>
       <c r="C184" s="1"/>
@@ -6890,7 +6890,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="25"/>
       <c r="C185" s="1"/>
@@ -6919,7 +6919,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="25"/>
       <c r="C186" s="1"/>
@@ -6948,7 +6948,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="25"/>
       <c r="C187" s="1"/>
@@ -6977,7 +6977,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="25"/>
       <c r="C188" s="1"/>
@@ -7006,7 +7006,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="25"/>
       <c r="C189" s="1"/>
@@ -7035,7 +7035,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="25"/>
       <c r="C190" s="1"/>
@@ -7064,7 +7064,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="25"/>
       <c r="C191" s="1"/>
@@ -7093,7 +7093,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="25"/>
       <c r="C192" s="1"/>
@@ -7122,7 +7122,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="25"/>
       <c r="C193" s="1"/>
@@ -7151,7 +7151,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="25"/>
       <c r="C194" s="1"/>
@@ -7180,7 +7180,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="25"/>
       <c r="C195" s="1"/>
@@ -7209,7 +7209,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="25"/>
       <c r="C196" s="1"/>
@@ -7238,7 +7238,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="25"/>
       <c r="C197" s="1"/>
@@ -7267,7 +7267,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="25"/>
       <c r="C198" s="1"/>
@@ -7296,7 +7296,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="25"/>
       <c r="C199" s="1"/>
@@ -7325,7 +7325,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="25"/>
       <c r="C200" s="1"/>
@@ -7354,7 +7354,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="25"/>
       <c r="C201" s="1"/>
@@ -7383,7 +7383,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="25"/>
       <c r="C202" s="1"/>
@@ -7412,7 +7412,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="25"/>
       <c r="C203" s="1"/>
@@ -7441,7 +7441,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="25"/>
       <c r="C204" s="1"/>
@@ -7470,7 +7470,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="25"/>
       <c r="C205" s="1"/>
@@ -7499,7 +7499,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="25"/>
       <c r="C206" s="1"/>
@@ -7528,7 +7528,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
     </row>
-    <row r="207" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="25"/>
       <c r="C207" s="1"/>
@@ -7557,7 +7557,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
     </row>
-    <row r="208" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="25"/>
       <c r="C208" s="1"/>
@@ -7586,7 +7586,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="25"/>
       <c r="C209" s="1"/>
@@ -7615,7 +7615,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="25"/>
       <c r="C210" s="1"/>
@@ -7644,7 +7644,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="25"/>
       <c r="C211" s="1"/>
@@ -7673,7 +7673,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="25"/>
       <c r="C212" s="1"/>
@@ -7702,7 +7702,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="25"/>
       <c r="C213" s="1"/>
@@ -7731,7 +7731,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="25"/>
       <c r="C214" s="1"/>
@@ -7760,7 +7760,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="25"/>
       <c r="C215" s="1"/>
@@ -7789,7 +7789,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
     </row>
-    <row r="216" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="25"/>
       <c r="C216" s="1"/>
@@ -7818,7 +7818,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
     </row>
-    <row r="217" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="25"/>
       <c r="C217" s="1"/>
@@ -7847,7 +7847,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
     </row>
-    <row r="218" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="25"/>
       <c r="C218" s="1"/>
@@ -7876,7 +7876,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="25"/>
       <c r="C219" s="1"/>
@@ -7905,7 +7905,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="25"/>
       <c r="C220" s="1"/>
@@ -7934,7 +7934,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="25"/>
       <c r="C221" s="1"/>
@@ -7963,7 +7963,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="25"/>
       <c r="C222" s="1"/>
@@ -7992,7 +7992,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="25"/>
       <c r="C223" s="1"/>
@@ -8021,7 +8021,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
     </row>
-    <row r="224" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="25"/>
       <c r="C224" s="1"/>
@@ -8050,7 +8050,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="25"/>
       <c r="C225" s="1"/>
@@ -8079,7 +8079,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="25"/>
       <c r="C226" s="1"/>
@@ -8108,7 +8108,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="25"/>
       <c r="C227" s="1"/>
@@ -8137,7 +8137,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="25"/>
       <c r="C228" s="1"/>
@@ -8166,7 +8166,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="25"/>
       <c r="C229" s="1"/>
@@ -8195,7 +8195,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="25"/>
       <c r="C230" s="1"/>
@@ -8224,7 +8224,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="25"/>
       <c r="C231" s="1"/>
@@ -8253,7 +8253,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="25"/>
       <c r="C232" s="1"/>
@@ -8282,7 +8282,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
     </row>
-    <row r="233" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="25"/>
       <c r="C233" s="1"/>
@@ -8311,7 +8311,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="25"/>
       <c r="C234" s="1"/>
@@ -8340,7 +8340,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="25"/>
       <c r="C235" s="1"/>
@@ -8369,7 +8369,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
     </row>
-    <row r="236" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="25"/>
       <c r="C236" s="1"/>
@@ -8398,7 +8398,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="25"/>
       <c r="C237" s="1"/>
@@ -8427,7 +8427,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="25"/>
       <c r="C238" s="1"/>
@@ -8456,7 +8456,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="25"/>
       <c r="C239" s="1"/>
@@ -8485,7 +8485,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="25"/>
       <c r="C240" s="1"/>
@@ -8514,7 +8514,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="25"/>
       <c r="C241" s="1"/>
@@ -8543,7 +8543,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="25"/>
       <c r="C242" s="1"/>
@@ -8572,7 +8572,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="25"/>
       <c r="C243" s="1"/>
@@ -8601,7 +8601,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="25"/>
       <c r="C244" s="1"/>
@@ -8630,7 +8630,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="25"/>
       <c r="C245" s="1"/>
@@ -8659,7 +8659,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="25"/>
       <c r="C246" s="1"/>
@@ -8688,7 +8688,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="25"/>
       <c r="C247" s="1"/>
@@ -8717,7 +8717,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="25"/>
       <c r="C248" s="1"/>
@@ -8746,7 +8746,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="25"/>
       <c r="C249" s="1"/>
@@ -8775,7 +8775,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="25"/>
       <c r="C250" s="1"/>
@@ -8804,7 +8804,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="25"/>
       <c r="C251" s="1"/>
@@ -8833,7 +8833,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="25"/>
       <c r="C252" s="1"/>
@@ -8862,7 +8862,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="25"/>
       <c r="C253" s="1"/>
@@ -8891,7 +8891,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="25"/>
       <c r="C254" s="1"/>
@@ -8920,7 +8920,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="25"/>
       <c r="C255" s="1"/>
@@ -8949,7 +8949,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="25"/>
       <c r="C256" s="1"/>
@@ -8978,7 +8978,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="25"/>
       <c r="C257" s="1"/>
@@ -9007,7 +9007,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="25"/>
       <c r="C258" s="1"/>
@@ -9036,7 +9036,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="25"/>
       <c r="C259" s="1"/>
@@ -9065,7 +9065,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="25"/>
       <c r="C260" s="1"/>
@@ -9094,7 +9094,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="25"/>
       <c r="C261" s="1"/>
@@ -9123,7 +9123,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="25"/>
       <c r="C262" s="1"/>
@@ -9152,7 +9152,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="25"/>
       <c r="C263" s="1"/>
@@ -9181,7 +9181,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="25"/>
       <c r="C264" s="1"/>
@@ -9210,7 +9210,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="25"/>
       <c r="C265" s="1"/>
@@ -9239,7 +9239,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="25"/>
       <c r="C266" s="1"/>
@@ -9268,7 +9268,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="25"/>
       <c r="C267" s="1"/>
@@ -9297,7 +9297,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="25"/>
       <c r="C268" s="1"/>
@@ -9326,7 +9326,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="25"/>
       <c r="C269" s="1"/>
@@ -9355,7 +9355,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="25"/>
       <c r="C270" s="1"/>
@@ -9384,7 +9384,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="25"/>
       <c r="C271" s="1"/>
@@ -9413,7 +9413,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="25"/>
       <c r="C272" s="1"/>
@@ -9442,7 +9442,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="25"/>
       <c r="C273" s="1"/>
@@ -9471,7 +9471,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="25"/>
       <c r="C274" s="1"/>
@@ -9500,7 +9500,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="25"/>
       <c r="C275" s="1"/>
@@ -9529,7 +9529,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="25"/>
       <c r="C276" s="1"/>
@@ -9558,7 +9558,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="25"/>
       <c r="C277" s="1"/>
@@ -9587,7 +9587,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="25"/>
       <c r="C278" s="1"/>
@@ -9616,7 +9616,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="25"/>
       <c r="C279" s="1"/>
@@ -9645,7 +9645,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="25"/>
       <c r="C280" s="1"/>
@@ -9674,7 +9674,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="25"/>
       <c r="C281" s="1"/>
@@ -9703,7 +9703,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="25"/>
       <c r="C282" s="1"/>
@@ -9732,7 +9732,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="25"/>
       <c r="C283" s="1"/>
@@ -9761,7 +9761,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="25"/>
       <c r="C284" s="1"/>
@@ -9790,7 +9790,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="25"/>
       <c r="C285" s="1"/>
@@ -9819,7 +9819,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="25"/>
       <c r="C286" s="1"/>
@@ -9848,7 +9848,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="25"/>
       <c r="C287" s="1"/>
@@ -9877,7 +9877,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="25"/>
       <c r="C288" s="1"/>
@@ -9906,7 +9906,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="25"/>
       <c r="C289" s="1"/>
@@ -9935,7 +9935,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="25"/>
       <c r="C290" s="1"/>
@@ -9964,7 +9964,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="25"/>
       <c r="C291" s="1"/>
@@ -9993,7 +9993,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="25"/>
       <c r="C292" s="1"/>
@@ -10022,7 +10022,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="25"/>
       <c r="C293" s="1"/>
@@ -10051,7 +10051,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="25"/>
       <c r="C294" s="1"/>
@@ -10080,7 +10080,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="25"/>
       <c r="C295" s="1"/>
@@ -10109,7 +10109,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
     </row>
-    <row r="296" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="25"/>
       <c r="C296" s="1"/>
@@ -10138,7 +10138,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="25"/>
       <c r="C297" s="1"/>
@@ -10167,7 +10167,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
     </row>
-    <row r="298" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="25"/>
       <c r="C298" s="1"/>
@@ -10196,7 +10196,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="25"/>
       <c r="C299" s="1"/>
@@ -10225,7 +10225,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="25"/>
       <c r="C300" s="1"/>
@@ -10254,7 +10254,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="25"/>
       <c r="C301" s="1"/>
@@ -10283,7 +10283,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="25"/>
       <c r="C302" s="1"/>
@@ -10312,7 +10312,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="25"/>
       <c r="C303" s="1"/>
@@ -10341,7 +10341,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="25"/>
       <c r="C304" s="1"/>
@@ -10370,7 +10370,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="25"/>
       <c r="C305" s="1"/>
@@ -10399,7 +10399,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="25"/>
       <c r="C306" s="1"/>
@@ -10428,7 +10428,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="25"/>
       <c r="C307" s="1"/>
@@ -10457,7 +10457,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="25"/>
       <c r="C308" s="1"/>
@@ -10486,7 +10486,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="25"/>
       <c r="C309" s="1"/>
@@ -10515,7 +10515,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="25"/>
       <c r="C310" s="1"/>
@@ -10544,7 +10544,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="25"/>
       <c r="C311" s="1"/>
@@ -10573,7 +10573,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="25"/>
       <c r="C312" s="1"/>
@@ -10602,7 +10602,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="25"/>
       <c r="C313" s="1"/>
@@ -10631,7 +10631,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="25"/>
       <c r="C314" s="1"/>
@@ -10660,7 +10660,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="25"/>
       <c r="C315" s="1"/>
@@ -10689,7 +10689,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="25"/>
       <c r="C316" s="1"/>
@@ -10718,7 +10718,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="25"/>
       <c r="C317" s="1"/>
@@ -10747,7 +10747,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="25"/>
       <c r="C318" s="1"/>
@@ -10776,7 +10776,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="25"/>
       <c r="C319" s="1"/>
@@ -10805,7 +10805,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="25"/>
       <c r="C320" s="1"/>
@@ -10834,7 +10834,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="25"/>
       <c r="C321" s="1"/>
@@ -10863,7 +10863,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="25"/>
       <c r="C322" s="1"/>
@@ -10892,7 +10892,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="25"/>
       <c r="C323" s="1"/>
@@ -10921,7 +10921,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="25"/>
       <c r="C324" s="1"/>
@@ -10950,7 +10950,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="25"/>
       <c r="C325" s="1"/>
@@ -10979,7 +10979,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="25"/>
       <c r="C326" s="1"/>
@@ -11008,7 +11008,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="25"/>
       <c r="C327" s="1"/>
@@ -11037,7 +11037,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="25"/>
       <c r="C328" s="1"/>
@@ -11066,7 +11066,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="25"/>
       <c r="C329" s="1"/>
@@ -11095,7 +11095,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="25"/>
       <c r="C330" s="1"/>
@@ -11124,7 +11124,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="25"/>
       <c r="C331" s="1"/>
@@ -11153,7 +11153,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="25"/>
       <c r="C332" s="1"/>
@@ -11182,7 +11182,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="25"/>
       <c r="C333" s="1"/>
@@ -11211,7 +11211,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="25"/>
       <c r="C334" s="1"/>
@@ -11240,7 +11240,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="25"/>
       <c r="C335" s="1"/>
@@ -11269,7 +11269,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="25"/>
       <c r="C336" s="1"/>
@@ -11298,7 +11298,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="25"/>
       <c r="C337" s="1"/>
@@ -11327,7 +11327,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="25"/>
       <c r="C338" s="1"/>
@@ -11356,7 +11356,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="25"/>
       <c r="C339" s="1"/>
@@ -11385,7 +11385,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="25"/>
       <c r="C340" s="1"/>
@@ -11414,7 +11414,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="25"/>
       <c r="C341" s="1"/>
@@ -11443,7 +11443,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="25"/>
       <c r="C342" s="1"/>
@@ -11472,7 +11472,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="25"/>
       <c r="C343" s="1"/>
@@ -11501,7 +11501,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="25"/>
       <c r="C344" s="1"/>
@@ -11530,7 +11530,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="25"/>
       <c r="C345" s="1"/>
@@ -11559,7 +11559,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="25"/>
       <c r="C346" s="1"/>
@@ -11588,7 +11588,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="25"/>
       <c r="C347" s="1"/>
@@ -11617,7 +11617,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="25"/>
       <c r="C348" s="1"/>
@@ -11646,7 +11646,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="25"/>
       <c r="C349" s="1"/>
@@ -11675,7 +11675,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="25"/>
       <c r="C350" s="1"/>
@@ -11704,7 +11704,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="25"/>
       <c r="C351" s="1"/>
@@ -11733,7 +11733,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="25"/>
       <c r="C352" s="1"/>
@@ -11762,7 +11762,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="25"/>
       <c r="C353" s="1"/>
@@ -11791,7 +11791,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="25"/>
       <c r="C354" s="1"/>
@@ -11820,7 +11820,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="25"/>
       <c r="C355" s="1"/>
@@ -11849,7 +11849,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="25"/>
       <c r="C356" s="1"/>
@@ -11878,7 +11878,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="25"/>
       <c r="C357" s="1"/>
@@ -11907,7 +11907,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="25"/>
       <c r="C358" s="1"/>
@@ -11936,7 +11936,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="25"/>
       <c r="C359" s="1"/>
@@ -11965,7 +11965,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="25"/>
       <c r="C360" s="1"/>
@@ -11994,7 +11994,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="25"/>
       <c r="C361" s="1"/>
@@ -12023,7 +12023,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="25"/>
       <c r="C362" s="1"/>
@@ -12052,7 +12052,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="25"/>
       <c r="C363" s="1"/>
@@ -12081,7 +12081,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="25"/>
       <c r="C364" s="1"/>
@@ -12110,7 +12110,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="25"/>
       <c r="C365" s="1"/>
@@ -12139,7 +12139,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="25"/>
       <c r="C366" s="1"/>
@@ -12168,7 +12168,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="25"/>
       <c r="C367" s="1"/>
@@ -12197,7 +12197,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="25"/>
       <c r="C368" s="1"/>
@@ -12226,7 +12226,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="25"/>
       <c r="C369" s="1"/>
@@ -12255,7 +12255,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="25"/>
       <c r="C370" s="1"/>
@@ -12284,7 +12284,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="25"/>
       <c r="C371" s="1"/>
@@ -12313,7 +12313,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="25"/>
       <c r="C372" s="1"/>
@@ -12342,7 +12342,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="25"/>
       <c r="C373" s="1"/>
@@ -12371,7 +12371,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="25"/>
       <c r="C374" s="1"/>
@@ -12400,7 +12400,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="25"/>
       <c r="C375" s="1"/>
@@ -12429,7 +12429,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="25"/>
       <c r="C376" s="1"/>
@@ -12458,7 +12458,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="25"/>
       <c r="C377" s="1"/>
@@ -12487,7 +12487,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="25"/>
       <c r="C378" s="1"/>
@@ -12516,7 +12516,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="25"/>
       <c r="C379" s="1"/>
@@ -12545,7 +12545,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="25"/>
       <c r="C380" s="1"/>
@@ -12574,7 +12574,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="25"/>
       <c r="C381" s="1"/>
@@ -12603,7 +12603,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="25"/>
       <c r="C382" s="1"/>
@@ -12632,7 +12632,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="25"/>
       <c r="C383" s="1"/>
@@ -12661,7 +12661,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="25"/>
       <c r="C384" s="1"/>
@@ -12690,7 +12690,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="25"/>
       <c r="C385" s="1"/>
@@ -12719,7 +12719,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="25"/>
       <c r="C386" s="1"/>
@@ -12748,7 +12748,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="25"/>
       <c r="C387" s="1"/>
@@ -12777,7 +12777,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="25"/>
       <c r="C388" s="1"/>
@@ -12806,7 +12806,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="25"/>
       <c r="C389" s="1"/>
@@ -12835,7 +12835,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="25"/>
       <c r="C390" s="1"/>
@@ -12864,7 +12864,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="25"/>
       <c r="C391" s="1"/>
@@ -12893,7 +12893,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="25"/>
       <c r="C392" s="1"/>
@@ -12922,7 +12922,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="25"/>
       <c r="C393" s="1"/>
@@ -12951,7 +12951,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="25"/>
       <c r="C394" s="1"/>
@@ -12980,7 +12980,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="25"/>
       <c r="C395" s="1"/>
@@ -13009,7 +13009,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="25"/>
       <c r="C396" s="1"/>
@@ -13038,7 +13038,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="25"/>
       <c r="C397" s="1"/>
@@ -13067,7 +13067,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="25"/>
       <c r="C398" s="1"/>
@@ -13096,7 +13096,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="25"/>
       <c r="C399" s="1"/>
@@ -13125,7 +13125,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="25"/>
       <c r="C400" s="1"/>
@@ -13154,7 +13154,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="25"/>
       <c r="C401" s="1"/>
@@ -13183,7 +13183,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="25"/>
       <c r="C402" s="1"/>
@@ -13212,7 +13212,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="25"/>
       <c r="C403" s="1"/>
@@ -13241,7 +13241,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="25"/>
       <c r="C404" s="1"/>
@@ -13270,7 +13270,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="25"/>
       <c r="C405" s="1"/>
@@ -13299,7 +13299,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="25"/>
       <c r="C406" s="1"/>
@@ -13328,7 +13328,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="25"/>
       <c r="C407" s="1"/>
@@ -13357,7 +13357,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="25"/>
       <c r="C408" s="1"/>
@@ -13386,7 +13386,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="25"/>
       <c r="C409" s="1"/>
@@ -13415,7 +13415,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="25"/>
       <c r="C410" s="1"/>
@@ -13444,7 +13444,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="25"/>
       <c r="C411" s="1"/>
@@ -13473,7 +13473,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="25"/>
       <c r="C412" s="1"/>
@@ -13502,7 +13502,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="25"/>
       <c r="C413" s="1"/>
@@ -13531,7 +13531,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="25"/>
       <c r="C414" s="1"/>
@@ -13560,7 +13560,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="25"/>
       <c r="C415" s="1"/>
@@ -13589,7 +13589,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="25"/>
       <c r="C416" s="1"/>
@@ -13618,7 +13618,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="25"/>
       <c r="C417" s="1"/>
@@ -13647,7 +13647,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="25"/>
       <c r="C418" s="1"/>
@@ -13676,7 +13676,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="25"/>
       <c r="C419" s="1"/>
@@ -13705,7 +13705,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="25"/>
       <c r="C420" s="1"/>
@@ -13734,7 +13734,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="25"/>
       <c r="C421" s="1"/>
@@ -13763,7 +13763,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="25"/>
       <c r="C422" s="1"/>
@@ -13792,7 +13792,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="25"/>
       <c r="C423" s="1"/>
@@ -13821,7 +13821,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="25"/>
       <c r="C424" s="1"/>
@@ -13850,7 +13850,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="25"/>
       <c r="C425" s="1"/>
@@ -13879,7 +13879,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="25"/>
       <c r="C426" s="1"/>
@@ -13908,7 +13908,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="25"/>
       <c r="C427" s="1"/>
@@ -13937,7 +13937,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="25"/>
       <c r="C428" s="1"/>
@@ -13966,7 +13966,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="25"/>
       <c r="C429" s="1"/>
@@ -13995,7 +13995,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="25"/>
       <c r="C430" s="1"/>
@@ -14024,7 +14024,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="25"/>
       <c r="C431" s="1"/>
@@ -14053,7 +14053,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="25"/>
       <c r="C432" s="1"/>
@@ -14082,7 +14082,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="25"/>
       <c r="C433" s="1"/>
@@ -14111,7 +14111,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="25"/>
       <c r="C434" s="1"/>
@@ -14140,7 +14140,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="25"/>
       <c r="C435" s="1"/>
@@ -14169,7 +14169,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="25"/>
       <c r="C436" s="1"/>
@@ -14198,7 +14198,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="25"/>
       <c r="C437" s="1"/>
@@ -14227,7 +14227,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="25"/>
       <c r="C438" s="1"/>
@@ -14256,7 +14256,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
     </row>
-    <row r="439" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="25"/>
       <c r="C439" s="1"/>
@@ -14285,7 +14285,7 @@
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
     </row>
-    <row r="440" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="25"/>
       <c r="C440" s="1"/>
@@ -14314,7 +14314,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
     </row>
-    <row r="441" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="25"/>
       <c r="C441" s="1"/>
@@ -14343,7 +14343,7 @@
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
     </row>
-    <row r="442" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="25"/>
       <c r="C442" s="1"/>
@@ -14372,7 +14372,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="25"/>
       <c r="C443" s="1"/>
@@ -14401,7 +14401,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
     </row>
-    <row r="444" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="25"/>
       <c r="C444" s="1"/>
@@ -14430,7 +14430,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
     </row>
-    <row r="445" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="25"/>
       <c r="C445" s="1"/>
@@ -14459,7 +14459,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
     </row>
-    <row r="446" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="25"/>
       <c r="C446" s="1"/>
@@ -14488,7 +14488,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
     </row>
-    <row r="447" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="25"/>
       <c r="C447" s="1"/>
@@ -14517,7 +14517,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
     </row>
-    <row r="448" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="25"/>
       <c r="C448" s="1"/>
@@ -14546,7 +14546,7 @@
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
     </row>
-    <row r="449" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="25"/>
       <c r="C449" s="1"/>
@@ -14575,7 +14575,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
     </row>
-    <row r="450" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="25"/>
       <c r="C450" s="1"/>
@@ -14604,7 +14604,7 @@
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
     </row>
-    <row r="451" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="25"/>
       <c r="C451" s="1"/>
@@ -14633,7 +14633,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
     </row>
-    <row r="452" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="25"/>
       <c r="C452" s="1"/>
@@ -14662,7 +14662,7 @@
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
     </row>
-    <row r="453" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="25"/>
       <c r="C453" s="1"/>
@@ -14691,7 +14691,7 @@
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
     </row>
-    <row r="454" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="25"/>
       <c r="C454" s="1"/>
@@ -14720,7 +14720,7 @@
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
     </row>
-    <row r="455" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="25"/>
       <c r="C455" s="1"/>
@@ -14749,7 +14749,7 @@
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
     </row>
-    <row r="456" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="25"/>
       <c r="C456" s="1"/>
@@ -14778,7 +14778,7 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
     </row>
-    <row r="457" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="25"/>
       <c r="C457" s="1"/>
@@ -14807,7 +14807,7 @@
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
     </row>
-    <row r="458" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="25"/>
       <c r="C458" s="1"/>
@@ -14836,7 +14836,7 @@
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
     </row>
-    <row r="459" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="25"/>
       <c r="C459" s="1"/>
@@ -14865,7 +14865,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="25"/>
       <c r="C460" s="1"/>
@@ -14894,7 +14894,7 @@
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
     </row>
-    <row r="461" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="25"/>
       <c r="C461" s="1"/>
@@ -14923,7 +14923,7 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
     </row>
-    <row r="462" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="25"/>
       <c r="C462" s="1"/>
@@ -14952,7 +14952,7 @@
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
     </row>
-    <row r="463" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="25"/>
       <c r="C463" s="1"/>
@@ -14981,7 +14981,7 @@
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
     </row>
-    <row r="464" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="25"/>
       <c r="C464" s="1"/>
@@ -15010,7 +15010,7 @@
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
     </row>
-    <row r="465" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="25"/>
       <c r="C465" s="1"/>
@@ -15039,7 +15039,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="25"/>
       <c r="C466" s="1"/>
@@ -15068,7 +15068,7 @@
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
     </row>
-    <row r="467" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="25"/>
       <c r="C467" s="1"/>
@@ -15097,7 +15097,7 @@
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
     </row>
-    <row r="468" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="25"/>
       <c r="C468" s="1"/>
@@ -15126,7 +15126,7 @@
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
     </row>
-    <row r="469" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="25"/>
       <c r="C469" s="1"/>
@@ -15155,7 +15155,7 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
     </row>
-    <row r="470" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="25"/>
       <c r="C470" s="1"/>
@@ -15184,7 +15184,7 @@
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
     </row>
-    <row r="471" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="25"/>
       <c r="C471" s="1"/>
@@ -15213,7 +15213,7 @@
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
     </row>
-    <row r="472" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="25"/>
       <c r="C472" s="1"/>
@@ -15242,7 +15242,7 @@
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
     </row>
-    <row r="473" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="25"/>
       <c r="C473" s="1"/>
@@ -15271,7 +15271,7 @@
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
     </row>
-    <row r="474" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="25"/>
       <c r="C474" s="1"/>
@@ -15300,7 +15300,7 @@
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
     </row>
-    <row r="475" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="25"/>
       <c r="C475" s="1"/>
@@ -15329,7 +15329,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="25"/>
       <c r="C476" s="1"/>
@@ -15358,7 +15358,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="25"/>
       <c r="C477" s="1"/>
@@ -15387,7 +15387,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="25"/>
       <c r="C478" s="1"/>
@@ -15416,7 +15416,7 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="25"/>
       <c r="C479" s="1"/>
@@ -15445,7 +15445,7 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
     </row>
-    <row r="480" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="25"/>
       <c r="C480" s="1"/>
@@ -15474,7 +15474,7 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
     </row>
-    <row r="481" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="25"/>
       <c r="C481" s="1"/>
@@ -15503,7 +15503,7 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
     </row>
-    <row r="482" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="25"/>
       <c r="C482" s="1"/>
@@ -15532,7 +15532,7 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
     </row>
-    <row r="483" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="25"/>
       <c r="C483" s="1"/>
@@ -15561,7 +15561,7 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="25"/>
       <c r="C484" s="1"/>
@@ -15590,7 +15590,7 @@
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
     </row>
-    <row r="485" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="25"/>
       <c r="C485" s="1"/>
@@ -15619,7 +15619,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
     </row>
-    <row r="486" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="25"/>
       <c r="C486" s="1"/>
@@ -15648,7 +15648,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
     </row>
-    <row r="487" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="25"/>
       <c r="C487" s="1"/>
@@ -15677,7 +15677,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
     </row>
-    <row r="488" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="25"/>
       <c r="C488" s="1"/>
@@ -15706,7 +15706,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
     </row>
-    <row r="489" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="25"/>
       <c r="C489" s="1"/>
@@ -15735,7 +15735,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
     </row>
-    <row r="490" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="25"/>
       <c r="C490" s="1"/>
@@ -15764,7 +15764,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
     </row>
-    <row r="491" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="25"/>
       <c r="C491" s="1"/>
@@ -15793,7 +15793,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
     </row>
-    <row r="492" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="25"/>
       <c r="C492" s="1"/>
@@ -15822,7 +15822,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
     </row>
-    <row r="493" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="25"/>
       <c r="C493" s="1"/>
@@ -15851,7 +15851,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
     </row>
-    <row r="494" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="25"/>
       <c r="C494" s="1"/>
@@ -15880,7 +15880,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
     </row>
-    <row r="495" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="25"/>
       <c r="C495" s="1"/>
@@ -15909,7 +15909,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
     </row>
-    <row r="496" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="25"/>
       <c r="C496" s="1"/>
@@ -15938,7 +15938,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
     </row>
-    <row r="497" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="25"/>
       <c r="C497" s="1"/>
@@ -15967,7 +15967,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
     </row>
-    <row r="498" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="25"/>
       <c r="C498" s="1"/>
@@ -15996,7 +15996,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
     </row>
-    <row r="499" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="25"/>
       <c r="C499" s="1"/>
@@ -16025,7 +16025,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
     </row>
-    <row r="500" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="25"/>
       <c r="C500" s="1"/>
@@ -16054,7 +16054,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
     </row>
-    <row r="501" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="25"/>
       <c r="C501" s="1"/>
@@ -16083,7 +16083,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
     </row>
-    <row r="502" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="25"/>
       <c r="C502" s="1"/>
@@ -16112,7 +16112,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
     </row>
-    <row r="503" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="25"/>
       <c r="C503" s="1"/>
@@ -16141,7 +16141,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
     </row>
-    <row r="504" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="25"/>
       <c r="C504" s="1"/>
@@ -16170,7 +16170,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
     </row>
-    <row r="505" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="25"/>
       <c r="C505" s="1"/>
@@ -16199,7 +16199,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
     </row>
-    <row r="506" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="25"/>
       <c r="C506" s="1"/>
@@ -16228,7 +16228,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
     </row>
-    <row r="507" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="25"/>
       <c r="C507" s="1"/>
@@ -16257,7 +16257,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
     </row>
-    <row r="508" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="25"/>
       <c r="C508" s="1"/>
@@ -16286,7 +16286,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
     </row>
-    <row r="509" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="25"/>
       <c r="C509" s="1"/>
@@ -16315,7 +16315,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
     </row>
-    <row r="510" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="25"/>
       <c r="C510" s="1"/>
@@ -16344,7 +16344,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
     </row>
-    <row r="511" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="25"/>
       <c r="C511" s="1"/>
@@ -16373,7 +16373,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
     </row>
-    <row r="512" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="25"/>
       <c r="C512" s="1"/>
@@ -16402,7 +16402,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
     </row>
-    <row r="513" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="25"/>
       <c r="C513" s="1"/>
@@ -16431,7 +16431,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
     </row>
-    <row r="514" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="25"/>
       <c r="C514" s="1"/>
@@ -16460,7 +16460,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
     </row>
-    <row r="515" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="25"/>
       <c r="C515" s="1"/>
@@ -16489,7 +16489,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
     </row>
-    <row r="516" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="25"/>
       <c r="C516" s="1"/>
@@ -16518,7 +16518,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
     </row>
-    <row r="517" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="25"/>
       <c r="C517" s="1"/>
@@ -16547,7 +16547,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
     </row>
-    <row r="518" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="25"/>
       <c r="C518" s="1"/>
@@ -16576,7 +16576,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
     </row>
-    <row r="519" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="25"/>
       <c r="C519" s="1"/>
@@ -16605,7 +16605,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
     </row>
-    <row r="520" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="25"/>
       <c r="C520" s="1"/>
@@ -16634,7 +16634,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
     </row>
-    <row r="521" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="25"/>
       <c r="C521" s="1"/>
@@ -16663,7 +16663,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
     </row>
-    <row r="522" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="25"/>
       <c r="C522" s="1"/>
@@ -16692,7 +16692,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
     </row>
-    <row r="523" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="25"/>
       <c r="C523" s="1"/>
@@ -16721,7 +16721,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
     </row>
-    <row r="524" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="25"/>
       <c r="C524" s="1"/>
@@ -16750,7 +16750,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
     </row>
-    <row r="525" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="25"/>
       <c r="C525" s="1"/>
@@ -16779,7 +16779,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
     </row>
-    <row r="526" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="25"/>
       <c r="C526" s="1"/>
@@ -16808,7 +16808,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
     </row>
-    <row r="527" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="25"/>
       <c r="C527" s="1"/>
@@ -16837,7 +16837,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
     </row>
-    <row r="528" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="25"/>
       <c r="C528" s="1"/>
@@ -16866,7 +16866,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
     </row>
-    <row r="529" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="25"/>
       <c r="C529" s="1"/>
@@ -16895,7 +16895,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
     </row>
-    <row r="530" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="25"/>
       <c r="C530" s="1"/>
@@ -16924,7 +16924,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
     </row>
-    <row r="531" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="25"/>
       <c r="C531" s="1"/>
@@ -16953,7 +16953,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
     </row>
-    <row r="532" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="25"/>
       <c r="C532" s="1"/>
@@ -16982,7 +16982,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
     </row>
-    <row r="533" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="25"/>
       <c r="C533" s="1"/>
@@ -17011,7 +17011,7 @@
       <c r="Z533" s="1"/>
       <c r="AA533" s="1"/>
     </row>
-    <row r="534" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="25"/>
       <c r="C534" s="1"/>
@@ -17040,7 +17040,7 @@
       <c r="Z534" s="1"/>
       <c r="AA534" s="1"/>
     </row>
-    <row r="535" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="25"/>
       <c r="C535" s="1"/>
@@ -17069,7 +17069,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
     </row>
-    <row r="536" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="25"/>
       <c r="C536" s="1"/>
@@ -17098,7 +17098,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
     </row>
-    <row r="537" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="25"/>
       <c r="C537" s="1"/>
@@ -17127,7 +17127,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
     </row>
-    <row r="538" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="25"/>
       <c r="C538" s="1"/>
@@ -17156,7 +17156,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
     </row>
-    <row r="539" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="25"/>
       <c r="C539" s="1"/>
@@ -17185,7 +17185,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
     </row>
-    <row r="540" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="25"/>
       <c r="C540" s="1"/>
@@ -17214,7 +17214,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
     </row>
-    <row r="541" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="25"/>
       <c r="C541" s="1"/>
@@ -17243,7 +17243,7 @@
       <c r="Z541" s="1"/>
       <c r="AA541" s="1"/>
     </row>
-    <row r="542" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="25"/>
       <c r="C542" s="1"/>
@@ -17272,7 +17272,7 @@
       <c r="Z542" s="1"/>
       <c r="AA542" s="1"/>
     </row>
-    <row r="543" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="25"/>
       <c r="C543" s="1"/>
@@ -17301,7 +17301,7 @@
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
     </row>
-    <row r="544" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="25"/>
       <c r="C544" s="1"/>
@@ -17330,7 +17330,7 @@
       <c r="Z544" s="1"/>
       <c r="AA544" s="1"/>
     </row>
-    <row r="545" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="25"/>
       <c r="C545" s="1"/>
@@ -17359,7 +17359,7 @@
       <c r="Z545" s="1"/>
       <c r="AA545" s="1"/>
     </row>
-    <row r="546" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="25"/>
       <c r="C546" s="1"/>
@@ -17388,7 +17388,7 @@
       <c r="Z546" s="1"/>
       <c r="AA546" s="1"/>
     </row>
-    <row r="547" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="25"/>
       <c r="C547" s="1"/>
@@ -17417,7 +17417,7 @@
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
     </row>
-    <row r="548" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="25"/>
       <c r="C548" s="1"/>
@@ -17446,7 +17446,7 @@
       <c r="Z548" s="1"/>
       <c r="AA548" s="1"/>
     </row>
-    <row r="549" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="25"/>
       <c r="C549" s="1"/>
@@ -17475,7 +17475,7 @@
       <c r="Z549" s="1"/>
       <c r="AA549" s="1"/>
     </row>
-    <row r="550" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="25"/>
       <c r="C550" s="1"/>
@@ -17504,7 +17504,7 @@
       <c r="Z550" s="1"/>
       <c r="AA550" s="1"/>
     </row>
-    <row r="551" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="25"/>
       <c r="C551" s="1"/>
@@ -17533,7 +17533,7 @@
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
     </row>
-    <row r="552" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="25"/>
       <c r="C552" s="1"/>
@@ -17562,7 +17562,7 @@
       <c r="Z552" s="1"/>
       <c r="AA552" s="1"/>
     </row>
-    <row r="553" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="25"/>
       <c r="C553" s="1"/>
@@ -17591,7 +17591,7 @@
       <c r="Z553" s="1"/>
       <c r="AA553" s="1"/>
     </row>
-    <row r="554" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="25"/>
       <c r="C554" s="1"/>
@@ -17620,7 +17620,7 @@
       <c r="Z554" s="1"/>
       <c r="AA554" s="1"/>
     </row>
-    <row r="555" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="25"/>
       <c r="C555" s="1"/>
@@ -17649,7 +17649,7 @@
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
     </row>
-    <row r="556" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="25"/>
       <c r="C556" s="1"/>
@@ -17678,7 +17678,7 @@
       <c r="Z556" s="1"/>
       <c r="AA556" s="1"/>
     </row>
-    <row r="557" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="25"/>
       <c r="C557" s="1"/>
@@ -17707,7 +17707,7 @@
       <c r="Z557" s="1"/>
       <c r="AA557" s="1"/>
     </row>
-    <row r="558" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="25"/>
       <c r="C558" s="1"/>
@@ -17736,7 +17736,7 @@
       <c r="Z558" s="1"/>
       <c r="AA558" s="1"/>
     </row>
-    <row r="559" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="25"/>
       <c r="C559" s="1"/>
@@ -17765,7 +17765,7 @@
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
     </row>
-    <row r="560" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="25"/>
       <c r="C560" s="1"/>
@@ -17794,7 +17794,7 @@
       <c r="Z560" s="1"/>
       <c r="AA560" s="1"/>
     </row>
-    <row r="561" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="25"/>
       <c r="C561" s="1"/>
@@ -17823,7 +17823,7 @@
       <c r="Z561" s="1"/>
       <c r="AA561" s="1"/>
     </row>
-    <row r="562" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="25"/>
       <c r="C562" s="1"/>
@@ -17852,7 +17852,7 @@
       <c r="Z562" s="1"/>
       <c r="AA562" s="1"/>
     </row>
-    <row r="563" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="25"/>
       <c r="C563" s="1"/>
@@ -17881,7 +17881,7 @@
       <c r="Z563" s="1"/>
       <c r="AA563" s="1"/>
     </row>
-    <row r="564" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="25"/>
       <c r="C564" s="1"/>
@@ -17910,7 +17910,7 @@
       <c r="Z564" s="1"/>
       <c r="AA564" s="1"/>
     </row>
-    <row r="565" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="25"/>
       <c r="C565" s="1"/>
@@ -17939,7 +17939,7 @@
       <c r="Z565" s="1"/>
       <c r="AA565" s="1"/>
     </row>
-    <row r="566" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="25"/>
       <c r="C566" s="1"/>
@@ -17968,7 +17968,7 @@
       <c r="Z566" s="1"/>
       <c r="AA566" s="1"/>
     </row>
-    <row r="567" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="25"/>
       <c r="C567" s="1"/>
@@ -17997,7 +17997,7 @@
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
     </row>
-    <row r="568" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="25"/>
       <c r="C568" s="1"/>
@@ -18026,7 +18026,7 @@
       <c r="Z568" s="1"/>
       <c r="AA568" s="1"/>
     </row>
-    <row r="569" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="25"/>
       <c r="C569" s="1"/>
@@ -18055,7 +18055,7 @@
       <c r="Z569" s="1"/>
       <c r="AA569" s="1"/>
     </row>
-    <row r="570" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="25"/>
       <c r="C570" s="1"/>
@@ -18084,7 +18084,7 @@
       <c r="Z570" s="1"/>
       <c r="AA570" s="1"/>
     </row>
-    <row r="571" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="25"/>
       <c r="C571" s="1"/>
@@ -18113,7 +18113,7 @@
       <c r="Z571" s="1"/>
       <c r="AA571" s="1"/>
     </row>
-    <row r="572" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="25"/>
       <c r="C572" s="1"/>
@@ -18142,7 +18142,7 @@
       <c r="Z572" s="1"/>
       <c r="AA572" s="1"/>
     </row>
-    <row r="573" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="25"/>
       <c r="C573" s="1"/>
@@ -18171,7 +18171,7 @@
       <c r="Z573" s="1"/>
       <c r="AA573" s="1"/>
     </row>
-    <row r="574" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="25"/>
       <c r="C574" s="1"/>
@@ -18200,7 +18200,7 @@
       <c r="Z574" s="1"/>
       <c r="AA574" s="1"/>
     </row>
-    <row r="575" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="25"/>
       <c r="C575" s="1"/>
@@ -18229,7 +18229,7 @@
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
     </row>
-    <row r="576" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="25"/>
       <c r="C576" s="1"/>
@@ -18258,7 +18258,7 @@
       <c r="Z576" s="1"/>
       <c r="AA576" s="1"/>
     </row>
-    <row r="577" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="25"/>
       <c r="C577" s="1"/>
@@ -18287,7 +18287,7 @@
       <c r="Z577" s="1"/>
       <c r="AA577" s="1"/>
     </row>
-    <row r="578" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="25"/>
       <c r="C578" s="1"/>
@@ -18316,7 +18316,7 @@
       <c r="Z578" s="1"/>
       <c r="AA578" s="1"/>
     </row>
-    <row r="579" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="25"/>
       <c r="C579" s="1"/>
@@ -18345,7 +18345,7 @@
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
     </row>
-    <row r="580" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="25"/>
       <c r="C580" s="1"/>
@@ -18374,7 +18374,7 @@
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
     </row>
-    <row r="581" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="25"/>
       <c r="C581" s="1"/>
@@ -18403,7 +18403,7 @@
       <c r="Z581" s="1"/>
       <c r="AA581" s="1"/>
     </row>
-    <row r="582" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="25"/>
       <c r="C582" s="1"/>
@@ -18432,7 +18432,7 @@
       <c r="Z582" s="1"/>
       <c r="AA582" s="1"/>
     </row>
-    <row r="583" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="25"/>
       <c r="C583" s="1"/>
@@ -18461,7 +18461,7 @@
       <c r="Z583" s="1"/>
       <c r="AA583" s="1"/>
     </row>
-    <row r="584" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="25"/>
       <c r="C584" s="1"/>
@@ -18490,7 +18490,7 @@
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
     </row>
-    <row r="585" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="25"/>
       <c r="C585" s="1"/>
@@ -18519,7 +18519,7 @@
       <c r="Z585" s="1"/>
       <c r="AA585" s="1"/>
     </row>
-    <row r="586" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="25"/>
       <c r="C586" s="1"/>
@@ -18548,7 +18548,7 @@
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
     </row>
-    <row r="587" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="25"/>
       <c r="C587" s="1"/>
@@ -18577,7 +18577,7 @@
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
     </row>
-    <row r="588" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="25"/>
       <c r="C588" s="1"/>
@@ -18606,7 +18606,7 @@
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
     </row>
-    <row r="589" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="25"/>
       <c r="C589" s="1"/>
@@ -18635,7 +18635,7 @@
       <c r="Z589" s="1"/>
       <c r="AA589" s="1"/>
     </row>
-    <row r="590" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="25"/>
       <c r="C590" s="1"/>
@@ -18664,7 +18664,7 @@
       <c r="Z590" s="1"/>
       <c r="AA590" s="1"/>
     </row>
-    <row r="591" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="25"/>
       <c r="C591" s="1"/>
@@ -18693,7 +18693,7 @@
       <c r="Z591" s="1"/>
       <c r="AA591" s="1"/>
     </row>
-    <row r="592" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="25"/>
       <c r="C592" s="1"/>
@@ -18722,7 +18722,7 @@
       <c r="Z592" s="1"/>
       <c r="AA592" s="1"/>
     </row>
-    <row r="593" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="25"/>
       <c r="C593" s="1"/>
@@ -18751,7 +18751,7 @@
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
     </row>
-    <row r="594" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="25"/>
       <c r="C594" s="1"/>
@@ -18780,7 +18780,7 @@
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
     </row>
-    <row r="595" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="25"/>
       <c r="C595" s="1"/>
@@ -18809,7 +18809,7 @@
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
     </row>
-    <row r="596" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="25"/>
       <c r="C596" s="1"/>
@@ -18838,7 +18838,7 @@
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
     </row>
-    <row r="597" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="25"/>
       <c r="C597" s="1"/>
@@ -18867,7 +18867,7 @@
       <c r="Z597" s="1"/>
       <c r="AA597" s="1"/>
     </row>
-    <row r="598" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="25"/>
       <c r="C598" s="1"/>
@@ -18896,7 +18896,7 @@
       <c r="Z598" s="1"/>
       <c r="AA598" s="1"/>
     </row>
-    <row r="599" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="25"/>
       <c r="C599" s="1"/>
@@ -18925,7 +18925,7 @@
       <c r="Z599" s="1"/>
       <c r="AA599" s="1"/>
     </row>
-    <row r="600" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="25"/>
       <c r="C600" s="1"/>
@@ -18954,7 +18954,7 @@
       <c r="Z600" s="1"/>
       <c r="AA600" s="1"/>
     </row>
-    <row r="601" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="25"/>
       <c r="C601" s="1"/>
@@ -18983,7 +18983,7 @@
       <c r="Z601" s="1"/>
       <c r="AA601" s="1"/>
     </row>
-    <row r="602" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="25"/>
       <c r="C602" s="1"/>
@@ -19012,7 +19012,7 @@
       <c r="Z602" s="1"/>
       <c r="AA602" s="1"/>
     </row>
-    <row r="603" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="25"/>
       <c r="C603" s="1"/>
@@ -19041,7 +19041,7 @@
       <c r="Z603" s="1"/>
       <c r="AA603" s="1"/>
     </row>
-    <row r="604" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="25"/>
       <c r="C604" s="1"/>
@@ -19070,7 +19070,7 @@
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
     </row>
-    <row r="605" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="25"/>
       <c r="C605" s="1"/>
@@ -19099,7 +19099,7 @@
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
     </row>
-    <row r="606" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="25"/>
       <c r="C606" s="1"/>
@@ -19128,7 +19128,7 @@
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
     </row>
-    <row r="607" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="25"/>
       <c r="C607" s="1"/>
@@ -19157,7 +19157,7 @@
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
     </row>
-    <row r="608" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="25"/>
       <c r="C608" s="1"/>
@@ -19186,7 +19186,7 @@
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
     </row>
-    <row r="609" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="25"/>
       <c r="C609" s="1"/>
@@ -19215,7 +19215,7 @@
       <c r="Z609" s="1"/>
       <c r="AA609" s="1"/>
     </row>
-    <row r="610" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="25"/>
       <c r="C610" s="1"/>
@@ -19244,7 +19244,7 @@
       <c r="Z610" s="1"/>
       <c r="AA610" s="1"/>
     </row>
-    <row r="611" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="25"/>
       <c r="C611" s="1"/>
@@ -19273,7 +19273,7 @@
       <c r="Z611" s="1"/>
       <c r="AA611" s="1"/>
     </row>
-    <row r="612" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="25"/>
       <c r="C612" s="1"/>
@@ -19302,7 +19302,7 @@
       <c r="Z612" s="1"/>
       <c r="AA612" s="1"/>
     </row>
-    <row r="613" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="25"/>
       <c r="C613" s="1"/>
@@ -19331,7 +19331,7 @@
       <c r="Z613" s="1"/>
       <c r="AA613" s="1"/>
     </row>
-    <row r="614" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="25"/>
       <c r="C614" s="1"/>
@@ -19360,7 +19360,7 @@
       <c r="Z614" s="1"/>
       <c r="AA614" s="1"/>
     </row>
-    <row r="615" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="25"/>
       <c r="C615" s="1"/>
@@ -19389,7 +19389,7 @@
       <c r="Z615" s="1"/>
       <c r="AA615" s="1"/>
     </row>
-    <row r="616" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="25"/>
       <c r="C616" s="1"/>
@@ -19418,7 +19418,7 @@
       <c r="Z616" s="1"/>
       <c r="AA616" s="1"/>
     </row>
-    <row r="617" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="25"/>
       <c r="C617" s="1"/>
@@ -19447,7 +19447,7 @@
       <c r="Z617" s="1"/>
       <c r="AA617" s="1"/>
     </row>
-    <row r="618" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="25"/>
       <c r="C618" s="1"/>
@@ -19476,7 +19476,7 @@
       <c r="Z618" s="1"/>
       <c r="AA618" s="1"/>
     </row>
-    <row r="619" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="25"/>
       <c r="C619" s="1"/>
@@ -19505,7 +19505,7 @@
       <c r="Z619" s="1"/>
       <c r="AA619" s="1"/>
     </row>
-    <row r="620" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="25"/>
       <c r="C620" s="1"/>
@@ -19534,7 +19534,7 @@
       <c r="Z620" s="1"/>
       <c r="AA620" s="1"/>
     </row>
-    <row r="621" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="25"/>
       <c r="C621" s="1"/>
@@ -19563,7 +19563,7 @@
       <c r="Z621" s="1"/>
       <c r="AA621" s="1"/>
     </row>
-    <row r="622" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="25"/>
       <c r="C622" s="1"/>
@@ -19592,7 +19592,7 @@
       <c r="Z622" s="1"/>
       <c r="AA622" s="1"/>
     </row>
-    <row r="623" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="25"/>
       <c r="C623" s="1"/>
@@ -19621,7 +19621,7 @@
       <c r="Z623" s="1"/>
       <c r="AA623" s="1"/>
     </row>
-    <row r="624" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="25"/>
       <c r="C624" s="1"/>
@@ -19650,7 +19650,7 @@
       <c r="Z624" s="1"/>
       <c r="AA624" s="1"/>
     </row>
-    <row r="625" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="25"/>
       <c r="C625" s="1"/>
@@ -19679,7 +19679,7 @@
       <c r="Z625" s="1"/>
       <c r="AA625" s="1"/>
     </row>
-    <row r="626" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="25"/>
       <c r="C626" s="1"/>
@@ -19708,7 +19708,7 @@
       <c r="Z626" s="1"/>
       <c r="AA626" s="1"/>
     </row>
-    <row r="627" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="25"/>
       <c r="C627" s="1"/>
@@ -19737,7 +19737,7 @@
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
     </row>
-    <row r="628" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="25"/>
       <c r="C628" s="1"/>
@@ -19766,7 +19766,7 @@
       <c r="Z628" s="1"/>
       <c r="AA628" s="1"/>
     </row>
-    <row r="629" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="25"/>
       <c r="C629" s="1"/>
@@ -19795,7 +19795,7 @@
       <c r="Z629" s="1"/>
       <c r="AA629" s="1"/>
     </row>
-    <row r="630" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="25"/>
       <c r="C630" s="1"/>
@@ -19824,7 +19824,7 @@
       <c r="Z630" s="1"/>
       <c r="AA630" s="1"/>
     </row>
-    <row r="631" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="25"/>
       <c r="C631" s="1"/>
@@ -19853,7 +19853,7 @@
       <c r="Z631" s="1"/>
       <c r="AA631" s="1"/>
     </row>
-    <row r="632" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="25"/>
       <c r="C632" s="1"/>
@@ -19882,7 +19882,7 @@
       <c r="Z632" s="1"/>
       <c r="AA632" s="1"/>
     </row>
-    <row r="633" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="25"/>
       <c r="C633" s="1"/>
@@ -19911,7 +19911,7 @@
       <c r="Z633" s="1"/>
       <c r="AA633" s="1"/>
     </row>
-    <row r="634" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="25"/>
       <c r="C634" s="1"/>
@@ -19940,7 +19940,7 @@
       <c r="Z634" s="1"/>
       <c r="AA634" s="1"/>
     </row>
-    <row r="635" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="25"/>
       <c r="C635" s="1"/>
@@ -19969,7 +19969,7 @@
       <c r="Z635" s="1"/>
       <c r="AA635" s="1"/>
     </row>
-    <row r="636" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="25"/>
       <c r="C636" s="1"/>
@@ -19998,7 +19998,7 @@
       <c r="Z636" s="1"/>
       <c r="AA636" s="1"/>
     </row>
-    <row r="637" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="25"/>
       <c r="C637" s="1"/>
@@ -20027,7 +20027,7 @@
       <c r="Z637" s="1"/>
       <c r="AA637" s="1"/>
     </row>
-    <row r="638" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="25"/>
       <c r="C638" s="1"/>
@@ -20056,7 +20056,7 @@
       <c r="Z638" s="1"/>
       <c r="AA638" s="1"/>
     </row>
-    <row r="639" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="25"/>
       <c r="C639" s="1"/>
@@ -20085,7 +20085,7 @@
       <c r="Z639" s="1"/>
       <c r="AA639" s="1"/>
     </row>
-    <row r="640" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="25"/>
       <c r="C640" s="1"/>
@@ -20114,7 +20114,7 @@
       <c r="Z640" s="1"/>
       <c r="AA640" s="1"/>
     </row>
-    <row r="641" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="25"/>
       <c r="C641" s="1"/>
@@ -20143,7 +20143,7 @@
       <c r="Z641" s="1"/>
       <c r="AA641" s="1"/>
     </row>
-    <row r="642" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="25"/>
       <c r="C642" s="1"/>
@@ -20172,7 +20172,7 @@
       <c r="Z642" s="1"/>
       <c r="AA642" s="1"/>
     </row>
-    <row r="643" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="25"/>
       <c r="C643" s="1"/>
@@ -20201,7 +20201,7 @@
       <c r="Z643" s="1"/>
       <c r="AA643" s="1"/>
     </row>
-    <row r="644" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="25"/>
       <c r="C644" s="1"/>
@@ -20230,7 +20230,7 @@
       <c r="Z644" s="1"/>
       <c r="AA644" s="1"/>
     </row>
-    <row r="645" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="25"/>
       <c r="C645" s="1"/>
@@ -20259,7 +20259,7 @@
       <c r="Z645" s="1"/>
       <c r="AA645" s="1"/>
     </row>
-    <row r="646" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="25"/>
       <c r="C646" s="1"/>
@@ -20288,7 +20288,7 @@
       <c r="Z646" s="1"/>
       <c r="AA646" s="1"/>
     </row>
-    <row r="647" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="25"/>
       <c r="C647" s="1"/>
@@ -20317,7 +20317,7 @@
       <c r="Z647" s="1"/>
       <c r="AA647" s="1"/>
     </row>
-    <row r="648" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="25"/>
       <c r="C648" s="1"/>
@@ -20346,7 +20346,7 @@
       <c r="Z648" s="1"/>
       <c r="AA648" s="1"/>
     </row>
-    <row r="649" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="25"/>
       <c r="C649" s="1"/>
@@ -20375,7 +20375,7 @@
       <c r="Z649" s="1"/>
       <c r="AA649" s="1"/>
     </row>
-    <row r="650" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="25"/>
       <c r="C650" s="1"/>
@@ -20404,7 +20404,7 @@
       <c r="Z650" s="1"/>
       <c r="AA650" s="1"/>
     </row>
-    <row r="651" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="25"/>
       <c r="C651" s="1"/>
@@ -20433,7 +20433,7 @@
       <c r="Z651" s="1"/>
       <c r="AA651" s="1"/>
     </row>
-    <row r="652" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="25"/>
       <c r="C652" s="1"/>
@@ -20462,7 +20462,7 @@
       <c r="Z652" s="1"/>
       <c r="AA652" s="1"/>
     </row>
-    <row r="653" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="25"/>
       <c r="C653" s="1"/>
@@ -20491,7 +20491,7 @@
       <c r="Z653" s="1"/>
       <c r="AA653" s="1"/>
     </row>
-    <row r="654" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="25"/>
       <c r="C654" s="1"/>
@@ -20520,7 +20520,7 @@
       <c r="Z654" s="1"/>
       <c r="AA654" s="1"/>
     </row>
-    <row r="655" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="25"/>
       <c r="C655" s="1"/>
@@ -20549,7 +20549,7 @@
       <c r="Z655" s="1"/>
       <c r="AA655" s="1"/>
     </row>
-    <row r="656" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="25"/>
       <c r="C656" s="1"/>
@@ -20578,7 +20578,7 @@
       <c r="Z656" s="1"/>
       <c r="AA656" s="1"/>
     </row>
-    <row r="657" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="25"/>
       <c r="C657" s="1"/>
@@ -20607,7 +20607,7 @@
       <c r="Z657" s="1"/>
       <c r="AA657" s="1"/>
     </row>
-    <row r="658" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="25"/>
       <c r="C658" s="1"/>
@@ -20636,7 +20636,7 @@
       <c r="Z658" s="1"/>
       <c r="AA658" s="1"/>
     </row>
-    <row r="659" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="25"/>
       <c r="C659" s="1"/>
@@ -20665,7 +20665,7 @@
       <c r="Z659" s="1"/>
       <c r="AA659" s="1"/>
     </row>
-    <row r="660" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="25"/>
       <c r="C660" s="1"/>
@@ -20694,7 +20694,7 @@
       <c r="Z660" s="1"/>
       <c r="AA660" s="1"/>
     </row>
-    <row r="661" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="25"/>
       <c r="C661" s="1"/>
@@ -20723,7 +20723,7 @@
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
     </row>
-    <row r="662" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="25"/>
       <c r="C662" s="1"/>
@@ -20752,7 +20752,7 @@
       <c r="Z662" s="1"/>
       <c r="AA662" s="1"/>
     </row>
-    <row r="663" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="25"/>
       <c r="C663" s="1"/>
@@ -20781,7 +20781,7 @@
       <c r="Z663" s="1"/>
       <c r="AA663" s="1"/>
     </row>
-    <row r="664" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="25"/>
       <c r="C664" s="1"/>
@@ -20810,7 +20810,7 @@
       <c r="Z664" s="1"/>
       <c r="AA664" s="1"/>
     </row>
-    <row r="665" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="25"/>
       <c r="C665" s="1"/>
@@ -20839,7 +20839,7 @@
       <c r="Z665" s="1"/>
       <c r="AA665" s="1"/>
     </row>
-    <row r="666" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="25"/>
       <c r="C666" s="1"/>
@@ -20868,7 +20868,7 @@
       <c r="Z666" s="1"/>
       <c r="AA666" s="1"/>
     </row>
-    <row r="667" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="25"/>
       <c r="C667" s="1"/>
@@ -20897,7 +20897,7 @@
       <c r="Z667" s="1"/>
       <c r="AA667" s="1"/>
     </row>
-    <row r="668" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="25"/>
       <c r="C668" s="1"/>
@@ -20926,7 +20926,7 @@
       <c r="Z668" s="1"/>
       <c r="AA668" s="1"/>
     </row>
-    <row r="669" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="25"/>
       <c r="C669" s="1"/>
@@ -20955,7 +20955,7 @@
       <c r="Z669" s="1"/>
       <c r="AA669" s="1"/>
     </row>
-    <row r="670" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="25"/>
       <c r="C670" s="1"/>
@@ -20984,7 +20984,7 @@
       <c r="Z670" s="1"/>
       <c r="AA670" s="1"/>
     </row>
-    <row r="671" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="25"/>
       <c r="C671" s="1"/>
@@ -21013,7 +21013,7 @@
       <c r="Z671" s="1"/>
       <c r="AA671" s="1"/>
     </row>
-    <row r="672" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="25"/>
       <c r="C672" s="1"/>
@@ -21042,7 +21042,7 @@
       <c r="Z672" s="1"/>
       <c r="AA672" s="1"/>
     </row>
-    <row r="673" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="25"/>
       <c r="C673" s="1"/>
@@ -21071,7 +21071,7 @@
       <c r="Z673" s="1"/>
       <c r="AA673" s="1"/>
     </row>
-    <row r="674" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="25"/>
       <c r="C674" s="1"/>
@@ -21100,7 +21100,7 @@
       <c r="Z674" s="1"/>
       <c r="AA674" s="1"/>
     </row>
-    <row r="675" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="25"/>
       <c r="C675" s="1"/>
@@ -21129,7 +21129,7 @@
       <c r="Z675" s="1"/>
       <c r="AA675" s="1"/>
     </row>
-    <row r="676" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="25"/>
       <c r="C676" s="1"/>
@@ -21158,7 +21158,7 @@
       <c r="Z676" s="1"/>
       <c r="AA676" s="1"/>
     </row>
-    <row r="677" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="25"/>
       <c r="C677" s="1"/>
@@ -21187,7 +21187,7 @@
       <c r="Z677" s="1"/>
       <c r="AA677" s="1"/>
     </row>
-    <row r="678" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="25"/>
       <c r="C678" s="1"/>
@@ -21216,7 +21216,7 @@
       <c r="Z678" s="1"/>
       <c r="AA678" s="1"/>
     </row>
-    <row r="679" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="25"/>
       <c r="C679" s="1"/>
@@ -21245,7 +21245,7 @@
       <c r="Z679" s="1"/>
       <c r="AA679" s="1"/>
     </row>
-    <row r="680" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="25"/>
       <c r="C680" s="1"/>
@@ -21274,7 +21274,7 @@
       <c r="Z680" s="1"/>
       <c r="AA680" s="1"/>
     </row>
-    <row r="681" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="25"/>
       <c r="C681" s="1"/>
@@ -21303,7 +21303,7 @@
       <c r="Z681" s="1"/>
       <c r="AA681" s="1"/>
     </row>
-    <row r="682" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="25"/>
       <c r="C682" s="1"/>
@@ -21332,7 +21332,7 @@
       <c r="Z682" s="1"/>
       <c r="AA682" s="1"/>
     </row>
-    <row r="683" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="25"/>
       <c r="C683" s="1"/>
@@ -21361,7 +21361,7 @@
       <c r="Z683" s="1"/>
       <c r="AA683" s="1"/>
     </row>
-    <row r="684" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="25"/>
       <c r="C684" s="1"/>
@@ -21390,7 +21390,7 @@
       <c r="Z684" s="1"/>
       <c r="AA684" s="1"/>
     </row>
-    <row r="685" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="25"/>
       <c r="C685" s="1"/>
@@ -21419,7 +21419,7 @@
       <c r="Z685" s="1"/>
       <c r="AA685" s="1"/>
     </row>
-    <row r="686" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="25"/>
       <c r="C686" s="1"/>
@@ -21448,7 +21448,7 @@
       <c r="Z686" s="1"/>
       <c r="AA686" s="1"/>
     </row>
-    <row r="687" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="25"/>
       <c r="C687" s="1"/>
@@ -21477,7 +21477,7 @@
       <c r="Z687" s="1"/>
       <c r="AA687" s="1"/>
     </row>
-    <row r="688" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="25"/>
       <c r="C688" s="1"/>
@@ -21506,7 +21506,7 @@
       <c r="Z688" s="1"/>
       <c r="AA688" s="1"/>
     </row>
-    <row r="689" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="25"/>
       <c r="C689" s="1"/>
@@ -21535,7 +21535,7 @@
       <c r="Z689" s="1"/>
       <c r="AA689" s="1"/>
     </row>
-    <row r="690" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="25"/>
       <c r="C690" s="1"/>
@@ -21564,7 +21564,7 @@
       <c r="Z690" s="1"/>
       <c r="AA690" s="1"/>
     </row>
-    <row r="691" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="25"/>
       <c r="C691" s="1"/>
@@ -21593,7 +21593,7 @@
       <c r="Z691" s="1"/>
       <c r="AA691" s="1"/>
     </row>
-    <row r="692" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="25"/>
       <c r="C692" s="1"/>
@@ -21622,7 +21622,7 @@
       <c r="Z692" s="1"/>
       <c r="AA692" s="1"/>
     </row>
-    <row r="693" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="25"/>
       <c r="C693" s="1"/>
@@ -21651,7 +21651,7 @@
       <c r="Z693" s="1"/>
       <c r="AA693" s="1"/>
     </row>
-    <row r="694" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="25"/>
       <c r="C694" s="1"/>
@@ -21680,7 +21680,7 @@
       <c r="Z694" s="1"/>
       <c r="AA694" s="1"/>
     </row>
-    <row r="695" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="25"/>
       <c r="C695" s="1"/>
@@ -21709,7 +21709,7 @@
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
     </row>
-    <row r="696" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="25"/>
       <c r="C696" s="1"/>
@@ -21738,7 +21738,7 @@
       <c r="Z696" s="1"/>
       <c r="AA696" s="1"/>
     </row>
-    <row r="697" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="25"/>
       <c r="C697" s="1"/>
@@ -21767,7 +21767,7 @@
       <c r="Z697" s="1"/>
       <c r="AA697" s="1"/>
     </row>
-    <row r="698" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="25"/>
       <c r="C698" s="1"/>
@@ -21796,7 +21796,7 @@
       <c r="Z698" s="1"/>
       <c r="AA698" s="1"/>
     </row>
-    <row r="699" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="25"/>
       <c r="C699" s="1"/>
@@ -21825,7 +21825,7 @@
       <c r="Z699" s="1"/>
       <c r="AA699" s="1"/>
     </row>
-    <row r="700" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="25"/>
       <c r="C700" s="1"/>
@@ -21854,7 +21854,7 @@
       <c r="Z700" s="1"/>
       <c r="AA700" s="1"/>
     </row>
-    <row r="701" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="25"/>
       <c r="C701" s="1"/>
@@ -21883,7 +21883,7 @@
       <c r="Z701" s="1"/>
       <c r="AA701" s="1"/>
     </row>
-    <row r="702" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="25"/>
       <c r="C702" s="1"/>
@@ -21912,7 +21912,7 @@
       <c r="Z702" s="1"/>
       <c r="AA702" s="1"/>
     </row>
-    <row r="703" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="25"/>
       <c r="C703" s="1"/>
@@ -21941,7 +21941,7 @@
       <c r="Z703" s="1"/>
       <c r="AA703" s="1"/>
     </row>
-    <row r="704" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="25"/>
       <c r="C704" s="1"/>
@@ -21970,7 +21970,7 @@
       <c r="Z704" s="1"/>
       <c r="AA704" s="1"/>
     </row>
-    <row r="705" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="25"/>
       <c r="C705" s="1"/>
@@ -21999,7 +21999,7 @@
       <c r="Z705" s="1"/>
       <c r="AA705" s="1"/>
     </row>
-    <row r="706" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="25"/>
       <c r="C706" s="1"/>
@@ -22028,7 +22028,7 @@
       <c r="Z706" s="1"/>
       <c r="AA706" s="1"/>
     </row>
-    <row r="707" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="25"/>
       <c r="C707" s="1"/>
@@ -22057,7 +22057,7 @@
       <c r="Z707" s="1"/>
       <c r="AA707" s="1"/>
     </row>
-    <row r="708" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="25"/>
       <c r="C708" s="1"/>
@@ -22086,7 +22086,7 @@
       <c r="Z708" s="1"/>
       <c r="AA708" s="1"/>
     </row>
-    <row r="709" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="25"/>
       <c r="C709" s="1"/>
@@ -22115,7 +22115,7 @@
       <c r="Z709" s="1"/>
       <c r="AA709" s="1"/>
     </row>
-    <row r="710" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="25"/>
       <c r="C710" s="1"/>
@@ -22144,7 +22144,7 @@
       <c r="Z710" s="1"/>
       <c r="AA710" s="1"/>
     </row>
-    <row r="711" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="25"/>
       <c r="C711" s="1"/>
@@ -22173,7 +22173,7 @@
       <c r="Z711" s="1"/>
       <c r="AA711" s="1"/>
     </row>
-    <row r="712" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="25"/>
       <c r="C712" s="1"/>
@@ -22202,7 +22202,7 @@
       <c r="Z712" s="1"/>
       <c r="AA712" s="1"/>
     </row>
-    <row r="713" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="25"/>
       <c r="C713" s="1"/>
@@ -22231,7 +22231,7 @@
       <c r="Z713" s="1"/>
       <c r="AA713" s="1"/>
     </row>
-    <row r="714" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="25"/>
       <c r="C714" s="1"/>
@@ -22260,7 +22260,7 @@
       <c r="Z714" s="1"/>
       <c r="AA714" s="1"/>
     </row>
-    <row r="715" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="25"/>
       <c r="C715" s="1"/>
@@ -22289,7 +22289,7 @@
       <c r="Z715" s="1"/>
       <c r="AA715" s="1"/>
     </row>
-    <row r="716" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="25"/>
       <c r="C716" s="1"/>
@@ -22318,7 +22318,7 @@
       <c r="Z716" s="1"/>
       <c r="AA716" s="1"/>
     </row>
-    <row r="717" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="25"/>
       <c r="C717" s="1"/>
@@ -22347,7 +22347,7 @@
       <c r="Z717" s="1"/>
       <c r="AA717" s="1"/>
     </row>
-    <row r="718" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="25"/>
       <c r="C718" s="1"/>
@@ -22376,7 +22376,7 @@
       <c r="Z718" s="1"/>
       <c r="AA718" s="1"/>
     </row>
-    <row r="719" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="25"/>
       <c r="C719" s="1"/>
@@ -22405,7 +22405,7 @@
       <c r="Z719" s="1"/>
       <c r="AA719" s="1"/>
     </row>
-    <row r="720" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="25"/>
       <c r="C720" s="1"/>
@@ -22434,7 +22434,7 @@
       <c r="Z720" s="1"/>
       <c r="AA720" s="1"/>
     </row>
-    <row r="721" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="25"/>
       <c r="C721" s="1"/>
@@ -22463,7 +22463,7 @@
       <c r="Z721" s="1"/>
       <c r="AA721" s="1"/>
     </row>
-    <row r="722" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="25"/>
       <c r="C722" s="1"/>
@@ -22492,7 +22492,7 @@
       <c r="Z722" s="1"/>
       <c r="AA722" s="1"/>
     </row>
-    <row r="723" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="25"/>
       <c r="C723" s="1"/>
@@ -22521,7 +22521,7 @@
       <c r="Z723" s="1"/>
       <c r="AA723" s="1"/>
     </row>
-    <row r="724" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="25"/>
       <c r="C724" s="1"/>
@@ -22550,7 +22550,7 @@
       <c r="Z724" s="1"/>
       <c r="AA724" s="1"/>
     </row>
-    <row r="725" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="25"/>
       <c r="C725" s="1"/>
@@ -22579,7 +22579,7 @@
       <c r="Z725" s="1"/>
       <c r="AA725" s="1"/>
     </row>
-    <row r="726" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="25"/>
       <c r="C726" s="1"/>
@@ -22608,7 +22608,7 @@
       <c r="Z726" s="1"/>
       <c r="AA726" s="1"/>
     </row>
-    <row r="727" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="25"/>
       <c r="C727" s="1"/>
@@ -22637,7 +22637,7 @@
       <c r="Z727" s="1"/>
       <c r="AA727" s="1"/>
     </row>
-    <row r="728" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="25"/>
       <c r="C728" s="1"/>
@@ -22666,7 +22666,7 @@
       <c r="Z728" s="1"/>
       <c r="AA728" s="1"/>
     </row>
-    <row r="729" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="25"/>
       <c r="C729" s="1"/>
@@ -22695,7 +22695,7 @@
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
     </row>
-    <row r="730" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="25"/>
       <c r="C730" s="1"/>
@@ -22724,7 +22724,7 @@
       <c r="Z730" s="1"/>
       <c r="AA730" s="1"/>
     </row>
-    <row r="731" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="25"/>
       <c r="C731" s="1"/>
@@ -22753,7 +22753,7 @@
       <c r="Z731" s="1"/>
       <c r="AA731" s="1"/>
     </row>
-    <row r="732" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="25"/>
       <c r="C732" s="1"/>
@@ -22782,7 +22782,7 @@
       <c r="Z732" s="1"/>
       <c r="AA732" s="1"/>
     </row>
-    <row r="733" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="25"/>
       <c r="C733" s="1"/>
@@ -22811,7 +22811,7 @@
       <c r="Z733" s="1"/>
       <c r="AA733" s="1"/>
     </row>
-    <row r="734" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="25"/>
       <c r="C734" s="1"/>
@@ -22840,7 +22840,7 @@
       <c r="Z734" s="1"/>
       <c r="AA734" s="1"/>
     </row>
-    <row r="735" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="25"/>
       <c r="C735" s="1"/>
@@ -22869,7 +22869,7 @@
       <c r="Z735" s="1"/>
       <c r="AA735" s="1"/>
     </row>
-    <row r="736" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="25"/>
       <c r="C736" s="1"/>
@@ -22898,7 +22898,7 @@
       <c r="Z736" s="1"/>
       <c r="AA736" s="1"/>
     </row>
-    <row r="737" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="25"/>
       <c r="C737" s="1"/>
@@ -22927,7 +22927,7 @@
       <c r="Z737" s="1"/>
       <c r="AA737" s="1"/>
     </row>
-    <row r="738" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="25"/>
       <c r="C738" s="1"/>
@@ -22956,7 +22956,7 @@
       <c r="Z738" s="1"/>
       <c r="AA738" s="1"/>
     </row>
-    <row r="739" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="25"/>
       <c r="C739" s="1"/>
@@ -22985,7 +22985,7 @@
       <c r="Z739" s="1"/>
       <c r="AA739" s="1"/>
     </row>
-    <row r="740" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="25"/>
       <c r="C740" s="1"/>
@@ -23014,7 +23014,7 @@
       <c r="Z740" s="1"/>
       <c r="AA740" s="1"/>
     </row>
-    <row r="741" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="25"/>
       <c r="C741" s="1"/>
@@ -23043,7 +23043,7 @@
       <c r="Z741" s="1"/>
       <c r="AA741" s="1"/>
     </row>
-    <row r="742" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="25"/>
       <c r="C742" s="1"/>
@@ -23072,7 +23072,7 @@
       <c r="Z742" s="1"/>
       <c r="AA742" s="1"/>
     </row>
-    <row r="743" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="25"/>
       <c r="C743" s="1"/>
@@ -23101,7 +23101,7 @@
       <c r="Z743" s="1"/>
       <c r="AA743" s="1"/>
     </row>
-    <row r="744" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="25"/>
       <c r="C744" s="1"/>
@@ -23130,7 +23130,7 @@
       <c r="Z744" s="1"/>
       <c r="AA744" s="1"/>
     </row>
-    <row r="745" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="25"/>
       <c r="C745" s="1"/>
@@ -23159,7 +23159,7 @@
       <c r="Z745" s="1"/>
       <c r="AA745" s="1"/>
     </row>
-    <row r="746" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="25"/>
       <c r="C746" s="1"/>
@@ -23188,7 +23188,7 @@
       <c r="Z746" s="1"/>
       <c r="AA746" s="1"/>
     </row>
-    <row r="747" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="25"/>
       <c r="C747" s="1"/>
@@ -23217,7 +23217,7 @@
       <c r="Z747" s="1"/>
       <c r="AA747" s="1"/>
     </row>
-    <row r="748" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="25"/>
       <c r="C748" s="1"/>
@@ -23246,7 +23246,7 @@
       <c r="Z748" s="1"/>
       <c r="AA748" s="1"/>
     </row>
-    <row r="749" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="25"/>
       <c r="C749" s="1"/>
@@ -23275,7 +23275,7 @@
       <c r="Z749" s="1"/>
       <c r="AA749" s="1"/>
     </row>
-    <row r="750" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="25"/>
       <c r="C750" s="1"/>
@@ -23304,7 +23304,7 @@
       <c r="Z750" s="1"/>
       <c r="AA750" s="1"/>
     </row>
-    <row r="751" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="25"/>
       <c r="C751" s="1"/>
@@ -23333,7 +23333,7 @@
       <c r="Z751" s="1"/>
       <c r="AA751" s="1"/>
     </row>
-    <row r="752" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="25"/>
       <c r="C752" s="1"/>
@@ -23362,7 +23362,7 @@
       <c r="Z752" s="1"/>
       <c r="AA752" s="1"/>
     </row>
-    <row r="753" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="25"/>
       <c r="C753" s="1"/>
@@ -23391,7 +23391,7 @@
       <c r="Z753" s="1"/>
       <c r="AA753" s="1"/>
     </row>
-    <row r="754" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="25"/>
       <c r="C754" s="1"/>
@@ -23420,7 +23420,7 @@
       <c r="Z754" s="1"/>
       <c r="AA754" s="1"/>
     </row>
-    <row r="755" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="25"/>
       <c r="C755" s="1"/>
@@ -23449,7 +23449,7 @@
       <c r="Z755" s="1"/>
       <c r="AA755" s="1"/>
     </row>
-    <row r="756" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="25"/>
       <c r="C756" s="1"/>
@@ -23478,7 +23478,7 @@
       <c r="Z756" s="1"/>
       <c r="AA756" s="1"/>
     </row>
-    <row r="757" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="25"/>
       <c r="C757" s="1"/>
@@ -23507,7 +23507,7 @@
       <c r="Z757" s="1"/>
       <c r="AA757" s="1"/>
     </row>
-    <row r="758" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="25"/>
       <c r="C758" s="1"/>
@@ -23536,7 +23536,7 @@
       <c r="Z758" s="1"/>
       <c r="AA758" s="1"/>
     </row>
-    <row r="759" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="25"/>
       <c r="C759" s="1"/>
@@ -23565,7 +23565,7 @@
       <c r="Z759" s="1"/>
       <c r="AA759" s="1"/>
     </row>
-    <row r="760" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="25"/>
       <c r="C760" s="1"/>
@@ -23594,7 +23594,7 @@
       <c r="Z760" s="1"/>
       <c r="AA760" s="1"/>
     </row>
-    <row r="761" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="25"/>
       <c r="C761" s="1"/>
@@ -23623,7 +23623,7 @@
       <c r="Z761" s="1"/>
       <c r="AA761" s="1"/>
     </row>
-    <row r="762" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="25"/>
       <c r="C762" s="1"/>
@@ -23652,7 +23652,7 @@
       <c r="Z762" s="1"/>
       <c r="AA762" s="1"/>
     </row>
-    <row r="763" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="25"/>
       <c r="C763" s="1"/>
@@ -23681,7 +23681,7 @@
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
     </row>
-    <row r="764" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="25"/>
       <c r="C764" s="1"/>
@@ -23710,7 +23710,7 @@
       <c r="Z764" s="1"/>
       <c r="AA764" s="1"/>
     </row>
-    <row r="765" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="25"/>
       <c r="C765" s="1"/>
@@ -23739,7 +23739,7 @@
       <c r="Z765" s="1"/>
       <c r="AA765" s="1"/>
     </row>
-    <row r="766" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="25"/>
       <c r="C766" s="1"/>
@@ -23768,7 +23768,7 @@
       <c r="Z766" s="1"/>
       <c r="AA766" s="1"/>
     </row>
-    <row r="767" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="25"/>
       <c r="C767" s="1"/>
@@ -23797,7 +23797,7 @@
       <c r="Z767" s="1"/>
       <c r="AA767" s="1"/>
     </row>
-    <row r="768" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="25"/>
       <c r="C768" s="1"/>
@@ -23826,7 +23826,7 @@
       <c r="Z768" s="1"/>
       <c r="AA768" s="1"/>
     </row>
-    <row r="769" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="25"/>
       <c r="C769" s="1"/>
@@ -23855,7 +23855,7 @@
       <c r="Z769" s="1"/>
       <c r="AA769" s="1"/>
     </row>
-    <row r="770" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="25"/>
       <c r="C770" s="1"/>
@@ -23884,7 +23884,7 @@
       <c r="Z770" s="1"/>
       <c r="AA770" s="1"/>
     </row>
-    <row r="771" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="25"/>
       <c r="C771" s="1"/>
@@ -23913,7 +23913,7 @@
       <c r="Z771" s="1"/>
       <c r="AA771" s="1"/>
     </row>
-    <row r="772" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="25"/>
       <c r="C772" s="1"/>
@@ -23942,7 +23942,7 @@
       <c r="Z772" s="1"/>
       <c r="AA772" s="1"/>
     </row>
-    <row r="773" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="25"/>
       <c r="C773" s="1"/>
@@ -23971,7 +23971,7 @@
       <c r="Z773" s="1"/>
       <c r="AA773" s="1"/>
     </row>
-    <row r="774" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="25"/>
       <c r="C774" s="1"/>
@@ -24000,7 +24000,7 @@
       <c r="Z774" s="1"/>
       <c r="AA774" s="1"/>
     </row>
-    <row r="775" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="25"/>
       <c r="C775" s="1"/>
@@ -24029,7 +24029,7 @@
       <c r="Z775" s="1"/>
       <c r="AA775" s="1"/>
     </row>
-    <row r="776" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="25"/>
       <c r="C776" s="1"/>
@@ -24058,7 +24058,7 @@
       <c r="Z776" s="1"/>
       <c r="AA776" s="1"/>
     </row>
-    <row r="777" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="25"/>
       <c r="C777" s="1"/>
@@ -24087,7 +24087,7 @@
       <c r="Z777" s="1"/>
       <c r="AA777" s="1"/>
     </row>
-    <row r="778" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="25"/>
       <c r="C778" s="1"/>
@@ -24116,7 +24116,7 @@
       <c r="Z778" s="1"/>
       <c r="AA778" s="1"/>
     </row>
-    <row r="779" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="25"/>
       <c r="C779" s="1"/>
@@ -24145,7 +24145,7 @@
       <c r="Z779" s="1"/>
       <c r="AA779" s="1"/>
     </row>
-    <row r="780" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="25"/>
       <c r="C780" s="1"/>
@@ -24174,7 +24174,7 @@
       <c r="Z780" s="1"/>
       <c r="AA780" s="1"/>
     </row>
-    <row r="781" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="25"/>
       <c r="C781" s="1"/>
@@ -24203,7 +24203,7 @@
       <c r="Z781" s="1"/>
       <c r="AA781" s="1"/>
     </row>
-    <row r="782" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="25"/>
       <c r="C782" s="1"/>
@@ -24232,7 +24232,7 @@
       <c r="Z782" s="1"/>
       <c r="AA782" s="1"/>
     </row>
-    <row r="783" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="25"/>
       <c r="C783" s="1"/>
@@ -24261,7 +24261,7 @@
       <c r="Z783" s="1"/>
       <c r="AA783" s="1"/>
     </row>
-    <row r="784" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="25"/>
       <c r="C784" s="1"/>
@@ -24290,7 +24290,7 @@
       <c r="Z784" s="1"/>
       <c r="AA784" s="1"/>
     </row>
-    <row r="785" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="25"/>
       <c r="C785" s="1"/>
@@ -24319,7 +24319,7 @@
       <c r="Z785" s="1"/>
       <c r="AA785" s="1"/>
     </row>
-    <row r="786" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="25"/>
       <c r="C786" s="1"/>
@@ -24348,7 +24348,7 @@
       <c r="Z786" s="1"/>
       <c r="AA786" s="1"/>
     </row>
-    <row r="787" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="25"/>
       <c r="C787" s="1"/>
@@ -24377,7 +24377,7 @@
       <c r="Z787" s="1"/>
       <c r="AA787" s="1"/>
     </row>
-    <row r="788" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="25"/>
       <c r="C788" s="1"/>
@@ -24406,7 +24406,7 @@
       <c r="Z788" s="1"/>
       <c r="AA788" s="1"/>
     </row>
-    <row r="789" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="25"/>
       <c r="C789" s="1"/>
@@ -24435,7 +24435,7 @@
       <c r="Z789" s="1"/>
       <c r="AA789" s="1"/>
     </row>
-    <row r="790" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="25"/>
       <c r="C790" s="1"/>
@@ -24464,7 +24464,7 @@
       <c r="Z790" s="1"/>
       <c r="AA790" s="1"/>
     </row>
-    <row r="791" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="25"/>
       <c r="C791" s="1"/>
@@ -24493,7 +24493,7 @@
       <c r="Z791" s="1"/>
       <c r="AA791" s="1"/>
     </row>
-    <row r="792" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="25"/>
       <c r="C792" s="1"/>
@@ -24522,7 +24522,7 @@
       <c r="Z792" s="1"/>
       <c r="AA792" s="1"/>
     </row>
-    <row r="793" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="25"/>
       <c r="C793" s="1"/>
@@ -24551,7 +24551,7 @@
       <c r="Z793" s="1"/>
       <c r="AA793" s="1"/>
     </row>
-    <row r="794" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="25"/>
       <c r="C794" s="1"/>
@@ -24580,7 +24580,7 @@
       <c r="Z794" s="1"/>
       <c r="AA794" s="1"/>
     </row>
-    <row r="795" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="25"/>
       <c r="C795" s="1"/>
@@ -24609,7 +24609,7 @@
       <c r="Z795" s="1"/>
       <c r="AA795" s="1"/>
     </row>
-    <row r="796" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="25"/>
       <c r="C796" s="1"/>
@@ -24638,7 +24638,7 @@
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
     </row>
-    <row r="797" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="25"/>
       <c r="C797" s="1"/>
@@ -24667,7 +24667,7 @@
       <c r="Z797" s="1"/>
       <c r="AA797" s="1"/>
     </row>
-    <row r="798" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="25"/>
       <c r="C798" s="1"/>
@@ -24696,7 +24696,7 @@
       <c r="Z798" s="1"/>
       <c r="AA798" s="1"/>
     </row>
-    <row r="799" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="25"/>
       <c r="C799" s="1"/>
@@ -24725,7 +24725,7 @@
       <c r="Z799" s="1"/>
       <c r="AA799" s="1"/>
     </row>
-    <row r="800" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="25"/>
       <c r="C800" s="1"/>
@@ -24754,7 +24754,7 @@
       <c r="Z800" s="1"/>
       <c r="AA800" s="1"/>
     </row>
-    <row r="801" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="25"/>
       <c r="C801" s="1"/>
@@ -24783,7 +24783,7 @@
       <c r="Z801" s="1"/>
       <c r="AA801" s="1"/>
     </row>
-    <row r="802" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="25"/>
       <c r="C802" s="1"/>
@@ -24812,7 +24812,7 @@
       <c r="Z802" s="1"/>
       <c r="AA802" s="1"/>
     </row>
-    <row r="803" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="25"/>
       <c r="C803" s="1"/>
@@ -24841,7 +24841,7 @@
       <c r="Z803" s="1"/>
       <c r="AA803" s="1"/>
     </row>
-    <row r="804" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="25"/>
       <c r="C804" s="1"/>
@@ -24870,7 +24870,7 @@
       <c r="Z804" s="1"/>
       <c r="AA804" s="1"/>
     </row>
-    <row r="805" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="25"/>
       <c r="C805" s="1"/>
@@ -24899,7 +24899,7 @@
       <c r="Z805" s="1"/>
       <c r="AA805" s="1"/>
     </row>
-    <row r="806" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="25"/>
       <c r="C806" s="1"/>
@@ -24928,7 +24928,7 @@
       <c r="Z806" s="1"/>
       <c r="AA806" s="1"/>
     </row>
-    <row r="807" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="25"/>
       <c r="C807" s="1"/>
@@ -24957,7 +24957,7 @@
       <c r="Z807" s="1"/>
       <c r="AA807" s="1"/>
     </row>
-    <row r="808" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="25"/>
       <c r="C808" s="1"/>
@@ -24986,7 +24986,7 @@
       <c r="Z808" s="1"/>
       <c r="AA808" s="1"/>
     </row>
-    <row r="809" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="25"/>
       <c r="C809" s="1"/>
@@ -25015,7 +25015,7 @@
       <c r="Z809" s="1"/>
       <c r="AA809" s="1"/>
     </row>
-    <row r="810" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="25"/>
       <c r="C810" s="1"/>
@@ -25044,7 +25044,7 @@
       <c r="Z810" s="1"/>
       <c r="AA810" s="1"/>
     </row>
-    <row r="811" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="25"/>
       <c r="C811" s="1"/>
@@ -25073,7 +25073,7 @@
       <c r="Z811" s="1"/>
       <c r="AA811" s="1"/>
     </row>
-    <row r="812" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="25"/>
       <c r="C812" s="1"/>
@@ -25102,7 +25102,7 @@
       <c r="Z812" s="1"/>
       <c r="AA812" s="1"/>
     </row>
-    <row r="813" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="25"/>
       <c r="C813" s="1"/>
@@ -25131,7 +25131,7 @@
       <c r="Z813" s="1"/>
       <c r="AA813" s="1"/>
     </row>
-    <row r="814" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="25"/>
       <c r="C814" s="1"/>
@@ -25160,7 +25160,7 @@
       <c r="Z814" s="1"/>
       <c r="AA814" s="1"/>
     </row>
-    <row r="815" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="25"/>
       <c r="C815" s="1"/>
@@ -25189,7 +25189,7 @@
       <c r="Z815" s="1"/>
       <c r="AA815" s="1"/>
     </row>
-    <row r="816" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="25"/>
       <c r="C816" s="1"/>
@@ -25218,7 +25218,7 @@
       <c r="Z816" s="1"/>
       <c r="AA816" s="1"/>
     </row>
-    <row r="817" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="25"/>
       <c r="C817" s="1"/>
@@ -25247,7 +25247,7 @@
       <c r="Z817" s="1"/>
       <c r="AA817" s="1"/>
     </row>
-    <row r="818" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="25"/>
       <c r="C818" s="1"/>
@@ -25276,7 +25276,7 @@
       <c r="Z818" s="1"/>
       <c r="AA818" s="1"/>
     </row>
-    <row r="819" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="25"/>
       <c r="C819" s="1"/>
@@ -25305,7 +25305,7 @@
       <c r="Z819" s="1"/>
       <c r="AA819" s="1"/>
     </row>
-    <row r="820" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="25"/>
       <c r="C820" s="1"/>
@@ -25334,7 +25334,7 @@
       <c r="Z820" s="1"/>
       <c r="AA820" s="1"/>
     </row>
-    <row r="821" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="25"/>
       <c r="C821" s="1"/>
@@ -25363,7 +25363,7 @@
       <c r="Z821" s="1"/>
       <c r="AA821" s="1"/>
     </row>
-    <row r="822" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="25"/>
       <c r="C822" s="1"/>
@@ -25392,7 +25392,7 @@
       <c r="Z822" s="1"/>
       <c r="AA822" s="1"/>
     </row>
-    <row r="823" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="25"/>
       <c r="C823" s="1"/>
@@ -25421,7 +25421,7 @@
       <c r="Z823" s="1"/>
       <c r="AA823" s="1"/>
     </row>
-    <row r="824" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="25"/>
       <c r="C824" s="1"/>
@@ -25450,7 +25450,7 @@
       <c r="Z824" s="1"/>
       <c r="AA824" s="1"/>
     </row>
-    <row r="825" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="25"/>
       <c r="C825" s="1"/>
@@ -25479,7 +25479,7 @@
       <c r="Z825" s="1"/>
       <c r="AA825" s="1"/>
     </row>
-    <row r="826" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="25"/>
       <c r="C826" s="1"/>
@@ -25508,7 +25508,7 @@
       <c r="Z826" s="1"/>
       <c r="AA826" s="1"/>
     </row>
-    <row r="827" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="25"/>
       <c r="C827" s="1"/>
@@ -25537,7 +25537,7 @@
       <c r="Z827" s="1"/>
       <c r="AA827" s="1"/>
     </row>
-    <row r="828" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="25"/>
       <c r="C828" s="1"/>
@@ -25566,7 +25566,7 @@
       <c r="Z828" s="1"/>
       <c r="AA828" s="1"/>
     </row>
-    <row r="829" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="25"/>
       <c r="C829" s="1"/>
@@ -25595,7 +25595,7 @@
       <c r="Z829" s="1"/>
       <c r="AA829" s="1"/>
     </row>
-    <row r="830" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="25"/>
       <c r="C830" s="1"/>
@@ -25624,7 +25624,7 @@
       <c r="Z830" s="1"/>
       <c r="AA830" s="1"/>
     </row>
-    <row r="831" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="25"/>
       <c r="C831" s="1"/>
@@ -25653,7 +25653,7 @@
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
     </row>
-    <row r="832" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="25"/>
       <c r="C832" s="1"/>
@@ -25682,7 +25682,7 @@
       <c r="Z832" s="1"/>
       <c r="AA832" s="1"/>
     </row>
-    <row r="833" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="25"/>
       <c r="C833" s="1"/>
@@ -25711,7 +25711,7 @@
       <c r="Z833" s="1"/>
       <c r="AA833" s="1"/>
     </row>
-    <row r="834" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="25"/>
       <c r="C834" s="1"/>
@@ -25740,7 +25740,7 @@
       <c r="Z834" s="1"/>
       <c r="AA834" s="1"/>
     </row>
-    <row r="835" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="25"/>
       <c r="C835" s="1"/>
@@ -25769,7 +25769,7 @@
       <c r="Z835" s="1"/>
       <c r="AA835" s="1"/>
     </row>
-    <row r="836" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="25"/>
       <c r="C836" s="1"/>
@@ -25798,7 +25798,7 @@
       <c r="Z836" s="1"/>
       <c r="AA836" s="1"/>
     </row>
-    <row r="837" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="25"/>
       <c r="C837" s="1"/>
@@ -25827,7 +25827,7 @@
       <c r="Z837" s="1"/>
       <c r="AA837" s="1"/>
     </row>
-    <row r="838" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="25"/>
       <c r="C838" s="1"/>
@@ -25856,7 +25856,7 @@
       <c r="Z838" s="1"/>
       <c r="AA838" s="1"/>
     </row>
-    <row r="839" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="25"/>
       <c r="C839" s="1"/>
@@ -25885,7 +25885,7 @@
       <c r="Z839" s="1"/>
       <c r="AA839" s="1"/>
     </row>
-    <row r="840" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="25"/>
       <c r="C840" s="1"/>
@@ -25914,7 +25914,7 @@
       <c r="Z840" s="1"/>
       <c r="AA840" s="1"/>
     </row>
-    <row r="841" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="25"/>
       <c r="C841" s="1"/>
@@ -25943,7 +25943,7 @@
       <c r="Z841" s="1"/>
       <c r="AA841" s="1"/>
     </row>
-    <row r="842" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="25"/>
       <c r="C842" s="1"/>
@@ -25972,7 +25972,7 @@
       <c r="Z842" s="1"/>
       <c r="AA842" s="1"/>
     </row>
-    <row r="843" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="25"/>
       <c r="C843" s="1"/>
@@ -26001,7 +26001,7 @@
       <c r="Z843" s="1"/>
       <c r="AA843" s="1"/>
     </row>
-    <row r="844" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="25"/>
       <c r="C844" s="1"/>
@@ -26030,7 +26030,7 @@
       <c r="Z844" s="1"/>
       <c r="AA844" s="1"/>
     </row>
-    <row r="845" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="25"/>
       <c r="C845" s="1"/>
@@ -26059,7 +26059,7 @@
       <c r="Z845" s="1"/>
       <c r="AA845" s="1"/>
     </row>
-    <row r="846" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="25"/>
       <c r="C846" s="1"/>
@@ -26088,7 +26088,7 @@
       <c r="Z846" s="1"/>
       <c r="AA846" s="1"/>
     </row>
-    <row r="847" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="25"/>
       <c r="C847" s="1"/>
@@ -26117,7 +26117,7 @@
       <c r="Z847" s="1"/>
       <c r="AA847" s="1"/>
     </row>
-    <row r="848" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="25"/>
       <c r="C848" s="1"/>
@@ -26146,7 +26146,7 @@
       <c r="Z848" s="1"/>
       <c r="AA848" s="1"/>
     </row>
-    <row r="849" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="25"/>
       <c r="C849" s="1"/>
@@ -26175,7 +26175,7 @@
       <c r="Z849" s="1"/>
       <c r="AA849" s="1"/>
     </row>
-    <row r="850" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="25"/>
       <c r="C850" s="1"/>
@@ -26204,7 +26204,7 @@
       <c r="Z850" s="1"/>
       <c r="AA850" s="1"/>
     </row>
-    <row r="851" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="25"/>
       <c r="C851" s="1"/>
@@ -26233,7 +26233,7 @@
       <c r="Z851" s="1"/>
       <c r="AA851" s="1"/>
     </row>
-    <row r="852" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="25"/>
       <c r="C852" s="1"/>
@@ -26262,7 +26262,7 @@
       <c r="Z852" s="1"/>
       <c r="AA852" s="1"/>
     </row>
-    <row r="853" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="25"/>
       <c r="C853" s="1"/>
@@ -26291,7 +26291,7 @@
       <c r="Z853" s="1"/>
       <c r="AA853" s="1"/>
     </row>
-    <row r="854" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="25"/>
       <c r="C854" s="1"/>
@@ -26320,7 +26320,7 @@
       <c r="Z854" s="1"/>
       <c r="AA854" s="1"/>
     </row>
-    <row r="855" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="25"/>
       <c r="C855" s="1"/>
@@ -26349,7 +26349,7 @@
       <c r="Z855" s="1"/>
       <c r="AA855" s="1"/>
     </row>
-    <row r="856" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="25"/>
       <c r="C856" s="1"/>
@@ -26378,7 +26378,7 @@
       <c r="Z856" s="1"/>
       <c r="AA856" s="1"/>
     </row>
-    <row r="857" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="25"/>
       <c r="C857" s="1"/>
@@ -26407,7 +26407,7 @@
       <c r="Z857" s="1"/>
       <c r="AA857" s="1"/>
     </row>
-    <row r="858" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="25"/>
       <c r="C858" s="1"/>
@@ -26436,7 +26436,7 @@
       <c r="Z858" s="1"/>
       <c r="AA858" s="1"/>
     </row>
-    <row r="859" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="25"/>
       <c r="C859" s="1"/>
@@ -26465,7 +26465,7 @@
       <c r="Z859" s="1"/>
       <c r="AA859" s="1"/>
     </row>
-    <row r="860" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="25"/>
       <c r="C860" s="1"/>
@@ -26494,7 +26494,7 @@
       <c r="Z860" s="1"/>
       <c r="AA860" s="1"/>
     </row>
-    <row r="861" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="25"/>
       <c r="C861" s="1"/>
@@ -26523,7 +26523,7 @@
       <c r="Z861" s="1"/>
       <c r="AA861" s="1"/>
     </row>
-    <row r="862" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="25"/>
       <c r="C862" s="1"/>
@@ -26552,7 +26552,7 @@
       <c r="Z862" s="1"/>
       <c r="AA862" s="1"/>
     </row>
-    <row r="863" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="25"/>
       <c r="C863" s="1"/>
@@ -26581,7 +26581,7 @@
       <c r="Z863" s="1"/>
       <c r="AA863" s="1"/>
     </row>
-    <row r="864" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="25"/>
       <c r="C864" s="1"/>
@@ -26610,7 +26610,7 @@
       <c r="Z864" s="1"/>
       <c r="AA864" s="1"/>
     </row>
-    <row r="865" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="25"/>
       <c r="C865" s="1"/>
@@ -26639,7 +26639,7 @@
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
     </row>
-    <row r="866" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="25"/>
       <c r="C866" s="1"/>
@@ -26668,7 +26668,7 @@
       <c r="Z866" s="1"/>
       <c r="AA866" s="1"/>
     </row>
-    <row r="867" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="25"/>
       <c r="C867" s="1"/>
@@ -26697,7 +26697,7 @@
       <c r="Z867" s="1"/>
       <c r="AA867" s="1"/>
     </row>
-    <row r="868" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="25"/>
       <c r="C868" s="1"/>
@@ -26726,7 +26726,7 @@
       <c r="Z868" s="1"/>
       <c r="AA868" s="1"/>
     </row>
-    <row r="869" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="25"/>
       <c r="C869" s="1"/>
@@ -26755,7 +26755,7 @@
       <c r="Z869" s="1"/>
       <c r="AA869" s="1"/>
     </row>
-    <row r="870" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="25"/>
       <c r="C870" s="1"/>
@@ -26784,7 +26784,7 @@
       <c r="Z870" s="1"/>
       <c r="AA870" s="1"/>
     </row>
-    <row r="871" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="25"/>
       <c r="C871" s="1"/>
@@ -26813,7 +26813,7 @@
       <c r="Z871" s="1"/>
       <c r="AA871" s="1"/>
     </row>
-    <row r="872" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="25"/>
       <c r="C872" s="1"/>
@@ -26842,7 +26842,7 @@
       <c r="Z872" s="1"/>
       <c r="AA872" s="1"/>
     </row>
-    <row r="873" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="25"/>
       <c r="C873" s="1"/>
@@ -26871,7 +26871,7 @@
       <c r="Z873" s="1"/>
       <c r="AA873" s="1"/>
     </row>
-    <row r="874" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="25"/>
       <c r="C874" s="1"/>
@@ -26900,7 +26900,7 @@
       <c r="Z874" s="1"/>
       <c r="AA874" s="1"/>
     </row>
-    <row r="875" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="25"/>
       <c r="C875" s="1"/>
@@ -26929,7 +26929,7 @@
       <c r="Z875" s="1"/>
       <c r="AA875" s="1"/>
     </row>
-    <row r="876" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="25"/>
       <c r="C876" s="1"/>
@@ -26958,7 +26958,7 @@
       <c r="Z876" s="1"/>
       <c r="AA876" s="1"/>
     </row>
-    <row r="877" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="25"/>
       <c r="C877" s="1"/>
@@ -26987,7 +26987,7 @@
       <c r="Z877" s="1"/>
       <c r="AA877" s="1"/>
     </row>
-    <row r="878" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="25"/>
       <c r="C878" s="1"/>
@@ -27016,7 +27016,7 @@
       <c r="Z878" s="1"/>
       <c r="AA878" s="1"/>
     </row>
-    <row r="879" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="25"/>
       <c r="C879" s="1"/>
@@ -27045,7 +27045,7 @@
       <c r="Z879" s="1"/>
       <c r="AA879" s="1"/>
     </row>
-    <row r="880" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="25"/>
       <c r="C880" s="1"/>
@@ -27074,7 +27074,7 @@
       <c r="Z880" s="1"/>
       <c r="AA880" s="1"/>
     </row>
-    <row r="881" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="25"/>
       <c r="C881" s="1"/>
@@ -27103,7 +27103,7 @@
       <c r="Z881" s="1"/>
       <c r="AA881" s="1"/>
     </row>
-    <row r="882" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="25"/>
       <c r="C882" s="1"/>
@@ -27132,7 +27132,7 @@
       <c r="Z882" s="1"/>
       <c r="AA882" s="1"/>
     </row>
-    <row r="883" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="25"/>
       <c r="C883" s="1"/>
@@ -27161,7 +27161,7 @@
       <c r="Z883" s="1"/>
       <c r="AA883" s="1"/>
     </row>
-    <row r="884" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="25"/>
       <c r="C884" s="1"/>
@@ -27190,7 +27190,7 @@
       <c r="Z884" s="1"/>
       <c r="AA884" s="1"/>
     </row>
-    <row r="885" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="25"/>
       <c r="C885" s="1"/>
@@ -27219,7 +27219,7 @@
       <c r="Z885" s="1"/>
       <c r="AA885" s="1"/>
     </row>
-    <row r="886" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="25"/>
       <c r="C886" s="1"/>
@@ -27248,7 +27248,7 @@
       <c r="Z886" s="1"/>
       <c r="AA886" s="1"/>
     </row>
-    <row r="887" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="25"/>
       <c r="C887" s="1"/>
@@ -27277,7 +27277,7 @@
       <c r="Z887" s="1"/>
       <c r="AA887" s="1"/>
     </row>
-    <row r="888" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="25"/>
       <c r="C888" s="1"/>
@@ -27306,7 +27306,7 @@
       <c r="Z888" s="1"/>
       <c r="AA888" s="1"/>
     </row>
-    <row r="889" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="25"/>
       <c r="C889" s="1"/>
@@ -27335,7 +27335,7 @@
       <c r="Z889" s="1"/>
       <c r="AA889" s="1"/>
     </row>
-    <row r="890" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="25"/>
       <c r="C890" s="1"/>
@@ -27364,7 +27364,7 @@
       <c r="Z890" s="1"/>
       <c r="AA890" s="1"/>
     </row>
-    <row r="891" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="25"/>
       <c r="C891" s="1"/>
@@ -27393,7 +27393,7 @@
       <c r="Z891" s="1"/>
       <c r="AA891" s="1"/>
     </row>
-    <row r="892" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="25"/>
       <c r="C892" s="1"/>
@@ -27422,7 +27422,7 @@
       <c r="Z892" s="1"/>
       <c r="AA892" s="1"/>
     </row>
-    <row r="893" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="25"/>
       <c r="C893" s="1"/>
@@ -27451,7 +27451,7 @@
       <c r="Z893" s="1"/>
       <c r="AA893" s="1"/>
     </row>
-    <row r="894" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="25"/>
       <c r="C894" s="1"/>
@@ -27480,7 +27480,7 @@
       <c r="Z894" s="1"/>
       <c r="AA894" s="1"/>
     </row>
-    <row r="895" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="25"/>
       <c r="C895" s="1"/>
@@ -27509,7 +27509,7 @@
       <c r="Z895" s="1"/>
       <c r="AA895" s="1"/>
     </row>
-    <row r="896" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="25"/>
       <c r="C896" s="1"/>
@@ -27538,7 +27538,7 @@
       <c r="Z896" s="1"/>
       <c r="AA896" s="1"/>
     </row>
-    <row r="897" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="25"/>
       <c r="C897" s="1"/>
@@ -27567,7 +27567,7 @@
       <c r="Z897" s="1"/>
       <c r="AA897" s="1"/>
     </row>
-    <row r="898" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="25"/>
       <c r="C898" s="1"/>
@@ -27596,7 +27596,7 @@
       <c r="Z898" s="1"/>
       <c r="AA898" s="1"/>
     </row>
-    <row r="899" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="25"/>
       <c r="C899" s="1"/>
@@ -27625,7 +27625,7 @@
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
     </row>
-    <row r="900" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="25"/>
       <c r="C900" s="1"/>
@@ -27654,7 +27654,7 @@
       <c r="Z900" s="1"/>
       <c r="AA900" s="1"/>
     </row>
-    <row r="901" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="25"/>
       <c r="C901" s="1"/>
@@ -27683,7 +27683,7 @@
       <c r="Z901" s="1"/>
       <c r="AA901" s="1"/>
     </row>
-    <row r="902" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="25"/>
       <c r="C902" s="1"/>
@@ -27712,7 +27712,7 @@
       <c r="Z902" s="1"/>
       <c r="AA902" s="1"/>
     </row>
-    <row r="903" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="25"/>
       <c r="C903" s="1"/>
@@ -27741,7 +27741,7 @@
       <c r="Z903" s="1"/>
       <c r="AA903" s="1"/>
     </row>
-    <row r="904" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="25"/>
       <c r="C904" s="1"/>
@@ -27770,7 +27770,7 @@
       <c r="Z904" s="1"/>
       <c r="AA904" s="1"/>
     </row>
-    <row r="905" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="25"/>
       <c r="C905" s="1"/>
@@ -27799,7 +27799,7 @@
       <c r="Z905" s="1"/>
       <c r="AA905" s="1"/>
     </row>
-    <row r="906" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="25"/>
       <c r="C906" s="1"/>
@@ -27828,7 +27828,7 @@
       <c r="Z906" s="1"/>
       <c r="AA906" s="1"/>
     </row>
-    <row r="907" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="25"/>
       <c r="C907" s="1"/>
@@ -27857,7 +27857,7 @@
       <c r="Z907" s="1"/>
       <c r="AA907" s="1"/>
     </row>
-    <row r="908" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="25"/>
       <c r="C908" s="1"/>
@@ -27886,7 +27886,7 @@
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
     </row>
-    <row r="909" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="25"/>
       <c r="C909" s="1"/>
@@ -27915,7 +27915,7 @@
       <c r="Z909" s="1"/>
       <c r="AA909" s="1"/>
     </row>
-    <row r="910" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="25"/>
       <c r="C910" s="1"/>
@@ -27944,7 +27944,7 @@
       <c r="Z910" s="1"/>
       <c r="AA910" s="1"/>
     </row>
-    <row r="911" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="25"/>
       <c r="C911" s="1"/>
@@ -27973,7 +27973,7 @@
       <c r="Z911" s="1"/>
       <c r="AA911" s="1"/>
     </row>
-    <row r="912" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="25"/>
       <c r="C912" s="1"/>
@@ -28002,7 +28002,7 @@
       <c r="Z912" s="1"/>
       <c r="AA912" s="1"/>
     </row>
-    <row r="913" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="25"/>
       <c r="C913" s="1"/>
@@ -28031,7 +28031,7 @@
       <c r="Z913" s="1"/>
       <c r="AA913" s="1"/>
     </row>
-    <row r="914" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="25"/>
       <c r="C914" s="1"/>
@@ -28060,7 +28060,7 @@
       <c r="Z914" s="1"/>
       <c r="AA914" s="1"/>
     </row>
-    <row r="915" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="25"/>
       <c r="C915" s="1"/>
@@ -28089,7 +28089,7 @@
       <c r="Z915" s="1"/>
       <c r="AA915" s="1"/>
     </row>
-    <row r="916" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="25"/>
       <c r="C916" s="1"/>
@@ -28118,7 +28118,7 @@
       <c r="Z916" s="1"/>
       <c r="AA916" s="1"/>
     </row>
-    <row r="917" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="25"/>
       <c r="C917" s="1"/>
@@ -28147,7 +28147,7 @@
       <c r="Z917" s="1"/>
       <c r="AA917" s="1"/>
     </row>
-    <row r="918" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="25"/>
       <c r="C918" s="1"/>
@@ -28176,7 +28176,7 @@
       <c r="Z918" s="1"/>
       <c r="AA918" s="1"/>
     </row>
-    <row r="919" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="25"/>
       <c r="C919" s="1"/>
@@ -28205,7 +28205,7 @@
       <c r="Z919" s="1"/>
       <c r="AA919" s="1"/>
     </row>
-    <row r="920" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="25"/>
       <c r="C920" s="1"/>
@@ -28234,7 +28234,7 @@
       <c r="Z920" s="1"/>
       <c r="AA920" s="1"/>
     </row>
-    <row r="921" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="25"/>
       <c r="C921" s="1"/>
@@ -28263,7 +28263,7 @@
       <c r="Z921" s="1"/>
       <c r="AA921" s="1"/>
     </row>
-    <row r="922" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="25"/>
       <c r="C922" s="1"/>
@@ -28292,7 +28292,7 @@
       <c r="Z922" s="1"/>
       <c r="AA922" s="1"/>
     </row>
-    <row r="923" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="25"/>
       <c r="C923" s="1"/>
@@ -28321,7 +28321,7 @@
       <c r="Z923" s="1"/>
       <c r="AA923" s="1"/>
     </row>
-    <row r="924" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="25"/>
       <c r="C924" s="1"/>
@@ -28350,7 +28350,7 @@
       <c r="Z924" s="1"/>
       <c r="AA924" s="1"/>
     </row>
-    <row r="925" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="25"/>
       <c r="C925" s="1"/>
@@ -28379,7 +28379,7 @@
       <c r="Z925" s="1"/>
       <c r="AA925" s="1"/>
     </row>
-    <row r="926" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="25"/>
       <c r="C926" s="1"/>
@@ -28408,7 +28408,7 @@
       <c r="Z926" s="1"/>
       <c r="AA926" s="1"/>
     </row>
-    <row r="927" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="25"/>
       <c r="C927" s="1"/>
@@ -28437,7 +28437,7 @@
       <c r="Z927" s="1"/>
       <c r="AA927" s="1"/>
     </row>
-    <row r="928" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="25"/>
       <c r="C928" s="1"/>
@@ -28466,7 +28466,7 @@
       <c r="Z928" s="1"/>
       <c r="AA928" s="1"/>
     </row>
-    <row r="929" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="25"/>
       <c r="C929" s="1"/>
@@ -28495,7 +28495,7 @@
       <c r="Z929" s="1"/>
       <c r="AA929" s="1"/>
     </row>
-    <row r="930" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="25"/>
       <c r="C930" s="1"/>
@@ -28524,7 +28524,7 @@
       <c r="Z930" s="1"/>
       <c r="AA930" s="1"/>
     </row>
-    <row r="931" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="25"/>
       <c r="C931" s="1"/>
@@ -28553,7 +28553,7 @@
       <c r="Z931" s="1"/>
       <c r="AA931" s="1"/>
     </row>
-    <row r="932" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="25"/>
       <c r="C932" s="1"/>
@@ -28582,7 +28582,7 @@
       <c r="Z932" s="1"/>
       <c r="AA932" s="1"/>
     </row>
-    <row r="933" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="25"/>
       <c r="C933" s="1"/>
@@ -28611,7 +28611,7 @@
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
     </row>
-    <row r="934" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="25"/>
       <c r="C934" s="1"/>
@@ -28640,7 +28640,7 @@
       <c r="Z934" s="1"/>
       <c r="AA934" s="1"/>
     </row>
-    <row r="935" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="25"/>
       <c r="C935" s="1"/>
@@ -28669,7 +28669,7 @@
       <c r="Z935" s="1"/>
       <c r="AA935" s="1"/>
     </row>
-    <row r="936" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="25"/>
       <c r="C936" s="1"/>
@@ -28698,7 +28698,7 @@
       <c r="Z936" s="1"/>
       <c r="AA936" s="1"/>
     </row>
-    <row r="937" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="25"/>
       <c r="C937" s="1"/>
@@ -28727,7 +28727,7 @@
       <c r="Z937" s="1"/>
       <c r="AA937" s="1"/>
     </row>
-    <row r="938" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="25"/>
       <c r="C938" s="1"/>
@@ -28756,7 +28756,7 @@
       <c r="Z938" s="1"/>
       <c r="AA938" s="1"/>
     </row>
-    <row r="939" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="25"/>
       <c r="C939" s="1"/>
@@ -28785,7 +28785,7 @@
       <c r="Z939" s="1"/>
       <c r="AA939" s="1"/>
     </row>
-    <row r="940" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="25"/>
       <c r="C940" s="1"/>
@@ -28814,7 +28814,7 @@
       <c r="Z940" s="1"/>
       <c r="AA940" s="1"/>
     </row>
-    <row r="941" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="25"/>
       <c r="C941" s="1"/>
@@ -28843,7 +28843,7 @@
       <c r="Z941" s="1"/>
       <c r="AA941" s="1"/>
     </row>
-    <row r="942" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="25"/>
       <c r="C942" s="1"/>
@@ -28872,7 +28872,7 @@
       <c r="Z942" s="1"/>
       <c r="AA942" s="1"/>
     </row>
-    <row r="943" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="25"/>
       <c r="C943" s="1"/>
@@ -28901,7 +28901,7 @@
       <c r="Z943" s="1"/>
       <c r="AA943" s="1"/>
     </row>
-    <row r="944" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="25"/>
       <c r="C944" s="1"/>
@@ -28930,7 +28930,7 @@
       <c r="Z944" s="1"/>
       <c r="AA944" s="1"/>
     </row>
-    <row r="945" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="25"/>
       <c r="C945" s="1"/>
@@ -28959,7 +28959,7 @@
       <c r="Z945" s="1"/>
       <c r="AA945" s="1"/>
     </row>
-    <row r="946" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="25"/>
       <c r="C946" s="1"/>
@@ -28988,7 +28988,7 @@
       <c r="Z946" s="1"/>
       <c r="AA946" s="1"/>
     </row>
-    <row r="947" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="25"/>
       <c r="C947" s="1"/>
@@ -29017,7 +29017,7 @@
       <c r="Z947" s="1"/>
       <c r="AA947" s="1"/>
     </row>
-    <row r="948" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="25"/>
       <c r="C948" s="1"/>
@@ -29046,7 +29046,7 @@
       <c r="Z948" s="1"/>
       <c r="AA948" s="1"/>
     </row>
-    <row r="949" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="25"/>
       <c r="C949" s="1"/>
@@ -29075,7 +29075,7 @@
       <c r="Z949" s="1"/>
       <c r="AA949" s="1"/>
     </row>
-    <row r="950" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="25"/>
       <c r="C950" s="1"/>
@@ -29104,7 +29104,7 @@
       <c r="Z950" s="1"/>
       <c r="AA950" s="1"/>
     </row>
-    <row r="951" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="25"/>
       <c r="C951" s="1"/>
@@ -29133,7 +29133,7 @@
       <c r="Z951" s="1"/>
       <c r="AA951" s="1"/>
     </row>
-    <row r="952" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="25"/>
       <c r="C952" s="1"/>
@@ -29162,7 +29162,7 @@
       <c r="Z952" s="1"/>
       <c r="AA952" s="1"/>
     </row>
-    <row r="953" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="25"/>
       <c r="C953" s="1"/>
@@ -29191,7 +29191,7 @@
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
     </row>
-    <row r="954" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="25"/>
       <c r="C954" s="1"/>
@@ -29220,7 +29220,7 @@
       <c r="Z954" s="1"/>
       <c r="AA954" s="1"/>
     </row>
-    <row r="955" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="25"/>
       <c r="C955" s="1"/>
@@ -29249,7 +29249,7 @@
       <c r="Z955" s="1"/>
       <c r="AA955" s="1"/>
     </row>
-    <row r="956" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="25"/>
       <c r="C956" s="1"/>
@@ -29278,7 +29278,7 @@
       <c r="Z956" s="1"/>
       <c r="AA956" s="1"/>
     </row>
-    <row r="957" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="25"/>
       <c r="C957" s="1"/>
@@ -29307,7 +29307,7 @@
       <c r="Z957" s="1"/>
       <c r="AA957" s="1"/>
     </row>
-    <row r="958" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="25"/>
       <c r="C958" s="1"/>
@@ -29336,7 +29336,7 @@
       <c r="Z958" s="1"/>
       <c r="AA958" s="1"/>
     </row>
-    <row r="959" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="25"/>
       <c r="C959" s="1"/>
@@ -29365,7 +29365,7 @@
       <c r="Z959" s="1"/>
       <c r="AA959" s="1"/>
     </row>
-    <row r="960" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="25"/>
       <c r="C960" s="1"/>
@@ -29394,7 +29394,7 @@
       <c r="Z960" s="1"/>
       <c r="AA960" s="1"/>
     </row>
-    <row r="961" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="25"/>
       <c r="C961" s="1"/>
@@ -29423,7 +29423,7 @@
       <c r="Z961" s="1"/>
       <c r="AA961" s="1"/>
     </row>
-    <row r="962" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="25"/>
       <c r="C962" s="1"/>
@@ -29452,7 +29452,7 @@
       <c r="Z962" s="1"/>
       <c r="AA962" s="1"/>
     </row>
-    <row r="963" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="B963" s="25"/>
       <c r="C963" s="1"/>
@@ -29481,7 +29481,7 @@
       <c r="Z963" s="1"/>
       <c r="AA963" s="1"/>
     </row>
-    <row r="964" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="25"/>
       <c r="C964" s="1"/>
@@ -29510,7 +29510,7 @@
       <c r="Z964" s="1"/>
       <c r="AA964" s="1"/>
     </row>
-    <row r="965" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="B965" s="25"/>
       <c r="C965" s="1"/>
@@ -29539,7 +29539,7 @@
       <c r="Z965" s="1"/>
       <c r="AA965" s="1"/>
     </row>
-    <row r="966" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="B966" s="25"/>
       <c r="C966" s="1"/>
@@ -29568,7 +29568,7 @@
       <c r="Z966" s="1"/>
       <c r="AA966" s="1"/>
     </row>
-    <row r="967" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="B967" s="25"/>
       <c r="C967" s="1"/>
@@ -29597,7 +29597,7 @@
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
     </row>
-    <row r="968" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="B968" s="25"/>
       <c r="C968" s="1"/>
@@ -29626,7 +29626,7 @@
       <c r="Z968" s="1"/>
       <c r="AA968" s="1"/>
     </row>
-    <row r="969" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="B969" s="25"/>
       <c r="C969" s="1"/>
@@ -29655,7 +29655,7 @@
       <c r="Z969" s="1"/>
       <c r="AA969" s="1"/>
     </row>
-    <row r="970" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="B970" s="25"/>
       <c r="C970" s="1"/>
@@ -29684,7 +29684,7 @@
       <c r="Z970" s="1"/>
       <c r="AA970" s="1"/>
     </row>
-    <row r="971" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="25"/>
       <c r="C971" s="1"/>
@@ -29713,7 +29713,7 @@
       <c r="Z971" s="1"/>
       <c r="AA971" s="1"/>
     </row>
-    <row r="972" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="B972" s="25"/>
       <c r="C972" s="1"/>
@@ -29742,7 +29742,7 @@
       <c r="Z972" s="1"/>
       <c r="AA972" s="1"/>
     </row>
-    <row r="973" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="B973" s="25"/>
       <c r="C973" s="1"/>
@@ -29771,7 +29771,7 @@
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
     </row>
-    <row r="974" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="B974" s="25"/>
       <c r="C974" s="1"/>
@@ -29800,7 +29800,7 @@
       <c r="Z974" s="1"/>
       <c r="AA974" s="1"/>
     </row>
-    <row r="975" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="25"/>
       <c r="C975" s="1"/>
@@ -29829,7 +29829,7 @@
       <c r="Z975" s="1"/>
       <c r="AA975" s="1"/>
     </row>
-    <row r="976" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="B976" s="25"/>
       <c r="C976" s="1"/>
@@ -29858,7 +29858,7 @@
       <c r="Z976" s="1"/>
       <c r="AA976" s="1"/>
     </row>
-    <row r="977" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="B977" s="25"/>
       <c r="C977" s="1"/>
@@ -29887,7 +29887,7 @@
       <c r="Z977" s="1"/>
       <c r="AA977" s="1"/>
     </row>
-    <row r="978" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="B978" s="25"/>
       <c r="C978" s="1"/>
@@ -29916,7 +29916,7 @@
       <c r="Z978" s="1"/>
       <c r="AA978" s="1"/>
     </row>
-    <row r="979" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="B979" s="25"/>
       <c r="C979" s="1"/>
@@ -29945,7 +29945,7 @@
       <c r="Z979" s="1"/>
       <c r="AA979" s="1"/>
     </row>
-    <row r="980" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="B980" s="25"/>
       <c r="C980" s="1"/>
@@ -29974,7 +29974,7 @@
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
     </row>
-    <row r="981" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A981" s="1"/>
       <c r="B981" s="25"/>
       <c r="C981" s="1"/>
@@ -30003,7 +30003,7 @@
       <c r="Z981" s="1"/>
       <c r="AA981" s="1"/>
     </row>
-    <row r="982" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A982" s="1"/>
       <c r="B982" s="25"/>
       <c r="C982" s="1"/>
@@ -30032,7 +30032,7 @@
       <c r="Z982" s="1"/>
       <c r="AA982" s="1"/>
     </row>
-    <row r="983" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="25"/>
       <c r="C983" s="1"/>
@@ -30061,7 +30061,7 @@
       <c r="Z983" s="1"/>
       <c r="AA983" s="1"/>
     </row>
-    <row r="984" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A984" s="1"/>
       <c r="B984" s="25"/>
       <c r="C984" s="1"/>
@@ -30090,7 +30090,7 @@
       <c r="Z984" s="1"/>
       <c r="AA984" s="1"/>
     </row>
-    <row r="985" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A985" s="1"/>
       <c r="B985" s="25"/>
       <c r="C985" s="1"/>
@@ -30119,7 +30119,7 @@
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
     </row>
-    <row r="986" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A986" s="1"/>
       <c r="B986" s="25"/>
       <c r="C986" s="1"/>
@@ -30148,7 +30148,7 @@
       <c r="Z986" s="1"/>
       <c r="AA986" s="1"/>
     </row>
-    <row r="987" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="25"/>
       <c r="C987" s="1"/>
@@ -30177,7 +30177,7 @@
       <c r="Z987" s="1"/>
       <c r="AA987" s="1"/>
     </row>
-    <row r="988" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A988" s="1"/>
       <c r="B988" s="25"/>
       <c r="C988" s="1"/>
@@ -30206,7 +30206,7 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
-    <row r="989" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A989" s="1"/>
       <c r="B989" s="25"/>
       <c r="C989" s="1"/>
@@ -30235,7 +30235,7 @@
       <c r="Z989" s="1"/>
       <c r="AA989" s="1"/>
     </row>
-    <row r="990" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A990" s="1"/>
       <c r="B990" s="25"/>
       <c r="C990" s="1"/>
@@ -30264,7 +30264,7 @@
       <c r="Z990" s="1"/>
       <c r="AA990" s="1"/>
     </row>
-    <row r="991" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A991" s="1"/>
       <c r="B991" s="25"/>
       <c r="C991" s="1"/>
@@ -30293,7 +30293,7 @@
       <c r="Z991" s="1"/>
       <c r="AA991" s="1"/>
     </row>
-    <row r="992" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A992" s="1"/>
       <c r="B992" s="25"/>
       <c r="C992" s="1"/>
@@ -30322,7 +30322,7 @@
       <c r="Z992" s="1"/>
       <c r="AA992" s="1"/>
     </row>
-    <row r="993" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A993" s="1"/>
       <c r="B993" s="25"/>
       <c r="C993" s="1"/>
@@ -30351,7 +30351,7 @@
       <c r="Z993" s="1"/>
       <c r="AA993" s="1"/>
     </row>
-    <row r="994" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A994" s="1"/>
       <c r="B994" s="25"/>
       <c r="C994" s="1"/>
@@ -30380,7 +30380,7 @@
       <c r="Z994" s="1"/>
       <c r="AA994" s="1"/>
     </row>
-    <row r="995" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="25"/>
       <c r="C995" s="1"/>
@@ -30409,7 +30409,7 @@
       <c r="Z995" s="1"/>
       <c r="AA995" s="1"/>
     </row>
-    <row r="996" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A996" s="1"/>
       <c r="B996" s="25"/>
       <c r="C996" s="1"/>
@@ -30438,7 +30438,7 @@
       <c r="Z996" s="1"/>
       <c r="AA996" s="1"/>
     </row>
-    <row r="997" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A997" s="1"/>
       <c r="B997" s="25"/>
       <c r="C997" s="1"/>
@@ -30467,7 +30467,7 @@
       <c r="Z997" s="1"/>
       <c r="AA997" s="1"/>
     </row>
-    <row r="998" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A998" s="1"/>
       <c r="B998" s="25"/>
       <c r="C998" s="1"/>
@@ -30496,7 +30496,7 @@
       <c r="Z998" s="1"/>
       <c r="AA998" s="1"/>
     </row>
-    <row r="999" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="25"/>
       <c r="C999" s="1"/>
@@ -30525,7 +30525,7 @@
       <c r="Z999" s="1"/>
       <c r="AA999" s="1"/>
     </row>
-    <row r="1000" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1000" s="1"/>
       <c r="B1000" s="25"/>
       <c r="C1000" s="1"/>
@@ -30554,7 +30554,7 @@
       <c r="Z1000" s="1"/>
       <c r="AA1000" s="1"/>
     </row>
-    <row r="1001" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1001" s="1"/>
       <c r="B1001" s="25"/>
       <c r="C1001" s="1"/>
@@ -30583,7 +30583,7 @@
       <c r="Z1001" s="1"/>
       <c r="AA1001" s="1"/>
     </row>
-    <row r="1002" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1002" s="1"/>
       <c r="B1002" s="25"/>
       <c r="C1002" s="1"/>
@@ -30612,7 +30612,7 @@
       <c r="Z1002" s="1"/>
       <c r="AA1002" s="1"/>
     </row>
-    <row r="1003" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1003" s="1"/>
       <c r="B1003" s="25"/>
       <c r="C1003" s="1"/>
@@ -30641,7 +30641,7 @@
       <c r="Z1003" s="1"/>
       <c r="AA1003" s="1"/>
     </row>
-    <row r="1004" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1004" s="1"/>
       <c r="B1004" s="25"/>
       <c r="C1004" s="1"/>
@@ -30670,7 +30670,7 @@
       <c r="Z1004" s="1"/>
       <c r="AA1004" s="1"/>
     </row>
-    <row r="1005" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1005" s="1"/>
       <c r="B1005" s="25"/>
       <c r="C1005" s="1"/>
@@ -30699,7 +30699,7 @@
       <c r="Z1005" s="1"/>
       <c r="AA1005" s="1"/>
     </row>
-    <row r="1006" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1006" s="1"/>
       <c r="B1006" s="25"/>
       <c r="C1006" s="1"/>
@@ -30728,7 +30728,7 @@
       <c r="Z1006" s="1"/>
       <c r="AA1006" s="1"/>
     </row>
-    <row r="1007" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1007" s="1"/>
       <c r="B1007" s="25"/>
       <c r="C1007" s="1"/>
@@ -30757,7 +30757,7 @@
       <c r="Z1007" s="1"/>
       <c r="AA1007" s="1"/>
     </row>
-    <row r="1008" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1008" s="1"/>
       <c r="B1008" s="25"/>
       <c r="C1008" s="1"/>
@@ -30786,7 +30786,7 @@
       <c r="Z1008" s="1"/>
       <c r="AA1008" s="1"/>
     </row>
-    <row r="1009" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1009" s="1"/>
       <c r="B1009" s="25"/>
       <c r="C1009" s="1"/>
@@ -30815,7 +30815,7 @@
       <c r="Z1009" s="1"/>
       <c r="AA1009" s="1"/>
     </row>
-    <row r="1010" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1010" s="1"/>
       <c r="B1010" s="25"/>
       <c r="C1010" s="1"/>
@@ -30844,7 +30844,7 @@
       <c r="Z1010" s="1"/>
       <c r="AA1010" s="1"/>
     </row>
-    <row r="1011" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1011" s="1"/>
       <c r="B1011" s="25"/>
       <c r="C1011" s="1"/>
@@ -30873,7 +30873,7 @@
       <c r="Z1011" s="1"/>
       <c r="AA1011" s="1"/>
     </row>
-    <row r="1012" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1012" s="1"/>
       <c r="B1012" s="25"/>
       <c r="C1012" s="1"/>
@@ -30902,7 +30902,7 @@
       <c r="Z1012" s="1"/>
       <c r="AA1012" s="1"/>
     </row>
-    <row r="1013" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1013" s="1"/>
       <c r="B1013" s="25"/>
       <c r="C1013" s="1"/>
@@ -30931,7 +30931,7 @@
       <c r="Z1013" s="1"/>
       <c r="AA1013" s="1"/>
     </row>
-    <row r="1014" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1014" s="1"/>
       <c r="B1014" s="25"/>
       <c r="C1014" s="1"/>
@@ -30960,7 +30960,7 @@
       <c r="Z1014" s="1"/>
       <c r="AA1014" s="1"/>
     </row>
-    <row r="1015" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1015" s="1"/>
       <c r="B1015" s="25"/>
       <c r="C1015" s="1"/>
@@ -30989,7 +30989,7 @@
       <c r="Z1015" s="1"/>
       <c r="AA1015" s="1"/>
     </row>
-    <row r="1016" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1016" s="1"/>
       <c r="B1016" s="25"/>
       <c r="C1016" s="1"/>
@@ -31018,7 +31018,7 @@
       <c r="Z1016" s="1"/>
       <c r="AA1016" s="1"/>
     </row>
-    <row r="1017" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1017" s="1"/>
       <c r="B1017" s="25"/>
       <c r="C1017" s="1"/>
@@ -31047,7 +31047,7 @@
       <c r="Z1017" s="1"/>
       <c r="AA1017" s="1"/>
     </row>
-    <row r="1018" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1018" s="1"/>
       <c r="B1018" s="25"/>
       <c r="C1018" s="1"/>
@@ -31076,7 +31076,7 @@
       <c r="Z1018" s="1"/>
       <c r="AA1018" s="1"/>
     </row>
-    <row r="1019" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1019" s="1"/>
       <c r="B1019" s="25"/>
       <c r="C1019" s="1"/>
@@ -31105,7 +31105,7 @@
       <c r="Z1019" s="1"/>
       <c r="AA1019" s="1"/>
     </row>
-    <row r="1020" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1020" s="1"/>
       <c r="B1020" s="25"/>
       <c r="C1020" s="1"/>
@@ -31134,7 +31134,7 @@
       <c r="Z1020" s="1"/>
       <c r="AA1020" s="1"/>
     </row>
-    <row r="1021" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1021" s="1"/>
       <c r="B1021" s="25"/>
       <c r="C1021" s="1"/>
@@ -31163,7 +31163,7 @@
       <c r="Z1021" s="1"/>
       <c r="AA1021" s="1"/>
     </row>
-    <row r="1022" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1022" s="1"/>
       <c r="B1022" s="25"/>
       <c r="C1022" s="1"/>
@@ -31192,7 +31192,7 @@
       <c r="Z1022" s="1"/>
       <c r="AA1022" s="1"/>
     </row>
-    <row r="1023" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1023" s="1"/>
       <c r="B1023" s="25"/>
       <c r="C1023" s="1"/>
@@ -31221,7 +31221,7 @@
       <c r="Z1023" s="1"/>
       <c r="AA1023" s="1"/>
     </row>
-    <row r="1024" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1024" s="1"/>
       <c r="B1024" s="25"/>
       <c r="C1024" s="1"/>
@@ -31250,7 +31250,7 @@
       <c r="Z1024" s="1"/>
       <c r="AA1024" s="1"/>
     </row>
-    <row r="1025" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1025" s="1"/>
       <c r="B1025" s="25"/>
       <c r="C1025" s="1"/>
@@ -31279,7 +31279,7 @@
       <c r="Z1025" s="1"/>
       <c r="AA1025" s="1"/>
     </row>
-    <row r="1026" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1026" s="1"/>
       <c r="B1026" s="25"/>
       <c r="C1026" s="1"/>
@@ -31308,7 +31308,7 @@
       <c r="Z1026" s="1"/>
       <c r="AA1026" s="1"/>
     </row>
-    <row r="1027" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1027" s="1"/>
       <c r="B1027" s="25"/>
       <c r="C1027" s="1"/>
@@ -31337,7 +31337,7 @@
       <c r="Z1027" s="1"/>
       <c r="AA1027" s="1"/>
     </row>
-    <row r="1028" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1028" s="1"/>
       <c r="B1028" s="25"/>
       <c r="C1028" s="1"/>
@@ -31366,7 +31366,7 @@
       <c r="Z1028" s="1"/>
       <c r="AA1028" s="1"/>
     </row>
-    <row r="1029" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1029" s="1"/>
       <c r="B1029" s="25"/>
       <c r="C1029" s="1"/>
@@ -31395,7 +31395,7 @@
       <c r="Z1029" s="1"/>
       <c r="AA1029" s="1"/>
     </row>
-    <row r="1030" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1030" s="1"/>
       <c r="B1030" s="25"/>
       <c r="C1030" s="1"/>
@@ -31424,7 +31424,7 @@
       <c r="Z1030" s="1"/>
       <c r="AA1030" s="1"/>
     </row>
-    <row r="1031" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1031" s="1"/>
       <c r="B1031" s="25"/>
       <c r="C1031" s="1"/>

--- a/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
+++ b/doc/Andalusier documenten/Andalusier Planning en taakverdeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\andalusier\doc\Andalusier documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\xampp\htdocs\andalusier\doc\Andalusier documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,8 +381,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -427,6 +427,11 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -572,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,6 +660,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1047,7 @@
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1076,7 +1084,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1117,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1154,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1191,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1226,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1263,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1300,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1337,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1364,7 +1372,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1407,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1442,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="25"/>
@@ -1463,7 +1471,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="25"/>
@@ -1492,7 +1500,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="25"/>
@@ -1521,7 +1529,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1552,7 +1560,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1595,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1630,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1665,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1692,7 +1700,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +1735,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1770,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +1805,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +1840,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>37</v>
       </c>
@@ -1867,7 +1875,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
@@ -1902,7 +1910,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>40</v>
       </c>
@@ -1937,7 +1945,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="2"/>
       <c r="C27" s="25"/>
@@ -1965,7 +1973,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="25"/>
@@ -1994,7 +2002,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="25"/>
@@ -2023,7 +2031,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -2054,7 +2062,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>43</v>
       </c>
@@ -2089,7 +2097,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>45</v>
       </c>
@@ -2124,7 +2132,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>46</v>
       </c>
@@ -2159,7 +2167,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>48</v>
       </c>
@@ -2194,7 +2202,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>49</v>
       </c>
@@ -2229,7 +2237,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>50</v>
       </c>
@@ -2264,7 +2272,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
@@ -2299,7 +2307,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>52</v>
       </c>
@@ -2334,7 +2342,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>54</v>
       </c>
@@ -2343,8 +2351,8 @@
         <v>55</v>
       </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="3" t="s">
-        <v>34</v>
+      <c r="E39" s="48" t="s">
+        <v>8</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
@@ -2369,7 +2377,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>56</v>
       </c>
@@ -2404,7 +2412,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -2439,7 +2447,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>58</v>
       </c>
@@ -2474,7 +2482,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>61</v>
       </c>
@@ -2509,7 +2517,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="25"/>
@@ -2538,7 +2546,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="25"/>
@@ -2567,7 +2575,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="25"/>
@@ -2596,7 +2604,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
@@ -2627,7 +2635,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>64</v>
       </c>
@@ -2662,7 +2670,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>65</v>
       </c>
@@ -2697,7 +2705,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>66</v>
       </c>
@@ -2732,7 +2740,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>67</v>
       </c>
@@ -2767,7 +2775,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>68</v>
       </c>
@@ -2802,7 +2810,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -2837,7 +2845,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -2872,7 +2880,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -2907,7 +2915,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>74</v>
       </c>
@@ -2942,7 +2950,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>75</v>
       </c>
@@ -2977,7 +2985,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>56</v>
       </c>
@@ -3012,7 +3020,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>76</v>
       </c>
@@ -3047,7 +3055,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="25"/>
@@ -3076,7 +3084,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="25"/>
@@ -3105,7 +3113,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="25"/>
@@ -3134,7 +3142,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>78</v>
       </c>
@@ -3165,7 +3173,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>79</v>
       </c>
@@ -3200,7 +3208,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>80</v>
       </c>
@@ -3235,7 +3243,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>81</v>
       </c>
@@ -3270,7 +3278,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -3305,7 +3313,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>86</v>
       </c>
@@ -3340,7 +3348,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>87</v>
       </c>
@@ -3375,7 +3383,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>88</v>
       </c>
@@ -3410,7 +3418,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>89</v>
       </c>
@@ -3445,7 +3453,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>91</v>
       </c>
@@ -3480,7 +3488,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
         <v>92</v>
       </c>
@@ -3515,7 +3523,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>94</v>
       </c>
@@ -3550,7 +3558,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>96</v>
       </c>
@@ -3585,7 +3593,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>97</v>
       </c>
@@ -3620,7 +3628,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>98</v>
       </c>
@@ -3655,7 +3663,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>99</v>
       </c>
@@ -3690,7 +3698,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>101</v>
       </c>
@@ -3725,7 +3733,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>102</v>
       </c>
@@ -3760,7 +3768,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="25"/>
@@ -3789,7 +3797,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="25"/>
@@ -3818,7 +3826,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="25"/>
@@ -3847,7 +3855,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>103</v>
       </c>
@@ -3878,7 +3886,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3919,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
         <v>104</v>
       </c>
@@ -3944,7 +3952,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
         <v>28</v>
       </c>
@@ -3977,7 +3985,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
         <v>31</v>
       </c>
@@ -4010,7 +4018,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="25"/>
@@ -4039,7 +4047,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>21</v>
       </c>
@@ -4070,7 +4078,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +4111,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4144,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
         <v>28</v>
       </c>
@@ -4169,7 +4177,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>31</v>
       </c>
@@ -4202,7 +4210,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4231,7 +4239,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
         <v>42</v>
       </c>
@@ -4262,7 +4270,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
         <v>24</v>
       </c>
@@ -4295,7 +4303,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
         <v>8</v>
       </c>
@@ -4328,7 +4336,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="39" t="s">
         <v>28</v>
       </c>
@@ -4361,7 +4369,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
         <v>31</v>
       </c>
@@ -4394,7 +4402,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4423,7 +4431,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
         <v>63</v>
       </c>
@@ -4454,7 +4462,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>24</v>
       </c>
@@ -4487,7 +4495,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="39" t="s">
         <v>8</v>
       </c>
@@ -4520,7 +4528,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
         <v>28</v>
       </c>
@@ -4553,7 +4561,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="39" t="s">
         <v>31</v>
       </c>
@@ -4586,7 +4594,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
@@ -4615,7 +4623,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
         <v>78</v>
       </c>
@@ -4646,7 +4654,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
         <v>24</v>
       </c>
@@ -4679,7 +4687,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
         <v>8</v>
       </c>
@@ -4712,7 +4720,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="39" t="s">
         <v>28</v>
       </c>
@@ -4745,7 +4753,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="39" t="s">
         <v>31</v>
       </c>
@@ -4778,7 +4786,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -4807,7 +4815,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -4836,7 +4844,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="38" t="s">
         <v>105</v>
       </c>
@@ -4867,7 +4875,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="39" t="s">
         <v>24</v>
       </c>
@@ -4900,7 +4908,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="39" t="s">
         <v>8</v>
       </c>
@@ -4933,7 +4941,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="39" t="s">
         <v>28</v>
       </c>
@@ -4966,7 +4974,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="39" t="s">
         <v>31</v>
       </c>
@@ -4999,7 +5007,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="25"/>
       <c r="C120" s="1"/>
@@ -5028,7 +5036,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="25"/>
       <c r="C121" s="1"/>
@@ -5057,7 +5065,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="39" t="s">
         <v>108</v>
       </c>
@@ -5088,7 +5096,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="39" t="s">
         <v>109</v>
       </c>
@@ -5119,7 +5127,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="39" t="s">
         <v>110</v>
       </c>
@@ -5150,7 +5158,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="25"/>
       <c r="C125" s="1"/>
@@ -5179,7 +5187,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="25"/>
       <c r="C126" s="1"/>
@@ -5208,7 +5216,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="25"/>
       <c r="C127" s="1"/>
@@ -5237,7 +5245,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="25"/>
       <c r="C128" s="1"/>
@@ -5266,7 +5274,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="25"/>
       <c r="C129" s="1"/>
@@ -5295,7 +5303,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="25"/>
       <c r="C130" s="1"/>
@@ -5324,7 +5332,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="25"/>
       <c r="C131" s="1"/>
@@ -5353,7 +5361,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="25"/>
       <c r="C132" s="1"/>
@@ -5382,7 +5390,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="25"/>
       <c r="C133" s="1"/>
@@ -5411,7 +5419,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="25"/>
       <c r="C134" s="1"/>
@@ -5440,7 +5448,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="25"/>
       <c r="C135" s="1"/>
@@ -5469,7 +5477,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="25"/>
       <c r="C136" s="1"/>
@@ -5498,7 +5506,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="25"/>
       <c r="C137" s="1"/>
@@ -5527,7 +5535,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="25"/>
       <c r="C138" s="1"/>
@@ -5556,7 +5564,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="25"/>
       <c r="C139" s="1"/>
@@ -5585,7 +5593,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="25"/>
       <c r="C140" s="1"/>
@@ -5614,7 +5622,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="25"/>
       <c r="C141" s="1"/>
@@ -5643,7 +5651,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="25"/>
       <c r="C142" s="1"/>
@@ -5672,7 +5680,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="25"/>
       <c r="C143" s="1"/>
@@ -5701,7 +5709,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="25"/>
       <c r="C144" s="1"/>
@@ -5730,7 +5738,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="25"/>
       <c r="C145" s="1"/>
@@ -5759,7 +5767,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="25"/>
       <c r="C146" s="1"/>
@@ -5788,7 +5796,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="25"/>
       <c r="C147" s="1"/>
@@ -5817,7 +5825,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="25"/>
       <c r="C148" s="1"/>
@@ -5846,7 +5854,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="25"/>
       <c r="C149" s="1"/>
@@ -5875,7 +5883,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="25"/>
       <c r="C150" s="1"/>
@@ -5904,7 +5912,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="25"/>
       <c r="C151" s="1"/>
@@ -5933,7 +5941,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="25"/>
       <c r="C152" s="1"/>
@@ -5962,7 +5970,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="25"/>
       <c r="C153" s="1"/>
@@ -5991,7 +5999,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="25"/>
       <c r="C154" s="1"/>
@@ -6020,7 +6028,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="25"/>
       <c r="C155" s="1"/>
@@ -6049,7 +6057,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="25"/>
       <c r="C156" s="1"/>
@@ -6078,7 +6086,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="25"/>
       <c r="C157" s="1"/>
@@ -6107,7 +6115,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="25"/>
       <c r="C158" s="1"/>
@@ -6136,7 +6144,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="25"/>
       <c r="C159" s="1"/>
@@ -6165,7 +6173,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="25"/>
       <c r="C160" s="1"/>
@@ -6194,7 +6202,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="25"/>
       <c r="C161" s="1"/>
@@ -6223,7 +6231,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="25"/>
       <c r="C162" s="1"/>
@@ -6252,7 +6260,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="25"/>
       <c r="C163" s="1"/>
@@ -6281,7 +6289,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="25"/>
       <c r="C164" s="1"/>
@@ -6310,7 +6318,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="25"/>
       <c r="C165" s="1"/>
@@ -6339,7 +6347,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="25"/>
       <c r="C166" s="1"/>
@@ -6368,7 +6376,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="25"/>
       <c r="C167" s="1"/>
@@ -6397,7 +6405,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="25"/>
       <c r="C168" s="1"/>
@@ -6426,7 +6434,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="25"/>
       <c r="C169" s="1"/>
@@ -6455,7 +6463,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="25"/>
       <c r="C170" s="1"/>
@@ -6484,7 +6492,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="25"/>
       <c r="C171" s="1"/>
@@ -6513,7 +6521,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="25"/>
       <c r="C172" s="1"/>
@@ -6542,7 +6550,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="25"/>
       <c r="C173" s="1"/>
@@ -6571,7 +6579,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="25"/>
       <c r="C174" s="1"/>
@@ -6600,7 +6608,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="25"/>
       <c r="C175" s="1"/>
@@ -6629,7 +6637,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="25"/>
       <c r="C176" s="1"/>
@@ -6658,7 +6666,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="25"/>
       <c r="C177" s="1"/>
@@ -6687,7 +6695,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="25"/>
       <c r="C178" s="1"/>
@@ -6716,7 +6724,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="25"/>
       <c r="C179" s="1"/>
@@ -6745,7 +6753,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="25"/>
       <c r="C180" s="1"/>
@@ -6774,7 +6782,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="25"/>
       <c r="C181" s="1"/>
@@ -6803,7 +6811,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="25"/>
       <c r="C182" s="1"/>
@@ -6832,7 +6840,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="25"/>
       <c r="C183" s="1"/>
@@ -6861,7 +6869,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="25"/>
       <c r="C184" s="1"/>
@@ -6890,7 +6898,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="25"/>
       <c r="C185" s="1"/>
@@ -6919,7 +6927,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="25"/>
       <c r="C186" s="1"/>
@@ -6948,7 +6956,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="25"/>
       <c r="C187" s="1"/>
@@ -6977,7 +6985,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="25"/>
       <c r="C188" s="1"/>
@@ -7006,7 +7014,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="25"/>
       <c r="C189" s="1"/>
@@ -7035,7 +7043,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="25"/>
       <c r="C190" s="1"/>
@@ -7064,7 +7072,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="25"/>
       <c r="C191" s="1"/>
@@ -7093,7 +7101,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="25"/>
       <c r="C192" s="1"/>
@@ -7122,7 +7130,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="25"/>
       <c r="C193" s="1"/>
@@ -7151,7 +7159,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="25"/>
       <c r="C194" s="1"/>
@@ -7180,7 +7188,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="25"/>
       <c r="C195" s="1"/>
@@ -7209,7 +7217,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="25"/>
       <c r="C196" s="1"/>
@@ -7238,7 +7246,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="25"/>
       <c r="C197" s="1"/>
@@ -7267,7 +7275,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="25"/>
       <c r="C198" s="1"/>
@@ -7296,7 +7304,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="25"/>
       <c r="C199" s="1"/>
@@ -7325,7 +7333,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="25"/>
       <c r="C200" s="1"/>
@@ -7354,7 +7362,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="25"/>
       <c r="C201" s="1"/>
@@ -7383,7 +7391,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="25"/>
       <c r="C202" s="1"/>
@@ -7412,7 +7420,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="25"/>
       <c r="C203" s="1"/>
@@ -7441,7 +7449,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="25"/>
       <c r="C204" s="1"/>
@@ -7470,7 +7478,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="25"/>
       <c r="C205" s="1"/>
@@ -7499,7 +7507,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="25"/>
       <c r="C206" s="1"/>
@@ -7528,7 +7536,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
     </row>
-    <row r="207" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="25"/>
       <c r="C207" s="1"/>
@@ -7557,7 +7565,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
     </row>
-    <row r="208" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="25"/>
       <c r="C208" s="1"/>
@@ -7586,7 +7594,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="25"/>
       <c r="C209" s="1"/>
@@ -7615,7 +7623,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="25"/>
       <c r="C210" s="1"/>
@@ -7644,7 +7652,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="25"/>
       <c r="C211" s="1"/>
@@ -7673,7 +7681,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="25"/>
       <c r="C212" s="1"/>
@@ -7702,7 +7710,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="25"/>
       <c r="C213" s="1"/>
@@ -7731,7 +7739,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="25"/>
       <c r="C214" s="1"/>
@@ -7760,7 +7768,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="25"/>
       <c r="C215" s="1"/>
@@ -7789,7 +7797,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
     </row>
-    <row r="216" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="25"/>
       <c r="C216" s="1"/>
@@ -7818,7 +7826,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
     </row>
-    <row r="217" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="25"/>
       <c r="C217" s="1"/>
@@ -7847,7 +7855,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
     </row>
-    <row r="218" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="25"/>
       <c r="C218" s="1"/>
@@ -7876,7 +7884,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="25"/>
       <c r="C219" s="1"/>
@@ -7905,7 +7913,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="25"/>
       <c r="C220" s="1"/>
@@ -7934,7 +7942,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="25"/>
       <c r="C221" s="1"/>
@@ -7963,7 +7971,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="25"/>
       <c r="C222" s="1"/>
@@ -7992,7 +8000,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="25"/>
       <c r="C223" s="1"/>
@@ -8021,7 +8029,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
     </row>
-    <row r="224" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="25"/>
       <c r="C224" s="1"/>
@@ -8050,7 +8058,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="25"/>
       <c r="C225" s="1"/>
@@ -8079,7 +8087,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="25"/>
       <c r="C226" s="1"/>
@@ -8108,7 +8116,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="25"/>
       <c r="C227" s="1"/>
@@ -8137,7 +8145,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="25"/>
       <c r="C228" s="1"/>
@@ -8166,7 +8174,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="25"/>
       <c r="C229" s="1"/>
@@ -8195,7 +8203,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="25"/>
       <c r="C230" s="1"/>
@@ -8224,7 +8232,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="25"/>
       <c r="C231" s="1"/>
@@ -8253,7 +8261,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="25"/>
       <c r="C232" s="1"/>
@@ -8282,7 +8290,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
     </row>
-    <row r="233" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="25"/>
       <c r="C233" s="1"/>
@@ -8311,7 +8319,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="25"/>
       <c r="C234" s="1"/>
@@ -8340,7 +8348,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="25"/>
       <c r="C235" s="1"/>
@@ -8369,7 +8377,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
     </row>
-    <row r="236" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="25"/>
       <c r="C236" s="1"/>
@@ -8398,7 +8406,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="25"/>
       <c r="C237" s="1"/>
@@ -8427,7 +8435,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="25"/>
       <c r="C238" s="1"/>
@@ -8456,7 +8464,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="25"/>
       <c r="C239" s="1"/>
@@ -8485,7 +8493,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="25"/>
       <c r="C240" s="1"/>
@@ -8514,7 +8522,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="25"/>
       <c r="C241" s="1"/>
@@ -8543,7 +8551,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="25"/>
       <c r="C242" s="1"/>
@@ -8572,7 +8580,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="25"/>
       <c r="C243" s="1"/>
@@ -8601,7 +8609,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="25"/>
       <c r="C244" s="1"/>
@@ -8630,7 +8638,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="25"/>
       <c r="C245" s="1"/>
@@ -8659,7 +8667,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="25"/>
       <c r="C246" s="1"/>
@@ -8688,7 +8696,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="25"/>
       <c r="C247" s="1"/>
@@ -8717,7 +8725,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="25"/>
       <c r="C248" s="1"/>
@@ -8746,7 +8754,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="25"/>
       <c r="C249" s="1"/>
@@ -8775,7 +8783,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="25"/>
       <c r="C250" s="1"/>
@@ -8804,7 +8812,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="25"/>
       <c r="C251" s="1"/>
@@ -8833,7 +8841,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="25"/>
       <c r="C252" s="1"/>
@@ -8862,7 +8870,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="25"/>
       <c r="C253" s="1"/>
@@ -8891,7 +8899,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="25"/>
       <c r="C254" s="1"/>
@@ -8920,7 +8928,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="25"/>
       <c r="C255" s="1"/>
@@ -8949,7 +8957,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="25"/>
       <c r="C256" s="1"/>
@@ -8978,7 +8986,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="25"/>
       <c r="C257" s="1"/>
@@ -9007,7 +9015,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="25"/>
       <c r="C258" s="1"/>
@@ -9036,7 +9044,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="25"/>
       <c r="C259" s="1"/>
@@ -9065,7 +9073,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="25"/>
       <c r="C260" s="1"/>
@@ -9094,7 +9102,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="25"/>
       <c r="C261" s="1"/>
@@ -9123,7 +9131,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="25"/>
       <c r="C262" s="1"/>
@@ -9152,7 +9160,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="25"/>
       <c r="C263" s="1"/>
@@ -9181,7 +9189,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="25"/>
       <c r="C264" s="1"/>
@@ -9210,7 +9218,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="25"/>
       <c r="C265" s="1"/>
@@ -9239,7 +9247,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="25"/>
       <c r="C266" s="1"/>
@@ -9268,7 +9276,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="25"/>
       <c r="C267" s="1"/>
@@ -9297,7 +9305,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="25"/>
       <c r="C268" s="1"/>
@@ -9326,7 +9334,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="25"/>
       <c r="C269" s="1"/>
@@ -9355,7 +9363,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="25"/>
       <c r="C270" s="1"/>
@@ -9384,7 +9392,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="25"/>
       <c r="C271" s="1"/>
@@ -9413,7 +9421,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="25"/>
       <c r="C272" s="1"/>
@@ -9442,7 +9450,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="25"/>
       <c r="C273" s="1"/>
@@ -9471,7 +9479,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="25"/>
       <c r="C274" s="1"/>
@@ -9500,7 +9508,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="25"/>
       <c r="C275" s="1"/>
@@ -9529,7 +9537,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="25"/>
       <c r="C276" s="1"/>
@@ -9558,7 +9566,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="25"/>
       <c r="C277" s="1"/>
@@ -9587,7 +9595,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="25"/>
       <c r="C278" s="1"/>
@@ -9616,7 +9624,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="25"/>
       <c r="C279" s="1"/>
@@ -9645,7 +9653,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="25"/>
       <c r="C280" s="1"/>
@@ -9674,7 +9682,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="25"/>
       <c r="C281" s="1"/>
@@ -9703,7 +9711,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="25"/>
       <c r="C282" s="1"/>
@@ -9732,7 +9740,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="25"/>
       <c r="C283" s="1"/>
@@ -9761,7 +9769,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="25"/>
       <c r="C284" s="1"/>
@@ -9790,7 +9798,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="25"/>
       <c r="C285" s="1"/>
@@ -9819,7 +9827,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="25"/>
       <c r="C286" s="1"/>
@@ -9848,7 +9856,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="25"/>
       <c r="C287" s="1"/>
@@ -9877,7 +9885,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="25"/>
       <c r="C288" s="1"/>
@@ -9906,7 +9914,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="25"/>
       <c r="C289" s="1"/>
@@ -9935,7 +9943,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="25"/>
       <c r="C290" s="1"/>
@@ -9964,7 +9972,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="25"/>
       <c r="C291" s="1"/>
@@ -9993,7 +10001,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="25"/>
       <c r="C292" s="1"/>
@@ -10022,7 +10030,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="25"/>
       <c r="C293" s="1"/>
@@ -10051,7 +10059,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="25"/>
       <c r="C294" s="1"/>
@@ -10080,7 +10088,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="25"/>
       <c r="C295" s="1"/>
@@ -10109,7 +10117,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
     </row>
-    <row r="296" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="25"/>
       <c r="C296" s="1"/>
@@ -10138,7 +10146,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="25"/>
       <c r="C297" s="1"/>
@@ -10167,7 +10175,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
     </row>
-    <row r="298" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="25"/>
       <c r="C298" s="1"/>
@@ -10196,7 +10204,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="25"/>
       <c r="C299" s="1"/>
@@ -10225,7 +10233,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="25"/>
       <c r="C300" s="1"/>
@@ -10254,7 +10262,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="25"/>
       <c r="C301" s="1"/>
@@ -10283,7 +10291,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="25"/>
       <c r="C302" s="1"/>
@@ -10312,7 +10320,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="25"/>
       <c r="C303" s="1"/>
@@ -10341,7 +10349,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="25"/>
       <c r="C304" s="1"/>
@@ -10370,7 +10378,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="25"/>
       <c r="C305" s="1"/>
@@ -10399,7 +10407,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="25"/>
       <c r="C306" s="1"/>
@@ -10428,7 +10436,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="25"/>
       <c r="C307" s="1"/>
@@ -10457,7 +10465,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="25"/>
       <c r="C308" s="1"/>
@@ -10486,7 +10494,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="25"/>
       <c r="C309" s="1"/>
@@ -10515,7 +10523,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="25"/>
       <c r="C310" s="1"/>
@@ -10544,7 +10552,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="25"/>
       <c r="C311" s="1"/>
@@ -10573,7 +10581,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="25"/>
       <c r="C312" s="1"/>
@@ -10602,7 +10610,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="25"/>
       <c r="C313" s="1"/>
@@ -10631,7 +10639,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="25"/>
       <c r="C314" s="1"/>
@@ -10660,7 +10668,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="25"/>
       <c r="C315" s="1"/>
@@ -10689,7 +10697,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="25"/>
       <c r="C316" s="1"/>
@@ -10718,7 +10726,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="25"/>
       <c r="C317" s="1"/>
@@ -10747,7 +10755,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="25"/>
       <c r="C318" s="1"/>
@@ -10776,7 +10784,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="25"/>
       <c r="C319" s="1"/>
@@ -10805,7 +10813,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="25"/>
       <c r="C320" s="1"/>
@@ -10834,7 +10842,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="25"/>
       <c r="C321" s="1"/>
@@ -10863,7 +10871,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="25"/>
       <c r="C322" s="1"/>
@@ -10892,7 +10900,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="25"/>
       <c r="C323" s="1"/>
@@ -10921,7 +10929,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="25"/>
       <c r="C324" s="1"/>
@@ -10950,7 +10958,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="25"/>
       <c r="C325" s="1"/>
@@ -10979,7 +10987,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="25"/>
       <c r="C326" s="1"/>
@@ -11008,7 +11016,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="25"/>
       <c r="C327" s="1"/>
@@ -11037,7 +11045,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="25"/>
       <c r="C328" s="1"/>
@@ -11066,7 +11074,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="25"/>
       <c r="C329" s="1"/>
@@ -11095,7 +11103,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="25"/>
       <c r="C330" s="1"/>
@@ -11124,7 +11132,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="25"/>
       <c r="C331" s="1"/>
@@ -11153,7 +11161,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="25"/>
       <c r="C332" s="1"/>
@@ -11182,7 +11190,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="25"/>
       <c r="C333" s="1"/>
@@ -11211,7 +11219,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="25"/>
       <c r="C334" s="1"/>
@@ -11240,7 +11248,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="25"/>
       <c r="C335" s="1"/>
@@ -11269,7 +11277,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="25"/>
       <c r="C336" s="1"/>
@@ -11298,7 +11306,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="25"/>
       <c r="C337" s="1"/>
@@ -11327,7 +11335,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="25"/>
       <c r="C338" s="1"/>
@@ -11356,7 +11364,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="25"/>
       <c r="C339" s="1"/>
@@ -11385,7 +11393,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="25"/>
       <c r="C340" s="1"/>
@@ -11414,7 +11422,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="25"/>
       <c r="C341" s="1"/>
@@ -11443,7 +11451,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="25"/>
       <c r="C342" s="1"/>
@@ -11472,7 +11480,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="25"/>
       <c r="C343" s="1"/>
@@ -11501,7 +11509,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="25"/>
       <c r="C344" s="1"/>
@@ -11530,7 +11538,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="25"/>
       <c r="C345" s="1"/>
@@ -11559,7 +11567,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="25"/>
       <c r="C346" s="1"/>
@@ -11588,7 +11596,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="25"/>
       <c r="C347" s="1"/>
@@ -11617,7 +11625,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="25"/>
       <c r="C348" s="1"/>
@@ -11646,7 +11654,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="25"/>
       <c r="C349" s="1"/>
@@ -11675,7 +11683,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="25"/>
       <c r="C350" s="1"/>
@@ -11704,7 +11712,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="25"/>
       <c r="C351" s="1"/>
@@ -11733,7 +11741,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="25"/>
       <c r="C352" s="1"/>
@@ -11762,7 +11770,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="25"/>
       <c r="C353" s="1"/>
@@ -11791,7 +11799,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="25"/>
       <c r="C354" s="1"/>
@@ -11820,7 +11828,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="25"/>
       <c r="C355" s="1"/>
@@ -11849,7 +11857,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="25"/>
       <c r="C356" s="1"/>
@@ -11878,7 +11886,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="25"/>
       <c r="C357" s="1"/>
@@ -11907,7 +11915,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="25"/>
       <c r="C358" s="1"/>
@@ -11936,7 +11944,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="25"/>
       <c r="C359" s="1"/>
@@ -11965,7 +11973,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="25"/>
       <c r="C360" s="1"/>
@@ -11994,7 +12002,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="25"/>
       <c r="C361" s="1"/>
@@ -12023,7 +12031,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="25"/>
       <c r="C362" s="1"/>
@@ -12052,7 +12060,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="25"/>
       <c r="C363" s="1"/>
@@ -12081,7 +12089,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="25"/>
       <c r="C364" s="1"/>
@@ -12110,7 +12118,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="25"/>
       <c r="C365" s="1"/>
@@ -12139,7 +12147,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="25"/>
       <c r="C366" s="1"/>
@@ -12168,7 +12176,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="25"/>
       <c r="C367" s="1"/>
@@ -12197,7 +12205,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="25"/>
       <c r="C368" s="1"/>
@@ -12226,7 +12234,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="25"/>
       <c r="C369" s="1"/>
@@ -12255,7 +12263,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="25"/>
       <c r="C370" s="1"/>
@@ -12284,7 +12292,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="25"/>
       <c r="C371" s="1"/>
@@ -12313,7 +12321,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="25"/>
       <c r="C372" s="1"/>
@@ -12342,7 +12350,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="25"/>
       <c r="C373" s="1"/>
@@ -12371,7 +12379,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="25"/>
       <c r="C374" s="1"/>
@@ -12400,7 +12408,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="25"/>
       <c r="C375" s="1"/>
@@ -12429,7 +12437,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="25"/>
       <c r="C376" s="1"/>
@@ -12458,7 +12466,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="25"/>
       <c r="C377" s="1"/>
@@ -12487,7 +12495,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="25"/>
       <c r="C378" s="1"/>
@@ -12516,7 +12524,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="25"/>
       <c r="C379" s="1"/>
@@ -12545,7 +12553,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="25"/>
       <c r="C380" s="1"/>
@@ -12574,7 +12582,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="25"/>
       <c r="C381" s="1"/>
@@ -12603,7 +12611,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="25"/>
       <c r="C382" s="1"/>
@@ -12632,7 +12640,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="25"/>
       <c r="C383" s="1"/>
@@ -12661,7 +12669,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="25"/>
       <c r="C384" s="1"/>
@@ -12690,7 +12698,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="25"/>
       <c r="C385" s="1"/>
@@ -12719,7 +12727,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="25"/>
       <c r="C386" s="1"/>
@@ -12748,7 +12756,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="25"/>
       <c r="C387" s="1"/>
@@ -12777,7 +12785,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="25"/>
       <c r="C388" s="1"/>
@@ -12806,7 +12814,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="25"/>
       <c r="C389" s="1"/>
@@ -12835,7 +12843,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="25"/>
       <c r="C390" s="1"/>
@@ -12864,7 +12872,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="25"/>
       <c r="C391" s="1"/>
@@ -12893,7 +12901,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="25"/>
       <c r="C392" s="1"/>
@@ -12922,7 +12930,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="25"/>
       <c r="C393" s="1"/>
@@ -12951,7 +12959,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="25"/>
       <c r="C394" s="1"/>
@@ -12980,7 +12988,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="25"/>
       <c r="C395" s="1"/>
@@ -13009,7 +13017,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="25"/>
       <c r="C396" s="1"/>
@@ -13038,7 +13046,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="25"/>
       <c r="C397" s="1"/>
@@ -13067,7 +13075,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="25"/>
       <c r="C398" s="1"/>
@@ -13096,7 +13104,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="25"/>
       <c r="C399" s="1"/>
@@ -13125,7 +13133,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="25"/>
       <c r="C400" s="1"/>
@@ -13154,7 +13162,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="25"/>
       <c r="C401" s="1"/>
@@ -13183,7 +13191,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="25"/>
       <c r="C402" s="1"/>
@@ -13212,7 +13220,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="25"/>
       <c r="C403" s="1"/>
@@ -13241,7 +13249,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="25"/>
       <c r="C404" s="1"/>
@@ -13270,7 +13278,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="25"/>
       <c r="C405" s="1"/>
@@ -13299,7 +13307,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="25"/>
       <c r="C406" s="1"/>
@@ -13328,7 +13336,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="25"/>
       <c r="C407" s="1"/>
@@ -13357,7 +13365,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="25"/>
       <c r="C408" s="1"/>
@@ -13386,7 +13394,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="25"/>
       <c r="C409" s="1"/>
@@ -13415,7 +13423,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="25"/>
       <c r="C410" s="1"/>
@@ -13444,7 +13452,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="25"/>
       <c r="C411" s="1"/>
@@ -13473,7 +13481,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="25"/>
       <c r="C412" s="1"/>
@@ -13502,7 +13510,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="25"/>
       <c r="C413" s="1"/>
@@ -13531,7 +13539,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="25"/>
       <c r="C414" s="1"/>
@@ -13560,7 +13568,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="25"/>
       <c r="C415" s="1"/>
@@ -13589,7 +13597,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="25"/>
       <c r="C416" s="1"/>
@@ -13618,7 +13626,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="25"/>
       <c r="C417" s="1"/>
@@ -13647,7 +13655,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="25"/>
       <c r="C418" s="1"/>
@@ -13676,7 +13684,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="25"/>
       <c r="C419" s="1"/>
@@ -13705,7 +13713,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="25"/>
       <c r="C420" s="1"/>
@@ -13734,7 +13742,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="25"/>
       <c r="C421" s="1"/>
@@ -13763,7 +13771,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="25"/>
       <c r="C422" s="1"/>
@@ -13792,7 +13800,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="25"/>
       <c r="C423" s="1"/>
@@ -13821,7 +13829,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="25"/>
       <c r="C424" s="1"/>
@@ -13850,7 +13858,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="25"/>
       <c r="C425" s="1"/>
@@ -13879,7 +13887,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="25"/>
       <c r="C426" s="1"/>
@@ -13908,7 +13916,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="25"/>
       <c r="C427" s="1"/>
@@ -13937,7 +13945,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="25"/>
       <c r="C428" s="1"/>
@@ -13966,7 +13974,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="25"/>
       <c r="C429" s="1"/>
@@ -13995,7 +14003,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="25"/>
       <c r="C430" s="1"/>
@@ -14024,7 +14032,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="25"/>
       <c r="C431" s="1"/>
@@ -14053,7 +14061,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="25"/>
       <c r="C432" s="1"/>
@@ -14082,7 +14090,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="25"/>
       <c r="C433" s="1"/>
@@ -14111,7 +14119,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="25"/>
       <c r="C434" s="1"/>
@@ -14140,7 +14148,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="25"/>
       <c r="C435" s="1"/>
@@ -14169,7 +14177,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="25"/>
       <c r="C436" s="1"/>
@@ -14198,7 +14206,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="25"/>
       <c r="C437" s="1"/>
@@ -14227,7 +14235,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="25"/>
       <c r="C438" s="1"/>
@@ -14256,7 +14264,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
     </row>
-    <row r="439" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="25"/>
       <c r="C439" s="1"/>
@@ -14285,7 +14293,7 @@
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
     </row>
-    <row r="440" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="25"/>
       <c r="C440" s="1"/>
@@ -14314,7 +14322,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
     </row>
-    <row r="441" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="25"/>
       <c r="C441" s="1"/>
@@ -14343,7 +14351,7 @@
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
     </row>
-    <row r="442" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="25"/>
       <c r="C442" s="1"/>
@@ -14372,7 +14380,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="25"/>
       <c r="C443" s="1"/>
@@ -14401,7 +14409,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
     </row>
-    <row r="444" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="25"/>
       <c r="C444" s="1"/>
@@ -14430,7 +14438,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
     </row>
-    <row r="445" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="25"/>
       <c r="C445" s="1"/>
@@ -14459,7 +14467,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
     </row>
-    <row r="446" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="25"/>
       <c r="C446" s="1"/>
@@ -14488,7 +14496,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
     </row>
-    <row r="447" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="25"/>
       <c r="C447" s="1"/>
@@ -14517,7 +14525,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
     </row>
-    <row r="448" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="25"/>
       <c r="C448" s="1"/>
@@ -14546,7 +14554,7 @@
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
     </row>
-    <row r="449" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="25"/>
       <c r="C449" s="1"/>
@@ -14575,7 +14583,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
     </row>
-    <row r="450" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="25"/>
       <c r="C450" s="1"/>
@@ -14604,7 +14612,7 @@
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
     </row>
-    <row r="451" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="25"/>
       <c r="C451" s="1"/>
@@ -14633,7 +14641,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
     </row>
-    <row r="452" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="25"/>
       <c r="C452" s="1"/>
@@ -14662,7 +14670,7 @@
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
     </row>
-    <row r="453" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="25"/>
       <c r="C453" s="1"/>
@@ -14691,7 +14699,7 @@
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
     </row>
-    <row r="454" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="25"/>
       <c r="C454" s="1"/>
@@ -14720,7 +14728,7 @@
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
     </row>
-    <row r="455" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="25"/>
       <c r="C455" s="1"/>
@@ -14749,7 +14757,7 @@
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
     </row>
-    <row r="456" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="25"/>
       <c r="C456" s="1"/>
@@ -14778,7 +14786,7 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
     </row>
-    <row r="457" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="25"/>
       <c r="C457" s="1"/>
@@ -14807,7 +14815,7 @@
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
     </row>
-    <row r="458" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="25"/>
       <c r="C458" s="1"/>
@@ -14836,7 +14844,7 @@
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
     </row>
-    <row r="459" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="25"/>
       <c r="C459" s="1"/>
@@ -14865,7 +14873,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="25"/>
       <c r="C460" s="1"/>
@@ -14894,7 +14902,7 @@
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
     </row>
-    <row r="461" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="25"/>
       <c r="C461" s="1"/>
@@ -14923,7 +14931,7 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
     </row>
-    <row r="462" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="25"/>
       <c r="C462" s="1"/>
@@ -14952,7 +14960,7 @@
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
     </row>
-    <row r="463" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="25"/>
       <c r="C463" s="1"/>
@@ -14981,7 +14989,7 @@
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
     </row>
-    <row r="464" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="25"/>
       <c r="C464" s="1"/>
@@ -15010,7 +15018,7 @@
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
     </row>
-    <row r="465" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="25"/>
       <c r="C465" s="1"/>
@@ -15039,7 +15047,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="25"/>
       <c r="C466" s="1"/>
@@ -15068,7 +15076,7 @@
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
     </row>
-    <row r="467" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="25"/>
       <c r="C467" s="1"/>
@@ -15097,7 +15105,7 @@
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
     </row>
-    <row r="468" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="25"/>
       <c r="C468" s="1"/>
@@ -15126,7 +15134,7 @@
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
     </row>
-    <row r="469" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="25"/>
       <c r="C469" s="1"/>
@@ -15155,7 +15163,7 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
     </row>
-    <row r="470" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="25"/>
       <c r="C470" s="1"/>
@@ -15184,7 +15192,7 @@
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
     </row>
-    <row r="471" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="25"/>
       <c r="C471" s="1"/>
@@ -15213,7 +15221,7 @@
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
     </row>
-    <row r="472" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="25"/>
       <c r="C472" s="1"/>
@@ -15242,7 +15250,7 @@
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
     </row>
-    <row r="473" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="25"/>
       <c r="C473" s="1"/>
@@ -15271,7 +15279,7 @@
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
     </row>
-    <row r="474" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="25"/>
       <c r="C474" s="1"/>
@@ -15300,7 +15308,7 @@
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
     </row>
-    <row r="475" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="25"/>
       <c r="C475" s="1"/>
@@ -15329,7 +15337,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="25"/>
       <c r="C476" s="1"/>
@@ -15358,7 +15366,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="25"/>
       <c r="C477" s="1"/>
@@ -15387,7 +15395,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="25"/>
       <c r="C478" s="1"/>
@@ -15416,7 +15424,7 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="25"/>
       <c r="C479" s="1"/>
@@ -15445,7 +15453,7 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
     </row>
-    <row r="480" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="25"/>
       <c r="C480" s="1"/>
@@ -15474,7 +15482,7 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
     </row>
-    <row r="481" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="25"/>
       <c r="C481" s="1"/>
@@ -15503,7 +15511,7 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
     </row>
-    <row r="482" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="25"/>
       <c r="C482" s="1"/>
@@ -15532,7 +15540,7 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
     </row>
-    <row r="483" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="25"/>
       <c r="C483" s="1"/>
@@ -15561,7 +15569,7 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="25"/>
       <c r="C484" s="1"/>
@@ -15590,7 +15598,7 @@
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
     </row>
-    <row r="485" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="25"/>
       <c r="C485" s="1"/>
@@ -15619,7 +15627,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
     </row>
-    <row r="486" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="25"/>
       <c r="C486" s="1"/>
@@ -15648,7 +15656,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
     </row>
-    <row r="487" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="25"/>
       <c r="C487" s="1"/>
@@ -15677,7 +15685,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
     </row>
-    <row r="488" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="25"/>
       <c r="C488" s="1"/>
@@ -15706,7 +15714,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
     </row>
-    <row r="489" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="25"/>
       <c r="C489" s="1"/>
@@ -15735,7 +15743,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
     </row>
-    <row r="490" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="25"/>
       <c r="C490" s="1"/>
@@ -15764,7 +15772,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
     </row>
-    <row r="491" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="25"/>
       <c r="C491" s="1"/>
@@ -15793,7 +15801,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
     </row>
-    <row r="492" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="25"/>
       <c r="C492" s="1"/>
@@ -15822,7 +15830,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
     </row>
-    <row r="493" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="25"/>
       <c r="C493" s="1"/>
@@ -15851,7 +15859,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
     </row>
-    <row r="494" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="25"/>
       <c r="C494" s="1"/>
@@ -15880,7 +15888,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
     </row>
-    <row r="495" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="25"/>
       <c r="C495" s="1"/>
@@ -15909,7 +15917,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
     </row>
-    <row r="496" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="25"/>
       <c r="C496" s="1"/>
@@ -15938,7 +15946,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
     </row>
-    <row r="497" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="25"/>
       <c r="C497" s="1"/>
@@ -15967,7 +15975,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
     </row>
-    <row r="498" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="25"/>
       <c r="C498" s="1"/>
@@ -15996,7 +16004,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
     </row>
-    <row r="499" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="25"/>
       <c r="C499" s="1"/>
@@ -16025,7 +16033,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
     </row>
-    <row r="500" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="25"/>
       <c r="C500" s="1"/>
@@ -16054,7 +16062,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
     </row>
-    <row r="501" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="25"/>
       <c r="C501" s="1"/>
@@ -16083,7 +16091,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
     </row>
-    <row r="502" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="25"/>
       <c r="C502" s="1"/>
@@ -16112,7 +16120,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
     </row>
-    <row r="503" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="25"/>
       <c r="C503" s="1"/>
@@ -16141,7 +16149,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
     </row>
-    <row r="504" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="25"/>
       <c r="C504" s="1"/>
@@ -16170,7 +16178,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
     </row>
-    <row r="505" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="25"/>
       <c r="C505" s="1"/>
@@ -16199,7 +16207,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
     </row>
-    <row r="506" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="25"/>
       <c r="C506" s="1"/>
@@ -16228,7 +16236,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
     </row>
-    <row r="507" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="25"/>
       <c r="C507" s="1"/>
@@ -16257,7 +16265,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
     </row>
-    <row r="508" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="25"/>
       <c r="C508" s="1"/>
@@ -16286,7 +16294,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
     </row>
-    <row r="509" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="25"/>
       <c r="C509" s="1"/>
@@ -16315,7 +16323,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
     </row>
-    <row r="510" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="25"/>
       <c r="C510" s="1"/>
@@ -16344,7 +16352,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
     </row>
-    <row r="511" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="25"/>
       <c r="C511" s="1"/>
@@ -16373,7 +16381,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
     </row>
-    <row r="512" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="25"/>
       <c r="C512" s="1"/>
@@ -16402,7 +16410,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
     </row>
-    <row r="513" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="25"/>
       <c r="C513" s="1"/>
@@ -16431,7 +16439,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
     </row>
-    <row r="514" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="25"/>
       <c r="C514" s="1"/>
@@ -16460,7 +16468,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
     </row>
-    <row r="515" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="25"/>
       <c r="C515" s="1"/>
@@ -16489,7 +16497,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
     </row>
-    <row r="516" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="25"/>
       <c r="C516" s="1"/>
@@ -16518,7 +16526,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
     </row>
-    <row r="517" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="25"/>
       <c r="C517" s="1"/>
@@ -16547,7 +16555,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
     </row>
-    <row r="518" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="25"/>
       <c r="C518" s="1"/>
@@ -16576,7 +16584,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
     </row>
-    <row r="519" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="25"/>
       <c r="C519" s="1"/>
@@ -16605,7 +16613,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
     </row>
-    <row r="520" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="25"/>
       <c r="C520" s="1"/>
@@ -16634,7 +16642,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
     </row>
-    <row r="521" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="25"/>
       <c r="C521" s="1"/>
@@ -16663,7 +16671,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
     </row>
-    <row r="522" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="25"/>
       <c r="C522" s="1"/>
@@ -16692,7 +16700,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
     </row>
-    <row r="523" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="25"/>
       <c r="C523" s="1"/>
@@ -16721,7 +16729,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
     </row>
-    <row r="524" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="25"/>
       <c r="C524" s="1"/>
@@ -16750,7 +16758,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
     </row>
-    <row r="525" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="25"/>
       <c r="C525" s="1"/>
@@ -16779,7 +16787,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
     </row>
-    <row r="526" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="25"/>
       <c r="C526" s="1"/>
@@ -16808,7 +16816,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
     </row>
-    <row r="527" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="25"/>
       <c r="C527" s="1"/>
@@ -16837,7 +16845,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
     </row>
-    <row r="528" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="25"/>
       <c r="C528" s="1"/>
@@ -16866,7 +16874,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
     </row>
-    <row r="529" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="25"/>
       <c r="C529" s="1"/>
@@ -16895,7 +16903,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
     </row>
-    <row r="530" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="25"/>
       <c r="C530" s="1"/>
@@ -16924,7 +16932,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
     </row>
-    <row r="531" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="25"/>
       <c r="C531" s="1"/>
@@ -16953,7 +16961,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
     </row>
-    <row r="532" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="25"/>
       <c r="C532" s="1"/>
@@ -16982,7 +16990,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
     </row>
-    <row r="533" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="25"/>
       <c r="C533" s="1"/>
@@ -17011,7 +17019,7 @@
       <c r="Z533" s="1"/>
       <c r="AA533" s="1"/>
     </row>
-    <row r="534" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="25"/>
       <c r="C534" s="1"/>
@@ -17040,7 +17048,7 @@
       <c r="Z534" s="1"/>
       <c r="AA534" s="1"/>
     </row>
-    <row r="535" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="25"/>
       <c r="C535" s="1"/>
@@ -17069,7 +17077,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
     </row>
-    <row r="536" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="25"/>
       <c r="C536" s="1"/>
@@ -17098,7 +17106,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
     </row>
-    <row r="537" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="25"/>
       <c r="C537" s="1"/>
@@ -17127,7 +17135,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
     </row>
-    <row r="538" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="25"/>
       <c r="C538" s="1"/>
@@ -17156,7 +17164,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
     </row>
-    <row r="539" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="25"/>
       <c r="C539" s="1"/>
@@ -17185,7 +17193,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
     </row>
-    <row r="540" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="25"/>
       <c r="C540" s="1"/>
@@ -17214,7 +17222,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
     </row>
-    <row r="541" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="25"/>
       <c r="C541" s="1"/>
@@ -17243,7 +17251,7 @@
       <c r="Z541" s="1"/>
       <c r="AA541" s="1"/>
     </row>
-    <row r="542" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="25"/>
       <c r="C542" s="1"/>
@@ -17272,7 +17280,7 @@
       <c r="Z542" s="1"/>
       <c r="AA542" s="1"/>
     </row>
-    <row r="543" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="25"/>
       <c r="C543" s="1"/>
@@ -17301,7 +17309,7 @@
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
     </row>
-    <row r="544" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="25"/>
       <c r="C544" s="1"/>
@@ -17330,7 +17338,7 @@
       <c r="Z544" s="1"/>
       <c r="AA544" s="1"/>
     </row>
-    <row r="545" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="25"/>
       <c r="C545" s="1"/>
@@ -17359,7 +17367,7 @@
       <c r="Z545" s="1"/>
       <c r="AA545" s="1"/>
     </row>
-    <row r="546" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="25"/>
       <c r="C546" s="1"/>
@@ -17388,7 +17396,7 @@
       <c r="Z546" s="1"/>
       <c r="AA546" s="1"/>
     </row>
-    <row r="547" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="25"/>
       <c r="C547" s="1"/>
@@ -17417,7 +17425,7 @@
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
     </row>
-    <row r="548" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="25"/>
       <c r="C548" s="1"/>
@@ -17446,7 +17454,7 @@
       <c r="Z548" s="1"/>
       <c r="AA548" s="1"/>
     </row>
-    <row r="549" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="25"/>
       <c r="C549" s="1"/>
@@ -17475,7 +17483,7 @@
       <c r="Z549" s="1"/>
       <c r="AA549" s="1"/>
     </row>
-    <row r="550" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="25"/>
       <c r="C550" s="1"/>
@@ -17504,7 +17512,7 @@
       <c r="Z550" s="1"/>
       <c r="AA550" s="1"/>
     </row>
-    <row r="551" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="25"/>
       <c r="C551" s="1"/>
@@ -17533,7 +17541,7 @@
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
     </row>
-    <row r="552" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="25"/>
       <c r="C552" s="1"/>
@@ -17562,7 +17570,7 @@
       <c r="Z552" s="1"/>
       <c r="AA552" s="1"/>
     </row>
-    <row r="553" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="25"/>
       <c r="C553" s="1"/>
@@ -17591,7 +17599,7 @@
       <c r="Z553" s="1"/>
       <c r="AA553" s="1"/>
     </row>
-    <row r="554" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="25"/>
       <c r="C554" s="1"/>
@@ -17620,7 +17628,7 @@
       <c r="Z554" s="1"/>
       <c r="AA554" s="1"/>
     </row>
-    <row r="555" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="25"/>
       <c r="C555" s="1"/>
@@ -17649,7 +17657,7 @@
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
     </row>
-    <row r="556" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="25"/>
       <c r="C556" s="1"/>
@@ -17678,7 +17686,7 @@
       <c r="Z556" s="1"/>
       <c r="AA556" s="1"/>
     </row>
-    <row r="557" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="25"/>
       <c r="C557" s="1"/>
@@ -17707,7 +17715,7 @@
       <c r="Z557" s="1"/>
       <c r="AA557" s="1"/>
     </row>
-    <row r="558" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="25"/>
       <c r="C558" s="1"/>
@@ -17736,7 +17744,7 @@
       <c r="Z558" s="1"/>
       <c r="AA558" s="1"/>
     </row>
-    <row r="559" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="25"/>
       <c r="C559" s="1"/>
@@ -17765,7 +17773,7 @@
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
     </row>
-    <row r="560" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="25"/>
       <c r="C560" s="1"/>
@@ -17794,7 +17802,7 @@
       <c r="Z560" s="1"/>
       <c r="AA560" s="1"/>
     </row>
-    <row r="561" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="25"/>
       <c r="C561" s="1"/>
@@ -17823,7 +17831,7 @@
       <c r="Z561" s="1"/>
       <c r="AA561" s="1"/>
     </row>
-    <row r="562" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="25"/>
       <c r="C562" s="1"/>
@@ -17852,7 +17860,7 @@
       <c r="Z562" s="1"/>
       <c r="AA562" s="1"/>
     </row>
-    <row r="563" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="25"/>
       <c r="C563" s="1"/>
@@ -17881,7 +17889,7 @@
       <c r="Z563" s="1"/>
       <c r="AA563" s="1"/>
     </row>
-    <row r="564" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="25"/>
       <c r="C564" s="1"/>
@@ -17910,7 +17918,7 @@
       <c r="Z564" s="1"/>
       <c r="AA564" s="1"/>
     </row>
-    <row r="565" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="25"/>
       <c r="C565" s="1"/>
@@ -17939,7 +17947,7 @@
       <c r="Z565" s="1"/>
       <c r="AA565" s="1"/>
     </row>
-    <row r="566" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="25"/>
       <c r="C566" s="1"/>
@@ -17968,7 +17976,7 @@
       <c r="Z566" s="1"/>
       <c r="AA566" s="1"/>
     </row>
-    <row r="567" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="25"/>
       <c r="C567" s="1"/>
@@ -17997,7 +18005,7 @@
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
     </row>
-    <row r="568" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="25"/>
       <c r="C568" s="1"/>
@@ -18026,7 +18034,7 @@
       <c r="Z568" s="1"/>
       <c r="AA568" s="1"/>
     </row>
-    <row r="569" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="25"/>
       <c r="C569" s="1"/>
@@ -18055,7 +18063,7 @@
       <c r="Z569" s="1"/>
       <c r="AA569" s="1"/>
     </row>
-    <row r="570" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="25"/>
       <c r="C570" s="1"/>
@@ -18084,7 +18092,7 @@
       <c r="Z570" s="1"/>
       <c r="AA570" s="1"/>
     </row>
-    <row r="571" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="25"/>
       <c r="C571" s="1"/>
@@ -18113,7 +18121,7 @@
       <c r="Z571" s="1"/>
       <c r="AA571" s="1"/>
     </row>
-    <row r="572" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="25"/>
       <c r="C572" s="1"/>
@@ -18142,7 +18150,7 @@
       <c r="Z572" s="1"/>
       <c r="AA572" s="1"/>
     </row>
-    <row r="573" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="25"/>
       <c r="C573" s="1"/>
@@ -18171,7 +18179,7 @@
       <c r="Z573" s="1"/>
       <c r="AA573" s="1"/>
     </row>
-    <row r="574" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="25"/>
       <c r="C574" s="1"/>
@@ -18200,7 +18208,7 @@
       <c r="Z574" s="1"/>
       <c r="AA574" s="1"/>
     </row>
-    <row r="575" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="25"/>
       <c r="C575" s="1"/>
@@ -18229,7 +18237,7 @@
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
     </row>
-    <row r="576" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="25"/>
       <c r="C576" s="1"/>
@@ -18258,7 +18266,7 @@
       <c r="Z576" s="1"/>
       <c r="AA576" s="1"/>
     </row>
-    <row r="577" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="25"/>
       <c r="C577" s="1"/>
@@ -18287,7 +18295,7 @@
       <c r="Z577" s="1"/>
       <c r="AA577" s="1"/>
     </row>
-    <row r="578" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="25"/>
       <c r="C578" s="1"/>
@@ -18316,7 +18324,7 @@
       <c r="Z578" s="1"/>
       <c r="AA578" s="1"/>
     </row>
-    <row r="579" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="25"/>
       <c r="C579" s="1"/>
@@ -18345,7 +18353,7 @@
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
     </row>
-    <row r="580" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="25"/>
       <c r="C580" s="1"/>
@@ -18374,7 +18382,7 @@
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
     </row>
-    <row r="581" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="25"/>
       <c r="C581" s="1"/>
@@ -18403,7 +18411,7 @@
       <c r="Z581" s="1"/>
       <c r="AA581" s="1"/>
     </row>
-    <row r="582" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="25"/>
       <c r="C582" s="1"/>
@@ -18432,7 +18440,7 @@
       <c r="Z582" s="1"/>
       <c r="AA582" s="1"/>
     </row>
-    <row r="583" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="25"/>
       <c r="C583" s="1"/>
@@ -18461,7 +18469,7 @@
       <c r="Z583" s="1"/>
       <c r="AA583" s="1"/>
     </row>
-    <row r="584" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="25"/>
       <c r="C584" s="1"/>
@@ -18490,7 +18498,7 @@
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
     </row>
-    <row r="585" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="25"/>
       <c r="C585" s="1"/>
@@ -18519,7 +18527,7 @@
       <c r="Z585" s="1"/>
       <c r="AA585" s="1"/>
     </row>
-    <row r="586" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="25"/>
       <c r="C586" s="1"/>
@@ -18548,7 +18556,7 @@
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
     </row>
-    <row r="587" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="25"/>
       <c r="C587" s="1"/>
@@ -18577,7 +18585,7 @@
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
     </row>
-    <row r="588" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="25"/>
       <c r="C588" s="1"/>
@@ -18606,7 +18614,7 @@
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
     </row>
-    <row r="589" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="25"/>
       <c r="C589" s="1"/>
@@ -18635,7 +18643,7 @@
       <c r="Z589" s="1"/>
       <c r="AA589" s="1"/>
     </row>
-    <row r="590" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="25"/>
       <c r="C590" s="1"/>
@@ -18664,7 +18672,7 @@
       <c r="Z590" s="1"/>
       <c r="AA590" s="1"/>
     </row>
-    <row r="591" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="25"/>
       <c r="C591" s="1"/>
@@ -18693,7 +18701,7 @@
       <c r="Z591" s="1"/>
       <c r="AA591" s="1"/>
     </row>
-    <row r="592" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="25"/>
       <c r="C592" s="1"/>
@@ -18722,7 +18730,7 @@
       <c r="Z592" s="1"/>
       <c r="AA592" s="1"/>
     </row>
-    <row r="593" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="25"/>
       <c r="C593" s="1"/>
@@ -18751,7 +18759,7 @@
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
     </row>
-    <row r="594" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="25"/>
       <c r="C594" s="1"/>
@@ -18780,7 +18788,7 @@
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
     </row>
-    <row r="595" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="25"/>
       <c r="C595" s="1"/>
@@ -18809,7 +18817,7 @@
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
     </row>
-    <row r="596" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="25"/>
       <c r="C596" s="1"/>
@@ -18838,7 +18846,7 @@
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
     </row>
-    <row r="597" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="25"/>
       <c r="C597" s="1"/>
@@ -18867,7 +18875,7 @@
       <c r="Z597" s="1"/>
       <c r="AA597" s="1"/>
     </row>
-    <row r="598" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="25"/>
       <c r="C598" s="1"/>
@@ -18896,7 +18904,7 @@
       <c r="Z598" s="1"/>
       <c r="AA598" s="1"/>
     </row>
-    <row r="599" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="25"/>
       <c r="C599" s="1"/>
@@ -18925,7 +18933,7 @@
       <c r="Z599" s="1"/>
       <c r="AA599" s="1"/>
     </row>
-    <row r="600" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="25"/>
       <c r="C600" s="1"/>
@@ -18954,7 +18962,7 @@
       <c r="Z600" s="1"/>
       <c r="AA600" s="1"/>
     </row>
-    <row r="601" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="25"/>
       <c r="C601" s="1"/>
@@ -18983,7 +18991,7 @@
       <c r="Z601" s="1"/>
       <c r="AA601" s="1"/>
     </row>
-    <row r="602" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="25"/>
       <c r="C602" s="1"/>
@@ -19012,7 +19020,7 @@
       <c r="Z602" s="1"/>
       <c r="AA602" s="1"/>
     </row>
-    <row r="603" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="25"/>
       <c r="C603" s="1"/>
@@ -19041,7 +19049,7 @@
       <c r="Z603" s="1"/>
       <c r="AA603" s="1"/>
     </row>
-    <row r="604" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="25"/>
       <c r="C604" s="1"/>
@@ -19070,7 +19078,7 @@
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
     </row>
-    <row r="605" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="25"/>
       <c r="C605" s="1"/>
@@ -19099,7 +19107,7 @@
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
     </row>
-    <row r="606" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="25"/>
       <c r="C606" s="1"/>
@@ -19128,7 +19136,7 @@
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
     </row>
-    <row r="607" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="25"/>
       <c r="C607" s="1"/>
@@ -19157,7 +19165,7 @@
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
     </row>
-    <row r="608" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="25"/>
       <c r="C608" s="1"/>
@@ -19186,7 +19194,7 @@
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
     </row>
-    <row r="609" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="25"/>
       <c r="C609" s="1"/>
@@ -19215,7 +19223,7 @@
       <c r="Z609" s="1"/>
       <c r="AA609" s="1"/>
     </row>
-    <row r="610" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="25"/>
       <c r="C610" s="1"/>
@@ -19244,7 +19252,7 @@
       <c r="Z610" s="1"/>
       <c r="AA610" s="1"/>
     </row>
-    <row r="611" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="25"/>
       <c r="C611" s="1"/>
@@ -19273,7 +19281,7 @@
       <c r="Z611" s="1"/>
       <c r="AA611" s="1"/>
     </row>
-    <row r="612" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="25"/>
       <c r="C612" s="1"/>
@@ -19302,7 +19310,7 @@
       <c r="Z612" s="1"/>
       <c r="AA612" s="1"/>
     </row>
-    <row r="613" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="25"/>
       <c r="C613" s="1"/>
@@ -19331,7 +19339,7 @@
       <c r="Z613" s="1"/>
       <c r="AA613" s="1"/>
     </row>
-    <row r="614" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="25"/>
       <c r="C614" s="1"/>
@@ -19360,7 +19368,7 @@
       <c r="Z614" s="1"/>
       <c r="AA614" s="1"/>
     </row>
-    <row r="615" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="25"/>
       <c r="C615" s="1"/>
@@ -19389,7 +19397,7 @@
       <c r="Z615" s="1"/>
       <c r="AA615" s="1"/>
     </row>
-    <row r="616" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="25"/>
       <c r="C616" s="1"/>
@@ -19418,7 +19426,7 @@
       <c r="Z616" s="1"/>
       <c r="AA616" s="1"/>
     </row>
-    <row r="617" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="25"/>
       <c r="C617" s="1"/>
@@ -19447,7 +19455,7 @@
       <c r="Z617" s="1"/>
       <c r="AA617" s="1"/>
     </row>
-    <row r="618" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="25"/>
       <c r="C618" s="1"/>
@@ -19476,7 +19484,7 @@
       <c r="Z618" s="1"/>
       <c r="AA618" s="1"/>
     </row>
-    <row r="619" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="25"/>
       <c r="C619" s="1"/>
@@ -19505,7 +19513,7 @@
       <c r="Z619" s="1"/>
       <c r="AA619" s="1"/>
     </row>
-    <row r="620" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="25"/>
       <c r="C620" s="1"/>
@@ -19534,7 +19542,7 @@
       <c r="Z620" s="1"/>
       <c r="AA620" s="1"/>
     </row>
-    <row r="621" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="25"/>
       <c r="C621" s="1"/>
@@ -19563,7 +19571,7 @@
       <c r="Z621" s="1"/>
       <c r="AA621" s="1"/>
     </row>
-    <row r="622" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="25"/>
       <c r="C622" s="1"/>
@@ -19592,7 +19600,7 @@
       <c r="Z622" s="1"/>
       <c r="AA622" s="1"/>
     </row>
-    <row r="623" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="25"/>
       <c r="C623" s="1"/>
@@ -19621,7 +19629,7 @@
       <c r="Z623" s="1"/>
       <c r="AA623" s="1"/>
     </row>
-    <row r="624" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="25"/>
       <c r="C624" s="1"/>
@@ -19650,7 +19658,7 @@
       <c r="Z624" s="1"/>
       <c r="AA624" s="1"/>
     </row>
-    <row r="625" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="25"/>
       <c r="C625" s="1"/>
@@ -19679,7 +19687,7 @@
       <c r="Z625" s="1"/>
       <c r="AA625" s="1"/>
     </row>
-    <row r="626" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="25"/>
       <c r="C626" s="1"/>
@@ -19708,7 +19716,7 @@
       <c r="Z626" s="1"/>
       <c r="AA626" s="1"/>
     </row>
-    <row r="627" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="25"/>
       <c r="C627" s="1"/>
@@ -19737,7 +19745,7 @@
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
     </row>
-    <row r="628" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="25"/>
       <c r="C628" s="1"/>
@@ -19766,7 +19774,7 @@
       <c r="Z628" s="1"/>
       <c r="AA628" s="1"/>
     </row>
-    <row r="629" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="25"/>
       <c r="C629" s="1"/>
@@ -19795,7 +19803,7 @@
       <c r="Z629" s="1"/>
       <c r="AA629" s="1"/>
     </row>
-    <row r="630" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="25"/>
       <c r="C630" s="1"/>
@@ -19824,7 +19832,7 @@
       <c r="Z630" s="1"/>
       <c r="AA630" s="1"/>
     </row>
-    <row r="631" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="25"/>
       <c r="C631" s="1"/>
@@ -19853,7 +19861,7 @@
       <c r="Z631" s="1"/>
       <c r="AA631" s="1"/>
     </row>
-    <row r="632" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="25"/>
       <c r="C632" s="1"/>
@@ -19882,7 +19890,7 @@
       <c r="Z632" s="1"/>
       <c r="AA632" s="1"/>
     </row>
-    <row r="633" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="25"/>
       <c r="C633" s="1"/>
@@ -19911,7 +19919,7 @@
       <c r="Z633" s="1"/>
       <c r="AA633" s="1"/>
     </row>
-    <row r="634" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="25"/>
       <c r="C634" s="1"/>
@@ -19940,7 +19948,7 @@
       <c r="Z634" s="1"/>
       <c r="AA634" s="1"/>
     </row>
-    <row r="635" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="25"/>
       <c r="C635" s="1"/>
@@ -19969,7 +19977,7 @@
       <c r="Z635" s="1"/>
       <c r="AA635" s="1"/>
     </row>
-    <row r="636" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="25"/>
       <c r="C636" s="1"/>
@@ -19998,7 +20006,7 @@
       <c r="Z636" s="1"/>
       <c r="AA636" s="1"/>
     </row>
-    <row r="637" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="25"/>
       <c r="C637" s="1"/>
@@ -20027,7 +20035,7 @@
       <c r="Z637" s="1"/>
       <c r="AA637" s="1"/>
     </row>
-    <row r="638" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="25"/>
       <c r="C638" s="1"/>
@@ -20056,7 +20064,7 @@
       <c r="Z638" s="1"/>
       <c r="AA638" s="1"/>
     </row>
-    <row r="639" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="25"/>
       <c r="C639" s="1"/>
@@ -20085,7 +20093,7 @@
       <c r="Z639" s="1"/>
       <c r="AA639" s="1"/>
     </row>
-    <row r="640" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="25"/>
       <c r="C640" s="1"/>
@@ -20114,7 +20122,7 @@
       <c r="Z640" s="1"/>
       <c r="AA640" s="1"/>
     </row>
-    <row r="641" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="25"/>
       <c r="C641" s="1"/>
@@ -20143,7 +20151,7 @@
       <c r="Z641" s="1"/>
       <c r="AA641" s="1"/>
     </row>
-    <row r="642" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="25"/>
       <c r="C642" s="1"/>
@@ -20172,7 +20180,7 @@
       <c r="Z642" s="1"/>
       <c r="AA642" s="1"/>
     </row>
-    <row r="643" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="25"/>
       <c r="C643" s="1"/>
@@ -20201,7 +20209,7 @@
       <c r="Z643" s="1"/>
       <c r="AA643" s="1"/>
     </row>
-    <row r="644" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="25"/>
       <c r="C644" s="1"/>
@@ -20230,7 +20238,7 @@
       <c r="Z644" s="1"/>
       <c r="AA644" s="1"/>
     </row>
-    <row r="645" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="25"/>
       <c r="C645" s="1"/>
@@ -20259,7 +20267,7 @@
       <c r="Z645" s="1"/>
       <c r="AA645" s="1"/>
     </row>
-    <row r="646" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="25"/>
       <c r="C646" s="1"/>
@@ -20288,7 +20296,7 @@
       <c r="Z646" s="1"/>
       <c r="AA646" s="1"/>
     </row>
-    <row r="647" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="25"/>
       <c r="C647" s="1"/>
@@ -20317,7 +20325,7 @@
       <c r="Z647" s="1"/>
       <c r="AA647" s="1"/>
     </row>
-    <row r="648" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="25"/>
       <c r="C648" s="1"/>
@@ -20346,7 +20354,7 @@
       <c r="Z648" s="1"/>
       <c r="AA648" s="1"/>
     </row>
-    <row r="649" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="25"/>
       <c r="C649" s="1"/>
@@ -20375,7 +20383,7 @@
       <c r="Z649" s="1"/>
       <c r="AA649" s="1"/>
     </row>
-    <row r="650" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="25"/>
       <c r="C650" s="1"/>
@@ -20404,7 +20412,7 @@
       <c r="Z650" s="1"/>
       <c r="AA650" s="1"/>
     </row>
-    <row r="651" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="25"/>
       <c r="C651" s="1"/>
@@ -20433,7 +20441,7 @@
       <c r="Z651" s="1"/>
       <c r="AA651" s="1"/>
     </row>
-    <row r="652" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="25"/>
       <c r="C652" s="1"/>
@@ -20462,7 +20470,7 @@
       <c r="Z652" s="1"/>
       <c r="AA652" s="1"/>
     </row>
-    <row r="653" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="25"/>
       <c r="C653" s="1"/>
@@ -20491,7 +20499,7 @@
       <c r="Z653" s="1"/>
       <c r="AA653" s="1"/>
     </row>
-    <row r="654" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="25"/>
       <c r="C654" s="1"/>
@@ -20520,7 +20528,7 @@
       <c r="Z654" s="1"/>
       <c r="AA654" s="1"/>
     </row>
-    <row r="655" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="25"/>
       <c r="C655" s="1"/>
@@ -20549,7 +20557,7 @@
       <c r="Z655" s="1"/>
       <c r="AA655" s="1"/>
     </row>
-    <row r="656" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="25"/>
       <c r="C656" s="1"/>
@@ -20578,7 +20586,7 @@
       <c r="Z656" s="1"/>
       <c r="AA656" s="1"/>
     </row>
-    <row r="657" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="25"/>
       <c r="C657" s="1"/>
@@ -20607,7 +20615,7 @@
       <c r="Z657" s="1"/>
       <c r="AA657" s="1"/>
     </row>
-    <row r="658" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="25"/>
       <c r="C658" s="1"/>
@@ -20636,7 +20644,7 @@
       <c r="Z658" s="1"/>
       <c r="AA658" s="1"/>
     </row>
-    <row r="659" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="25"/>
       <c r="C659" s="1"/>
@@ -20665,7 +20673,7 @@
       <c r="Z659" s="1"/>
       <c r="AA659" s="1"/>
     </row>
-    <row r="660" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="25"/>
       <c r="C660" s="1"/>
@@ -20694,7 +20702,7 @@
       <c r="Z660" s="1"/>
       <c r="AA660" s="1"/>
     </row>
-    <row r="661" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="25"/>
       <c r="C661" s="1"/>
@@ -20723,7 +20731,7 @@
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
     </row>
-    <row r="662" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="25"/>
       <c r="C662" s="1"/>
@@ -20752,7 +20760,7 @@
       <c r="Z662" s="1"/>
       <c r="AA662" s="1"/>
     </row>
-    <row r="663" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="25"/>
       <c r="C663" s="1"/>
@@ -20781,7 +20789,7 @@
       <c r="Z663" s="1"/>
       <c r="AA663" s="1"/>
     </row>
-    <row r="664" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="25"/>
       <c r="C664" s="1"/>
@@ -20810,7 +20818,7 @@
       <c r="Z664" s="1"/>
       <c r="AA664" s="1"/>
     </row>
-    <row r="665" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="25"/>
       <c r="C665" s="1"/>
@@ -20839,7 +20847,7 @@
       <c r="Z665" s="1"/>
       <c r="AA665" s="1"/>
     </row>
-    <row r="666" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="25"/>
       <c r="C666" s="1"/>
@@ -20868,7 +20876,7 @@
       <c r="Z666" s="1"/>
       <c r="AA666" s="1"/>
     </row>
-    <row r="667" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="25"/>
       <c r="C667" s="1"/>
@@ -20897,7 +20905,7 @@
       <c r="Z667" s="1"/>
       <c r="AA667" s="1"/>
     </row>
-    <row r="668" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="25"/>
       <c r="C668" s="1"/>
@@ -20926,7 +20934,7 @@
       <c r="Z668" s="1"/>
       <c r="AA668" s="1"/>
     </row>
-    <row r="669" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="25"/>
       <c r="C669" s="1"/>
@@ -20955,7 +20963,7 @@
       <c r="Z669" s="1"/>
       <c r="AA669" s="1"/>
     </row>
-    <row r="670" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="25"/>
       <c r="C670" s="1"/>
@@ -20984,7 +20992,7 @@
       <c r="Z670" s="1"/>
       <c r="AA670" s="1"/>
     </row>
-    <row r="671" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="25"/>
       <c r="C671" s="1"/>
@@ -21013,7 +21021,7 @@
       <c r="Z671" s="1"/>
       <c r="AA671" s="1"/>
     </row>
-    <row r="672" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="25"/>
       <c r="C672" s="1"/>
@@ -21042,7 +21050,7 @@
       <c r="Z672" s="1"/>
       <c r="AA672" s="1"/>
     </row>
-    <row r="673" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="25"/>
       <c r="C673" s="1"/>
@@ -21071,7 +21079,7 @@
       <c r="Z673" s="1"/>
       <c r="AA673" s="1"/>
     </row>
-    <row r="674" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="25"/>
       <c r="C674" s="1"/>
@@ -21100,7 +21108,7 @@
       <c r="Z674" s="1"/>
       <c r="AA674" s="1"/>
     </row>
-    <row r="675" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="25"/>
       <c r="C675" s="1"/>
@@ -21129,7 +21137,7 @@
       <c r="Z675" s="1"/>
       <c r="AA675" s="1"/>
     </row>
-    <row r="676" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="25"/>
       <c r="C676" s="1"/>
@@ -21158,7 +21166,7 @@
       <c r="Z676" s="1"/>
       <c r="AA676" s="1"/>
     </row>
-    <row r="677" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="25"/>
       <c r="C677" s="1"/>
@@ -21187,7 +21195,7 @@
       <c r="Z677" s="1"/>
       <c r="AA677" s="1"/>
     </row>
-    <row r="678" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="25"/>
       <c r="C678" s="1"/>
@@ -21216,7 +21224,7 @@
       <c r="Z678" s="1"/>
       <c r="AA678" s="1"/>
     </row>
-    <row r="679" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="25"/>
       <c r="C679" s="1"/>
@@ -21245,7 +21253,7 @@
       <c r="Z679" s="1"/>
       <c r="AA679" s="1"/>
     </row>
-    <row r="680" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="25"/>
       <c r="C680" s="1"/>
@@ -21274,7 +21282,7 @@
       <c r="Z680" s="1"/>
       <c r="AA680" s="1"/>
     </row>
-    <row r="681" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="25"/>
       <c r="C681" s="1"/>
@@ -21303,7 +21311,7 @@
       <c r="Z681" s="1"/>
       <c r="AA681" s="1"/>
     </row>
-    <row r="682" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="25"/>
       <c r="C682" s="1"/>
@@ -21332,7 +21340,7 @@
       <c r="Z682" s="1"/>
       <c r="AA682" s="1"/>
     </row>
-    <row r="683" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="25"/>
       <c r="C683" s="1"/>
@@ -21361,7 +21369,7 @@
       <c r="Z683" s="1"/>
       <c r="AA683" s="1"/>
     </row>
-    <row r="684" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="25"/>
       <c r="C684" s="1"/>
@@ -21390,7 +21398,7 @@
       <c r="Z684" s="1"/>
       <c r="AA684" s="1"/>
     </row>
-    <row r="685" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="25"/>
       <c r="C685" s="1"/>
@@ -21419,7 +21427,7 @@
       <c r="Z685" s="1"/>
       <c r="AA685" s="1"/>
     </row>
-    <row r="686" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="25"/>
       <c r="C686" s="1"/>
@@ -21448,7 +21456,7 @@
       <c r="Z686" s="1"/>
       <c r="AA686" s="1"/>
     </row>
-    <row r="687" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="25"/>
       <c r="C687" s="1"/>
@@ -21477,7 +21485,7 @@
       <c r="Z687" s="1"/>
       <c r="AA687" s="1"/>
     </row>
-    <row r="688" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="25"/>
       <c r="C688" s="1"/>
@@ -21506,7 +21514,7 @@
       <c r="Z688" s="1"/>
       <c r="AA688" s="1"/>
     </row>
-    <row r="689" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="25"/>
       <c r="C689" s="1"/>
@@ -21535,7 +21543,7 @@
       <c r="Z689" s="1"/>
       <c r="AA689" s="1"/>
     </row>
-    <row r="690" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="25"/>
       <c r="C690" s="1"/>
@@ -21564,7 +21572,7 @@
       <c r="Z690" s="1"/>
       <c r="AA690" s="1"/>
     </row>
-    <row r="691" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="25"/>
       <c r="C691" s="1"/>
@@ -21593,7 +21601,7 @@
       <c r="Z691" s="1"/>
       <c r="AA691" s="1"/>
     </row>
-    <row r="692" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="25"/>
       <c r="C692" s="1"/>
@@ -21622,7 +21630,7 @@
       <c r="Z692" s="1"/>
       <c r="AA692" s="1"/>
     </row>
-    <row r="693" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="25"/>
       <c r="C693" s="1"/>
@@ -21651,7 +21659,7 @@
       <c r="Z693" s="1"/>
       <c r="AA693" s="1"/>
     </row>
-    <row r="694" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="25"/>
       <c r="C694" s="1"/>
@@ -21680,7 +21688,7 @@
       <c r="Z694" s="1"/>
       <c r="AA694" s="1"/>
     </row>
-    <row r="695" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="25"/>
       <c r="C695" s="1"/>
@@ -21709,7 +21717,7 @@
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
     </row>
-    <row r="696" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="25"/>
       <c r="C696" s="1"/>
@@ -21738,7 +21746,7 @@
       <c r="Z696" s="1"/>
       <c r="AA696" s="1"/>
     </row>
-    <row r="697" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="25"/>
       <c r="C697" s="1"/>
@@ -21767,7 +21775,7 @@
       <c r="Z697" s="1"/>
       <c r="AA697" s="1"/>
     </row>
-    <row r="698" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="25"/>
       <c r="C698" s="1"/>
@@ -21796,7 +21804,7 @@
       <c r="Z698" s="1"/>
       <c r="AA698" s="1"/>
     </row>
-    <row r="699" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="25"/>
       <c r="C699" s="1"/>
@@ -21825,7 +21833,7 @@
       <c r="Z699" s="1"/>
       <c r="AA699" s="1"/>
     </row>
-    <row r="700" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="25"/>
       <c r="C700" s="1"/>
@@ -21854,7 +21862,7 @@
       <c r="Z700" s="1"/>
       <c r="AA700" s="1"/>
     </row>
-    <row r="701" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="25"/>
       <c r="C701" s="1"/>
@@ -21883,7 +21891,7 @@
       <c r="Z701" s="1"/>
       <c r="AA701" s="1"/>
     </row>
-    <row r="702" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="25"/>
       <c r="C702" s="1"/>
@@ -21912,7 +21920,7 @@
       <c r="Z702" s="1"/>
       <c r="AA702" s="1"/>
     </row>
-    <row r="703" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="25"/>
       <c r="C703" s="1"/>
@@ -21941,7 +21949,7 @@
       <c r="Z703" s="1"/>
       <c r="AA703" s="1"/>
     </row>
-    <row r="704" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="25"/>
       <c r="C704" s="1"/>
@@ -21970,7 +21978,7 @@
       <c r="Z704" s="1"/>
       <c r="AA704" s="1"/>
     </row>
-    <row r="705" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="25"/>
       <c r="C705" s="1"/>
@@ -21999,7 +22007,7 @@
       <c r="Z705" s="1"/>
       <c r="AA705" s="1"/>
     </row>
-    <row r="706" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="25"/>
       <c r="C706" s="1"/>
@@ -22028,7 +22036,7 @@
       <c r="Z706" s="1"/>
       <c r="AA706" s="1"/>
     </row>
-    <row r="707" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="25"/>
       <c r="C707" s="1"/>
@@ -22057,7 +22065,7 @@
       <c r="Z707" s="1"/>
       <c r="AA707" s="1"/>
     </row>
-    <row r="708" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="25"/>
       <c r="C708" s="1"/>
@@ -22086,7 +22094,7 @@
       <c r="Z708" s="1"/>
       <c r="AA708" s="1"/>
     </row>
-    <row r="709" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="25"/>
       <c r="C709" s="1"/>
@@ -22115,7 +22123,7 @@
       <c r="Z709" s="1"/>
       <c r="AA709" s="1"/>
     </row>
-    <row r="710" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="25"/>
       <c r="C710" s="1"/>
@@ -22144,7 +22152,7 @@
       <c r="Z710" s="1"/>
       <c r="AA710" s="1"/>
     </row>
-    <row r="711" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="25"/>
       <c r="C711" s="1"/>
@@ -22173,7 +22181,7 @@
       <c r="Z711" s="1"/>
       <c r="AA711" s="1"/>
     </row>
-    <row r="712" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="25"/>
       <c r="C712" s="1"/>
@@ -22202,7 +22210,7 @@
       <c r="Z712" s="1"/>
       <c r="AA712" s="1"/>
     </row>
-    <row r="713" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="25"/>
       <c r="C713" s="1"/>
@@ -22231,7 +22239,7 @@
       <c r="Z713" s="1"/>
       <c r="AA713" s="1"/>
     </row>
-    <row r="714" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="25"/>
       <c r="C714" s="1"/>
@@ -22260,7 +22268,7 @@
       <c r="Z714" s="1"/>
       <c r="AA714" s="1"/>
     </row>
-    <row r="715" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="25"/>
       <c r="C715" s="1"/>
@@ -22289,7 +22297,7 @@
       <c r="Z715" s="1"/>
       <c r="AA715" s="1"/>
     </row>
-    <row r="716" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="25"/>
       <c r="C716" s="1"/>
@@ -22318,7 +22326,7 @@
       <c r="Z716" s="1"/>
       <c r="AA716" s="1"/>
     </row>
-    <row r="717" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="25"/>
       <c r="C717" s="1"/>
@@ -22347,7 +22355,7 @@
       <c r="Z717" s="1"/>
       <c r="AA717" s="1"/>
     </row>
-    <row r="718" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="25"/>
       <c r="C718" s="1"/>
@@ -22376,7 +22384,7 @@
       <c r="Z718" s="1"/>
       <c r="AA718" s="1"/>
     </row>
-    <row r="719" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="25"/>
       <c r="C719" s="1"/>
@@ -22405,7 +22413,7 @@
       <c r="Z719" s="1"/>
       <c r="AA719" s="1"/>
     </row>
-    <row r="720" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="25"/>
       <c r="C720" s="1"/>
@@ -22434,7 +22442,7 @@
       <c r="Z720" s="1"/>
       <c r="AA720" s="1"/>
     </row>
-    <row r="721" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="25"/>
       <c r="C721" s="1"/>
@@ -22463,7 +22471,7 @@
       <c r="Z721" s="1"/>
       <c r="AA721" s="1"/>
     </row>
-    <row r="722" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="25"/>
       <c r="C722" s="1"/>
@@ -22492,7 +22500,7 @@
       <c r="Z722" s="1"/>
       <c r="AA722" s="1"/>
     </row>
-    <row r="723" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="25"/>
       <c r="C723" s="1"/>
@@ -22521,7 +22529,7 @@
       <c r="Z723" s="1"/>
       <c r="AA723" s="1"/>
     </row>
-    <row r="724" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="25"/>
       <c r="C724" s="1"/>
@@ -22550,7 +22558,7 @@
       <c r="Z724" s="1"/>
       <c r="AA724" s="1"/>
     </row>
-    <row r="725" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="25"/>
       <c r="C725" s="1"/>
@@ -22579,7 +22587,7 @@
       <c r="Z725" s="1"/>
       <c r="AA725" s="1"/>
     </row>
-    <row r="726" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="25"/>
       <c r="C726" s="1"/>
@@ -22608,7 +22616,7 @@
       <c r="Z726" s="1"/>
       <c r="AA726" s="1"/>
     </row>
-    <row r="727" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="25"/>
       <c r="C727" s="1"/>
@@ -22637,7 +22645,7 @@
       <c r="Z727" s="1"/>
       <c r="AA727" s="1"/>
     </row>
-    <row r="728" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="25"/>
       <c r="C728" s="1"/>
@@ -22666,7 +22674,7 @@
       <c r="Z728" s="1"/>
       <c r="AA728" s="1"/>
     </row>
-    <row r="729" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="25"/>
       <c r="C729" s="1"/>
@@ -22695,7 +22703,7 @@
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
     </row>
-    <row r="730" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="25"/>
       <c r="C730" s="1"/>
@@ -22724,7 +22732,7 @@
       <c r="Z730" s="1"/>
       <c r="AA730" s="1"/>
     </row>
-    <row r="731" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="25"/>
       <c r="C731" s="1"/>
@@ -22753,7 +22761,7 @@
       <c r="Z731" s="1"/>
       <c r="AA731" s="1"/>
     </row>
-    <row r="732" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="25"/>
       <c r="C732" s="1"/>
@@ -22782,7 +22790,7 @@
       <c r="Z732" s="1"/>
       <c r="AA732" s="1"/>
     </row>
-    <row r="733" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="25"/>
       <c r="C733" s="1"/>
@@ -22811,7 +22819,7 @@
       <c r="Z733" s="1"/>
       <c r="AA733" s="1"/>
     </row>
-    <row r="734" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="25"/>
       <c r="C734" s="1"/>
@@ -22840,7 +22848,7 @@
       <c r="Z734" s="1"/>
       <c r="AA734" s="1"/>
     </row>
-    <row r="735" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="25"/>
       <c r="C735" s="1"/>
@@ -22869,7 +22877,7 @@
       <c r="Z735" s="1"/>
       <c r="AA735" s="1"/>
     </row>
-    <row r="736" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="25"/>
       <c r="C736" s="1"/>
@@ -22898,7 +22906,7 @@
       <c r="Z736" s="1"/>
       <c r="AA736" s="1"/>
     </row>
-    <row r="737" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="25"/>
       <c r="C737" s="1"/>
@@ -22927,7 +22935,7 @@
       <c r="Z737" s="1"/>
       <c r="AA737" s="1"/>
     </row>
-    <row r="738" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="25"/>
       <c r="C738" s="1"/>
@@ -22956,7 +22964,7 @@
       <c r="Z738" s="1"/>
       <c r="AA738" s="1"/>
     </row>
-    <row r="739" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="25"/>
       <c r="C739" s="1"/>
@@ -22985,7 +22993,7 @@
       <c r="Z739" s="1"/>
       <c r="AA739" s="1"/>
     </row>
-    <row r="740" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="25"/>
       <c r="C740" s="1"/>
@@ -23014,7 +23022,7 @@
       <c r="Z740" s="1"/>
       <c r="AA740" s="1"/>
     </row>
-    <row r="741" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="25"/>
       <c r="C741" s="1"/>
@@ -23043,7 +23051,7 @@
       <c r="Z741" s="1"/>
       <c r="AA741" s="1"/>
     </row>
-    <row r="742" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="25"/>
       <c r="C742" s="1"/>
@@ -23072,7 +23080,7 @@
       <c r="Z742" s="1"/>
       <c r="AA742" s="1"/>
     </row>
-    <row r="743" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="25"/>
       <c r="C743" s="1"/>
@@ -23101,7 +23109,7 @@
       <c r="Z743" s="1"/>
       <c r="AA743" s="1"/>
     </row>
-    <row r="744" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="25"/>
       <c r="C744" s="1"/>
@@ -23130,7 +23138,7 @@
       <c r="Z744" s="1"/>
       <c r="AA744" s="1"/>
     </row>
-    <row r="745" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="25"/>
       <c r="C745" s="1"/>
@@ -23159,7 +23167,7 @@
       <c r="Z745" s="1"/>
       <c r="AA745" s="1"/>
     </row>
-    <row r="746" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="25"/>
       <c r="C746" s="1"/>
@@ -23188,7 +23196,7 @@
       <c r="Z746" s="1"/>
       <c r="AA746" s="1"/>
     </row>
-    <row r="747" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="25"/>
       <c r="C747" s="1"/>
@@ -23217,7 +23225,7 @@
       <c r="Z747" s="1"/>
       <c r="AA747" s="1"/>
     </row>
-    <row r="748" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="25"/>
       <c r="C748" s="1"/>
@@ -23246,7 +23254,7 @@
       <c r="Z748" s="1"/>
       <c r="AA748" s="1"/>
     </row>
-    <row r="749" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="25"/>
       <c r="C749" s="1"/>
@@ -23275,7 +23283,7 @@
       <c r="Z749" s="1"/>
       <c r="AA749" s="1"/>
     </row>
-    <row r="750" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="25"/>
       <c r="C750" s="1"/>
@@ -23304,7 +23312,7 @@
       <c r="Z750" s="1"/>
       <c r="AA750" s="1"/>
     </row>
-    <row r="751" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="25"/>
       <c r="C751" s="1"/>
@@ -23333,7 +23341,7 @@
       <c r="Z751" s="1"/>
       <c r="AA751" s="1"/>
     </row>
-    <row r="752" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="25"/>
       <c r="C752" s="1"/>
@@ -23362,7 +23370,7 @@
       <c r="Z752" s="1"/>
       <c r="AA752" s="1"/>
     </row>
-    <row r="753" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="25"/>
       <c r="C753" s="1"/>
@@ -23391,7 +23399,7 @@
       <c r="Z753" s="1"/>
       <c r="AA753" s="1"/>
     </row>
-    <row r="754" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="25"/>
       <c r="C754" s="1"/>
@@ -23420,7 +23428,7 @@
       <c r="Z754" s="1"/>
       <c r="AA754" s="1"/>
     </row>
-    <row r="755" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="25"/>
       <c r="C755" s="1"/>
@@ -23449,7 +23457,7 @@
       <c r="Z755" s="1"/>
       <c r="AA755" s="1"/>
     </row>
-    <row r="756" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="25"/>
       <c r="C756" s="1"/>
@@ -23478,7 +23486,7 @@
       <c r="Z756" s="1"/>
       <c r="AA756" s="1"/>
     </row>
-    <row r="757" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="25"/>
       <c r="C757" s="1"/>
@@ -23507,7 +23515,7 @@
       <c r="Z757" s="1"/>
       <c r="AA757" s="1"/>
     </row>
-    <row r="758" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="25"/>
       <c r="C758" s="1"/>
@@ -23536,7 +23544,7 @@
       <c r="Z758" s="1"/>
       <c r="AA758" s="1"/>
     </row>
-    <row r="759" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="25"/>
       <c r="C759" s="1"/>
@@ -23565,7 +23573,7 @@
       <c r="Z759" s="1"/>
       <c r="AA759" s="1"/>
     </row>
-    <row r="760" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="25"/>
       <c r="C760" s="1"/>
@@ -23594,7 +23602,7 @@
       <c r="Z760" s="1"/>
       <c r="AA760" s="1"/>
     </row>
-    <row r="761" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="25"/>
       <c r="C761" s="1"/>
@@ -23623,7 +23631,7 @@
       <c r="Z761" s="1"/>
       <c r="AA761" s="1"/>
     </row>
-    <row r="762" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="25"/>
       <c r="C762" s="1"/>
@@ -23652,7 +23660,7 @@
       <c r="Z762" s="1"/>
       <c r="AA762" s="1"/>
     </row>
-    <row r="763" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="25"/>
       <c r="C763" s="1"/>
@@ -23681,7 +23689,7 @@
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
     </row>
-    <row r="764" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="25"/>
       <c r="C764" s="1"/>
@@ -23710,7 +23718,7 @@
       <c r="Z764" s="1"/>
       <c r="AA764" s="1"/>
     </row>
-    <row r="765" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="25"/>
       <c r="C765" s="1"/>
@@ -23739,7 +23747,7 @@
       <c r="Z765" s="1"/>
       <c r="AA765" s="1"/>
     </row>
-    <row r="766" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="25"/>
       <c r="C766" s="1"/>
@@ -23768,7 +23776,7 @@
       <c r="Z766" s="1"/>
       <c r="AA766" s="1"/>
     </row>
-    <row r="767" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="25"/>
       <c r="C767" s="1"/>
@@ -23797,7 +23805,7 @@
       <c r="Z767" s="1"/>
       <c r="AA767" s="1"/>
     </row>
-    <row r="768" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="25"/>
       <c r="C768" s="1"/>
@@ -23826,7 +23834,7 @@
       <c r="Z768" s="1"/>
       <c r="AA768" s="1"/>
     </row>
-    <row r="769" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="25"/>
       <c r="C769" s="1"/>
@@ -23855,7 +23863,7 @@
       <c r="Z769" s="1"/>
       <c r="AA769" s="1"/>
     </row>
-    <row r="770" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="25"/>
       <c r="C770" s="1"/>
@@ -23884,7 +23892,7 @@
       <c r="Z770" s="1"/>
       <c r="AA770" s="1"/>
     </row>
-    <row r="771" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="25"/>
       <c r="C771" s="1"/>
@@ -23913,7 +23921,7 @@
       <c r="Z771" s="1"/>
       <c r="AA771" s="1"/>
     </row>
-    <row r="772" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="25"/>
       <c r="C772" s="1"/>
@@ -23942,7 +23950,7 @@
       <c r="Z772" s="1"/>
       <c r="AA772" s="1"/>
     </row>
-    <row r="773" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="25"/>
       <c r="C773" s="1"/>
@@ -23971,7 +23979,7 @@
       <c r="Z773" s="1"/>
       <c r="AA773" s="1"/>
     </row>
-    <row r="774" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="25"/>
       <c r="C774" s="1"/>
@@ -24000,7 +24008,7 @@
       <c r="Z774" s="1"/>
       <c r="AA774" s="1"/>
     </row>
-    <row r="775" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="25"/>
       <c r="C775" s="1"/>
@@ -24029,7 +24037,7 @@
       <c r="Z775" s="1"/>
       <c r="AA775" s="1"/>
     </row>
-    <row r="776" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="25"/>
       <c r="C776" s="1"/>
@@ -24058,7 +24066,7 @@
       <c r="Z776" s="1"/>
       <c r="AA776" s="1"/>
     </row>
-    <row r="777" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="25"/>
       <c r="C777" s="1"/>
@@ -24087,7 +24095,7 @@
       <c r="Z777" s="1"/>
       <c r="AA777" s="1"/>
     </row>
-    <row r="778" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="25"/>
       <c r="C778" s="1"/>
@@ -24116,7 +24124,7 @@
       <c r="Z778" s="1"/>
       <c r="AA778" s="1"/>
     </row>
-    <row r="779" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="25"/>
       <c r="C779" s="1"/>
@@ -24145,7 +24153,7 @@
       <c r="Z779" s="1"/>
       <c r="AA779" s="1"/>
     </row>
-    <row r="780" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="25"/>
       <c r="C780" s="1"/>
@@ -24174,7 +24182,7 @@
       <c r="Z780" s="1"/>
       <c r="AA780" s="1"/>
     </row>
-    <row r="781" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="25"/>
       <c r="C781" s="1"/>
@@ -24203,7 +24211,7 @@
       <c r="Z781" s="1"/>
       <c r="AA781" s="1"/>
     </row>
-    <row r="782" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="25"/>
       <c r="C782" s="1"/>
@@ -24232,7 +24240,7 @@
       <c r="Z782" s="1"/>
       <c r="AA782" s="1"/>
     </row>
-    <row r="783" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="25"/>
       <c r="C783" s="1"/>
@@ -24261,7 +24269,7 @@
       <c r="Z783" s="1"/>
       <c r="AA783" s="1"/>
     </row>
-    <row r="784" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="25"/>
       <c r="C784" s="1"/>
@@ -24290,7 +24298,7 @@
       <c r="Z784" s="1"/>
       <c r="AA784" s="1"/>
     </row>
-    <row r="785" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="25"/>
       <c r="C785" s="1"/>
@@ -24319,7 +24327,7 @@
       <c r="Z785" s="1"/>
       <c r="AA785" s="1"/>
     </row>
-    <row r="786" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="25"/>
       <c r="C786" s="1"/>
@@ -24348,7 +24356,7 @@
       <c r="Z786" s="1"/>
       <c r="AA786" s="1"/>
     </row>
-    <row r="787" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="25"/>
       <c r="C787" s="1"/>
@@ -24377,7 +24385,7 @@
       <c r="Z787" s="1"/>
       <c r="AA787" s="1"/>
     </row>
-    <row r="788" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="25"/>
       <c r="C788" s="1"/>
@@ -24406,7 +24414,7 @@
       <c r="Z788" s="1"/>
       <c r="AA788" s="1"/>
     </row>
-    <row r="789" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="25"/>
       <c r="C789" s="1"/>
@@ -24435,7 +24443,7 @@
       <c r="Z789" s="1"/>
       <c r="AA789" s="1"/>
     </row>
-    <row r="790" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="25"/>
       <c r="C790" s="1"/>
@@ -24464,7 +24472,7 @@
       <c r="Z790" s="1"/>
       <c r="AA790" s="1"/>
     </row>
-    <row r="791" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="25"/>
       <c r="C791" s="1"/>
@@ -24493,7 +24501,7 @@
       <c r="Z791" s="1"/>
       <c r="AA791" s="1"/>
     </row>
-    <row r="792" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="25"/>
       <c r="C792" s="1"/>
@@ -24522,7 +24530,7 @@
       <c r="Z792" s="1"/>
       <c r="AA792" s="1"/>
     </row>
-    <row r="793" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="25"/>
       <c r="C793" s="1"/>
@@ -24551,7 +24559,7 @@
       <c r="Z793" s="1"/>
       <c r="AA793" s="1"/>
     </row>
-    <row r="794" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="25"/>
       <c r="C794" s="1"/>
@@ -24580,7 +24588,7 @@
       <c r="Z794" s="1"/>
       <c r="AA794" s="1"/>
     </row>
-    <row r="795" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="25"/>
       <c r="C795" s="1"/>
@@ -24609,7 +24617,7 @@
       <c r="Z795" s="1"/>
       <c r="AA795" s="1"/>
     </row>
-    <row r="796" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="25"/>
       <c r="C796" s="1"/>
@@ -24638,7 +24646,7 @@
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
     </row>
-    <row r="797" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="25"/>
       <c r="C797" s="1"/>
@@ -24667,7 +24675,7 @@
       <c r="Z797" s="1"/>
       <c r="AA797" s="1"/>
     </row>
-    <row r="798" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="25"/>
       <c r="C798" s="1"/>
@@ -24696,7 +24704,7 @@
       <c r="Z798" s="1"/>
       <c r="AA798" s="1"/>
     </row>
-    <row r="799" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="25"/>
       <c r="C799" s="1"/>
@@ -24725,7 +24733,7 @@
       <c r="Z799" s="1"/>
       <c r="AA799" s="1"/>
     </row>
-    <row r="800" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="25"/>
       <c r="C800" s="1"/>
@@ -24754,7 +24762,7 @@
       <c r="Z800" s="1"/>
       <c r="AA800" s="1"/>
     </row>
-    <row r="801" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="25"/>
       <c r="C801" s="1"/>
@@ -24783,7 +24791,7 @@
       <c r="Z801" s="1"/>
       <c r="AA801" s="1"/>
     </row>
-    <row r="802" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="25"/>
       <c r="C802" s="1"/>
@@ -24812,7 +24820,7 @@
       <c r="Z802" s="1"/>
       <c r="AA802" s="1"/>
     </row>
-    <row r="803" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="25"/>
       <c r="C803" s="1"/>
@@ -24841,7 +24849,7 @@
       <c r="Z803" s="1"/>
       <c r="AA803" s="1"/>
     </row>
-    <row r="804" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="25"/>
       <c r="C804" s="1"/>
@@ -24870,7 +24878,7 @@
       <c r="Z804" s="1"/>
       <c r="AA804" s="1"/>
     </row>
-    <row r="805" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="25"/>
       <c r="C805" s="1"/>
@@ -24899,7 +24907,7 @@
       <c r="Z805" s="1"/>
       <c r="AA805" s="1"/>
     </row>
-    <row r="806" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="25"/>
       <c r="C806" s="1"/>
@@ -24928,7 +24936,7 @@
       <c r="Z806" s="1"/>
       <c r="AA806" s="1"/>
     </row>
-    <row r="807" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="25"/>
       <c r="C807" s="1"/>
@@ -24957,7 +24965,7 @@
       <c r="Z807" s="1"/>
       <c r="AA807" s="1"/>
     </row>
-    <row r="808" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="25"/>
       <c r="C808" s="1"/>
@@ -24986,7 +24994,7 @@
       <c r="Z808" s="1"/>
       <c r="AA808" s="1"/>
     </row>
-    <row r="809" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="25"/>
       <c r="C809" s="1"/>
@@ -25015,7 +25023,7 @@
       <c r="Z809" s="1"/>
       <c r="AA809" s="1"/>
     </row>
-    <row r="810" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="25"/>
       <c r="C810" s="1"/>
@@ -25044,7 +25052,7 @@
       <c r="Z810" s="1"/>
       <c r="AA810" s="1"/>
     </row>
-    <row r="811" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="25"/>
       <c r="C811" s="1"/>
@@ -25073,7 +25081,7 @@
       <c r="Z811" s="1"/>
       <c r="AA811" s="1"/>
     </row>
-    <row r="812" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="25"/>
       <c r="C812" s="1"/>
@@ -25102,7 +25110,7 @@
       <c r="Z812" s="1"/>
       <c r="AA812" s="1"/>
     </row>
-    <row r="813" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="25"/>
       <c r="C813" s="1"/>
@@ -25131,7 +25139,7 @@
       <c r="Z813" s="1"/>
       <c r="AA813" s="1"/>
     </row>
-    <row r="814" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="25"/>
       <c r="C814" s="1"/>
@@ -25160,7 +25168,7 @@
       <c r="Z814" s="1"/>
       <c r="AA814" s="1"/>
     </row>
-    <row r="815" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="25"/>
       <c r="C815" s="1"/>
@@ -25189,7 +25197,7 @@
       <c r="Z815" s="1"/>
       <c r="AA815" s="1"/>
     </row>
-    <row r="816" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="25"/>
       <c r="C816" s="1"/>
@@ -25218,7 +25226,7 @@
       <c r="Z816" s="1"/>
       <c r="AA816" s="1"/>
     </row>
-    <row r="817" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="25"/>
       <c r="C817" s="1"/>
@@ -25247,7 +25255,7 @@
       <c r="Z817" s="1"/>
       <c r="AA817" s="1"/>
     </row>
-    <row r="818" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="25"/>
       <c r="C818" s="1"/>
@@ -25276,7 +25284,7 @@
       <c r="Z818" s="1"/>
       <c r="AA818" s="1"/>
     </row>
-    <row r="819" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="25"/>
       <c r="C819" s="1"/>
@@ -25305,7 +25313,7 @@
       <c r="Z819" s="1"/>
       <c r="AA819" s="1"/>
     </row>
-    <row r="820" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="25"/>
       <c r="C820" s="1"/>
@@ -25334,7 +25342,7 @@
       <c r="Z820" s="1"/>
       <c r="AA820" s="1"/>
     </row>
-    <row r="821" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="25"/>
       <c r="C821" s="1"/>
@@ -25363,7 +25371,7 @@
       <c r="Z821" s="1"/>
       <c r="AA821" s="1"/>
     </row>
-    <row r="822" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="25"/>
       <c r="C822" s="1"/>
@@ -25392,7 +25400,7 @@
       <c r="Z822" s="1"/>
       <c r="AA822" s="1"/>
     </row>
-    <row r="823" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="25"/>
       <c r="C823" s="1"/>
@@ -25421,7 +25429,7 @@
       <c r="Z823" s="1"/>
       <c r="AA823" s="1"/>
     </row>
-    <row r="824" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="25"/>
       <c r="C824" s="1"/>
@@ -25450,7 +25458,7 @@
       <c r="Z824" s="1"/>
       <c r="AA824" s="1"/>
     </row>
-    <row r="825" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="25"/>
       <c r="C825" s="1"/>
@@ -25479,7 +25487,7 @@
       <c r="Z825" s="1"/>
       <c r="AA825" s="1"/>
     </row>
-    <row r="826" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="25"/>
       <c r="C826" s="1"/>
@@ -25508,7 +25516,7 @@
       <c r="Z826" s="1"/>
       <c r="AA826" s="1"/>
     </row>
-    <row r="827" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="25"/>
       <c r="C827" s="1"/>
@@ -25537,7 +25545,7 @@
       <c r="Z827" s="1"/>
       <c r="AA827" s="1"/>
     </row>
-    <row r="828" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="25"/>
       <c r="C828" s="1"/>
@@ -25566,7 +25574,7 @@
       <c r="Z828" s="1"/>
       <c r="AA828" s="1"/>
     </row>
-    <row r="829" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="25"/>
       <c r="C829" s="1"/>
@@ -25595,7 +25603,7 @@
       <c r="Z829" s="1"/>
       <c r="AA829" s="1"/>
     </row>
-    <row r="830" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="25"/>
       <c r="C830" s="1"/>
@@ -25624,7 +25632,7 @@
       <c r="Z830" s="1"/>
       <c r="AA830" s="1"/>
     </row>
-    <row r="831" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="25"/>
       <c r="C831" s="1"/>
@@ -25653,7 +25661,7 @@
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
     </row>
-    <row r="832" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="25"/>
       <c r="C832" s="1"/>
@@ -25682,7 +25690,7 @@
       <c r="Z832" s="1"/>
       <c r="AA832" s="1"/>
     </row>
-    <row r="833" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="25"/>
       <c r="C833" s="1"/>
@@ -25711,7 +25719,7 @@
       <c r="Z833" s="1"/>
       <c r="AA833" s="1"/>
     </row>
-    <row r="834" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="25"/>
       <c r="C834" s="1"/>
@@ -25740,7 +25748,7 @@
       <c r="Z834" s="1"/>
       <c r="AA834" s="1"/>
     </row>
-    <row r="835" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="25"/>
       <c r="C835" s="1"/>
@@ -25769,7 +25777,7 @@
       <c r="Z835" s="1"/>
       <c r="AA835" s="1"/>
     </row>
-    <row r="836" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="25"/>
       <c r="C836" s="1"/>
@@ -25798,7 +25806,7 @@
       <c r="Z836" s="1"/>
       <c r="AA836" s="1"/>
     </row>
-    <row r="837" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="25"/>
       <c r="C837" s="1"/>
@@ -25827,7 +25835,7 @@
       <c r="Z837" s="1"/>
       <c r="AA837" s="1"/>
     </row>
-    <row r="838" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="25"/>
       <c r="C838" s="1"/>
@@ -25856,7 +25864,7 @@
       <c r="Z838" s="1"/>
       <c r="AA838" s="1"/>
     </row>
-    <row r="839" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="25"/>
       <c r="C839" s="1"/>
@@ -25885,7 +25893,7 @@
       <c r="Z839" s="1"/>
       <c r="AA839" s="1"/>
     </row>
-    <row r="840" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="25"/>
       <c r="C840" s="1"/>
@@ -25914,7 +25922,7 @@
       <c r="Z840" s="1"/>
       <c r="AA840" s="1"/>
     </row>
-    <row r="841" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="25"/>
       <c r="C841" s="1"/>
@@ -25943,7 +25951,7 @@
       <c r="Z841" s="1"/>
       <c r="AA841" s="1"/>
     </row>
-    <row r="842" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="25"/>
       <c r="C842" s="1"/>
@@ -25972,7 +25980,7 @@
       <c r="Z842" s="1"/>
       <c r="AA842" s="1"/>
     </row>
-    <row r="843" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="25"/>
       <c r="C843" s="1"/>
@@ -26001,7 +26009,7 @@
       <c r="Z843" s="1"/>
       <c r="AA843" s="1"/>
     </row>
-    <row r="844" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="25"/>
       <c r="C844" s="1"/>
@@ -26030,7 +26038,7 @@
       <c r="Z844" s="1"/>
       <c r="AA844" s="1"/>
     </row>
-    <row r="845" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="25"/>
       <c r="C845" s="1"/>
@@ -26059,7 +26067,7 @@
       <c r="Z845" s="1"/>
       <c r="AA845" s="1"/>
     </row>
-    <row r="846" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="25"/>
       <c r="C846" s="1"/>
@@ -26088,7 +26096,7 @@
       <c r="Z846" s="1"/>
       <c r="AA846" s="1"/>
     </row>
-    <row r="847" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="25"/>
       <c r="C847" s="1"/>
@@ -26117,7 +26125,7 @@
       <c r="Z847" s="1"/>
       <c r="AA847" s="1"/>
     </row>
-    <row r="848" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="25"/>
       <c r="C848" s="1"/>
@@ -26146,7 +26154,7 @@
       <c r="Z848" s="1"/>
       <c r="AA848" s="1"/>
     </row>
-    <row r="849" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="25"/>
       <c r="C849" s="1"/>
@@ -26175,7 +26183,7 @@
       <c r="Z849" s="1"/>
       <c r="AA849" s="1"/>
     </row>
-    <row r="850" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="25"/>
       <c r="C850" s="1"/>
@@ -26204,7 +26212,7 @@
       <c r="Z850" s="1"/>
       <c r="AA850" s="1"/>
     </row>
-    <row r="851" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="25"/>
       <c r="C851" s="1"/>
@@ -26233,7 +26241,7 @@
       <c r="Z851" s="1"/>
       <c r="AA851" s="1"/>
     </row>
-    <row r="852" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="25"/>
       <c r="C852" s="1"/>
@@ -26262,7 +26270,7 @@
       <c r="Z852" s="1"/>
       <c r="AA852" s="1"/>
     </row>
-    <row r="853" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="25"/>
       <c r="C853" s="1"/>
@@ -26291,7 +26299,7 @@
       <c r="Z853" s="1"/>
       <c r="AA853" s="1"/>
     </row>
-    <row r="854" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="25"/>
       <c r="C854" s="1"/>
@@ -26320,7 +26328,7 @@
       <c r="Z854" s="1"/>
       <c r="AA854" s="1"/>
     </row>
-    <row r="855" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="25"/>
       <c r="C855" s="1"/>
@@ -26349,7 +26357,7 @@
       <c r="Z855" s="1"/>
       <c r="AA855" s="1"/>
     </row>
-    <row r="856" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="25"/>
       <c r="C856" s="1"/>
@@ -26378,7 +26386,7 @@
       <c r="Z856" s="1"/>
       <c r="AA856" s="1"/>
     </row>
-    <row r="857" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="25"/>
       <c r="C857" s="1"/>
@@ -26407,7 +26415,7 @@
       <c r="Z857" s="1"/>
       <c r="AA857" s="1"/>
     </row>
-    <row r="858" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="25"/>
       <c r="C858" s="1"/>
@@ -26436,7 +26444,7 @@
       <c r="Z858" s="1"/>
       <c r="AA858" s="1"/>
     </row>
-    <row r="859" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="25"/>
       <c r="C859" s="1"/>
@@ -26465,7 +26473,7 @@
       <c r="Z859" s="1"/>
       <c r="AA859" s="1"/>
     </row>
-    <row r="860" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="25"/>
       <c r="C860" s="1"/>
@@ -26494,7 +26502,7 @@
       <c r="Z860" s="1"/>
       <c r="AA860" s="1"/>
     </row>
-    <row r="861" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="25"/>
       <c r="C861" s="1"/>
@@ -26523,7 +26531,7 @@
       <c r="Z861" s="1"/>
       <c r="AA861" s="1"/>
     </row>
-    <row r="862" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="25"/>
       <c r="C862" s="1"/>
@@ -26552,7 +26560,7 @@
       <c r="Z862" s="1"/>
       <c r="AA862" s="1"/>
     </row>
-    <row r="863" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="25"/>
       <c r="C863" s="1"/>
@@ -26581,7 +26589,7 @@
       <c r="Z863" s="1"/>
       <c r="AA863" s="1"/>
     </row>
-    <row r="864" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="25"/>
       <c r="C864" s="1"/>
@@ -26610,7 +26618,7 @@
       <c r="Z864" s="1"/>
       <c r="AA864" s="1"/>
     </row>
-    <row r="865" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="25"/>
       <c r="C865" s="1"/>
@@ -26639,7 +26647,7 @@
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
     </row>
-    <row r="866" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="25"/>
       <c r="C866" s="1"/>
@@ -26668,7 +26676,7 @@
       <c r="Z866" s="1"/>
       <c r="AA866" s="1"/>
     </row>
-    <row r="867" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="25"/>
       <c r="C867" s="1"/>
@@ -26697,7 +26705,7 @@
       <c r="Z867" s="1"/>
       <c r="AA867" s="1"/>
     </row>
-    <row r="868" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="25"/>
       <c r="C868" s="1"/>
@@ -26726,7 +26734,7 @@
       <c r="Z868" s="1"/>
       <c r="AA868" s="1"/>
     </row>
-    <row r="869" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="25"/>
       <c r="C869" s="1"/>
@@ -26755,7 +26763,7 @@
       <c r="Z869" s="1"/>
       <c r="AA869" s="1"/>
     </row>
-    <row r="870" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="25"/>
       <c r="C870" s="1"/>
@@ -26784,7 +26792,7 @@
       <c r="Z870" s="1"/>
       <c r="AA870" s="1"/>
     </row>
-    <row r="871" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="25"/>
       <c r="C871" s="1"/>
@@ -26813,7 +26821,7 @@
       <c r="Z871" s="1"/>
       <c r="AA871" s="1"/>
     </row>
-    <row r="872" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="25"/>
       <c r="C872" s="1"/>
@@ -26842,7 +26850,7 @@
       <c r="Z872" s="1"/>
       <c r="AA872" s="1"/>
     </row>
-    <row r="873" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="25"/>
       <c r="C873" s="1"/>
@@ -26871,7 +26879,7 @@
       <c r="Z873" s="1"/>
       <c r="AA873" s="1"/>
     </row>
-    <row r="874" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="25"/>
       <c r="C874" s="1"/>
@@ -26900,7 +26908,7 @@
       <c r="Z874" s="1"/>
       <c r="AA874" s="1"/>
     </row>
-    <row r="875" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="25"/>
       <c r="C875" s="1"/>
@@ -26929,7 +26937,7 @@
       <c r="Z875" s="1"/>
       <c r="AA875" s="1"/>
     </row>
-    <row r="876" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="25"/>
       <c r="C876" s="1"/>
@@ -26958,7 +26966,7 @@
       <c r="Z876" s="1"/>
       <c r="AA876" s="1"/>
     </row>
-    <row r="877" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="25"/>
       <c r="C877" s="1"/>
@@ -26987,7 +26995,7 @@
       <c r="Z877" s="1"/>
       <c r="AA877" s="1"/>
     </row>
-    <row r="878" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="25"/>
       <c r="C878" s="1"/>
@@ -27016,7 +27024,7 @@
       <c r="Z878" s="1"/>
       <c r="AA878" s="1"/>
     </row>
-    <row r="879" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="25"/>
       <c r="C879" s="1"/>
@@ -27045,7 +27053,7 @@
       <c r="Z879" s="1"/>
       <c r="AA879" s="1"/>
     </row>
-    <row r="880" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="25"/>
       <c r="C880" s="1"/>
@@ -27074,7 +27082,7 @@
       <c r="Z880" s="1"/>
       <c r="AA880" s="1"/>
     </row>
-    <row r="881" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="25"/>
       <c r="C881" s="1"/>
@@ -27103,7 +27111,7 @@
       <c r="Z881" s="1"/>
       <c r="AA881" s="1"/>
     </row>
-    <row r="882" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="25"/>
       <c r="C882" s="1"/>
@@ -27132,7 +27140,7 @@
       <c r="Z882" s="1"/>
       <c r="AA882" s="1"/>
     </row>
-    <row r="883" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="25"/>
       <c r="C883" s="1"/>
@@ -27161,7 +27169,7 @@
       <c r="Z883" s="1"/>
       <c r="AA883" s="1"/>
     </row>
-    <row r="884" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="25"/>
       <c r="C884" s="1"/>
@@ -27190,7 +27198,7 @@
       <c r="Z884" s="1"/>
       <c r="AA884" s="1"/>
     </row>
-    <row r="885" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="25"/>
       <c r="C885" s="1"/>
@@ -27219,7 +27227,7 @@
       <c r="Z885" s="1"/>
       <c r="AA885" s="1"/>
     </row>
-    <row r="886" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="25"/>
       <c r="C886" s="1"/>
@@ -27248,7 +27256,7 @@
       <c r="Z886" s="1"/>
       <c r="AA886" s="1"/>
     </row>
-    <row r="887" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="25"/>
       <c r="C887" s="1"/>
@@ -27277,7 +27285,7 @@
       <c r="Z887" s="1"/>
       <c r="AA887" s="1"/>
     </row>
-    <row r="888" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="25"/>
       <c r="C888" s="1"/>
@@ -27306,7 +27314,7 @@
       <c r="Z888" s="1"/>
       <c r="AA888" s="1"/>
     </row>
-    <row r="889" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="25"/>
       <c r="C889" s="1"/>
@@ -27335,7 +27343,7 @@
       <c r="Z889" s="1"/>
       <c r="AA889" s="1"/>
     </row>
-    <row r="890" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="25"/>
       <c r="C890" s="1"/>
@@ -27364,7 +27372,7 @@
       <c r="Z890" s="1"/>
       <c r="AA890" s="1"/>
     </row>
-    <row r="891" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="25"/>
       <c r="C891" s="1"/>
@@ -27393,7 +27401,7 @@
       <c r="Z891" s="1"/>
       <c r="AA891" s="1"/>
     </row>
-    <row r="892" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="25"/>
       <c r="C892" s="1"/>
@@ -27422,7 +27430,7 @@
       <c r="Z892" s="1"/>
       <c r="AA892" s="1"/>
     </row>
-    <row r="893" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="25"/>
       <c r="C893" s="1"/>
@@ -27451,7 +27459,7 @@
       <c r="Z893" s="1"/>
       <c r="AA893" s="1"/>
     </row>
-    <row r="894" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="25"/>
       <c r="C894" s="1"/>
@@ -27480,7 +27488,7 @@
       <c r="Z894" s="1"/>
       <c r="AA894" s="1"/>
     </row>
-    <row r="895" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="25"/>
       <c r="C895" s="1"/>
@@ -27509,7 +27517,7 @@
       <c r="Z895" s="1"/>
       <c r="AA895" s="1"/>
     </row>
-    <row r="896" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="25"/>
       <c r="C896" s="1"/>
@@ -27538,7 +27546,7 @@
       <c r="Z896" s="1"/>
       <c r="AA896" s="1"/>
     </row>
-    <row r="897" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="25"/>
       <c r="C897" s="1"/>
@@ -27567,7 +27575,7 @@
       <c r="Z897" s="1"/>
       <c r="AA897" s="1"/>
     </row>
-    <row r="898" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="25"/>
       <c r="C898" s="1"/>
@@ -27596,7 +27604,7 @@
       <c r="Z898" s="1"/>
       <c r="AA898" s="1"/>
     </row>
-    <row r="899" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="25"/>
       <c r="C899" s="1"/>
@@ -27625,7 +27633,7 @@
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
     </row>
-    <row r="900" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="25"/>
       <c r="C900" s="1"/>
@@ -27654,7 +27662,7 @@
       <c r="Z900" s="1"/>
       <c r="AA900" s="1"/>
     </row>
-    <row r="901" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="25"/>
       <c r="C901" s="1"/>
@@ -27683,7 +27691,7 @@
       <c r="Z901" s="1"/>
       <c r="AA901" s="1"/>
     </row>
-    <row r="902" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="25"/>
       <c r="C902" s="1"/>
@@ -27712,7 +27720,7 @@
       <c r="Z902" s="1"/>
       <c r="AA902" s="1"/>
     </row>
-    <row r="903" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="25"/>
       <c r="C903" s="1"/>
@@ -27741,7 +27749,7 @@
       <c r="Z903" s="1"/>
       <c r="AA903" s="1"/>
     </row>
-    <row r="904" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="25"/>
       <c r="C904" s="1"/>
@@ -27770,7 +27778,7 @@
       <c r="Z904" s="1"/>
       <c r="AA904" s="1"/>
     </row>
-    <row r="905" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="25"/>
       <c r="C905" s="1"/>
@@ -27799,7 +27807,7 @@
       <c r="Z905" s="1"/>
       <c r="AA905" s="1"/>
     </row>
-    <row r="906" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="25"/>
       <c r="C906" s="1"/>
@@ -27828,7 +27836,7 @@
       <c r="Z906" s="1"/>
       <c r="AA906" s="1"/>
     </row>
-    <row r="907" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="25"/>
       <c r="C907" s="1"/>
@@ -27857,7 +27865,7 @@
       <c r="Z907" s="1"/>
       <c r="AA907" s="1"/>
     </row>
-    <row r="908" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="25"/>
       <c r="C908" s="1"/>
@@ -27886,7 +27894,7 @@
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
     </row>
-    <row r="909" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="25"/>
       <c r="C909" s="1"/>
@@ -27915,7 +27923,7 @@
       <c r="Z909" s="1"/>
       <c r="AA909" s="1"/>
     </row>
-    <row r="910" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="25"/>
       <c r="C910" s="1"/>
@@ -27944,7 +27952,7 @@
       <c r="Z910" s="1"/>
       <c r="AA910" s="1"/>
     </row>
-    <row r="911" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="25"/>
       <c r="C911" s="1"/>
@@ -27973,7 +27981,7 @@
       <c r="Z911" s="1"/>
       <c r="AA911" s="1"/>
     </row>
-    <row r="912" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="25"/>
       <c r="C912" s="1"/>
@@ -28002,7 +28010,7 @@
       <c r="Z912" s="1"/>
       <c r="AA912" s="1"/>
     </row>
-    <row r="913" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="25"/>
       <c r="C913" s="1"/>
@@ -28031,7 +28039,7 @@
       <c r="Z913" s="1"/>
       <c r="AA913" s="1"/>
     </row>
-    <row r="914" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="25"/>
       <c r="C914" s="1"/>
@@ -28060,7 +28068,7 @@
       <c r="Z914" s="1"/>
       <c r="AA914" s="1"/>
     </row>
-    <row r="915" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="25"/>
       <c r="C915" s="1"/>
@@ -28089,7 +28097,7 @@
       <c r="Z915" s="1"/>
       <c r="AA915" s="1"/>
     </row>
-    <row r="916" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="25"/>
       <c r="C916" s="1"/>
@@ -28118,7 +28126,7 @@
       <c r="Z916" s="1"/>
       <c r="AA916" s="1"/>
     </row>
-    <row r="917" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="25"/>
       <c r="C917" s="1"/>
@@ -28147,7 +28155,7 @@
       <c r="Z917" s="1"/>
       <c r="AA917" s="1"/>
     </row>
-    <row r="918" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="25"/>
       <c r="C918" s="1"/>
@@ -28176,7 +28184,7 @@
       <c r="Z918" s="1"/>
       <c r="AA918" s="1"/>
     </row>
-    <row r="919" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="25"/>
       <c r="C919" s="1"/>
@@ -28205,7 +28213,7 @@
       <c r="Z919" s="1"/>
       <c r="AA919" s="1"/>
     </row>
-    <row r="920" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="25"/>
       <c r="C920" s="1"/>
@@ -28234,7 +28242,7 @@
       <c r="Z920" s="1"/>
       <c r="AA920" s="1"/>
     </row>
-    <row r="921" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="25"/>
       <c r="C921" s="1"/>
@@ -28263,7 +28271,7 @@
       <c r="Z921" s="1"/>
       <c r="AA921" s="1"/>
     </row>
-    <row r="922" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="25"/>
       <c r="C922" s="1"/>
@@ -28292,7 +28300,7 @@
       <c r="Z922" s="1"/>
       <c r="AA922" s="1"/>
     </row>
-    <row r="923" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="25"/>
       <c r="C923" s="1"/>
@@ -28321,7 +28329,7 @@
       <c r="Z923" s="1"/>
       <c r="AA923" s="1"/>
     </row>
-    <row r="924" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="25"/>
       <c r="C924" s="1"/>
@@ -28350,7 +28358,7 @@
       <c r="Z924" s="1"/>
       <c r="AA924" s="1"/>
     </row>
-    <row r="925" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="25"/>
       <c r="C925" s="1"/>
@@ -28379,7 +28387,7 @@
       <c r="Z925" s="1"/>
       <c r="AA925" s="1"/>
     </row>
-    <row r="926" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="25"/>
       <c r="C926" s="1"/>
@@ -28408,7 +28416,7 @@
       <c r="Z926" s="1"/>
       <c r="AA926" s="1"/>
     </row>
-    <row r="927" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="25"/>
       <c r="C927" s="1"/>
@@ -28437,7 +28445,7 @@
       <c r="Z927" s="1"/>
       <c r="AA927" s="1"/>
     </row>
-    <row r="928" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="25"/>
       <c r="C928" s="1"/>
@@ -28466,7 +28474,7 @@
       <c r="Z928" s="1"/>
       <c r="AA928" s="1"/>
     </row>
-    <row r="929" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="25"/>
       <c r="C929" s="1"/>
@@ -28495,7 +28503,7 @@
       <c r="Z929" s="1"/>
       <c r="AA929" s="1"/>
     </row>
-    <row r="930" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="25"/>
       <c r="C930" s="1"/>
@@ -28524,7 +28532,7 @@
       <c r="Z930" s="1"/>
       <c r="AA930" s="1"/>
     </row>
-    <row r="931" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="25"/>
       <c r="C931" s="1"/>
@@ -28553,7 +28561,7 @@
       <c r="Z931" s="1"/>
       <c r="AA931" s="1"/>
     </row>
-    <row r="932" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="25"/>
       <c r="C932" s="1"/>
@@ -28582,7 +28590,7 @@
       <c r="Z932" s="1"/>
       <c r="AA932" s="1"/>
     </row>
-    <row r="933" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="25"/>
       <c r="C933" s="1"/>
@@ -28611,7 +28619,7 @@
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
     </row>
-    <row r="934" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="25"/>
       <c r="C934" s="1"/>
@@ -28640,7 +28648,7 @@
       <c r="Z934" s="1"/>
       <c r="AA934" s="1"/>
     </row>
-    <row r="935" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="25"/>
       <c r="C935" s="1"/>
@@ -28669,7 +28677,7 @@
       <c r="Z935" s="1"/>
       <c r="AA935" s="1"/>
     </row>
-    <row r="936" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="25"/>
       <c r="C936" s="1"/>
@@ -28698,7 +28706,7 @@
       <c r="Z936" s="1"/>
       <c r="AA936" s="1"/>
     </row>
-    <row r="937" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="25"/>
       <c r="C937" s="1"/>
@@ -28727,7 +28735,7 @@
       <c r="Z937" s="1"/>
       <c r="AA937" s="1"/>
     </row>
-    <row r="938" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="25"/>
       <c r="C938" s="1"/>
@@ -28756,7 +28764,7 @@
       <c r="Z938" s="1"/>
       <c r="AA938" s="1"/>
     </row>
-    <row r="939" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="25"/>
       <c r="C939" s="1"/>
@@ -28785,7 +28793,7 @@
       <c r="Z939" s="1"/>
       <c r="AA939" s="1"/>
     </row>
-    <row r="940" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="25"/>
       <c r="C940" s="1"/>
@@ -28814,7 +28822,7 @@
       <c r="Z940" s="1"/>
       <c r="AA940" s="1"/>
     </row>
-    <row r="941" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="25"/>
       <c r="C941" s="1"/>
@@ -28843,7 +28851,7 @@
       <c r="Z941" s="1"/>
       <c r="AA941" s="1"/>
     </row>
-    <row r="942" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="25"/>
       <c r="C942" s="1"/>
@@ -28872,7 +28880,7 @@
       <c r="Z942" s="1"/>
       <c r="AA942" s="1"/>
     </row>
-    <row r="943" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="25"/>
       <c r="C943" s="1"/>
@@ -28901,7 +28909,7 @@
       <c r="Z943" s="1"/>
       <c r="AA943" s="1"/>
     </row>
-    <row r="944" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="25"/>
       <c r="C944" s="1"/>
@@ -28930,7 +28938,7 @@
       <c r="Z944" s="1"/>
       <c r="AA944" s="1"/>
     </row>
-    <row r="945" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="25"/>
       <c r="C945" s="1"/>
@@ -28959,7 +28967,7 @@
       <c r="Z945" s="1"/>
       <c r="AA945" s="1"/>
     </row>
-    <row r="946" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="25"/>
       <c r="C946" s="1"/>
@@ -28988,7 +28996,7 @@
       <c r="Z946" s="1"/>
       <c r="AA946" s="1"/>
     </row>
-    <row r="947" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="25"/>
       <c r="C947" s="1"/>
@@ -29017,7 +29025,7 @@
       <c r="Z947" s="1"/>
       <c r="AA947" s="1"/>
     </row>
-    <row r="948" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="25"/>
       <c r="C948" s="1"/>
@@ -29046,7 +29054,7 @@
       <c r="Z948" s="1"/>
       <c r="AA948" s="1"/>
     </row>
-    <row r="949" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="25"/>
       <c r="C949" s="1"/>
@@ -29075,7 +29083,7 @@
       <c r="Z949" s="1"/>
       <c r="AA949" s="1"/>
     </row>
-    <row r="950" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="25"/>
       <c r="C950" s="1"/>
@@ -29104,7 +29112,7 @@
       <c r="Z950" s="1"/>
       <c r="AA950" s="1"/>
     </row>
-    <row r="951" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="25"/>
       <c r="C951" s="1"/>
@@ -29133,7 +29141,7 @@
       <c r="Z951" s="1"/>
       <c r="AA951" s="1"/>
     </row>
-    <row r="952" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="25"/>
       <c r="C952" s="1"/>
@@ -29162,7 +29170,7 @@
       <c r="Z952" s="1"/>
       <c r="AA952" s="1"/>
     </row>
-    <row r="953" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="25"/>
       <c r="C953" s="1"/>
@@ -29191,7 +29199,7 @@
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
     </row>
-    <row r="954" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="25"/>
       <c r="C954" s="1"/>
@@ -29220,7 +29228,7 @@
       <c r="Z954" s="1"/>
       <c r="AA954" s="1"/>
     </row>
-    <row r="955" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="25"/>
       <c r="C955" s="1"/>
@@ -29249,7 +29257,7 @@
       <c r="Z955" s="1"/>
       <c r="AA955" s="1"/>
     </row>
-    <row r="956" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="25"/>
       <c r="C956" s="1"/>
@@ -29278,7 +29286,7 @@
       <c r="Z956" s="1"/>
       <c r="AA956" s="1"/>
     </row>
-    <row r="957" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="25"/>
       <c r="C957" s="1"/>
@@ -29307,7 +29315,7 @@
       <c r="Z957" s="1"/>
       <c r="AA957" s="1"/>
     </row>
-    <row r="958" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="25"/>
       <c r="C958" s="1"/>
@@ -29336,7 +29344,7 @@
       <c r="Z958" s="1"/>
       <c r="AA958" s="1"/>
     </row>
-    <row r="959" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="25"/>
       <c r="C959" s="1"/>
@@ -29365,7 +29373,7 @@
       <c r="Z959" s="1"/>
       <c r="AA959" s="1"/>
     </row>
-    <row r="960" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="25"/>
       <c r="C960" s="1"/>
@@ -29394,7 +29402,7 @@
       <c r="Z960" s="1"/>
       <c r="AA960" s="1"/>
     </row>
-    <row r="961" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="25"/>
       <c r="C961" s="1"/>
@@ -29423,7 +29431,7 @@
       <c r="Z961" s="1"/>
       <c r="AA961" s="1"/>
     </row>
-    <row r="962" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="25"/>
       <c r="C962" s="1"/>
@@ -29452,7 +29460,7 @@
       <c r="Z962" s="1"/>
       <c r="AA962" s="1"/>
     </row>
-    <row r="963" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="25"/>
       <c r="C963" s="1"/>
@@ -29481,7 +29489,7 @@
       <c r="Z963" s="1"/>
       <c r="AA963" s="1"/>
     </row>
-    <row r="964" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="25"/>
       <c r="C964" s="1"/>
@@ -29510,7 +29518,7 @@
       <c r="Z964" s="1"/>
       <c r="AA964" s="1"/>
     </row>
-    <row r="965" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="25"/>
       <c r="C965" s="1"/>
@@ -29539,7 +29547,7 @@
       <c r="Z965" s="1"/>
       <c r="AA965" s="1"/>
     </row>
-    <row r="966" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="25"/>
       <c r="C966" s="1"/>
@@ -29568,7 +29576,7 @@
       <c r="Z966" s="1"/>
       <c r="AA966" s="1"/>
     </row>
-    <row r="967" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="25"/>
       <c r="C967" s="1"/>
@@ -29597,7 +29605,7 @@
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
     </row>
-    <row r="968" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="25"/>
       <c r="C968" s="1"/>
@@ -29626,7 +29634,7 @@
       <c r="Z968" s="1"/>
       <c r="AA968" s="1"/>
     </row>
-    <row r="969" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="25"/>
       <c r="C969" s="1"/>
@@ -29655,7 +29663,7 @@
       <c r="Z969" s="1"/>
       <c r="AA969" s="1"/>
     </row>
-    <row r="970" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="25"/>
       <c r="C970" s="1"/>
@@ -29684,7 +29692,7 @@
       <c r="Z970" s="1"/>
       <c r="AA970" s="1"/>
     </row>
-    <row r="971" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="25"/>
       <c r="C971" s="1"/>
@@ -29713,7 +29721,7 @@
       <c r="Z971" s="1"/>
       <c r="AA971" s="1"/>
     </row>
-    <row r="972" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="25"/>
       <c r="C972" s="1"/>
@@ -29742,7 +29750,7 @@
       <c r="Z972" s="1"/>
       <c r="AA972" s="1"/>
     </row>
-    <row r="973" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="25"/>
       <c r="C973" s="1"/>
@@ -29771,7 +29779,7 @@
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
     </row>
-    <row r="974" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="25"/>
       <c r="C974" s="1"/>
@@ -29800,7 +29808,7 @@
       <c r="Z974" s="1"/>
       <c r="AA974" s="1"/>
     </row>
-    <row r="975" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="25"/>
       <c r="C975" s="1"/>
@@ -29829,7 +29837,7 @@
       <c r="Z975" s="1"/>
       <c r="AA975" s="1"/>
     </row>
-    <row r="976" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="25"/>
       <c r="C976" s="1"/>
@@ -29858,7 +29866,7 @@
       <c r="Z976" s="1"/>
       <c r="AA976" s="1"/>
     </row>
-    <row r="977" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="25"/>
       <c r="C977" s="1"/>
@@ -29887,7 +29895,7 @@
       <c r="Z977" s="1"/>
       <c r="AA977" s="1"/>
     </row>
-    <row r="978" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="25"/>
       <c r="C978" s="1"/>
@@ -29916,7 +29924,7 @@
       <c r="Z978" s="1"/>
       <c r="AA978" s="1"/>
     </row>
-    <row r="979" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="25"/>
       <c r="C979" s="1"/>
@@ -29945,7 +29953,7 @@
       <c r="Z979" s="1"/>
       <c r="AA979" s="1"/>
     </row>
-    <row r="980" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="25"/>
       <c r="C980" s="1"/>
@@ -29974,7 +29982,7 @@
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
     </row>
-    <row r="981" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="25"/>
       <c r="C981" s="1"/>
@@ -30003,7 +30011,7 @@
       <c r="Z981" s="1"/>
       <c r="AA981" s="1"/>
     </row>
-    <row r="982" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="25"/>
       <c r="C982" s="1"/>
@@ -30032,7 +30040,7 @@
       <c r="Z982" s="1"/>
       <c r="AA982" s="1"/>
     </row>
-    <row r="983" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="25"/>
       <c r="C983" s="1"/>
@@ -30061,7 +30069,7 @@
       <c r="Z983" s="1"/>
       <c r="AA983" s="1"/>
     </row>
-    <row r="984" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="25"/>
       <c r="C984" s="1"/>
@@ -30090,7 +30098,7 @@
       <c r="Z984" s="1"/>
       <c r="AA984" s="1"/>
     </row>
-    <row r="985" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="25"/>
       <c r="C985" s="1"/>
@@ -30119,7 +30127,7 @@
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
     </row>
-    <row r="986" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="25"/>
       <c r="C986" s="1"/>
@@ -30148,7 +30156,7 @@
       <c r="Z986" s="1"/>
       <c r="AA986" s="1"/>
     </row>
-    <row r="987" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="25"/>
       <c r="C987" s="1"/>
@@ -30177,7 +30185,7 @@
       <c r="Z987" s="1"/>
       <c r="AA987" s="1"/>
     </row>
-    <row r="988" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="25"/>
       <c r="C988" s="1"/>
@@ -30206,7 +30214,7 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
-    <row r="989" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="25"/>
       <c r="C989" s="1"/>
@@ -30235,7 +30243,7 @@
       <c r="Z989" s="1"/>
       <c r="AA989" s="1"/>
     </row>
-    <row r="990" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="25"/>
       <c r="C990" s="1"/>
@@ -30264,7 +30272,7 @@
       <c r="Z990" s="1"/>
       <c r="AA990" s="1"/>
     </row>
-    <row r="991" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="25"/>
       <c r="C991" s="1"/>
@@ -30293,7 +30301,7 @@
       <c r="Z991" s="1"/>
       <c r="AA991" s="1"/>
     </row>
-    <row r="992" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="25"/>
       <c r="C992" s="1"/>
@@ -30322,7 +30330,7 @@
       <c r="Z992" s="1"/>
       <c r="AA992" s="1"/>
     </row>
-    <row r="993" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="25"/>
       <c r="C993" s="1"/>
@@ -30351,7 +30359,7 @@
       <c r="Z993" s="1"/>
       <c r="AA993" s="1"/>
     </row>
-    <row r="994" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="25"/>
       <c r="C994" s="1"/>
@@ -30380,7 +30388,7 @@
       <c r="Z994" s="1"/>
       <c r="AA994" s="1"/>
     </row>
-    <row r="995" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="25"/>
       <c r="C995" s="1"/>
@@ -30409,7 +30417,7 @@
       <c r="Z995" s="1"/>
       <c r="AA995" s="1"/>
     </row>
-    <row r="996" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="25"/>
       <c r="C996" s="1"/>
@@ -30438,7 +30446,7 @@
       <c r="Z996" s="1"/>
       <c r="AA996" s="1"/>
     </row>
-    <row r="997" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="25"/>
       <c r="C997" s="1"/>
@@ -30467,7 +30475,7 @@
       <c r="Z997" s="1"/>
       <c r="AA997" s="1"/>
     </row>
-    <row r="998" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="25"/>
       <c r="C998" s="1"/>
@@ -30496,7 +30504,7 @@
       <c r="Z998" s="1"/>
       <c r="AA998" s="1"/>
     </row>
-    <row r="999" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="25"/>
       <c r="C999" s="1"/>
@@ -30525,7 +30533,7 @@
       <c r="Z999" s="1"/>
       <c r="AA999" s="1"/>
     </row>
-    <row r="1000" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="25"/>
       <c r="C1000" s="1"/>
@@ -30554,7 +30562,7 @@
       <c r="Z1000" s="1"/>
       <c r="AA1000" s="1"/>
     </row>
-    <row r="1001" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1001" s="1"/>
       <c r="B1001" s="25"/>
       <c r="C1001" s="1"/>
@@ -30583,7 +30591,7 @@
       <c r="Z1001" s="1"/>
       <c r="AA1001" s="1"/>
     </row>
-    <row r="1002" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1002" s="1"/>
       <c r="B1002" s="25"/>
       <c r="C1002" s="1"/>
@@ -30612,7 +30620,7 @@
       <c r="Z1002" s="1"/>
       <c r="AA1002" s="1"/>
     </row>
-    <row r="1003" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1003" s="1"/>
       <c r="B1003" s="25"/>
       <c r="C1003" s="1"/>
@@ -30641,7 +30649,7 @@
       <c r="Z1003" s="1"/>
       <c r="AA1003" s="1"/>
     </row>
-    <row r="1004" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1004" s="1"/>
       <c r="B1004" s="25"/>
       <c r="C1004" s="1"/>
@@ -30670,7 +30678,7 @@
       <c r="Z1004" s="1"/>
       <c r="AA1004" s="1"/>
     </row>
-    <row r="1005" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1005" s="1"/>
       <c r="B1005" s="25"/>
       <c r="C1005" s="1"/>
@@ -30699,7 +30707,7 @@
       <c r="Z1005" s="1"/>
       <c r="AA1005" s="1"/>
     </row>
-    <row r="1006" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1006" s="1"/>
       <c r="B1006" s="25"/>
       <c r="C1006" s="1"/>
@@ -30728,7 +30736,7 @@
       <c r="Z1006" s="1"/>
       <c r="AA1006" s="1"/>
     </row>
-    <row r="1007" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1007" s="1"/>
       <c r="B1007" s="25"/>
       <c r="C1007" s="1"/>
@@ -30757,7 +30765,7 @@
       <c r="Z1007" s="1"/>
       <c r="AA1007" s="1"/>
     </row>
-    <row r="1008" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1008" s="1"/>
       <c r="B1008" s="25"/>
       <c r="C1008" s="1"/>
@@ -30786,7 +30794,7 @@
       <c r="Z1008" s="1"/>
       <c r="AA1008" s="1"/>
     </row>
-    <row r="1009" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1009" s="1"/>
       <c r="B1009" s="25"/>
       <c r="C1009" s="1"/>
@@ -30815,7 +30823,7 @@
       <c r="Z1009" s="1"/>
       <c r="AA1009" s="1"/>
     </row>
-    <row r="1010" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1010" s="1"/>
       <c r="B1010" s="25"/>
       <c r="C1010" s="1"/>
@@ -30844,7 +30852,7 @@
       <c r="Z1010" s="1"/>
       <c r="AA1010" s="1"/>
     </row>
-    <row r="1011" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1011" s="1"/>
       <c r="B1011" s="25"/>
       <c r="C1011" s="1"/>
@@ -30873,7 +30881,7 @@
       <c r="Z1011" s="1"/>
       <c r="AA1011" s="1"/>
     </row>
-    <row r="1012" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1012" s="1"/>
       <c r="B1012" s="25"/>
       <c r="C1012" s="1"/>
@@ -30902,7 +30910,7 @@
       <c r="Z1012" s="1"/>
       <c r="AA1012" s="1"/>
     </row>
-    <row r="1013" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1013" s="1"/>
       <c r="B1013" s="25"/>
       <c r="C1013" s="1"/>
@@ -30931,7 +30939,7 @@
       <c r="Z1013" s="1"/>
       <c r="AA1013" s="1"/>
     </row>
-    <row r="1014" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1014" s="1"/>
       <c r="B1014" s="25"/>
       <c r="C1014" s="1"/>
@@ -30960,7 +30968,7 @@
       <c r="Z1014" s="1"/>
       <c r="AA1014" s="1"/>
     </row>
-    <row r="1015" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1015" s="1"/>
       <c r="B1015" s="25"/>
       <c r="C1015" s="1"/>
@@ -30989,7 +30997,7 @@
       <c r="Z1015" s="1"/>
       <c r="AA1015" s="1"/>
     </row>
-    <row r="1016" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1016" s="1"/>
       <c r="B1016" s="25"/>
       <c r="C1016" s="1"/>
@@ -31018,7 +31026,7 @@
       <c r="Z1016" s="1"/>
       <c r="AA1016" s="1"/>
     </row>
-    <row r="1017" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1017" s="1"/>
       <c r="B1017" s="25"/>
       <c r="C1017" s="1"/>
@@ -31047,7 +31055,7 @@
       <c r="Z1017" s="1"/>
       <c r="AA1017" s="1"/>
     </row>
-    <row r="1018" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1018" s="1"/>
       <c r="B1018" s="25"/>
       <c r="C1018" s="1"/>
@@ -31076,7 +31084,7 @@
       <c r="Z1018" s="1"/>
       <c r="AA1018" s="1"/>
     </row>
-    <row r="1019" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1019" s="1"/>
       <c r="B1019" s="25"/>
       <c r="C1019" s="1"/>
@@ -31105,7 +31113,7 @@
       <c r="Z1019" s="1"/>
       <c r="AA1019" s="1"/>
     </row>
-    <row r="1020" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1020" s="1"/>
       <c r="B1020" s="25"/>
       <c r="C1020" s="1"/>
@@ -31134,7 +31142,7 @@
       <c r="Z1020" s="1"/>
       <c r="AA1020" s="1"/>
     </row>
-    <row r="1021" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1021" s="1"/>
       <c r="B1021" s="25"/>
       <c r="C1021" s="1"/>
@@ -31163,7 +31171,7 @@
       <c r="Z1021" s="1"/>
       <c r="AA1021" s="1"/>
     </row>
-    <row r="1022" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1022" s="1"/>
       <c r="B1022" s="25"/>
       <c r="C1022" s="1"/>
@@ -31192,7 +31200,7 @@
       <c r="Z1022" s="1"/>
       <c r="AA1022" s="1"/>
     </row>
-    <row r="1023" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1023" s="1"/>
       <c r="B1023" s="25"/>
       <c r="C1023" s="1"/>
@@ -31221,7 +31229,7 @@
       <c r="Z1023" s="1"/>
       <c r="AA1023" s="1"/>
     </row>
-    <row r="1024" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1024" s="1"/>
       <c r="B1024" s="25"/>
       <c r="C1024" s="1"/>
@@ -31250,7 +31258,7 @@
       <c r="Z1024" s="1"/>
       <c r="AA1024" s="1"/>
     </row>
-    <row r="1025" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1025" s="1"/>
       <c r="B1025" s="25"/>
       <c r="C1025" s="1"/>
@@ -31279,7 +31287,7 @@
       <c r="Z1025" s="1"/>
       <c r="AA1025" s="1"/>
     </row>
-    <row r="1026" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1026" s="1"/>
       <c r="B1026" s="25"/>
       <c r="C1026" s="1"/>
@@ -31308,7 +31316,7 @@
       <c r="Z1026" s="1"/>
       <c r="AA1026" s="1"/>
     </row>
-    <row r="1027" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1027" s="1"/>
       <c r="B1027" s="25"/>
       <c r="C1027" s="1"/>
@@ -31337,7 +31345,7 @@
       <c r="Z1027" s="1"/>
       <c r="AA1027" s="1"/>
     </row>
-    <row r="1028" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1028" s="1"/>
       <c r="B1028" s="25"/>
       <c r="C1028" s="1"/>
@@ -31366,7 +31374,7 @@
       <c r="Z1028" s="1"/>
       <c r="AA1028" s="1"/>
     </row>
-    <row r="1029" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1029" s="1"/>
       <c r="B1029" s="25"/>
       <c r="C1029" s="1"/>
@@ -31395,7 +31403,7 @@
       <c r="Z1029" s="1"/>
       <c r="AA1029" s="1"/>
     </row>
-    <row r="1030" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1030" s="1"/>
       <c r="B1030" s="25"/>
       <c r="C1030" s="1"/>
@@ -31424,7 +31432,7 @@
       <c r="Z1030" s="1"/>
       <c r="AA1030" s="1"/>
     </row>
-    <row r="1031" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1031" s="1"/>
       <c r="B1031" s="25"/>
       <c r="C1031" s="1"/>
@@ -31455,5 +31463,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>